--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="271">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -27,7 +27,7 @@
     <t>: Perfectly working user tested or specified by Wacom</t>
   </si>
   <si>
-    <t>If any of the highlighted features are not listed, those features do not detect at all or the pen in question does not support these features.</t>
+    <t>If any of the highlighted features are not listed, those features do not detect at all or the pen in question does not support these features. If there is a ? instead of a number, the tester was unable to test that feature.</t>
   </si>
   <si>
     <t>: User tested to not work</t>
@@ -570,6 +570,9 @@
     <t>PTK-450</t>
   </si>
   <si>
+    <t>L0 P1 B?</t>
+  </si>
+  <si>
     <t>PTH-650</t>
   </si>
   <si>
@@ -768,7 +771,7 @@
     <t>List of everyone who has helped with this sheet:</t>
   </si>
   <si>
-    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050</t>
+    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, senya</t>
   </si>
   <si>
     <r>
@@ -800,6 +803,9 @@
   </si>
   <si>
     <t>Saya</t>
+  </si>
+  <si>
+    <t>senya</t>
   </si>
   <si>
     <t>lerh050</t>
@@ -1227,7 +1233,7 @@
     <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -8354,7 +8360,9 @@
       <c r="B73" s="20"/>
       <c r="C73" s="18"/>
       <c r="D73" s="55"/>
-      <c r="E73" s="18"/>
+      <c r="E73" s="54" t="s">
+        <v>185</v>
+      </c>
       <c r="F73" s="18"/>
       <c r="G73" s="20"/>
       <c r="H73" s="18"/>
@@ -8448,7 +8456,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="18"/>
@@ -8553,7 +8561,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="18"/>
@@ -8652,11 +8660,11 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D76" s="55"/>
       <c r="E76" s="56" t="s">
@@ -8759,19 +8767,19 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D77" s="54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="28"/>
@@ -8798,10 +8806,10 @@
       <c r="AB77" s="23"/>
       <c r="AC77" s="33"/>
       <c r="AD77" s="57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE77" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
@@ -8870,7 +8878,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -8969,7 +8977,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -9068,7 +9076,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -9167,22 +9175,22 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" s="54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81" s="54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F81" s="54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -9208,10 +9216,10 @@
       <c r="AB81" s="23"/>
       <c r="AC81" s="33"/>
       <c r="AD81" s="57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE81" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF81" s="20"/>
       <c r="AG81" s="20"/>
@@ -9280,7 +9288,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -9379,7 +9387,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -9478,7 +9486,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -9577,7 +9585,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -9676,7 +9684,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -9775,7 +9783,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -9874,7 +9882,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -9973,7 +9981,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -10072,7 +10080,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -10171,7 +10179,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -10270,7 +10278,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -10369,7 +10377,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -10468,7 +10476,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -10567,7 +10575,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -10666,7 +10674,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -10765,7 +10773,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -10864,7 +10872,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -10963,7 +10971,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -11062,7 +11070,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -11161,7 +11169,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -11260,7 +11268,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -11359,7 +11367,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -11458,7 +11466,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -11557,7 +11565,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -11656,7 +11664,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B106" s="28"/>
       <c r="C106" s="18"/>
@@ -11755,7 +11763,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -11854,7 +11862,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -11953,7 +11961,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -12052,7 +12060,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -12151,7 +12159,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -12249,7 +12257,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -12347,7 +12355,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -12446,7 +12454,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -12545,7 +12553,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -12644,7 +12652,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -12743,7 +12751,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -12842,7 +12850,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -12941,7 +12949,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -13040,7 +13048,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -13139,7 +13147,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -13238,7 +13246,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -13337,7 +13345,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -13436,7 +13444,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -13535,7 +13543,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -13634,7 +13642,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -13733,7 +13741,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -13832,7 +13840,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -13931,7 +13939,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -14030,7 +14038,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -14129,7 +14137,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -14228,7 +14236,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -14327,7 +14335,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -14426,7 +14434,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
@@ -14525,7 +14533,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -14624,7 +14632,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
@@ -18025,7 +18033,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P1" s="61"/>
       <c r="Q1" s="61"/>
@@ -18110,7 +18118,7 @@
     </row>
     <row r="2" ht="27.0" customHeight="1">
       <c r="B2" s="63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -18277,7 +18285,7 @@
     </row>
     <row r="4">
       <c r="B4" s="61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
@@ -18647,30 +18655,30 @@
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I6" s="67"/>
       <c r="J6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
       <c r="N6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O6" s="67"/>
       <c r="P6" s="67"/>
@@ -18687,19 +18695,19 @@
       <c r="AA6" s="67"/>
       <c r="AB6" s="67"/>
       <c r="AC6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF6" s="67"/>
       <c r="AG6" s="67"/>
       <c r="AH6" s="67"/>
       <c r="AI6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ6" s="67"/>
       <c r="AK6" s="67"/>
@@ -18707,30 +18715,30 @@
       <c r="AM6" s="67"/>
       <c r="AN6" s="67"/>
       <c r="AO6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP6" s="67"/>
       <c r="AQ6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR6" s="67"/>
       <c r="AS6" s="67"/>
       <c r="AT6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU6" s="67"/>
       <c r="AV6" s="67"/>
       <c r="AW6" s="67"/>
       <c r="AX6" s="67"/>
       <c r="AY6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ6" s="67"/>
       <c r="BA6" s="67"/>
       <c r="BB6" s="67"/>
       <c r="BC6" s="67"/>
       <c r="BD6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE6" s="67"/>
       <c r="BF6" s="67"/>
@@ -18738,7 +18746,7 @@
       <c r="BH6" s="67"/>
       <c r="BI6" s="67"/>
       <c r="BJ6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK6" s="67"/>
       <c r="BL6" s="67"/>
@@ -18755,24 +18763,24 @@
       <c r="BW6" s="67"/>
       <c r="BX6" s="67"/>
       <c r="BY6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ6" s="67"/>
       <c r="CA6" s="67"/>
       <c r="CB6" s="67"/>
       <c r="CC6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD6" s="67"/>
       <c r="CE6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF6" s="67"/>
       <c r="CG6" s="67"/>
       <c r="CH6" s="67"/>
       <c r="CI6" s="67"/>
       <c r="CJ6" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK6" s="67"/>
       <c r="CL6" s="67"/>
@@ -19183,31 +19191,31 @@
         <v>125</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="67"/>
       <c r="E11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O11" s="67"/>
       <c r="P11" s="67"/>
@@ -19224,19 +19232,19 @@
       <c r="AA11" s="67"/>
       <c r="AB11" s="67"/>
       <c r="AC11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF11" s="67"/>
       <c r="AG11" s="67"/>
       <c r="AH11" s="67"/>
       <c r="AI11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ11" s="67"/>
       <c r="AK11" s="67"/>
@@ -19244,30 +19252,30 @@
       <c r="AM11" s="67"/>
       <c r="AN11" s="67"/>
       <c r="AO11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP11" s="67"/>
       <c r="AQ11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR11" s="67"/>
       <c r="AS11" s="67"/>
       <c r="AT11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU11" s="67"/>
       <c r="AV11" s="67"/>
       <c r="AW11" s="67"/>
       <c r="AX11" s="67"/>
       <c r="AY11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ11" s="67"/>
       <c r="BA11" s="67"/>
       <c r="BB11" s="67"/>
       <c r="BC11" s="67"/>
       <c r="BD11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE11" s="67"/>
       <c r="BF11" s="67"/>
@@ -19275,7 +19283,7 @@
       <c r="BH11" s="67"/>
       <c r="BI11" s="67"/>
       <c r="BJ11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK11" s="67"/>
       <c r="BL11" s="67"/>
@@ -19292,24 +19300,24 @@
       <c r="BW11" s="67"/>
       <c r="BX11" s="67"/>
       <c r="BY11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ11" s="67"/>
       <c r="CA11" s="67"/>
       <c r="CB11" s="67"/>
       <c r="CC11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD11" s="67"/>
       <c r="CE11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF11" s="67"/>
       <c r="CG11" s="67"/>
       <c r="CH11" s="67"/>
       <c r="CI11" s="67"/>
       <c r="CJ11" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK11" s="67"/>
       <c r="CL11" s="67"/>
@@ -19522,13 +19530,13 @@
         <v>128</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -19540,7 +19548,7 @@
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
       <c r="N14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="67"/>
@@ -19557,19 +19565,19 @@
       <c r="AA14" s="67"/>
       <c r="AB14" s="67"/>
       <c r="AC14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF14" s="67"/>
       <c r="AG14" s="67"/>
       <c r="AH14" s="67"/>
       <c r="AI14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ14" s="67"/>
       <c r="AK14" s="67"/>
@@ -19577,30 +19585,30 @@
       <c r="AM14" s="67"/>
       <c r="AN14" s="67"/>
       <c r="AO14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP14" s="67"/>
       <c r="AQ14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR14" s="67"/>
       <c r="AS14" s="67"/>
       <c r="AT14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU14" s="67"/>
       <c r="AV14" s="67"/>
       <c r="AW14" s="67"/>
       <c r="AX14" s="67"/>
       <c r="AY14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ14" s="67"/>
       <c r="BA14" s="67"/>
       <c r="BB14" s="67"/>
       <c r="BC14" s="67"/>
       <c r="BD14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE14" s="67"/>
       <c r="BF14" s="67"/>
@@ -19608,7 +19616,7 @@
       <c r="BH14" s="67"/>
       <c r="BI14" s="67"/>
       <c r="BJ14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK14" s="67"/>
       <c r="BL14" s="67"/>
@@ -19625,24 +19633,24 @@
       <c r="BW14" s="67"/>
       <c r="BX14" s="67"/>
       <c r="BY14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ14" s="67"/>
       <c r="CA14" s="67"/>
       <c r="CB14" s="67"/>
       <c r="CC14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD14" s="67"/>
       <c r="CE14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF14" s="67"/>
       <c r="CG14" s="67"/>
       <c r="CH14" s="67"/>
       <c r="CI14" s="67"/>
       <c r="CJ14" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK14" s="67"/>
       <c r="CL14" s="67"/>
@@ -19954,31 +19962,31 @@
         <v>132</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
       <c r="E18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I18" s="67"/>
       <c r="J18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
       <c r="N18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O18" s="67"/>
       <c r="P18" s="67"/>
@@ -19995,19 +20003,19 @@
       <c r="AA18" s="67"/>
       <c r="AB18" s="67"/>
       <c r="AC18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF18" s="67"/>
       <c r="AG18" s="67"/>
       <c r="AH18" s="67"/>
       <c r="AI18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ18" s="67"/>
       <c r="AK18" s="67"/>
@@ -20015,30 +20023,30 @@
       <c r="AM18" s="67"/>
       <c r="AN18" s="67"/>
       <c r="AO18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP18" s="67"/>
       <c r="AQ18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR18" s="67"/>
       <c r="AS18" s="67"/>
       <c r="AT18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU18" s="67"/>
       <c r="AV18" s="67"/>
       <c r="AW18" s="67"/>
       <c r="AX18" s="67"/>
       <c r="AY18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ18" s="67"/>
       <c r="BA18" s="67"/>
       <c r="BB18" s="67"/>
       <c r="BC18" s="67"/>
       <c r="BD18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE18" s="67"/>
       <c r="BF18" s="67"/>
@@ -20046,7 +20054,7 @@
       <c r="BH18" s="67"/>
       <c r="BI18" s="67"/>
       <c r="BJ18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK18" s="67"/>
       <c r="BL18" s="67"/>
@@ -20063,24 +20071,24 @@
       <c r="BW18" s="67"/>
       <c r="BX18" s="67"/>
       <c r="BY18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ18" s="67"/>
       <c r="CA18" s="67"/>
       <c r="CB18" s="67"/>
       <c r="CC18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD18" s="67"/>
       <c r="CE18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF18" s="67"/>
       <c r="CG18" s="67"/>
       <c r="CH18" s="67"/>
       <c r="CI18" s="67"/>
       <c r="CJ18" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK18" s="67"/>
       <c r="CL18" s="67"/>
@@ -20194,13 +20202,13 @@
         <v>134</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E20" s="67"/>
       <c r="F20" s="67"/>
@@ -20212,7 +20220,7 @@
       <c r="L20" s="67"/>
       <c r="M20" s="67"/>
       <c r="N20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O20" s="67"/>
       <c r="P20" s="67"/>
@@ -20229,19 +20237,19 @@
       <c r="AA20" s="67"/>
       <c r="AB20" s="67"/>
       <c r="AC20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF20" s="67"/>
       <c r="AG20" s="67"/>
       <c r="AH20" s="67"/>
       <c r="AI20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ20" s="67"/>
       <c r="AK20" s="67"/>
@@ -20249,30 +20257,30 @@
       <c r="AM20" s="67"/>
       <c r="AN20" s="67"/>
       <c r="AO20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP20" s="67"/>
       <c r="AQ20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR20" s="67"/>
       <c r="AS20" s="67"/>
       <c r="AT20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU20" s="67"/>
       <c r="AV20" s="67"/>
       <c r="AW20" s="67"/>
       <c r="AX20" s="67"/>
       <c r="AY20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ20" s="67"/>
       <c r="BA20" s="67"/>
       <c r="BB20" s="67"/>
       <c r="BC20" s="67"/>
       <c r="BD20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE20" s="67"/>
       <c r="BF20" s="67"/>
@@ -20280,7 +20288,7 @@
       <c r="BH20" s="67"/>
       <c r="BI20" s="67"/>
       <c r="BJ20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK20" s="67"/>
       <c r="BL20" s="67"/>
@@ -20297,24 +20305,24 @@
       <c r="BW20" s="67"/>
       <c r="BX20" s="67"/>
       <c r="BY20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ20" s="67"/>
       <c r="CA20" s="67"/>
       <c r="CB20" s="67"/>
       <c r="CC20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD20" s="67"/>
       <c r="CE20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF20" s="67"/>
       <c r="CG20" s="67"/>
       <c r="CH20" s="67"/>
       <c r="CI20" s="67"/>
       <c r="CJ20" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK20" s="67"/>
       <c r="CL20" s="67"/>
@@ -20357,14 +20365,14 @@
       <c r="AB21" s="67"/>
       <c r="AC21" s="68"/>
       <c r="AD21" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
       <c r="AG21" s="67"/>
       <c r="AH21" s="67"/>
       <c r="AI21" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ21" s="67"/>
       <c r="AK21" s="67"/>
@@ -20377,7 +20385,7 @@
       <c r="AR21" s="67"/>
       <c r="AS21" s="67"/>
       <c r="AT21" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AU21" s="67"/>
       <c r="AV21" s="67"/>
@@ -20434,13 +20442,13 @@
         <v>136</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
@@ -20452,7 +20460,7 @@
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
       <c r="N22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O22" s="67"/>
       <c r="P22" s="67"/>
@@ -20469,19 +20477,19 @@
       <c r="AA22" s="67"/>
       <c r="AB22" s="67"/>
       <c r="AC22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF22" s="67"/>
       <c r="AG22" s="67"/>
       <c r="AH22" s="67"/>
       <c r="AI22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ22" s="67"/>
       <c r="AK22" s="67"/>
@@ -20489,30 +20497,30 @@
       <c r="AM22" s="67"/>
       <c r="AN22" s="67"/>
       <c r="AO22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP22" s="67"/>
       <c r="AQ22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR22" s="67"/>
       <c r="AS22" s="67"/>
       <c r="AT22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU22" s="67"/>
       <c r="AV22" s="67"/>
       <c r="AW22" s="67"/>
       <c r="AX22" s="67"/>
       <c r="AY22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ22" s="67"/>
       <c r="BA22" s="67"/>
       <c r="BB22" s="67"/>
       <c r="BC22" s="67"/>
       <c r="BD22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE22" s="67"/>
       <c r="BF22" s="67"/>
@@ -20520,7 +20528,7 @@
       <c r="BH22" s="67"/>
       <c r="BI22" s="67"/>
       <c r="BJ22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK22" s="67"/>
       <c r="BL22" s="67"/>
@@ -20537,24 +20545,24 @@
       <c r="BW22" s="67"/>
       <c r="BX22" s="67"/>
       <c r="BY22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ22" s="67"/>
       <c r="CA22" s="67"/>
       <c r="CB22" s="67"/>
       <c r="CC22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD22" s="67"/>
       <c r="CE22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF22" s="67"/>
       <c r="CG22" s="67"/>
       <c r="CH22" s="67"/>
       <c r="CI22" s="67"/>
       <c r="CJ22" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK22" s="67"/>
       <c r="CL22" s="67"/>
@@ -20569,7 +20577,7 @@
         <v>137</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
@@ -20620,7 +20628,7 @@
       <c r="AW23" s="67"/>
       <c r="AX23" s="67"/>
       <c r="AY23" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AZ23" s="67"/>
       <c r="BA23" s="67"/>
@@ -20969,13 +20977,13 @@
         <v>141</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
@@ -20987,7 +20995,7 @@
       <c r="L27" s="67"/>
       <c r="M27" s="67"/>
       <c r="N27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O27" s="67"/>
       <c r="P27" s="67"/>
@@ -21004,19 +21012,19 @@
       <c r="AA27" s="67"/>
       <c r="AB27" s="67"/>
       <c r="AC27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF27" s="67"/>
       <c r="AG27" s="67"/>
       <c r="AH27" s="67"/>
       <c r="AI27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ27" s="67"/>
       <c r="AK27" s="67"/>
@@ -21024,30 +21032,30 @@
       <c r="AM27" s="67"/>
       <c r="AN27" s="67"/>
       <c r="AO27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP27" s="67"/>
       <c r="AQ27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR27" s="67"/>
       <c r="AS27" s="67"/>
       <c r="AT27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU27" s="67"/>
       <c r="AV27" s="67"/>
       <c r="AW27" s="67"/>
       <c r="AX27" s="67"/>
       <c r="AY27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ27" s="67"/>
       <c r="BA27" s="67"/>
       <c r="BB27" s="67"/>
       <c r="BC27" s="67"/>
       <c r="BD27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE27" s="67"/>
       <c r="BF27" s="67"/>
@@ -21055,7 +21063,7 @@
       <c r="BH27" s="67"/>
       <c r="BI27" s="67"/>
       <c r="BJ27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK27" s="67"/>
       <c r="BL27" s="67"/>
@@ -21072,24 +21080,24 @@
       <c r="BW27" s="67"/>
       <c r="BX27" s="67"/>
       <c r="BY27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ27" s="67"/>
       <c r="CA27" s="67"/>
       <c r="CB27" s="67"/>
       <c r="CC27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD27" s="67"/>
       <c r="CE27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF27" s="67"/>
       <c r="CG27" s="67"/>
       <c r="CH27" s="67"/>
       <c r="CI27" s="67"/>
       <c r="CJ27" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK27" s="67"/>
       <c r="CL27" s="67"/>
@@ -21203,13 +21211,13 @@
         <v>143</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -21221,7 +21229,7 @@
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
       <c r="N29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" s="67"/>
       <c r="P29" s="67"/>
@@ -21238,19 +21246,19 @@
       <c r="AA29" s="67"/>
       <c r="AB29" s="67"/>
       <c r="AC29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF29" s="67"/>
       <c r="AG29" s="67"/>
       <c r="AH29" s="67"/>
       <c r="AI29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ29" s="67"/>
       <c r="AK29" s="67"/>
@@ -21258,30 +21266,30 @@
       <c r="AM29" s="67"/>
       <c r="AN29" s="67"/>
       <c r="AO29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP29" s="67"/>
       <c r="AQ29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR29" s="67"/>
       <c r="AS29" s="67"/>
       <c r="AT29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU29" s="67"/>
       <c r="AV29" s="67"/>
       <c r="AW29" s="67"/>
       <c r="AX29" s="67"/>
       <c r="AY29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ29" s="67"/>
       <c r="BA29" s="67"/>
       <c r="BB29" s="67"/>
       <c r="BC29" s="67"/>
       <c r="BD29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE29" s="67"/>
       <c r="BF29" s="67"/>
@@ -21289,7 +21297,7 @@
       <c r="BH29" s="67"/>
       <c r="BI29" s="67"/>
       <c r="BJ29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK29" s="67"/>
       <c r="BL29" s="67"/>
@@ -21306,24 +21314,24 @@
       <c r="BW29" s="67"/>
       <c r="BX29" s="67"/>
       <c r="BY29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ29" s="67"/>
       <c r="CA29" s="67"/>
       <c r="CB29" s="67"/>
       <c r="CC29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD29" s="67"/>
       <c r="CE29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF29" s="67"/>
       <c r="CG29" s="67"/>
       <c r="CH29" s="67"/>
       <c r="CI29" s="67"/>
       <c r="CJ29" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK29" s="67"/>
       <c r="CL29" s="67"/>
@@ -21437,280 +21445,280 @@
         <v>145</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB31" s="67"/>
       <c r="AC31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AH31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AQ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AS31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AT31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AV31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AW31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AX31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AY31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BA31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BB31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BC31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BD31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BF31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BG31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BH31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BI31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BJ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BL31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BM31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BN31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BO31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BP31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BQ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BR31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BS31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BT31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BU31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BV31" s="67"/>
       <c r="BW31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BX31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BY31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CA31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CB31" s="67"/>
       <c r="CC31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CE31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CG31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CH31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CI31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CJ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CL31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CM31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CN31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CO31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CP31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CQ31" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
@@ -21817,30 +21825,30 @@
         <v>147</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I33" s="67"/>
       <c r="J33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L33" s="67"/>
       <c r="M33" s="67"/>
@@ -21860,19 +21868,19 @@
       <c r="AA33" s="67"/>
       <c r="AB33" s="67"/>
       <c r="AC33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF33" s="67"/>
       <c r="AG33" s="67"/>
       <c r="AH33" s="67"/>
       <c r="AI33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ33" s="67"/>
       <c r="AK33" s="67"/>
@@ -21880,30 +21888,30 @@
       <c r="AM33" s="67"/>
       <c r="AN33" s="67"/>
       <c r="AO33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP33" s="67"/>
       <c r="AQ33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR33" s="67"/>
       <c r="AS33" s="67"/>
       <c r="AT33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU33" s="67"/>
       <c r="AV33" s="67"/>
       <c r="AW33" s="67"/>
       <c r="AX33" s="67"/>
       <c r="AY33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ33" s="67"/>
       <c r="BA33" s="67"/>
       <c r="BB33" s="67"/>
       <c r="BC33" s="67"/>
       <c r="BD33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE33" s="67"/>
       <c r="BF33" s="67"/>
@@ -21911,7 +21919,7 @@
       <c r="BH33" s="67"/>
       <c r="BI33" s="67"/>
       <c r="BJ33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK33" s="67"/>
       <c r="BL33" s="67"/>
@@ -21928,24 +21936,24 @@
       <c r="BW33" s="67"/>
       <c r="BX33" s="67"/>
       <c r="BY33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ33" s="67"/>
       <c r="CA33" s="67"/>
       <c r="CB33" s="67"/>
       <c r="CC33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD33" s="67"/>
       <c r="CE33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF33" s="67"/>
       <c r="CG33" s="67"/>
       <c r="CH33" s="67"/>
       <c r="CI33" s="67"/>
       <c r="CJ33" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK33" s="67"/>
       <c r="CL33" s="67"/>
@@ -23571,7 +23579,7 @@
       <c r="AA50" s="67"/>
       <c r="AB50" s="67"/>
       <c r="AC50" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD50" s="67"/>
       <c r="AE50" s="67"/>
@@ -24633,35 +24641,35 @@
         <v>174</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F61" s="67"/>
       <c r="G61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I61" s="67"/>
       <c r="J61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L61" s="67"/>
       <c r="M61" s="67"/>
       <c r="N61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O61" s="67"/>
       <c r="P61" s="67"/>
@@ -24678,7 +24686,7 @@
       <c r="AA61" s="67"/>
       <c r="AB61" s="67"/>
       <c r="AC61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD61" s="67"/>
       <c r="AE61" s="67"/>
@@ -24692,30 +24700,30 @@
       <c r="AM61" s="67"/>
       <c r="AN61" s="67"/>
       <c r="AO61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP61" s="67"/>
       <c r="AQ61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR61" s="67"/>
       <c r="AS61" s="67"/>
       <c r="AT61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU61" s="67"/>
       <c r="AV61" s="67"/>
       <c r="AW61" s="67"/>
       <c r="AX61" s="67"/>
       <c r="AY61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ61" s="67"/>
       <c r="BA61" s="67"/>
       <c r="BB61" s="67"/>
       <c r="BC61" s="67"/>
       <c r="BD61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE61" s="67"/>
       <c r="BF61" s="67"/>
@@ -24723,7 +24731,7 @@
       <c r="BH61" s="67"/>
       <c r="BI61" s="67"/>
       <c r="BJ61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK61" s="67"/>
       <c r="BL61" s="67"/>
@@ -24740,24 +24748,24 @@
       <c r="BW61" s="67"/>
       <c r="BX61" s="67"/>
       <c r="BY61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ61" s="67"/>
       <c r="CA61" s="67"/>
       <c r="CB61" s="67"/>
       <c r="CC61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD61" s="67"/>
       <c r="CE61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF61" s="67"/>
       <c r="CG61" s="67"/>
       <c r="CH61" s="67"/>
       <c r="CI61" s="67"/>
       <c r="CJ61" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK61" s="67"/>
       <c r="CL61" s="67"/>
@@ -24776,7 +24784,7 @@
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
       <c r="F62" s="68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
@@ -24801,7 +24809,7 @@
       <c r="AA62" s="67"/>
       <c r="AB62" s="67"/>
       <c r="AC62" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD62" s="67"/>
       <c r="AE62" s="67"/>
@@ -24902,7 +24910,7 @@
       <c r="AA63" s="67"/>
       <c r="AB63" s="67"/>
       <c r="AC63" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD63" s="67"/>
       <c r="AE63" s="67"/>
@@ -24978,10 +24986,10 @@
       <c r="B64" s="67"/>
       <c r="C64" s="67"/>
       <c r="D64" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F64" s="67"/>
       <c r="G64" s="67"/>
@@ -25378,7 +25386,9 @@
       <c r="B68" s="67"/>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
+      <c r="E68" s="68" t="s">
+        <v>258</v>
+      </c>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
       <c r="H68" s="67"/>
@@ -25472,20 +25482,20 @@
     </row>
     <row r="69">
       <c r="A69" s="65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B69" s="67"/>
       <c r="C69" s="68"/>
       <c r="D69" s="67"/>
       <c r="E69" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G69" s="67"/>
       <c r="H69" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="67"/>
@@ -25577,7 +25587,7 @@
     </row>
     <row r="70">
       <c r="A70" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B70" s="67"/>
       <c r="C70" s="67"/>
@@ -25676,22 +25686,22 @@
     </row>
     <row r="71">
       <c r="A71" s="65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" s="67"/>
       <c r="C71" s="68" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D71" s="67"/>
       <c r="E71" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G71" s="67"/>
       <c r="H71" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I71" s="67"/>
       <c r="J71" s="67"/>
@@ -25783,38 +25793,38 @@
     </row>
     <row r="72">
       <c r="A72" s="65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F72" s="67"/>
       <c r="G72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I72" s="67"/>
       <c r="J72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L72" s="67"/>
       <c r="M72" s="67"/>
       <c r="N72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O72" s="67"/>
       <c r="P72" s="67"/>
@@ -25831,13 +25841,13 @@
       <c r="AA72" s="67"/>
       <c r="AB72" s="67"/>
       <c r="AC72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF72" s="67"/>
       <c r="AG72" s="67"/>
@@ -25849,30 +25859,30 @@
       <c r="AM72" s="67"/>
       <c r="AN72" s="67"/>
       <c r="AO72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP72" s="67"/>
       <c r="AQ72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR72" s="67"/>
       <c r="AS72" s="67"/>
       <c r="AT72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU72" s="67"/>
       <c r="AV72" s="67"/>
       <c r="AW72" s="67"/>
       <c r="AX72" s="67"/>
       <c r="AY72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ72" s="67"/>
       <c r="BA72" s="67"/>
       <c r="BB72" s="67"/>
       <c r="BC72" s="67"/>
       <c r="BD72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE72" s="67"/>
       <c r="BF72" s="67"/>
@@ -25880,7 +25890,7 @@
       <c r="BH72" s="67"/>
       <c r="BI72" s="67"/>
       <c r="BJ72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK72" s="67"/>
       <c r="BL72" s="67"/>
@@ -25897,7 +25907,7 @@
       <c r="BW72" s="67"/>
       <c r="BX72" s="67"/>
       <c r="BY72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ72" s="67"/>
       <c r="CA72" s="67"/>
@@ -25905,14 +25915,14 @@
       <c r="CC72" s="67"/>
       <c r="CD72" s="67"/>
       <c r="CE72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF72" s="67"/>
       <c r="CG72" s="67"/>
       <c r="CH72" s="67"/>
       <c r="CI72" s="67"/>
       <c r="CJ72" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK72" s="67"/>
       <c r="CL72" s="67"/>
@@ -25924,7 +25934,7 @@
     </row>
     <row r="73">
       <c r="A73" s="65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67"/>
@@ -26023,7 +26033,7 @@
     </row>
     <row r="74">
       <c r="A74" s="65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="67"/>
       <c r="C74" s="67"/>
@@ -26122,7 +26132,7 @@
     </row>
     <row r="75">
       <c r="A75" s="65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B75" s="67"/>
       <c r="C75" s="67"/>
@@ -26221,42 +26231,42 @@
     </row>
     <row r="76">
       <c r="A76" s="65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I76" s="68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L76" s="67"/>
       <c r="M76" s="67"/>
       <c r="N76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O76" s="67"/>
       <c r="P76" s="67"/>
@@ -26273,13 +26283,13 @@
       <c r="AA76" s="67"/>
       <c r="AB76" s="67"/>
       <c r="AC76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF76" s="67"/>
       <c r="AG76" s="67"/>
@@ -26291,30 +26301,30 @@
       <c r="AM76" s="67"/>
       <c r="AN76" s="67"/>
       <c r="AO76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP76" s="67"/>
       <c r="AQ76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR76" s="67"/>
       <c r="AS76" s="67"/>
       <c r="AT76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU76" s="67"/>
       <c r="AV76" s="67"/>
       <c r="AW76" s="67"/>
       <c r="AX76" s="67"/>
       <c r="AY76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ76" s="67"/>
       <c r="BA76" s="67"/>
       <c r="BB76" s="67"/>
       <c r="BC76" s="67"/>
       <c r="BD76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE76" s="67"/>
       <c r="BF76" s="67"/>
@@ -26322,7 +26332,7 @@
       <c r="BH76" s="67"/>
       <c r="BI76" s="67"/>
       <c r="BJ76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK76" s="67"/>
       <c r="BL76" s="67"/>
@@ -26339,7 +26349,7 @@
       <c r="BW76" s="67"/>
       <c r="BX76" s="67"/>
       <c r="BY76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ76" s="67"/>
       <c r="CA76" s="67"/>
@@ -26347,14 +26357,14 @@
       <c r="CC76" s="67"/>
       <c r="CD76" s="67"/>
       <c r="CE76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF76" s="67"/>
       <c r="CG76" s="67"/>
       <c r="CH76" s="67"/>
       <c r="CI76" s="67"/>
       <c r="CJ76" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK76" s="67"/>
       <c r="CL76" s="67"/>
@@ -26366,7 +26376,7 @@
     </row>
     <row r="77">
       <c r="A77" s="65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B77" s="67"/>
       <c r="C77" s="67"/>
@@ -26465,38 +26475,38 @@
     </row>
     <row r="78">
       <c r="A78" s="65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F78" s="67"/>
       <c r="G78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L78" s="67"/>
       <c r="M78" s="67"/>
       <c r="N78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O78" s="67"/>
       <c r="P78" s="67"/>
@@ -26513,19 +26523,19 @@
       <c r="AA78" s="67"/>
       <c r="AB78" s="67"/>
       <c r="AC78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF78" s="67"/>
       <c r="AG78" s="67"/>
       <c r="AH78" s="67"/>
       <c r="AI78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ78" s="67"/>
       <c r="AK78" s="67"/>
@@ -26538,21 +26548,21 @@
       <c r="AR78" s="67"/>
       <c r="AS78" s="67"/>
       <c r="AT78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU78" s="67"/>
       <c r="AV78" s="67"/>
       <c r="AW78" s="67"/>
       <c r="AX78" s="67"/>
       <c r="AY78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ78" s="67"/>
       <c r="BA78" s="67"/>
       <c r="BB78" s="67"/>
       <c r="BC78" s="67"/>
       <c r="BD78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE78" s="67"/>
       <c r="BF78" s="67"/>
@@ -26560,7 +26570,7 @@
       <c r="BH78" s="67"/>
       <c r="BI78" s="67"/>
       <c r="BJ78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK78" s="67"/>
       <c r="BL78" s="67"/>
@@ -26577,13 +26587,13 @@
       <c r="BW78" s="67"/>
       <c r="BX78" s="67"/>
       <c r="BY78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ78" s="67"/>
       <c r="CA78" s="67"/>
       <c r="CB78" s="67"/>
       <c r="CC78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD78" s="67"/>
       <c r="CE78" s="67"/>
@@ -26592,7 +26602,7 @@
       <c r="CH78" s="67"/>
       <c r="CI78" s="67"/>
       <c r="CJ78" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK78" s="67"/>
       <c r="CL78" s="67"/>
@@ -26604,7 +26614,7 @@
     </row>
     <row r="79">
       <c r="A79" s="65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67"/>
@@ -26703,7 +26713,7 @@
     </row>
     <row r="80">
       <c r="A80" s="65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B80" s="67"/>
       <c r="C80" s="67"/>
@@ -26802,7 +26812,7 @@
     </row>
     <row r="81">
       <c r="A81" s="65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B81" s="67"/>
       <c r="C81" s="67"/>
@@ -26901,7 +26911,7 @@
     </row>
     <row r="82">
       <c r="A82" s="65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B82" s="67"/>
       <c r="C82" s="67"/>
@@ -27000,7 +27010,7 @@
     </row>
     <row r="83">
       <c r="A83" s="65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B83" s="67"/>
       <c r="C83" s="67"/>
@@ -27099,38 +27109,38 @@
     </row>
     <row r="84">
       <c r="A84" s="65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F84" s="67"/>
       <c r="G84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I84" s="67"/>
       <c r="J84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L84" s="67"/>
       <c r="M84" s="67"/>
       <c r="N84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O84" s="67"/>
       <c r="P84" s="67"/>
@@ -27147,19 +27157,19 @@
       <c r="AA84" s="67"/>
       <c r="AB84" s="67"/>
       <c r="AC84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF84" s="67"/>
       <c r="AG84" s="67"/>
       <c r="AH84" s="67"/>
       <c r="AI84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ84" s="67"/>
       <c r="AK84" s="67"/>
@@ -27167,23 +27177,23 @@
       <c r="AM84" s="67"/>
       <c r="AN84" s="67"/>
       <c r="AO84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP84" s="67"/>
       <c r="AQ84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR84" s="67"/>
       <c r="AS84" s="67"/>
       <c r="AT84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU84" s="67"/>
       <c r="AV84" s="67"/>
       <c r="AW84" s="67"/>
       <c r="AX84" s="67"/>
       <c r="AY84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AZ84" s="67"/>
       <c r="BA84" s="67"/>
@@ -27211,24 +27221,24 @@
       <c r="BW84" s="67"/>
       <c r="BX84" s="67"/>
       <c r="BY84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ84" s="67"/>
       <c r="CA84" s="67"/>
       <c r="CB84" s="67"/>
       <c r="CC84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD84" s="67"/>
       <c r="CE84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF84" s="67"/>
       <c r="CG84" s="67"/>
       <c r="CH84" s="67"/>
       <c r="CI84" s="67"/>
       <c r="CJ84" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CK84" s="67"/>
       <c r="CL84" s="67"/>
@@ -27240,7 +27250,7 @@
     </row>
     <row r="85">
       <c r="A85" s="65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67"/>
@@ -27270,7 +27280,7 @@
       <c r="AA85" s="67"/>
       <c r="AB85" s="67"/>
       <c r="AC85" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD85" s="67"/>
       <c r="AE85" s="67"/>
@@ -27341,7 +27351,7 @@
     </row>
     <row r="86">
       <c r="A86" s="65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B86" s="67"/>
       <c r="C86" s="67"/>
@@ -27440,7 +27450,7 @@
     </row>
     <row r="87">
       <c r="A87" s="65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B87" s="67"/>
       <c r="C87" s="67"/>
@@ -27539,7 +27549,7 @@
     </row>
     <row r="88">
       <c r="A88" s="65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B88" s="67"/>
       <c r="C88" s="67"/>
@@ -27638,7 +27648,7 @@
     </row>
     <row r="89">
       <c r="A89" s="65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B89" s="67"/>
       <c r="C89" s="67"/>
@@ -27737,7 +27747,7 @@
     </row>
     <row r="90">
       <c r="A90" s="65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B90" s="67"/>
       <c r="C90" s="67"/>
@@ -27836,7 +27846,7 @@
     </row>
     <row r="91">
       <c r="A91" s="65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67"/>
@@ -27935,7 +27945,7 @@
     </row>
     <row r="92">
       <c r="A92" s="65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B92" s="67"/>
       <c r="C92" s="67"/>
@@ -28034,7 +28044,7 @@
     </row>
     <row r="93">
       <c r="A93" s="65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B93" s="67"/>
       <c r="C93" s="67"/>
@@ -28133,7 +28143,7 @@
     </row>
     <row r="94">
       <c r="A94" s="65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B94" s="67"/>
       <c r="C94" s="67"/>
@@ -28232,38 +28242,38 @@
     </row>
     <row r="95">
       <c r="A95" s="65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F95" s="67"/>
       <c r="G95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I95" s="67"/>
       <c r="J95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L95" s="67"/>
       <c r="M95" s="67"/>
       <c r="N95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O95" s="67"/>
       <c r="P95" s="67"/>
@@ -28280,19 +28290,19 @@
       <c r="AA95" s="67"/>
       <c r="AB95" s="67"/>
       <c r="AC95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF95" s="67"/>
       <c r="AG95" s="67"/>
       <c r="AH95" s="67"/>
       <c r="AI95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ95" s="67"/>
       <c r="AK95" s="67"/>
@@ -28300,16 +28310,16 @@
       <c r="AM95" s="67"/>
       <c r="AN95" s="67"/>
       <c r="AO95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP95" s="67"/>
       <c r="AQ95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AR95" s="67"/>
       <c r="AS95" s="67"/>
       <c r="AT95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AU95" s="67"/>
       <c r="AV95" s="67"/>
@@ -28321,7 +28331,7 @@
       <c r="BB95" s="67"/>
       <c r="BC95" s="67"/>
       <c r="BD95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BE95" s="67"/>
       <c r="BF95" s="67"/>
@@ -28329,7 +28339,7 @@
       <c r="BH95" s="67"/>
       <c r="BI95" s="67"/>
       <c r="BJ95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK95" s="67"/>
       <c r="BL95" s="67"/>
@@ -28346,17 +28356,17 @@
       <c r="BW95" s="67"/>
       <c r="BX95" s="67"/>
       <c r="BY95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ95" s="67"/>
       <c r="CA95" s="67"/>
       <c r="CB95" s="67"/>
       <c r="CC95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CD95" s="67"/>
       <c r="CE95" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CF95" s="67"/>
       <c r="CG95" s="67"/>
@@ -28373,7 +28383,7 @@
     </row>
     <row r="96">
       <c r="A96" s="65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B96" s="67"/>
       <c r="C96" s="67"/>
@@ -28472,7 +28482,7 @@
     </row>
     <row r="97">
       <c r="A97" s="65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67"/>
@@ -28571,7 +28581,7 @@
     </row>
     <row r="98">
       <c r="A98" s="65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B98" s="67"/>
       <c r="C98" s="67"/>
@@ -28670,7 +28680,7 @@
     </row>
     <row r="99">
       <c r="A99" s="65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B99" s="67"/>
       <c r="C99" s="67"/>
@@ -28769,7 +28779,7 @@
     </row>
     <row r="100">
       <c r="A100" s="65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B100" s="67"/>
       <c r="C100" s="67"/>
@@ -28868,10 +28878,10 @@
     </row>
     <row r="101">
       <c r="A101" s="65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C101" s="67"/>
       <c r="D101" s="67"/>
@@ -28879,7 +28889,7 @@
       <c r="F101" s="67"/>
       <c r="G101" s="67"/>
       <c r="H101" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I101" s="67"/>
       <c r="J101" s="67"/>
@@ -28971,7 +28981,7 @@
     </row>
     <row r="102">
       <c r="A102" s="65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B102" s="67"/>
       <c r="C102" s="67"/>
@@ -29070,7 +29080,7 @@
     </row>
     <row r="103">
       <c r="A103" s="65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67"/>
@@ -29169,7 +29179,7 @@
     </row>
     <row r="104">
       <c r="A104" s="65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B104" s="67"/>
       <c r="C104" s="67"/>
@@ -29268,7 +29278,7 @@
     </row>
     <row r="105">
       <c r="A105" s="65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B105" s="67"/>
       <c r="C105" s="67"/>
@@ -29367,7 +29377,7 @@
     </row>
     <row r="106">
       <c r="A106" s="65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B106" s="67"/>
       <c r="C106" s="67"/>
@@ -29466,7 +29476,7 @@
     </row>
     <row r="107">
       <c r="A107" s="65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B107" s="67"/>
       <c r="C107" s="67"/>
@@ -29565,7 +29575,7 @@
     </row>
     <row r="108">
       <c r="A108" s="65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B108" s="67"/>
       <c r="C108" s="67"/>
@@ -29664,7 +29674,7 @@
     </row>
     <row r="109">
       <c r="A109" s="65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67"/>
@@ -29763,7 +29773,7 @@
     </row>
     <row r="110">
       <c r="A110" s="65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B110" s="67"/>
       <c r="C110" s="67"/>
@@ -29862,7 +29872,7 @@
     </row>
     <row r="111">
       <c r="A111" s="65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B111" s="67"/>
       <c r="C111" s="67"/>
@@ -29961,7 +29971,7 @@
     </row>
     <row r="112">
       <c r="A112" s="65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B112" s="67"/>
       <c r="C112" s="67"/>
@@ -30060,7 +30070,7 @@
     </row>
     <row r="113">
       <c r="A113" s="65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B113" s="67"/>
       <c r="C113" s="67"/>
@@ -30159,7 +30169,7 @@
     </row>
     <row r="114">
       <c r="A114" s="65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B114" s="67"/>
       <c r="C114" s="67"/>
@@ -30258,7 +30268,7 @@
     </row>
     <row r="115">
       <c r="A115" s="65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B115" s="67"/>
       <c r="C115" s="67"/>
@@ -30357,7 +30367,7 @@
     </row>
     <row r="116">
       <c r="A116" s="65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B116" s="67"/>
       <c r="C116" s="67"/>
@@ -30456,7 +30466,7 @@
     </row>
     <row r="117">
       <c r="A117" s="65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" s="67"/>
       <c r="C117" s="67"/>
@@ -30555,7 +30565,7 @@
     </row>
     <row r="118">
       <c r="A118" s="65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" s="67"/>
       <c r="C118" s="67"/>
@@ -30654,7 +30664,7 @@
     </row>
     <row r="119">
       <c r="A119" s="65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B119" s="67"/>
       <c r="C119" s="67"/>
@@ -30753,7 +30763,7 @@
     </row>
     <row r="120">
       <c r="A120" s="65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" s="67"/>
       <c r="C120" s="67"/>
@@ -30852,7 +30862,7 @@
     </row>
     <row r="121">
       <c r="A121" s="65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B121" s="67"/>
       <c r="C121" s="67"/>
@@ -30951,7 +30961,7 @@
     </row>
     <row r="122">
       <c r="A122" s="65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B122" s="67"/>
       <c r="C122" s="67"/>
@@ -31050,7 +31060,7 @@
     </row>
     <row r="123">
       <c r="A123" s="65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B123" s="67"/>
       <c r="C123" s="67"/>
@@ -31149,7 +31159,7 @@
     </row>
     <row r="124">
       <c r="A124" s="65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B124" s="67"/>
       <c r="C124" s="67"/>
@@ -31248,7 +31258,7 @@
     </row>
     <row r="125">
       <c r="A125" s="65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B125" s="67"/>
       <c r="C125" s="67"/>
@@ -31347,7 +31357,7 @@
     </row>
     <row r="126">
       <c r="A126" s="65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B126" s="67"/>
       <c r="C126" s="67"/>
@@ -31446,7 +31456,7 @@
     </row>
     <row r="127">
       <c r="A127" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="67"/>
       <c r="C127" s="67"/>
@@ -31545,7 +31555,7 @@
     </row>
     <row r="128">
       <c r="A128" s="65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="67"/>
       <c r="C128" s="67"/>
@@ -31644,7 +31654,7 @@
     </row>
     <row r="129">
       <c r="A129" s="65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B129" s="67"/>
       <c r="C129" s="67"/>
@@ -31743,7 +31753,7 @@
     </row>
     <row r="130">
       <c r="A130" s="65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B130" s="67"/>
       <c r="C130" s="67"/>
@@ -31842,7 +31852,7 @@
     </row>
     <row r="131">
       <c r="A131" s="65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B131" s="67"/>
       <c r="C131" s="67"/>
@@ -32643,17 +32653,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="70" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="71" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
@@ -32669,37 +32679,37 @@
     </row>
     <row r="6">
       <c r="A6" s="72" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="71" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="72" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -10126,7 +10126,7 @@
       <c r="AQ90" s="20"/>
       <c r="AR90" s="20"/>
       <c r="AS90" s="20"/>
-      <c r="AT90" s="20"/>
+      <c r="AT90" s="10"/>
       <c r="AU90" s="26"/>
       <c r="AV90" s="26"/>
       <c r="AW90" s="26"/>
@@ -10225,7 +10225,7 @@
       <c r="AQ91" s="20"/>
       <c r="AR91" s="20"/>
       <c r="AS91" s="20"/>
-      <c r="AT91" s="20"/>
+      <c r="AT91" s="10"/>
       <c r="AU91" s="26"/>
       <c r="AV91" s="26"/>
       <c r="AW91" s="26"/>
@@ -10324,7 +10324,7 @@
       <c r="AQ92" s="20"/>
       <c r="AR92" s="20"/>
       <c r="AS92" s="20"/>
-      <c r="AT92" s="20"/>
+      <c r="AT92" s="10"/>
       <c r="AU92" s="26"/>
       <c r="AV92" s="26"/>
       <c r="AW92" s="26"/>
@@ -10423,7 +10423,7 @@
       <c r="AQ93" s="20"/>
       <c r="AR93" s="20"/>
       <c r="AS93" s="20"/>
-      <c r="AT93" s="20"/>
+      <c r="AT93" s="10"/>
       <c r="AU93" s="26"/>
       <c r="AV93" s="26"/>
       <c r="AW93" s="26"/>
@@ -10522,7 +10522,7 @@
       <c r="AQ94" s="20"/>
       <c r="AR94" s="20"/>
       <c r="AS94" s="20"/>
-      <c r="AT94" s="20"/>
+      <c r="AT94" s="10"/>
       <c r="AU94" s="26"/>
       <c r="AV94" s="26"/>
       <c r="AW94" s="26"/>
@@ -10621,7 +10621,7 @@
       <c r="AQ95" s="20"/>
       <c r="AR95" s="20"/>
       <c r="AS95" s="20"/>
-      <c r="AT95" s="20"/>
+      <c r="AT95" s="10"/>
       <c r="AU95" s="26"/>
       <c r="AV95" s="26"/>
       <c r="AW95" s="26"/>
@@ -10720,7 +10720,7 @@
       <c r="AQ96" s="20"/>
       <c r="AR96" s="20"/>
       <c r="AS96" s="20"/>
-      <c r="AT96" s="20"/>
+      <c r="AT96" s="10"/>
       <c r="AU96" s="26"/>
       <c r="AV96" s="26"/>
       <c r="AW96" s="26"/>
@@ -10819,7 +10819,7 @@
       <c r="AQ97" s="20"/>
       <c r="AR97" s="20"/>
       <c r="AS97" s="20"/>
-      <c r="AT97" s="20"/>
+      <c r="AT97" s="10"/>
       <c r="AU97" s="26"/>
       <c r="AV97" s="26"/>
       <c r="AW97" s="26"/>
@@ -10918,7 +10918,7 @@
       <c r="AQ98" s="20"/>
       <c r="AR98" s="20"/>
       <c r="AS98" s="20"/>
-      <c r="AT98" s="20"/>
+      <c r="AT98" s="10"/>
       <c r="AU98" s="26"/>
       <c r="AV98" s="26"/>
       <c r="AW98" s="26"/>
@@ -11017,7 +11017,7 @@
       <c r="AQ99" s="20"/>
       <c r="AR99" s="20"/>
       <c r="AS99" s="20"/>
-      <c r="AT99" s="20"/>
+      <c r="AT99" s="10"/>
       <c r="AU99" s="26"/>
       <c r="AV99" s="26"/>
       <c r="AW99" s="26"/>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -12188,6 +12188,7 @@
       <c r="Z111" s="20"/>
       <c r="AA111" s="15"/>
       <c r="AB111" s="23"/>
+      <c r="AC111" s="31"/>
       <c r="AD111" s="31"/>
       <c r="AE111" s="18"/>
       <c r="AF111" s="20"/>
@@ -12286,6 +12287,7 @@
       <c r="Z112" s="20"/>
       <c r="AA112" s="15"/>
       <c r="AB112" s="23"/>
+      <c r="AC112" s="31"/>
       <c r="AD112" s="31"/>
       <c r="AE112" s="18"/>
       <c r="AF112" s="20"/>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="272">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -826,6 +826,9 @@
     <t>Kuuube's Wacom Pen Nib Guide</t>
   </si>
   <si>
+    <t>Kuuube's Wacom Pen Nib Compatibility Mastersheet</t>
+  </si>
+  <si>
     <t>Info</t>
   </si>
   <si>
@@ -848,7 +851,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -951,6 +954,18 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1209,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1336,6 +1351,12 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -32680,22 +32701,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="74" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="75" t="s">
         <v>267</v>
       </c>
     </row>
@@ -32714,30 +32735,37 @@
         <v>270</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="72" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A8:K8"/>
+  <mergeCells count="13">
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
     <hyperlink r:id="rId2" ref="A5"/>
     <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A9"/>
+    <hyperlink r:id="rId4" ref="A7"/>
     <hyperlink r:id="rId5" ref="A10"/>
     <hyperlink r:id="rId6" ref="A11"/>
     <hyperlink r:id="rId7" ref="A12"/>
+    <hyperlink r:id="rId8" ref="A13"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="271">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -568,9 +568,6 @@
   </si>
   <si>
     <t>PTK-450</t>
-  </si>
-  <si>
-    <t>L0 P1 B?</t>
   </si>
   <si>
     <t>PTH-650</t>
@@ -8381,8 +8378,8 @@
       <c r="B73" s="20"/>
       <c r="C73" s="18"/>
       <c r="D73" s="55"/>
-      <c r="E73" s="54" t="s">
-        <v>185</v>
+      <c r="E73" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="20"/>
@@ -8477,14 +8474,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="18"/>
       <c r="D74" s="55"/>
-      <c r="E74" s="56" t="s">
-        <v>180</v>
-      </c>
+      <c r="E74" s="18"/>
       <c r="F74" s="56" t="s">
         <v>180</v>
       </c>
@@ -8582,7 +8577,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="18"/>
@@ -8681,11 +8676,11 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="55"/>
       <c r="E76" s="56" t="s">
@@ -8788,19 +8783,19 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="C77" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="D77" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="28"/>
@@ -8827,10 +8822,10 @@
       <c r="AB77" s="23"/>
       <c r="AC77" s="33"/>
       <c r="AD77" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE77" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
@@ -8899,7 +8894,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -8998,7 +8993,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -9097,7 +9092,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -9196,22 +9191,22 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="54" t="s">
         <v>198</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="D81" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F81" s="54" t="s">
-        <v>199</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -9237,10 +9232,10 @@
       <c r="AB81" s="23"/>
       <c r="AC81" s="33"/>
       <c r="AD81" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE81" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF81" s="20"/>
       <c r="AG81" s="20"/>
@@ -9309,7 +9304,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -9408,7 +9403,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -9507,7 +9502,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -9606,7 +9601,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -9705,7 +9700,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -9804,7 +9799,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -9903,7 +9898,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -10002,7 +9997,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -10101,7 +10096,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -10200,7 +10195,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -10299,7 +10294,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -10398,7 +10393,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -10497,7 +10492,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -10596,7 +10591,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -10695,7 +10690,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -10794,7 +10789,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -10893,7 +10888,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -10992,7 +10987,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -11091,7 +11086,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -11190,7 +11185,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -11289,7 +11284,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -11388,7 +11383,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -11487,7 +11482,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -11586,7 +11581,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -11685,7 +11680,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="28"/>
       <c r="C106" s="18"/>
@@ -11784,7 +11779,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -11883,7 +11878,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -11982,7 +11977,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -12081,7 +12076,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -12180,7 +12175,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -12279,7 +12274,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -12378,7 +12373,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -12477,7 +12472,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -12576,7 +12571,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -12675,7 +12670,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -12774,7 +12769,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -12873,7 +12868,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -12972,7 +12967,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -13071,7 +13066,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -13170,7 +13165,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -13269,7 +13264,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -13368,7 +13363,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -13467,7 +13462,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -13566,7 +13561,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -13665,7 +13660,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -13764,7 +13759,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -13863,7 +13858,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -13962,7 +13957,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -14061,7 +14056,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -14160,7 +14155,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -14259,7 +14254,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -14358,7 +14353,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -14457,7 +14452,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
@@ -14556,7 +14551,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -14655,7 +14650,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
@@ -18009,6 +18004,8 @@
   <mergeCells count="24">
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AM4"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="K5:P5"/>
     <mergeCell ref="K6:P6"/>
@@ -18018,19 +18015,17 @@
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="Q6:V6"/>
     <mergeCell ref="W6:AB6"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AM4"/>
     <mergeCell ref="AC5:AH5"/>
     <mergeCell ref="AI5:AM5"/>
     <mergeCell ref="AC6:AH6"/>
     <mergeCell ref="AI6:AM6"/>
+    <mergeCell ref="C1:AM1"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="K2:AM2"/>
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="K3:AM3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="K2:AM2"/>
-    <mergeCell ref="C1:AM1"/>
-    <mergeCell ref="K3:AM3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -18056,7 +18051,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P1" s="61"/>
       <c r="Q1" s="61"/>
@@ -18141,7 +18136,7 @@
     </row>
     <row r="2" ht="27.0" customHeight="1">
       <c r="B2" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -18308,7 +18303,7 @@
     </row>
     <row r="4">
       <c r="B4" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
@@ -18678,30 +18673,30 @@
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="67"/>
       <c r="J6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
       <c r="N6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O6" s="67"/>
       <c r="P6" s="67"/>
@@ -18718,19 +18713,19 @@
       <c r="AA6" s="67"/>
       <c r="AB6" s="67"/>
       <c r="AC6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF6" s="67"/>
       <c r="AG6" s="67"/>
       <c r="AH6" s="67"/>
       <c r="AI6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ6" s="67"/>
       <c r="AK6" s="67"/>
@@ -18738,30 +18733,30 @@
       <c r="AM6" s="67"/>
       <c r="AN6" s="67"/>
       <c r="AO6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP6" s="67"/>
       <c r="AQ6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR6" s="67"/>
       <c r="AS6" s="67"/>
       <c r="AT6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU6" s="67"/>
       <c r="AV6" s="67"/>
       <c r="AW6" s="67"/>
       <c r="AX6" s="67"/>
       <c r="AY6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ6" s="67"/>
       <c r="BA6" s="67"/>
       <c r="BB6" s="67"/>
       <c r="BC6" s="67"/>
       <c r="BD6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE6" s="67"/>
       <c r="BF6" s="67"/>
@@ -18769,7 +18764,7 @@
       <c r="BH6" s="67"/>
       <c r="BI6" s="67"/>
       <c r="BJ6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK6" s="67"/>
       <c r="BL6" s="67"/>
@@ -18786,24 +18781,24 @@
       <c r="BW6" s="67"/>
       <c r="BX6" s="67"/>
       <c r="BY6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ6" s="67"/>
       <c r="CA6" s="67"/>
       <c r="CB6" s="67"/>
       <c r="CC6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD6" s="67"/>
       <c r="CE6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF6" s="67"/>
       <c r="CG6" s="67"/>
       <c r="CH6" s="67"/>
       <c r="CI6" s="67"/>
       <c r="CJ6" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK6" s="67"/>
       <c r="CL6" s="67"/>
@@ -19214,31 +19209,31 @@
         <v>125</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="67"/>
       <c r="E11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O11" s="67"/>
       <c r="P11" s="67"/>
@@ -19255,19 +19250,19 @@
       <c r="AA11" s="67"/>
       <c r="AB11" s="67"/>
       <c r="AC11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF11" s="67"/>
       <c r="AG11" s="67"/>
       <c r="AH11" s="67"/>
       <c r="AI11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ11" s="67"/>
       <c r="AK11" s="67"/>
@@ -19275,30 +19270,30 @@
       <c r="AM11" s="67"/>
       <c r="AN11" s="67"/>
       <c r="AO11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP11" s="67"/>
       <c r="AQ11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR11" s="67"/>
       <c r="AS11" s="67"/>
       <c r="AT11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU11" s="67"/>
       <c r="AV11" s="67"/>
       <c r="AW11" s="67"/>
       <c r="AX11" s="67"/>
       <c r="AY11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ11" s="67"/>
       <c r="BA11" s="67"/>
       <c r="BB11" s="67"/>
       <c r="BC11" s="67"/>
       <c r="BD11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE11" s="67"/>
       <c r="BF11" s="67"/>
@@ -19306,7 +19301,7 @@
       <c r="BH11" s="67"/>
       <c r="BI11" s="67"/>
       <c r="BJ11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK11" s="67"/>
       <c r="BL11" s="67"/>
@@ -19323,24 +19318,24 @@
       <c r="BW11" s="67"/>
       <c r="BX11" s="67"/>
       <c r="BY11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ11" s="67"/>
       <c r="CA11" s="67"/>
       <c r="CB11" s="67"/>
       <c r="CC11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD11" s="67"/>
       <c r="CE11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF11" s="67"/>
       <c r="CG11" s="67"/>
       <c r="CH11" s="67"/>
       <c r="CI11" s="67"/>
       <c r="CJ11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK11" s="67"/>
       <c r="CL11" s="67"/>
@@ -19553,13 +19548,13 @@
         <v>128</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -19571,7 +19566,7 @@
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
       <c r="N14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="67"/>
@@ -19588,19 +19583,19 @@
       <c r="AA14" s="67"/>
       <c r="AB14" s="67"/>
       <c r="AC14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF14" s="67"/>
       <c r="AG14" s="67"/>
       <c r="AH14" s="67"/>
       <c r="AI14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ14" s="67"/>
       <c r="AK14" s="67"/>
@@ -19608,30 +19603,30 @@
       <c r="AM14" s="67"/>
       <c r="AN14" s="67"/>
       <c r="AO14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP14" s="67"/>
       <c r="AQ14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR14" s="67"/>
       <c r="AS14" s="67"/>
       <c r="AT14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU14" s="67"/>
       <c r="AV14" s="67"/>
       <c r="AW14" s="67"/>
       <c r="AX14" s="67"/>
       <c r="AY14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ14" s="67"/>
       <c r="BA14" s="67"/>
       <c r="BB14" s="67"/>
       <c r="BC14" s="67"/>
       <c r="BD14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE14" s="67"/>
       <c r="BF14" s="67"/>
@@ -19639,7 +19634,7 @@
       <c r="BH14" s="67"/>
       <c r="BI14" s="67"/>
       <c r="BJ14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK14" s="67"/>
       <c r="BL14" s="67"/>
@@ -19656,24 +19651,24 @@
       <c r="BW14" s="67"/>
       <c r="BX14" s="67"/>
       <c r="BY14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ14" s="67"/>
       <c r="CA14" s="67"/>
       <c r="CB14" s="67"/>
       <c r="CC14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD14" s="67"/>
       <c r="CE14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF14" s="67"/>
       <c r="CG14" s="67"/>
       <c r="CH14" s="67"/>
       <c r="CI14" s="67"/>
       <c r="CJ14" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK14" s="67"/>
       <c r="CL14" s="67"/>
@@ -19985,31 +19980,31 @@
         <v>132</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
       <c r="E18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I18" s="67"/>
       <c r="J18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
       <c r="N18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O18" s="67"/>
       <c r="P18" s="67"/>
@@ -20026,19 +20021,19 @@
       <c r="AA18" s="67"/>
       <c r="AB18" s="67"/>
       <c r="AC18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF18" s="67"/>
       <c r="AG18" s="67"/>
       <c r="AH18" s="67"/>
       <c r="AI18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ18" s="67"/>
       <c r="AK18" s="67"/>
@@ -20046,30 +20041,30 @@
       <c r="AM18" s="67"/>
       <c r="AN18" s="67"/>
       <c r="AO18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP18" s="67"/>
       <c r="AQ18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR18" s="67"/>
       <c r="AS18" s="67"/>
       <c r="AT18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU18" s="67"/>
       <c r="AV18" s="67"/>
       <c r="AW18" s="67"/>
       <c r="AX18" s="67"/>
       <c r="AY18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ18" s="67"/>
       <c r="BA18" s="67"/>
       <c r="BB18" s="67"/>
       <c r="BC18" s="67"/>
       <c r="BD18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE18" s="67"/>
       <c r="BF18" s="67"/>
@@ -20077,7 +20072,7 @@
       <c r="BH18" s="67"/>
       <c r="BI18" s="67"/>
       <c r="BJ18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK18" s="67"/>
       <c r="BL18" s="67"/>
@@ -20094,24 +20089,24 @@
       <c r="BW18" s="67"/>
       <c r="BX18" s="67"/>
       <c r="BY18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ18" s="67"/>
       <c r="CA18" s="67"/>
       <c r="CB18" s="67"/>
       <c r="CC18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD18" s="67"/>
       <c r="CE18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF18" s="67"/>
       <c r="CG18" s="67"/>
       <c r="CH18" s="67"/>
       <c r="CI18" s="67"/>
       <c r="CJ18" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK18" s="67"/>
       <c r="CL18" s="67"/>
@@ -20225,13 +20220,13 @@
         <v>134</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="67"/>
       <c r="F20" s="67"/>
@@ -20243,7 +20238,7 @@
       <c r="L20" s="67"/>
       <c r="M20" s="67"/>
       <c r="N20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O20" s="67"/>
       <c r="P20" s="67"/>
@@ -20260,19 +20255,19 @@
       <c r="AA20" s="67"/>
       <c r="AB20" s="67"/>
       <c r="AC20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF20" s="67"/>
       <c r="AG20" s="67"/>
       <c r="AH20" s="67"/>
       <c r="AI20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ20" s="67"/>
       <c r="AK20" s="67"/>
@@ -20280,30 +20275,30 @@
       <c r="AM20" s="67"/>
       <c r="AN20" s="67"/>
       <c r="AO20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP20" s="67"/>
       <c r="AQ20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR20" s="67"/>
       <c r="AS20" s="67"/>
       <c r="AT20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU20" s="67"/>
       <c r="AV20" s="67"/>
       <c r="AW20" s="67"/>
       <c r="AX20" s="67"/>
       <c r="AY20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ20" s="67"/>
       <c r="BA20" s="67"/>
       <c r="BB20" s="67"/>
       <c r="BC20" s="67"/>
       <c r="BD20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE20" s="67"/>
       <c r="BF20" s="67"/>
@@ -20311,7 +20306,7 @@
       <c r="BH20" s="67"/>
       <c r="BI20" s="67"/>
       <c r="BJ20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK20" s="67"/>
       <c r="BL20" s="67"/>
@@ -20328,24 +20323,24 @@
       <c r="BW20" s="67"/>
       <c r="BX20" s="67"/>
       <c r="BY20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ20" s="67"/>
       <c r="CA20" s="67"/>
       <c r="CB20" s="67"/>
       <c r="CC20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD20" s="67"/>
       <c r="CE20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF20" s="67"/>
       <c r="CG20" s="67"/>
       <c r="CH20" s="67"/>
       <c r="CI20" s="67"/>
       <c r="CJ20" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK20" s="67"/>
       <c r="CL20" s="67"/>
@@ -20388,14 +20383,14 @@
       <c r="AB21" s="67"/>
       <c r="AC21" s="68"/>
       <c r="AD21" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
       <c r="AG21" s="67"/>
       <c r="AH21" s="67"/>
       <c r="AI21" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ21" s="67"/>
       <c r="AK21" s="67"/>
@@ -20408,7 +20403,7 @@
       <c r="AR21" s="67"/>
       <c r="AS21" s="67"/>
       <c r="AT21" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AU21" s="67"/>
       <c r="AV21" s="67"/>
@@ -20465,13 +20460,13 @@
         <v>136</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
@@ -20483,7 +20478,7 @@
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
       <c r="N22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O22" s="67"/>
       <c r="P22" s="67"/>
@@ -20500,19 +20495,19 @@
       <c r="AA22" s="67"/>
       <c r="AB22" s="67"/>
       <c r="AC22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF22" s="67"/>
       <c r="AG22" s="67"/>
       <c r="AH22" s="67"/>
       <c r="AI22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ22" s="67"/>
       <c r="AK22" s="67"/>
@@ -20520,30 +20515,30 @@
       <c r="AM22" s="67"/>
       <c r="AN22" s="67"/>
       <c r="AO22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP22" s="67"/>
       <c r="AQ22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR22" s="67"/>
       <c r="AS22" s="67"/>
       <c r="AT22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU22" s="67"/>
       <c r="AV22" s="67"/>
       <c r="AW22" s="67"/>
       <c r="AX22" s="67"/>
       <c r="AY22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ22" s="67"/>
       <c r="BA22" s="67"/>
       <c r="BB22" s="67"/>
       <c r="BC22" s="67"/>
       <c r="BD22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE22" s="67"/>
       <c r="BF22" s="67"/>
@@ -20551,7 +20546,7 @@
       <c r="BH22" s="67"/>
       <c r="BI22" s="67"/>
       <c r="BJ22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK22" s="67"/>
       <c r="BL22" s="67"/>
@@ -20568,24 +20563,24 @@
       <c r="BW22" s="67"/>
       <c r="BX22" s="67"/>
       <c r="BY22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ22" s="67"/>
       <c r="CA22" s="67"/>
       <c r="CB22" s="67"/>
       <c r="CC22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD22" s="67"/>
       <c r="CE22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF22" s="67"/>
       <c r="CG22" s="67"/>
       <c r="CH22" s="67"/>
       <c r="CI22" s="67"/>
       <c r="CJ22" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK22" s="67"/>
       <c r="CL22" s="67"/>
@@ -20600,7 +20595,7 @@
         <v>137</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
@@ -20651,7 +20646,7 @@
       <c r="AW23" s="67"/>
       <c r="AX23" s="67"/>
       <c r="AY23" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AZ23" s="67"/>
       <c r="BA23" s="67"/>
@@ -21000,13 +20995,13 @@
         <v>141</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
@@ -21018,7 +21013,7 @@
       <c r="L27" s="67"/>
       <c r="M27" s="67"/>
       <c r="N27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O27" s="67"/>
       <c r="P27" s="67"/>
@@ -21035,19 +21030,19 @@
       <c r="AA27" s="67"/>
       <c r="AB27" s="67"/>
       <c r="AC27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF27" s="67"/>
       <c r="AG27" s="67"/>
       <c r="AH27" s="67"/>
       <c r="AI27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ27" s="67"/>
       <c r="AK27" s="67"/>
@@ -21055,30 +21050,30 @@
       <c r="AM27" s="67"/>
       <c r="AN27" s="67"/>
       <c r="AO27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP27" s="67"/>
       <c r="AQ27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR27" s="67"/>
       <c r="AS27" s="67"/>
       <c r="AT27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU27" s="67"/>
       <c r="AV27" s="67"/>
       <c r="AW27" s="67"/>
       <c r="AX27" s="67"/>
       <c r="AY27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ27" s="67"/>
       <c r="BA27" s="67"/>
       <c r="BB27" s="67"/>
       <c r="BC27" s="67"/>
       <c r="BD27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE27" s="67"/>
       <c r="BF27" s="67"/>
@@ -21086,7 +21081,7 @@
       <c r="BH27" s="67"/>
       <c r="BI27" s="67"/>
       <c r="BJ27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK27" s="67"/>
       <c r="BL27" s="67"/>
@@ -21103,24 +21098,24 @@
       <c r="BW27" s="67"/>
       <c r="BX27" s="67"/>
       <c r="BY27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ27" s="67"/>
       <c r="CA27" s="67"/>
       <c r="CB27" s="67"/>
       <c r="CC27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD27" s="67"/>
       <c r="CE27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF27" s="67"/>
       <c r="CG27" s="67"/>
       <c r="CH27" s="67"/>
       <c r="CI27" s="67"/>
       <c r="CJ27" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK27" s="67"/>
       <c r="CL27" s="67"/>
@@ -21234,13 +21229,13 @@
         <v>143</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -21252,7 +21247,7 @@
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
       <c r="N29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O29" s="67"/>
       <c r="P29" s="67"/>
@@ -21269,19 +21264,19 @@
       <c r="AA29" s="67"/>
       <c r="AB29" s="67"/>
       <c r="AC29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF29" s="67"/>
       <c r="AG29" s="67"/>
       <c r="AH29" s="67"/>
       <c r="AI29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ29" s="67"/>
       <c r="AK29" s="67"/>
@@ -21289,30 +21284,30 @@
       <c r="AM29" s="67"/>
       <c r="AN29" s="67"/>
       <c r="AO29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP29" s="67"/>
       <c r="AQ29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR29" s="67"/>
       <c r="AS29" s="67"/>
       <c r="AT29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU29" s="67"/>
       <c r="AV29" s="67"/>
       <c r="AW29" s="67"/>
       <c r="AX29" s="67"/>
       <c r="AY29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ29" s="67"/>
       <c r="BA29" s="67"/>
       <c r="BB29" s="67"/>
       <c r="BC29" s="67"/>
       <c r="BD29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE29" s="67"/>
       <c r="BF29" s="67"/>
@@ -21320,7 +21315,7 @@
       <c r="BH29" s="67"/>
       <c r="BI29" s="67"/>
       <c r="BJ29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK29" s="67"/>
       <c r="BL29" s="67"/>
@@ -21337,24 +21332,24 @@
       <c r="BW29" s="67"/>
       <c r="BX29" s="67"/>
       <c r="BY29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ29" s="67"/>
       <c r="CA29" s="67"/>
       <c r="CB29" s="67"/>
       <c r="CC29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD29" s="67"/>
       <c r="CE29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF29" s="67"/>
       <c r="CG29" s="67"/>
       <c r="CH29" s="67"/>
       <c r="CI29" s="67"/>
       <c r="CJ29" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK29" s="67"/>
       <c r="CL29" s="67"/>
@@ -21468,280 +21463,280 @@
         <v>145</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB31" s="67"/>
       <c r="AC31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AI31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AS31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AT31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AV31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AX31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AY31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BA31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BC31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BD31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BF31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BG31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BH31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BI31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BJ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BL31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BM31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BN31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BP31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BQ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BR31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BS31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BT31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BU31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BV31" s="67"/>
       <c r="BW31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BX31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BY31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CA31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CB31" s="67"/>
       <c r="CC31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CE31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CG31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CH31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CI31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CJ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CL31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CM31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CN31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CO31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CP31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CQ31" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
@@ -21848,30 +21843,30 @@
         <v>147</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F33" s="67"/>
       <c r="G33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I33" s="67"/>
       <c r="J33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L33" s="67"/>
       <c r="M33" s="67"/>
@@ -21891,19 +21886,19 @@
       <c r="AA33" s="67"/>
       <c r="AB33" s="67"/>
       <c r="AC33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF33" s="67"/>
       <c r="AG33" s="67"/>
       <c r="AH33" s="67"/>
       <c r="AI33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ33" s="67"/>
       <c r="AK33" s="67"/>
@@ -21911,30 +21906,30 @@
       <c r="AM33" s="67"/>
       <c r="AN33" s="67"/>
       <c r="AO33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP33" s="67"/>
       <c r="AQ33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR33" s="67"/>
       <c r="AS33" s="67"/>
       <c r="AT33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU33" s="67"/>
       <c r="AV33" s="67"/>
       <c r="AW33" s="67"/>
       <c r="AX33" s="67"/>
       <c r="AY33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ33" s="67"/>
       <c r="BA33" s="67"/>
       <c r="BB33" s="67"/>
       <c r="BC33" s="67"/>
       <c r="BD33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE33" s="67"/>
       <c r="BF33" s="67"/>
@@ -21942,7 +21937,7 @@
       <c r="BH33" s="67"/>
       <c r="BI33" s="67"/>
       <c r="BJ33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK33" s="67"/>
       <c r="BL33" s="67"/>
@@ -21959,24 +21954,24 @@
       <c r="BW33" s="67"/>
       <c r="BX33" s="67"/>
       <c r="BY33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ33" s="67"/>
       <c r="CA33" s="67"/>
       <c r="CB33" s="67"/>
       <c r="CC33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD33" s="67"/>
       <c r="CE33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF33" s="67"/>
       <c r="CG33" s="67"/>
       <c r="CH33" s="67"/>
       <c r="CI33" s="67"/>
       <c r="CJ33" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK33" s="67"/>
       <c r="CL33" s="67"/>
@@ -23602,7 +23597,7 @@
       <c r="AA50" s="67"/>
       <c r="AB50" s="67"/>
       <c r="AC50" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD50" s="67"/>
       <c r="AE50" s="67"/>
@@ -24664,35 +24659,35 @@
         <v>174</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F61" s="67"/>
       <c r="G61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I61" s="67"/>
       <c r="J61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L61" s="67"/>
       <c r="M61" s="67"/>
       <c r="N61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O61" s="67"/>
       <c r="P61" s="67"/>
@@ -24709,7 +24704,7 @@
       <c r="AA61" s="67"/>
       <c r="AB61" s="67"/>
       <c r="AC61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD61" s="67"/>
       <c r="AE61" s="67"/>
@@ -24723,30 +24718,30 @@
       <c r="AM61" s="67"/>
       <c r="AN61" s="67"/>
       <c r="AO61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP61" s="67"/>
       <c r="AQ61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR61" s="67"/>
       <c r="AS61" s="67"/>
       <c r="AT61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU61" s="67"/>
       <c r="AV61" s="67"/>
       <c r="AW61" s="67"/>
       <c r="AX61" s="67"/>
       <c r="AY61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ61" s="67"/>
       <c r="BA61" s="67"/>
       <c r="BB61" s="67"/>
       <c r="BC61" s="67"/>
       <c r="BD61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE61" s="67"/>
       <c r="BF61" s="67"/>
@@ -24754,7 +24749,7 @@
       <c r="BH61" s="67"/>
       <c r="BI61" s="67"/>
       <c r="BJ61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK61" s="67"/>
       <c r="BL61" s="67"/>
@@ -24771,24 +24766,24 @@
       <c r="BW61" s="67"/>
       <c r="BX61" s="67"/>
       <c r="BY61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ61" s="67"/>
       <c r="CA61" s="67"/>
       <c r="CB61" s="67"/>
       <c r="CC61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD61" s="67"/>
       <c r="CE61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF61" s="67"/>
       <c r="CG61" s="67"/>
       <c r="CH61" s="67"/>
       <c r="CI61" s="67"/>
       <c r="CJ61" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK61" s="67"/>
       <c r="CL61" s="67"/>
@@ -24807,7 +24802,7 @@
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
       <c r="F62" s="68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
@@ -24832,7 +24827,7 @@
       <c r="AA62" s="67"/>
       <c r="AB62" s="67"/>
       <c r="AC62" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD62" s="67"/>
       <c r="AE62" s="67"/>
@@ -24933,7 +24928,7 @@
       <c r="AA63" s="67"/>
       <c r="AB63" s="67"/>
       <c r="AC63" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD63" s="67"/>
       <c r="AE63" s="67"/>
@@ -25009,10 +25004,10 @@
       <c r="B64" s="67"/>
       <c r="C64" s="67"/>
       <c r="D64" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F64" s="67"/>
       <c r="G64" s="67"/>
@@ -25310,7 +25305,9 @@
       <c r="B67" s="67"/>
       <c r="C67" s="68"/>
       <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
+      <c r="E67" s="68" t="s">
+        <v>257</v>
+      </c>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
       <c r="H67" s="67"/>
@@ -25409,9 +25406,7 @@
       <c r="B68" s="67"/>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
-      <c r="E68" s="68" t="s">
-        <v>258</v>
-      </c>
+      <c r="E68" s="68"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
       <c r="H68" s="67"/>
@@ -25505,20 +25500,20 @@
     </row>
     <row r="69">
       <c r="A69" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="67"/>
       <c r="C69" s="68"/>
       <c r="D69" s="67"/>
       <c r="E69" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G69" s="67"/>
       <c r="H69" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="67"/>
@@ -25610,7 +25605,7 @@
     </row>
     <row r="70">
       <c r="A70" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B70" s="67"/>
       <c r="C70" s="67"/>
@@ -25709,22 +25704,22 @@
     </row>
     <row r="71">
       <c r="A71" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B71" s="67"/>
       <c r="C71" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="67"/>
       <c r="E71" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G71" s="67"/>
       <c r="H71" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I71" s="67"/>
       <c r="J71" s="67"/>
@@ -25816,38 +25811,38 @@
     </row>
     <row r="72">
       <c r="A72" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F72" s="67"/>
       <c r="G72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I72" s="67"/>
       <c r="J72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L72" s="67"/>
       <c r="M72" s="67"/>
       <c r="N72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O72" s="67"/>
       <c r="P72" s="67"/>
@@ -25864,13 +25859,13 @@
       <c r="AA72" s="67"/>
       <c r="AB72" s="67"/>
       <c r="AC72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF72" s="67"/>
       <c r="AG72" s="67"/>
@@ -25882,30 +25877,30 @@
       <c r="AM72" s="67"/>
       <c r="AN72" s="67"/>
       <c r="AO72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP72" s="67"/>
       <c r="AQ72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR72" s="67"/>
       <c r="AS72" s="67"/>
       <c r="AT72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU72" s="67"/>
       <c r="AV72" s="67"/>
       <c r="AW72" s="67"/>
       <c r="AX72" s="67"/>
       <c r="AY72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ72" s="67"/>
       <c r="BA72" s="67"/>
       <c r="BB72" s="67"/>
       <c r="BC72" s="67"/>
       <c r="BD72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE72" s="67"/>
       <c r="BF72" s="67"/>
@@ -25913,7 +25908,7 @@
       <c r="BH72" s="67"/>
       <c r="BI72" s="67"/>
       <c r="BJ72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK72" s="67"/>
       <c r="BL72" s="67"/>
@@ -25930,7 +25925,7 @@
       <c r="BW72" s="67"/>
       <c r="BX72" s="67"/>
       <c r="BY72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ72" s="67"/>
       <c r="CA72" s="67"/>
@@ -25938,14 +25933,14 @@
       <c r="CC72" s="67"/>
       <c r="CD72" s="67"/>
       <c r="CE72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF72" s="67"/>
       <c r="CG72" s="67"/>
       <c r="CH72" s="67"/>
       <c r="CI72" s="67"/>
       <c r="CJ72" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK72" s="67"/>
       <c r="CL72" s="67"/>
@@ -25957,7 +25952,7 @@
     </row>
     <row r="73">
       <c r="A73" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67"/>
@@ -26056,7 +26051,7 @@
     </row>
     <row r="74">
       <c r="A74" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="67"/>
       <c r="C74" s="67"/>
@@ -26155,7 +26150,7 @@
     </row>
     <row r="75">
       <c r="A75" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" s="67"/>
       <c r="C75" s="67"/>
@@ -26254,42 +26249,42 @@
     </row>
     <row r="76">
       <c r="A76" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I76" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L76" s="67"/>
       <c r="M76" s="67"/>
       <c r="N76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O76" s="67"/>
       <c r="P76" s="67"/>
@@ -26306,13 +26301,13 @@
       <c r="AA76" s="67"/>
       <c r="AB76" s="67"/>
       <c r="AC76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF76" s="67"/>
       <c r="AG76" s="67"/>
@@ -26324,30 +26319,30 @@
       <c r="AM76" s="67"/>
       <c r="AN76" s="67"/>
       <c r="AO76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP76" s="67"/>
       <c r="AQ76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR76" s="67"/>
       <c r="AS76" s="67"/>
       <c r="AT76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU76" s="67"/>
       <c r="AV76" s="67"/>
       <c r="AW76" s="67"/>
       <c r="AX76" s="67"/>
       <c r="AY76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ76" s="67"/>
       <c r="BA76" s="67"/>
       <c r="BB76" s="67"/>
       <c r="BC76" s="67"/>
       <c r="BD76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE76" s="67"/>
       <c r="BF76" s="67"/>
@@ -26355,7 +26350,7 @@
       <c r="BH76" s="67"/>
       <c r="BI76" s="67"/>
       <c r="BJ76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK76" s="67"/>
       <c r="BL76" s="67"/>
@@ -26372,7 +26367,7 @@
       <c r="BW76" s="67"/>
       <c r="BX76" s="67"/>
       <c r="BY76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ76" s="67"/>
       <c r="CA76" s="67"/>
@@ -26380,14 +26375,14 @@
       <c r="CC76" s="67"/>
       <c r="CD76" s="67"/>
       <c r="CE76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF76" s="67"/>
       <c r="CG76" s="67"/>
       <c r="CH76" s="67"/>
       <c r="CI76" s="67"/>
       <c r="CJ76" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK76" s="67"/>
       <c r="CL76" s="67"/>
@@ -26399,7 +26394,7 @@
     </row>
     <row r="77">
       <c r="A77" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="67"/>
       <c r="C77" s="67"/>
@@ -26498,38 +26493,38 @@
     </row>
     <row r="78">
       <c r="A78" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F78" s="67"/>
       <c r="G78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L78" s="67"/>
       <c r="M78" s="67"/>
       <c r="N78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O78" s="67"/>
       <c r="P78" s="67"/>
@@ -26546,19 +26541,19 @@
       <c r="AA78" s="67"/>
       <c r="AB78" s="67"/>
       <c r="AC78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF78" s="67"/>
       <c r="AG78" s="67"/>
       <c r="AH78" s="67"/>
       <c r="AI78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ78" s="67"/>
       <c r="AK78" s="67"/>
@@ -26571,21 +26566,21 @@
       <c r="AR78" s="67"/>
       <c r="AS78" s="67"/>
       <c r="AT78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU78" s="67"/>
       <c r="AV78" s="67"/>
       <c r="AW78" s="67"/>
       <c r="AX78" s="67"/>
       <c r="AY78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ78" s="67"/>
       <c r="BA78" s="67"/>
       <c r="BB78" s="67"/>
       <c r="BC78" s="67"/>
       <c r="BD78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE78" s="67"/>
       <c r="BF78" s="67"/>
@@ -26593,7 +26588,7 @@
       <c r="BH78" s="67"/>
       <c r="BI78" s="67"/>
       <c r="BJ78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK78" s="67"/>
       <c r="BL78" s="67"/>
@@ -26610,13 +26605,13 @@
       <c r="BW78" s="67"/>
       <c r="BX78" s="67"/>
       <c r="BY78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ78" s="67"/>
       <c r="CA78" s="67"/>
       <c r="CB78" s="67"/>
       <c r="CC78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD78" s="67"/>
       <c r="CE78" s="67"/>
@@ -26625,7 +26620,7 @@
       <c r="CH78" s="67"/>
       <c r="CI78" s="67"/>
       <c r="CJ78" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK78" s="67"/>
       <c r="CL78" s="67"/>
@@ -26637,7 +26632,7 @@
     </row>
     <row r="79">
       <c r="A79" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67"/>
@@ -26736,7 +26731,7 @@
     </row>
     <row r="80">
       <c r="A80" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="67"/>
       <c r="C80" s="67"/>
@@ -26835,7 +26830,7 @@
     </row>
     <row r="81">
       <c r="A81" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="67"/>
       <c r="C81" s="67"/>
@@ -26934,7 +26929,7 @@
     </row>
     <row r="82">
       <c r="A82" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" s="67"/>
       <c r="C82" s="67"/>
@@ -27033,7 +27028,7 @@
     </row>
     <row r="83">
       <c r="A83" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" s="67"/>
       <c r="C83" s="67"/>
@@ -27132,38 +27127,38 @@
     </row>
     <row r="84">
       <c r="A84" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F84" s="67"/>
       <c r="G84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I84" s="67"/>
       <c r="J84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L84" s="67"/>
       <c r="M84" s="67"/>
       <c r="N84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O84" s="67"/>
       <c r="P84" s="67"/>
@@ -27180,19 +27175,19 @@
       <c r="AA84" s="67"/>
       <c r="AB84" s="67"/>
       <c r="AC84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF84" s="67"/>
       <c r="AG84" s="67"/>
       <c r="AH84" s="67"/>
       <c r="AI84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ84" s="67"/>
       <c r="AK84" s="67"/>
@@ -27200,23 +27195,23 @@
       <c r="AM84" s="67"/>
       <c r="AN84" s="67"/>
       <c r="AO84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP84" s="67"/>
       <c r="AQ84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR84" s="67"/>
       <c r="AS84" s="67"/>
       <c r="AT84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU84" s="67"/>
       <c r="AV84" s="67"/>
       <c r="AW84" s="67"/>
       <c r="AX84" s="67"/>
       <c r="AY84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ84" s="67"/>
       <c r="BA84" s="67"/>
@@ -27244,24 +27239,24 @@
       <c r="BW84" s="67"/>
       <c r="BX84" s="67"/>
       <c r="BY84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ84" s="67"/>
       <c r="CA84" s="67"/>
       <c r="CB84" s="67"/>
       <c r="CC84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD84" s="67"/>
       <c r="CE84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF84" s="67"/>
       <c r="CG84" s="67"/>
       <c r="CH84" s="67"/>
       <c r="CI84" s="67"/>
       <c r="CJ84" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CK84" s="67"/>
       <c r="CL84" s="67"/>
@@ -27273,7 +27268,7 @@
     </row>
     <row r="85">
       <c r="A85" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67"/>
@@ -27303,7 +27298,7 @@
       <c r="AA85" s="67"/>
       <c r="AB85" s="67"/>
       <c r="AC85" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD85" s="67"/>
       <c r="AE85" s="67"/>
@@ -27374,7 +27369,7 @@
     </row>
     <row r="86">
       <c r="A86" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="67"/>
       <c r="C86" s="67"/>
@@ -27473,7 +27468,7 @@
     </row>
     <row r="87">
       <c r="A87" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="67"/>
       <c r="C87" s="67"/>
@@ -27572,7 +27567,7 @@
     </row>
     <row r="88">
       <c r="A88" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" s="67"/>
       <c r="C88" s="67"/>
@@ -27671,7 +27666,7 @@
     </row>
     <row r="89">
       <c r="A89" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="67"/>
       <c r="C89" s="67"/>
@@ -27770,7 +27765,7 @@
     </row>
     <row r="90">
       <c r="A90" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B90" s="67"/>
       <c r="C90" s="67"/>
@@ -27869,7 +27864,7 @@
     </row>
     <row r="91">
       <c r="A91" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67"/>
@@ -27968,7 +27963,7 @@
     </row>
     <row r="92">
       <c r="A92" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="67"/>
       <c r="C92" s="67"/>
@@ -28067,7 +28062,7 @@
     </row>
     <row r="93">
       <c r="A93" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="67"/>
       <c r="C93" s="67"/>
@@ -28166,7 +28161,7 @@
     </row>
     <row r="94">
       <c r="A94" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B94" s="67"/>
       <c r="C94" s="67"/>
@@ -28265,38 +28260,38 @@
     </row>
     <row r="95">
       <c r="A95" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F95" s="67"/>
       <c r="G95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I95" s="67"/>
       <c r="J95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L95" s="67"/>
       <c r="M95" s="67"/>
       <c r="N95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O95" s="67"/>
       <c r="P95" s="67"/>
@@ -28313,19 +28308,19 @@
       <c r="AA95" s="67"/>
       <c r="AB95" s="67"/>
       <c r="AC95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF95" s="67"/>
       <c r="AG95" s="67"/>
       <c r="AH95" s="67"/>
       <c r="AI95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ95" s="67"/>
       <c r="AK95" s="67"/>
@@ -28333,16 +28328,16 @@
       <c r="AM95" s="67"/>
       <c r="AN95" s="67"/>
       <c r="AO95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP95" s="67"/>
       <c r="AQ95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR95" s="67"/>
       <c r="AS95" s="67"/>
       <c r="AT95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU95" s="67"/>
       <c r="AV95" s="67"/>
@@ -28354,7 +28349,7 @@
       <c r="BB95" s="67"/>
       <c r="BC95" s="67"/>
       <c r="BD95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BE95" s="67"/>
       <c r="BF95" s="67"/>
@@ -28362,7 +28357,7 @@
       <c r="BH95" s="67"/>
       <c r="BI95" s="67"/>
       <c r="BJ95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BK95" s="67"/>
       <c r="BL95" s="67"/>
@@ -28379,17 +28374,17 @@
       <c r="BW95" s="67"/>
       <c r="BX95" s="67"/>
       <c r="BY95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ95" s="67"/>
       <c r="CA95" s="67"/>
       <c r="CB95" s="67"/>
       <c r="CC95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CD95" s="67"/>
       <c r="CE95" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CF95" s="67"/>
       <c r="CG95" s="67"/>
@@ -28406,7 +28401,7 @@
     </row>
     <row r="96">
       <c r="A96" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B96" s="67"/>
       <c r="C96" s="67"/>
@@ -28505,7 +28500,7 @@
     </row>
     <row r="97">
       <c r="A97" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67"/>
@@ -28604,7 +28599,7 @@
     </row>
     <row r="98">
       <c r="A98" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B98" s="67"/>
       <c r="C98" s="67"/>
@@ -28703,7 +28698,7 @@
     </row>
     <row r="99">
       <c r="A99" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" s="67"/>
       <c r="C99" s="67"/>
@@ -28802,7 +28797,7 @@
     </row>
     <row r="100">
       <c r="A100" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="67"/>
       <c r="C100" s="67"/>
@@ -28901,10 +28896,10 @@
     </row>
     <row r="101">
       <c r="A101" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C101" s="67"/>
       <c r="D101" s="67"/>
@@ -28912,7 +28907,7 @@
       <c r="F101" s="67"/>
       <c r="G101" s="67"/>
       <c r="H101" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I101" s="67"/>
       <c r="J101" s="67"/>
@@ -29004,7 +28999,7 @@
     </row>
     <row r="102">
       <c r="A102" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="67"/>
       <c r="C102" s="67"/>
@@ -29103,7 +29098,7 @@
     </row>
     <row r="103">
       <c r="A103" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67"/>
@@ -29202,7 +29197,7 @@
     </row>
     <row r="104">
       <c r="A104" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="67"/>
       <c r="C104" s="67"/>
@@ -29301,7 +29296,7 @@
     </row>
     <row r="105">
       <c r="A105" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B105" s="67"/>
       <c r="C105" s="67"/>
@@ -29400,7 +29395,7 @@
     </row>
     <row r="106">
       <c r="A106" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B106" s="67"/>
       <c r="C106" s="67"/>
@@ -29499,7 +29494,7 @@
     </row>
     <row r="107">
       <c r="A107" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" s="67"/>
       <c r="C107" s="67"/>
@@ -29598,7 +29593,7 @@
     </row>
     <row r="108">
       <c r="A108" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B108" s="67"/>
       <c r="C108" s="67"/>
@@ -29697,7 +29692,7 @@
     </row>
     <row r="109">
       <c r="A109" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67"/>
@@ -29796,7 +29791,7 @@
     </row>
     <row r="110">
       <c r="A110" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="67"/>
       <c r="C110" s="67"/>
@@ -29895,7 +29890,7 @@
     </row>
     <row r="111">
       <c r="A111" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" s="67"/>
       <c r="C111" s="67"/>
@@ -29994,7 +29989,7 @@
     </row>
     <row r="112">
       <c r="A112" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B112" s="67"/>
       <c r="C112" s="67"/>
@@ -30093,7 +30088,7 @@
     </row>
     <row r="113">
       <c r="A113" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="67"/>
       <c r="C113" s="67"/>
@@ -30192,7 +30187,7 @@
     </row>
     <row r="114">
       <c r="A114" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B114" s="67"/>
       <c r="C114" s="67"/>
@@ -30291,7 +30286,7 @@
     </row>
     <row r="115">
       <c r="A115" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B115" s="67"/>
       <c r="C115" s="67"/>
@@ -30390,7 +30385,7 @@
     </row>
     <row r="116">
       <c r="A116" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" s="67"/>
       <c r="C116" s="67"/>
@@ -30489,7 +30484,7 @@
     </row>
     <row r="117">
       <c r="A117" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B117" s="67"/>
       <c r="C117" s="67"/>
@@ -30588,7 +30583,7 @@
     </row>
     <row r="118">
       <c r="A118" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B118" s="67"/>
       <c r="C118" s="67"/>
@@ -30687,7 +30682,7 @@
     </row>
     <row r="119">
       <c r="A119" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" s="67"/>
       <c r="C119" s="67"/>
@@ -30786,7 +30781,7 @@
     </row>
     <row r="120">
       <c r="A120" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" s="67"/>
       <c r="C120" s="67"/>
@@ -30885,7 +30880,7 @@
     </row>
     <row r="121">
       <c r="A121" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B121" s="67"/>
       <c r="C121" s="67"/>
@@ -30984,7 +30979,7 @@
     </row>
     <row r="122">
       <c r="A122" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B122" s="67"/>
       <c r="C122" s="67"/>
@@ -31083,7 +31078,7 @@
     </row>
     <row r="123">
       <c r="A123" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B123" s="67"/>
       <c r="C123" s="67"/>
@@ -31182,7 +31177,7 @@
     </row>
     <row r="124">
       <c r="A124" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B124" s="67"/>
       <c r="C124" s="67"/>
@@ -31281,7 +31276,7 @@
     </row>
     <row r="125">
       <c r="A125" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B125" s="67"/>
       <c r="C125" s="67"/>
@@ -31380,7 +31375,7 @@
     </row>
     <row r="126">
       <c r="A126" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="67"/>
       <c r="C126" s="67"/>
@@ -31479,7 +31474,7 @@
     </row>
     <row r="127">
       <c r="A127" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127" s="67"/>
       <c r="C127" s="67"/>
@@ -31578,7 +31573,7 @@
     </row>
     <row r="128">
       <c r="A128" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B128" s="67"/>
       <c r="C128" s="67"/>
@@ -31677,7 +31672,7 @@
     </row>
     <row r="129">
       <c r="A129" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B129" s="67"/>
       <c r="C129" s="67"/>
@@ -31776,7 +31771,7 @@
     </row>
     <row r="130">
       <c r="A130" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B130" s="67"/>
       <c r="C130" s="67"/>
@@ -31875,7 +31870,7 @@
     </row>
     <row r="131">
       <c r="A131" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B131" s="67"/>
       <c r="C131" s="67"/>
@@ -32676,17 +32671,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
@@ -32702,46 +32697,47 @@
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
@@ -32753,7 +32749,6 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="272">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -768,7 +768,7 @@
     <t>List of everyone who has helped with this sheet:</t>
   </si>
   <si>
-    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, senya</t>
+    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, June, limefps</t>
   </si>
   <si>
     <r>
@@ -802,7 +802,10 @@
     <t>Saya</t>
   </si>
   <si>
-    <t>senya</t>
+    <t>limefps</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
   <si>
     <t>lerh050</t>
@@ -7771,7 +7774,7 @@
       <c r="A67" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
@@ -7874,7 +7877,7 @@
       <c r="A68" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -10971,7 +10974,7 @@
       <c r="CB98" s="23"/>
       <c r="CC98" s="25"/>
       <c r="CD98" s="20"/>
-      <c r="CE98" s="20"/>
+      <c r="CE98" s="28"/>
       <c r="CF98" s="20"/>
       <c r="CG98" s="26"/>
       <c r="CH98" s="26"/>
@@ -24797,7 +24800,9 @@
       <c r="A62" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="67"/>
+      <c r="B62" s="68" t="s">
+        <v>253</v>
+      </c>
       <c r="C62" s="67"/>
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
@@ -24900,7 +24905,9 @@
       <c r="A63" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="67"/>
+      <c r="B63" s="68" t="s">
+        <v>257</v>
+      </c>
       <c r="C63" s="67"/>
       <c r="D63" s="67"/>
       <c r="E63" s="67"/>
@@ -25306,7 +25313,7 @@
       <c r="C67" s="68"/>
       <c r="D67" s="67"/>
       <c r="E67" s="68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
@@ -25708,7 +25715,7 @@
       </c>
       <c r="B71" s="67"/>
       <c r="C71" s="68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D71" s="67"/>
       <c r="E71" s="68" t="s">
@@ -26264,7 +26271,7 @@
         <v>253</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G76" s="68" t="s">
         <v>253</v>
@@ -26273,7 +26280,7 @@
         <v>253</v>
       </c>
       <c r="I76" s="68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J76" s="68" t="s">
         <v>253</v>
@@ -28145,7 +28152,9 @@
       <c r="CB93" s="67"/>
       <c r="CC93" s="67"/>
       <c r="CD93" s="67"/>
-      <c r="CE93" s="67"/>
+      <c r="CE93" s="68" t="s">
+        <v>258</v>
+      </c>
       <c r="CF93" s="67"/>
       <c r="CG93" s="67"/>
       <c r="CH93" s="67"/>
@@ -32671,17 +32680,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
@@ -32697,42 +32706,42 @@
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="284">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -844,6 +844,9 @@
     <t>lerh050</t>
   </si>
   <si>
+    <t>atomicptr</t>
+  </si>
+  <si>
     <t>OniCado</t>
   </si>
   <si>
@@ -9778,7 +9781,9 @@
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="18"/>
+      <c r="H81" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
       <c r="K81" s="18"/>
@@ -19234,31 +19239,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="B1:AC1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:AC2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:AC3"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="M5:P5"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H8:AC8"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H3:AC3"/>
-    <mergeCell ref="H2:AC2"/>
-    <mergeCell ref="B1:AC1"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="Z6:AC6"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -19283,18 +19288,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
       <c r="AA1" s="65"/>
@@ -19366,20 +19371,26 @@
       <c r="CO1" s="65"/>
       <c r="CP1" s="65"/>
       <c r="CQ1" s="65"/>
+      <c r="CR1" s="65"/>
+      <c r="CS1" s="65"/>
+      <c r="CT1" s="65"/>
+      <c r="CU1" s="65"/>
+      <c r="CV1" s="65"/>
+      <c r="CW1" s="65"/>
     </row>
     <row r="2" ht="27.0" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="65"/>
       <c r="Z2" s="65"/>
       <c r="AA2" s="65"/>
@@ -19451,17 +19462,23 @@
       <c r="CO2" s="65"/>
       <c r="CP2" s="65"/>
       <c r="CQ2" s="65"/>
+      <c r="CR2" s="65"/>
+      <c r="CS2" s="65"/>
+      <c r="CT2" s="65"/>
+      <c r="CU2" s="65"/>
+      <c r="CV2" s="65"/>
+      <c r="CW2" s="65"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="65"/>
       <c r="Z3" s="65"/>
       <c r="AA3" s="65"/>
@@ -19533,20 +19550,26 @@
       <c r="CO3" s="65"/>
       <c r="CP3" s="65"/>
       <c r="CQ3" s="65"/>
+      <c r="CR3" s="65"/>
+      <c r="CS3" s="65"/>
+      <c r="CT3" s="65"/>
+      <c r="CU3" s="65"/>
+      <c r="CV3" s="65"/>
+      <c r="CW3" s="65"/>
     </row>
     <row r="4">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
       <c r="Y4" s="65"/>
       <c r="Z4" s="65"/>
       <c r="AA4" s="65"/>
@@ -19618,325 +19641,335 @@
       <c r="CO4" s="65"/>
       <c r="CP4" s="65"/>
       <c r="CQ4" s="65"/>
+      <c r="CR4" s="65"/>
+      <c r="CS4" s="65"/>
+      <c r="CT4" s="65"/>
+      <c r="CU4" s="65"/>
+      <c r="CV4" s="65"/>
+      <c r="CW4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="I5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="J5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="K5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="L5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="M5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="N5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="O5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="P5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="Q5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="R5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="S5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="T5" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="U5" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="V5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="W5" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="X5" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="Y5" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="68" t="s">
+      <c r="Z5" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="U5" s="68" t="s">
+      <c r="AA5" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="68" t="s">
+      <c r="AB5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="W5" s="68" t="s">
+      <c r="AC5" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="68" t="s">
+      <c r="AD5" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="68" t="s">
+      <c r="AE5" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="68" t="s">
+      <c r="AF5" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="68" t="s">
+      <c r="AG5" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="68" t="s">
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AD5" s="68" t="s">
+      <c r="AJ5" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" s="68" t="s">
+      <c r="AK5" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" s="68" t="s">
+      <c r="AL5" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="AG5" s="68" t="s">
+      <c r="AM5" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="AH5" s="68" t="s">
+      <c r="AN5" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AI5" s="68" t="s">
+      <c r="AO5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="AJ5" s="68" t="s">
+      <c r="AP5" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="AK5" s="68" t="s">
+      <c r="AQ5" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AL5" s="68" t="s">
+      <c r="AR5" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="AM5" s="68" t="s">
+      <c r="AS5" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="AN5" s="68" t="s">
+      <c r="AT5" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AO5" s="68" t="s">
+      <c r="AU5" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="AP5" s="68" t="s">
+      <c r="AV5" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AQ5" s="68" t="s">
+      <c r="AW5" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="AR5" s="68" t="s">
+      <c r="AX5" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AS5" s="68" t="s">
+      <c r="AY5" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="AT5" s="68" t="s">
+      <c r="AZ5" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AU5" s="68" t="s">
+      <c r="BA5" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AV5" s="68" t="s">
+      <c r="BB5" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="AW5" s="68" t="s">
+      <c r="BC5" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="AX5" s="68" t="s">
+      <c r="BD5" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AY5" s="68" t="s">
+      <c r="BE5" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="AZ5" s="68" t="s">
+      <c r="BF5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="BA5" s="68" t="s">
+      <c r="BG5" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="BB5" s="68" t="s">
+      <c r="BH5" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="BC5" s="68" t="s">
+      <c r="BI5" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="BD5" s="68" t="s">
+      <c r="BJ5" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="BE5" s="68" t="s">
+      <c r="BK5" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="BF5" s="68" t="s">
+      <c r="BL5" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="BG5" s="68" t="s">
+      <c r="BM5" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="BH5" s="68" t="s">
+      <c r="BN5" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="BI5" s="68" t="s">
+      <c r="BO5" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="BJ5" s="68" t="s">
+      <c r="BP5" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="BK5" s="68" t="s">
+      <c r="BQ5" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="BL5" s="68" t="s">
+      <c r="BR5" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="BM5" s="68" t="s">
+      <c r="BS5" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="BN5" s="68" t="s">
+      <c r="BT5" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="BO5" s="68" t="s">
+      <c r="BU5" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="BP5" s="68" t="s">
+      <c r="BV5" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="BQ5" s="68" t="s">
+      <c r="BW5" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="BR5" s="68" t="s">
+      <c r="BX5" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="BS5" s="68" t="s">
+      <c r="BY5" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="BT5" s="68" t="s">
+      <c r="BZ5" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="BU5" s="68" t="s">
+      <c r="CA5" s="68" t="s">
         <v>103</v>
-      </c>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="BX5" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY5" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="BZ5" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA5" s="68" t="s">
-        <v>108</v>
       </c>
       <c r="CB5" s="69"/>
       <c r="CC5" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD5" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE5" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF5" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG5" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH5" s="69"/>
+      <c r="CI5" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="CD5" s="68" t="s">
+      <c r="CJ5" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="CE5" s="68" t="s">
+      <c r="CK5" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="CF5" s="68" t="s">
+      <c r="CL5" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="CG5" s="68" t="s">
+      <c r="CM5" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="CH5" s="68" t="s">
+      <c r="CN5" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="CI5" s="68" t="s">
+      <c r="CO5" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="CJ5" s="68" t="s">
+      <c r="CP5" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="CK5" s="68" t="s">
+      <c r="CQ5" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="CL5" s="68" t="s">
+      <c r="CR5" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="CM5" s="68" t="s">
+      <c r="CS5" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="CN5" s="68" t="s">
+      <c r="CT5" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="CO5" s="68" t="s">
+      <c r="CU5" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="CP5" s="68" t="s">
+      <c r="CV5" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="CQ5" s="68" t="s">
+      <c r="CW5" s="68" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68" t="s">
-        <v>126</v>
+      <c r="A6" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="70"/>
-      <c r="C6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
       <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
+      <c r="P6" s="71"/>
       <c r="Q6" s="70"/>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
+      <c r="T6" s="71"/>
       <c r="U6" s="70"/>
       <c r="V6" s="70"/>
       <c r="W6" s="70"/>
@@ -19945,66 +19978,46 @@
       <c r="Z6" s="70"/>
       <c r="AA6" s="70"/>
       <c r="AB6" s="70"/>
-      <c r="AC6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
       <c r="AF6" s="70"/>
       <c r="AG6" s="70"/>
       <c r="AH6" s="70"/>
-      <c r="AI6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="70"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
       <c r="AL6" s="70"/>
       <c r="AM6" s="70"/>
       <c r="AN6" s="70"/>
-      <c r="AO6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO6" s="71"/>
       <c r="AP6" s="70"/>
-      <c r="AQ6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ6" s="70"/>
       <c r="AR6" s="70"/>
       <c r="AS6" s="70"/>
-      <c r="AT6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="71"/>
       <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
+      <c r="AW6" s="71"/>
       <c r="AX6" s="70"/>
-      <c r="AY6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="71"/>
       <c r="BA6" s="70"/>
       <c r="BB6" s="70"/>
       <c r="BC6" s="70"/>
-      <c r="BD6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="71"/>
       <c r="BF6" s="70"/>
       <c r="BG6" s="70"/>
       <c r="BH6" s="70"/>
       <c r="BI6" s="70"/>
-      <c r="BJ6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ6" s="71"/>
       <c r="BK6" s="70"/>
       <c r="BL6" s="70"/>
       <c r="BM6" s="70"/>
       <c r="BN6" s="70"/>
       <c r="BO6" s="70"/>
-      <c r="BP6" s="70"/>
+      <c r="BP6" s="71"/>
       <c r="BQ6" s="70"/>
       <c r="BR6" s="70"/>
       <c r="BS6" s="70"/>
@@ -20013,37 +20026,35 @@
       <c r="BV6" s="70"/>
       <c r="BW6" s="70"/>
       <c r="BX6" s="70"/>
-      <c r="BY6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY6" s="70"/>
       <c r="BZ6" s="70"/>
       <c r="CA6" s="70"/>
       <c r="CB6" s="70"/>
-      <c r="CC6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC6" s="70"/>
       <c r="CD6" s="70"/>
-      <c r="CE6" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE6" s="71"/>
       <c r="CF6" s="70"/>
       <c r="CG6" s="70"/>
       <c r="CH6" s="70"/>
-      <c r="CI6" s="70"/>
-      <c r="CJ6" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CK6" s="70"/>
+      <c r="CI6" s="71"/>
+      <c r="CJ6" s="70"/>
+      <c r="CK6" s="71"/>
       <c r="CL6" s="70"/>
       <c r="CM6" s="70"/>
       <c r="CN6" s="70"/>
       <c r="CO6" s="70"/>
-      <c r="CP6" s="70"/>
+      <c r="CP6" s="71"/>
       <c r="CQ6" s="70"/>
+      <c r="CR6" s="70"/>
+      <c r="CS6" s="70"/>
+      <c r="CT6" s="70"/>
+      <c r="CU6" s="70"/>
+      <c r="CV6" s="70"/>
+      <c r="CW6" s="70"/>
     </row>
     <row r="7">
-      <c r="A7" s="68" t="s">
-        <v>131</v>
+      <c r="A7" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -20052,18 +20063,18 @@
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="70"/>
       <c r="R7" s="70"/>
       <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="70"/>
       <c r="V7" s="70"/>
       <c r="W7" s="70"/>
@@ -20078,40 +20089,40 @@
       <c r="AF7" s="70"/>
       <c r="AG7" s="70"/>
       <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
       <c r="AL7" s="70"/>
       <c r="AM7" s="70"/>
       <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
+      <c r="AO7" s="71"/>
       <c r="AP7" s="70"/>
       <c r="AQ7" s="70"/>
       <c r="AR7" s="70"/>
       <c r="AS7" s="70"/>
       <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
+      <c r="AU7" s="71"/>
       <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
+      <c r="AW7" s="71"/>
       <c r="AX7" s="70"/>
       <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
+      <c r="AZ7" s="71"/>
       <c r="BA7" s="70"/>
       <c r="BB7" s="70"/>
       <c r="BC7" s="70"/>
       <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
+      <c r="BE7" s="71"/>
       <c r="BF7" s="70"/>
       <c r="BG7" s="70"/>
       <c r="BH7" s="70"/>
       <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
+      <c r="BJ7" s="71"/>
       <c r="BK7" s="70"/>
       <c r="BL7" s="70"/>
       <c r="BM7" s="70"/>
       <c r="BN7" s="70"/>
       <c r="BO7" s="70"/>
-      <c r="BP7" s="70"/>
+      <c r="BP7" s="71"/>
       <c r="BQ7" s="70"/>
       <c r="BR7" s="70"/>
       <c r="BS7" s="70"/>
@@ -20126,23 +20137,29 @@
       <c r="CB7" s="70"/>
       <c r="CC7" s="70"/>
       <c r="CD7" s="70"/>
-      <c r="CE7" s="70"/>
+      <c r="CE7" s="71"/>
       <c r="CF7" s="70"/>
       <c r="CG7" s="70"/>
       <c r="CH7" s="70"/>
-      <c r="CI7" s="70"/>
+      <c r="CI7" s="71"/>
       <c r="CJ7" s="70"/>
-      <c r="CK7" s="70"/>
+      <c r="CK7" s="71"/>
       <c r="CL7" s="70"/>
       <c r="CM7" s="70"/>
       <c r="CN7" s="70"/>
       <c r="CO7" s="70"/>
-      <c r="CP7" s="70"/>
+      <c r="CP7" s="71"/>
       <c r="CQ7" s="70"/>
+      <c r="CR7" s="70"/>
+      <c r="CS7" s="70"/>
+      <c r="CT7" s="70"/>
+      <c r="CU7" s="70"/>
+      <c r="CV7" s="70"/>
+      <c r="CW7" s="70"/>
     </row>
     <row r="8">
       <c r="A8" s="68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -20151,18 +20168,32 @@
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="I8" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="M8" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
+      <c r="P8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="Q8" s="70"/>
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
+      <c r="T8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U8" s="70"/>
       <c r="V8" s="70"/>
       <c r="W8" s="70"/>
@@ -20177,40 +20208,60 @@
       <c r="AF8" s="70"/>
       <c r="AG8" s="70"/>
       <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
+      <c r="AI8" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ8" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL8" s="70"/>
       <c r="AM8" s="70"/>
       <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
+      <c r="AO8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP8" s="70"/>
       <c r="AQ8" s="70"/>
       <c r="AR8" s="70"/>
       <c r="AS8" s="70"/>
       <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
+      <c r="AU8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
+      <c r="AW8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX8" s="70"/>
       <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
+      <c r="AZ8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA8" s="70"/>
       <c r="BB8" s="70"/>
       <c r="BC8" s="70"/>
       <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
+      <c r="BE8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF8" s="70"/>
       <c r="BG8" s="70"/>
       <c r="BH8" s="70"/>
       <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
+      <c r="BJ8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK8" s="70"/>
       <c r="BL8" s="70"/>
       <c r="BM8" s="70"/>
       <c r="BN8" s="70"/>
       <c r="BO8" s="70"/>
-      <c r="BP8" s="70"/>
+      <c r="BP8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ8" s="70"/>
       <c r="BR8" s="70"/>
       <c r="BS8" s="70"/>
@@ -20225,23 +20276,37 @@
       <c r="CB8" s="70"/>
       <c r="CC8" s="70"/>
       <c r="CD8" s="70"/>
-      <c r="CE8" s="70"/>
+      <c r="CE8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF8" s="70"/>
       <c r="CG8" s="70"/>
       <c r="CH8" s="70"/>
-      <c r="CI8" s="70"/>
+      <c r="CI8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ8" s="70"/>
-      <c r="CK8" s="70"/>
+      <c r="CK8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL8" s="70"/>
       <c r="CM8" s="70"/>
       <c r="CN8" s="70"/>
       <c r="CO8" s="70"/>
-      <c r="CP8" s="70"/>
+      <c r="CP8" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ8" s="70"/>
+      <c r="CR8" s="70"/>
+      <c r="CS8" s="70"/>
+      <c r="CT8" s="70"/>
+      <c r="CU8" s="70"/>
+      <c r="CV8" s="70"/>
+      <c r="CW8" s="70"/>
     </row>
     <row r="9">
       <c r="A9" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -20337,10 +20402,16 @@
       <c r="CO9" s="70"/>
       <c r="CP9" s="70"/>
       <c r="CQ9" s="70"/>
+      <c r="CR9" s="70"/>
+      <c r="CS9" s="70"/>
+      <c r="CT9" s="70"/>
+      <c r="CU9" s="70"/>
+      <c r="CV9" s="70"/>
+      <c r="CW9" s="70"/>
     </row>
     <row r="10">
       <c r="A10" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -20436,38 +20507,30 @@
       <c r="CO10" s="70"/>
       <c r="CP10" s="70"/>
       <c r="CQ10" s="70"/>
+      <c r="CR10" s="70"/>
+      <c r="CS10" s="70"/>
+      <c r="CT10" s="70"/>
+      <c r="CU10" s="70"/>
+      <c r="CV10" s="70"/>
+      <c r="CW10" s="70"/>
     </row>
     <row r="11">
       <c r="A11" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
-      <c r="E11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="E11" s="70"/>
       <c r="F11" s="70"/>
-      <c r="G11" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="70"/>
-      <c r="J11" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
-      <c r="N11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N11" s="70"/>
       <c r="O11" s="70"/>
       <c r="P11" s="70"/>
       <c r="Q11" s="70"/>
@@ -20482,60 +20545,40 @@
       <c r="Z11" s="70"/>
       <c r="AA11" s="70"/>
       <c r="AB11" s="70"/>
-      <c r="AC11" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD11" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
       <c r="AF11" s="70"/>
       <c r="AG11" s="70"/>
       <c r="AH11" s="70"/>
-      <c r="AI11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AI11" s="70"/>
       <c r="AJ11" s="70"/>
       <c r="AK11" s="70"/>
       <c r="AL11" s="70"/>
       <c r="AM11" s="70"/>
       <c r="AN11" s="70"/>
-      <c r="AO11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO11" s="70"/>
       <c r="AP11" s="70"/>
-      <c r="AQ11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ11" s="70"/>
       <c r="AR11" s="70"/>
       <c r="AS11" s="70"/>
-      <c r="AT11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT11" s="70"/>
       <c r="AU11" s="70"/>
       <c r="AV11" s="70"/>
       <c r="AW11" s="70"/>
       <c r="AX11" s="70"/>
-      <c r="AY11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY11" s="70"/>
       <c r="AZ11" s="70"/>
       <c r="BA11" s="70"/>
       <c r="BB11" s="70"/>
       <c r="BC11" s="70"/>
-      <c r="BD11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD11" s="70"/>
       <c r="BE11" s="70"/>
       <c r="BF11" s="70"/>
       <c r="BG11" s="70"/>
       <c r="BH11" s="70"/>
       <c r="BI11" s="70"/>
-      <c r="BJ11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ11" s="70"/>
       <c r="BK11" s="70"/>
       <c r="BL11" s="70"/>
       <c r="BM11" s="70"/>
@@ -20550,26 +20593,18 @@
       <c r="BV11" s="70"/>
       <c r="BW11" s="70"/>
       <c r="BX11" s="70"/>
-      <c r="BY11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY11" s="70"/>
       <c r="BZ11" s="70"/>
       <c r="CA11" s="70"/>
       <c r="CB11" s="70"/>
-      <c r="CC11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC11" s="70"/>
       <c r="CD11" s="70"/>
-      <c r="CE11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE11" s="70"/>
       <c r="CF11" s="70"/>
       <c r="CG11" s="70"/>
       <c r="CH11" s="70"/>
       <c r="CI11" s="70"/>
-      <c r="CJ11" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ11" s="70"/>
       <c r="CK11" s="70"/>
       <c r="CL11" s="70"/>
       <c r="CM11" s="70"/>
@@ -20577,10 +20612,16 @@
       <c r="CO11" s="70"/>
       <c r="CP11" s="70"/>
       <c r="CQ11" s="70"/>
+      <c r="CR11" s="70"/>
+      <c r="CS11" s="70"/>
+      <c r="CT11" s="70"/>
+      <c r="CU11" s="70"/>
+      <c r="CV11" s="70"/>
+      <c r="CW11" s="70"/>
     </row>
     <row r="12">
       <c r="A12" s="68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -20676,30 +20717,50 @@
       <c r="CO12" s="70"/>
       <c r="CP12" s="70"/>
       <c r="CQ12" s="70"/>
+      <c r="CR12" s="70"/>
+      <c r="CS12" s="70"/>
+      <c r="CT12" s="70"/>
+      <c r="CU12" s="70"/>
+      <c r="CV12" s="70"/>
+      <c r="CW12" s="70"/>
     </row>
     <row r="13">
       <c r="A13" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+        <v>135</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="I13" s="70"/>
       <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="M13" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
+      <c r="P13" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
+      <c r="T13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U13" s="70"/>
       <c r="V13" s="70"/>
       <c r="W13" s="70"/>
@@ -20714,40 +20775,60 @@
       <c r="AF13" s="70"/>
       <c r="AG13" s="70"/>
       <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
+      <c r="AI13" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ13" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL13" s="70"/>
       <c r="AM13" s="70"/>
       <c r="AN13" s="70"/>
-      <c r="AO13" s="70"/>
+      <c r="AO13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP13" s="70"/>
       <c r="AQ13" s="70"/>
       <c r="AR13" s="70"/>
       <c r="AS13" s="70"/>
       <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
+      <c r="AU13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
+      <c r="AW13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX13" s="70"/>
       <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
+      <c r="AZ13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA13" s="70"/>
       <c r="BB13" s="70"/>
       <c r="BC13" s="70"/>
       <c r="BD13" s="70"/>
-      <c r="BE13" s="70"/>
+      <c r="BE13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF13" s="70"/>
       <c r="BG13" s="70"/>
       <c r="BH13" s="70"/>
       <c r="BI13" s="70"/>
-      <c r="BJ13" s="70"/>
+      <c r="BJ13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK13" s="70"/>
       <c r="BL13" s="70"/>
       <c r="BM13" s="70"/>
       <c r="BN13" s="70"/>
       <c r="BO13" s="70"/>
-      <c r="BP13" s="70"/>
+      <c r="BP13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ13" s="70"/>
       <c r="BR13" s="70"/>
       <c r="BS13" s="70"/>
@@ -20762,33 +20843,41 @@
       <c r="CB13" s="70"/>
       <c r="CC13" s="70"/>
       <c r="CD13" s="70"/>
-      <c r="CE13" s="70"/>
+      <c r="CE13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF13" s="70"/>
       <c r="CG13" s="70"/>
       <c r="CH13" s="70"/>
-      <c r="CI13" s="70"/>
+      <c r="CI13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ13" s="70"/>
-      <c r="CK13" s="70"/>
+      <c r="CK13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL13" s="70"/>
       <c r="CM13" s="70"/>
       <c r="CN13" s="70"/>
       <c r="CO13" s="70"/>
-      <c r="CP13" s="70"/>
+      <c r="CP13" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ13" s="70"/>
+      <c r="CR13" s="70"/>
+      <c r="CS13" s="70"/>
+      <c r="CT13" s="70"/>
+      <c r="CU13" s="70"/>
+      <c r="CV13" s="70"/>
+      <c r="CW13" s="70"/>
     </row>
     <row r="14">
       <c r="A14" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
@@ -20798,9 +20887,7 @@
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N14" s="70"/>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70"/>
@@ -20815,60 +20902,40 @@
       <c r="Z14" s="70"/>
       <c r="AA14" s="70"/>
       <c r="AB14" s="70"/>
-      <c r="AC14" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD14" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
       <c r="AF14" s="70"/>
       <c r="AG14" s="70"/>
       <c r="AH14" s="70"/>
-      <c r="AI14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AI14" s="70"/>
       <c r="AJ14" s="70"/>
       <c r="AK14" s="70"/>
       <c r="AL14" s="70"/>
       <c r="AM14" s="70"/>
       <c r="AN14" s="70"/>
-      <c r="AO14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO14" s="70"/>
       <c r="AP14" s="70"/>
-      <c r="AQ14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ14" s="70"/>
       <c r="AR14" s="70"/>
       <c r="AS14" s="70"/>
-      <c r="AT14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT14" s="70"/>
       <c r="AU14" s="70"/>
       <c r="AV14" s="70"/>
       <c r="AW14" s="70"/>
       <c r="AX14" s="70"/>
-      <c r="AY14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY14" s="70"/>
       <c r="AZ14" s="70"/>
       <c r="BA14" s="70"/>
       <c r="BB14" s="70"/>
       <c r="BC14" s="70"/>
-      <c r="BD14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD14" s="70"/>
       <c r="BE14" s="70"/>
       <c r="BF14" s="70"/>
       <c r="BG14" s="70"/>
       <c r="BH14" s="70"/>
       <c r="BI14" s="70"/>
-      <c r="BJ14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ14" s="70"/>
       <c r="BK14" s="70"/>
       <c r="BL14" s="70"/>
       <c r="BM14" s="70"/>
@@ -20883,26 +20950,18 @@
       <c r="BV14" s="70"/>
       <c r="BW14" s="70"/>
       <c r="BX14" s="70"/>
-      <c r="BY14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY14" s="70"/>
       <c r="BZ14" s="70"/>
       <c r="CA14" s="70"/>
       <c r="CB14" s="70"/>
-      <c r="CC14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC14" s="70"/>
       <c r="CD14" s="70"/>
-      <c r="CE14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE14" s="70"/>
       <c r="CF14" s="70"/>
       <c r="CG14" s="70"/>
       <c r="CH14" s="70"/>
       <c r="CI14" s="70"/>
-      <c r="CJ14" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ14" s="70"/>
       <c r="CK14" s="70"/>
       <c r="CL14" s="70"/>
       <c r="CM14" s="70"/>
@@ -20910,10 +20969,16 @@
       <c r="CO14" s="70"/>
       <c r="CP14" s="70"/>
       <c r="CQ14" s="70"/>
+      <c r="CR14" s="70"/>
+      <c r="CS14" s="70"/>
+      <c r="CT14" s="70"/>
+      <c r="CU14" s="70"/>
+      <c r="CV14" s="70"/>
+      <c r="CW14" s="70"/>
     </row>
     <row r="15">
       <c r="A15" s="68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -21009,20 +21074,32 @@
       <c r="CO15" s="70"/>
       <c r="CP15" s="70"/>
       <c r="CQ15" s="70"/>
+      <c r="CR15" s="70"/>
+      <c r="CS15" s="70"/>
+      <c r="CT15" s="70"/>
+      <c r="CU15" s="70"/>
+      <c r="CV15" s="70"/>
+      <c r="CW15" s="70"/>
     </row>
     <row r="16">
       <c r="A16" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+        <v>138</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="K16" s="70"/>
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
@@ -21032,7 +21109,9 @@
       <c r="Q16" s="70"/>
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
+      <c r="T16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U16" s="70"/>
       <c r="V16" s="70"/>
       <c r="W16" s="70"/>
@@ -21047,40 +21126,60 @@
       <c r="AF16" s="70"/>
       <c r="AG16" s="70"/>
       <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
+      <c r="AI16" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ16" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL16" s="70"/>
       <c r="AM16" s="70"/>
       <c r="AN16" s="70"/>
-      <c r="AO16" s="70"/>
+      <c r="AO16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP16" s="70"/>
       <c r="AQ16" s="70"/>
       <c r="AR16" s="70"/>
       <c r="AS16" s="70"/>
       <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
+      <c r="AU16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
+      <c r="AW16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX16" s="70"/>
       <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
+      <c r="AZ16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA16" s="70"/>
       <c r="BB16" s="70"/>
       <c r="BC16" s="70"/>
       <c r="BD16" s="70"/>
-      <c r="BE16" s="70"/>
+      <c r="BE16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF16" s="70"/>
       <c r="BG16" s="70"/>
       <c r="BH16" s="70"/>
       <c r="BI16" s="70"/>
-      <c r="BJ16" s="70"/>
+      <c r="BJ16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK16" s="70"/>
       <c r="BL16" s="70"/>
       <c r="BM16" s="70"/>
       <c r="BN16" s="70"/>
       <c r="BO16" s="70"/>
-      <c r="BP16" s="70"/>
+      <c r="BP16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ16" s="70"/>
       <c r="BR16" s="70"/>
       <c r="BS16" s="70"/>
@@ -21095,23 +21194,37 @@
       <c r="CB16" s="70"/>
       <c r="CC16" s="70"/>
       <c r="CD16" s="70"/>
-      <c r="CE16" s="70"/>
+      <c r="CE16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF16" s="70"/>
       <c r="CG16" s="70"/>
       <c r="CH16" s="70"/>
-      <c r="CI16" s="70"/>
+      <c r="CI16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ16" s="70"/>
-      <c r="CK16" s="70"/>
+      <c r="CK16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL16" s="70"/>
       <c r="CM16" s="70"/>
       <c r="CN16" s="70"/>
       <c r="CO16" s="70"/>
-      <c r="CP16" s="70"/>
+      <c r="CP16" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ16" s="70"/>
+      <c r="CR16" s="70"/>
+      <c r="CS16" s="70"/>
+      <c r="CT16" s="70"/>
+      <c r="CU16" s="70"/>
+      <c r="CV16" s="70"/>
+      <c r="CW16" s="70"/>
     </row>
     <row r="17">
       <c r="A17" s="68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
@@ -21207,38 +21320,30 @@
       <c r="CO17" s="70"/>
       <c r="CP17" s="70"/>
       <c r="CQ17" s="70"/>
+      <c r="CR17" s="70"/>
+      <c r="CS17" s="70"/>
+      <c r="CT17" s="70"/>
+      <c r="CU17" s="70"/>
+      <c r="CV17" s="70"/>
+      <c r="CW17" s="70"/>
     </row>
     <row r="18">
       <c r="A18" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
-      <c r="E18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="E18" s="70"/>
       <c r="F18" s="70"/>
-      <c r="G18" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="70"/>
-      <c r="J18" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="70"/>
       <c r="M18" s="70"/>
-      <c r="N18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N18" s="70"/>
       <c r="O18" s="70"/>
       <c r="P18" s="70"/>
       <c r="Q18" s="70"/>
@@ -21253,60 +21358,40 @@
       <c r="Z18" s="70"/>
       <c r="AA18" s="70"/>
       <c r="AB18" s="70"/>
-      <c r="AC18" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD18" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
       <c r="AF18" s="70"/>
       <c r="AG18" s="70"/>
       <c r="AH18" s="70"/>
-      <c r="AI18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AI18" s="70"/>
       <c r="AJ18" s="70"/>
       <c r="AK18" s="70"/>
       <c r="AL18" s="70"/>
       <c r="AM18" s="70"/>
       <c r="AN18" s="70"/>
-      <c r="AO18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO18" s="70"/>
       <c r="AP18" s="70"/>
-      <c r="AQ18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ18" s="70"/>
       <c r="AR18" s="70"/>
       <c r="AS18" s="70"/>
-      <c r="AT18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT18" s="70"/>
       <c r="AU18" s="70"/>
       <c r="AV18" s="70"/>
       <c r="AW18" s="70"/>
       <c r="AX18" s="70"/>
-      <c r="AY18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY18" s="70"/>
       <c r="AZ18" s="70"/>
       <c r="BA18" s="70"/>
       <c r="BB18" s="70"/>
       <c r="BC18" s="70"/>
-      <c r="BD18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD18" s="70"/>
       <c r="BE18" s="70"/>
       <c r="BF18" s="70"/>
       <c r="BG18" s="70"/>
       <c r="BH18" s="70"/>
       <c r="BI18" s="70"/>
-      <c r="BJ18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ18" s="70"/>
       <c r="BK18" s="70"/>
       <c r="BL18" s="70"/>
       <c r="BM18" s="70"/>
@@ -21321,26 +21406,18 @@
       <c r="BV18" s="70"/>
       <c r="BW18" s="70"/>
       <c r="BX18" s="70"/>
-      <c r="BY18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY18" s="70"/>
       <c r="BZ18" s="70"/>
       <c r="CA18" s="70"/>
       <c r="CB18" s="70"/>
-      <c r="CC18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC18" s="70"/>
       <c r="CD18" s="70"/>
-      <c r="CE18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE18" s="70"/>
       <c r="CF18" s="70"/>
       <c r="CG18" s="70"/>
       <c r="CH18" s="70"/>
       <c r="CI18" s="70"/>
-      <c r="CJ18" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ18" s="70"/>
       <c r="CK18" s="70"/>
       <c r="CL18" s="70"/>
       <c r="CM18" s="70"/>
@@ -21348,10 +21425,16 @@
       <c r="CO18" s="70"/>
       <c r="CP18" s="70"/>
       <c r="CQ18" s="70"/>
+      <c r="CR18" s="70"/>
+      <c r="CS18" s="70"/>
+      <c r="CT18" s="70"/>
+      <c r="CU18" s="70"/>
+      <c r="CV18" s="70"/>
+      <c r="CW18" s="70"/>
     </row>
     <row r="19">
       <c r="A19" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
@@ -21447,38 +21530,50 @@
       <c r="CO19" s="70"/>
       <c r="CP19" s="70"/>
       <c r="CQ19" s="70"/>
+      <c r="CR19" s="70"/>
+      <c r="CS19" s="70"/>
+      <c r="CT19" s="70"/>
+      <c r="CU19" s="70"/>
+      <c r="CV19" s="70"/>
+      <c r="CW19" s="70"/>
     </row>
     <row r="20">
       <c r="A20" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
+        <v>142</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="K20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
+      <c r="M20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="N20" s="71" t="s">
         <v>263</v>
       </c>
       <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
+      <c r="P20" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R20" s="70"/>
       <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="T20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U20" s="70"/>
       <c r="V20" s="70"/>
       <c r="W20" s="70"/>
@@ -21487,23 +21582,21 @@
       <c r="Z20" s="70"/>
       <c r="AA20" s="70"/>
       <c r="AB20" s="70"/>
-      <c r="AC20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE20" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
       <c r="AF20" s="70"/>
       <c r="AG20" s="70"/>
       <c r="AH20" s="70"/>
       <c r="AI20" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="70"/>
+      <c r="AJ20" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL20" s="70"/>
       <c r="AM20" s="70"/>
       <c r="AN20" s="70"/>
@@ -21511,29 +21604,29 @@
         <v>263</v>
       </c>
       <c r="AP20" s="70"/>
-      <c r="AQ20" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ20" s="70"/>
       <c r="AR20" s="70"/>
       <c r="AS20" s="70"/>
-      <c r="AT20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
+      <c r="AW20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX20" s="70"/>
-      <c r="AY20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA20" s="70"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
-      <c r="BD20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF20" s="70"/>
       <c r="BG20" s="70"/>
       <c r="BH20" s="70"/>
@@ -21546,7 +21639,9 @@
       <c r="BM20" s="70"/>
       <c r="BN20" s="70"/>
       <c r="BO20" s="70"/>
-      <c r="BP20" s="70"/>
+      <c r="BP20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ20" s="70"/>
       <c r="BR20" s="70"/>
       <c r="BS20" s="70"/>
@@ -21555,15 +21650,11 @@
       <c r="BV20" s="70"/>
       <c r="BW20" s="70"/>
       <c r="BX20" s="70"/>
-      <c r="BY20" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY20" s="70"/>
       <c r="BZ20" s="70"/>
       <c r="CA20" s="70"/>
       <c r="CB20" s="70"/>
-      <c r="CC20" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC20" s="70"/>
       <c r="CD20" s="70"/>
       <c r="CE20" s="71" t="s">
         <v>263</v>
@@ -21571,21 +21662,31 @@
       <c r="CF20" s="70"/>
       <c r="CG20" s="70"/>
       <c r="CH20" s="70"/>
-      <c r="CI20" s="70"/>
-      <c r="CJ20" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CK20" s="70"/>
+      <c r="CI20" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ20" s="70"/>
+      <c r="CK20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL20" s="70"/>
       <c r="CM20" s="70"/>
       <c r="CN20" s="70"/>
       <c r="CO20" s="70"/>
-      <c r="CP20" s="70"/>
+      <c r="CP20" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ20" s="70"/>
+      <c r="CR20" s="70"/>
+      <c r="CS20" s="70"/>
+      <c r="CT20" s="70"/>
+      <c r="CU20" s="70"/>
+      <c r="CV20" s="70"/>
+      <c r="CW20" s="70"/>
     </row>
     <row r="21">
       <c r="A21" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
@@ -21614,17 +21715,13 @@
       <c r="Z21" s="70"/>
       <c r="AA21" s="70"/>
       <c r="AB21" s="70"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71" t="s">
-        <v>264</v>
-      </c>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
       <c r="AE21" s="70"/>
       <c r="AF21" s="70"/>
       <c r="AG21" s="70"/>
       <c r="AH21" s="70"/>
-      <c r="AI21" s="71" t="s">
-        <v>264</v>
-      </c>
+      <c r="AI21" s="70"/>
       <c r="AJ21" s="70"/>
       <c r="AK21" s="70"/>
       <c r="AL21" s="70"/>
@@ -21635,9 +21732,7 @@
       <c r="AQ21" s="70"/>
       <c r="AR21" s="70"/>
       <c r="AS21" s="70"/>
-      <c r="AT21" s="71" t="s">
-        <v>264</v>
-      </c>
+      <c r="AT21" s="70"/>
       <c r="AU21" s="70"/>
       <c r="AV21" s="70"/>
       <c r="AW21" s="70"/>
@@ -21687,38 +21782,44 @@
       <c r="CO21" s="70"/>
       <c r="CP21" s="70"/>
       <c r="CQ21" s="70"/>
+      <c r="CR21" s="70"/>
+      <c r="CS21" s="70"/>
+      <c r="CT21" s="70"/>
+      <c r="CU21" s="70"/>
+      <c r="CV21" s="70"/>
+      <c r="CW21" s="70"/>
     </row>
     <row r="22">
       <c r="A22" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+        <v>144</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
-      <c r="N22" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N22" s="70"/>
       <c r="O22" s="70"/>
       <c r="P22" s="70"/>
       <c r="Q22" s="70"/>
       <c r="R22" s="70"/>
       <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
+      <c r="T22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U22" s="70"/>
       <c r="V22" s="70"/>
       <c r="W22" s="70"/>
@@ -21727,23 +21828,21 @@
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="70"/>
-      <c r="AC22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE22" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
       <c r="AF22" s="70"/>
       <c r="AG22" s="70"/>
       <c r="AH22" s="70"/>
       <c r="AI22" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
+      <c r="AJ22" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL22" s="70"/>
       <c r="AM22" s="70"/>
       <c r="AN22" s="70"/>
@@ -21751,29 +21850,29 @@
         <v>263</v>
       </c>
       <c r="AP22" s="70"/>
-      <c r="AQ22" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ22" s="70"/>
       <c r="AR22" s="70"/>
       <c r="AS22" s="70"/>
-      <c r="AT22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
+      <c r="AW22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX22" s="70"/>
-      <c r="AY22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA22" s="70"/>
       <c r="BB22" s="70"/>
       <c r="BC22" s="70"/>
-      <c r="BD22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF22" s="70"/>
       <c r="BG22" s="70"/>
       <c r="BH22" s="70"/>
@@ -21786,7 +21885,9 @@
       <c r="BM22" s="70"/>
       <c r="BN22" s="70"/>
       <c r="BO22" s="70"/>
-      <c r="BP22" s="70"/>
+      <c r="BP22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ22" s="70"/>
       <c r="BR22" s="70"/>
       <c r="BS22" s="70"/>
@@ -21795,15 +21896,11 @@
       <c r="BV22" s="70"/>
       <c r="BW22" s="70"/>
       <c r="BX22" s="70"/>
-      <c r="BY22" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY22" s="70"/>
       <c r="BZ22" s="70"/>
       <c r="CA22" s="70"/>
       <c r="CB22" s="70"/>
-      <c r="CC22" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC22" s="70"/>
       <c r="CD22" s="70"/>
       <c r="CE22" s="71" t="s">
         <v>263</v>
@@ -21811,25 +21908,33 @@
       <c r="CF22" s="70"/>
       <c r="CG22" s="70"/>
       <c r="CH22" s="70"/>
-      <c r="CI22" s="70"/>
-      <c r="CJ22" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CK22" s="70"/>
+      <c r="CI22" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ22" s="70"/>
+      <c r="CK22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL22" s="70"/>
       <c r="CM22" s="70"/>
       <c r="CN22" s="70"/>
       <c r="CO22" s="70"/>
-      <c r="CP22" s="70"/>
+      <c r="CP22" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ22" s="70"/>
+      <c r="CR22" s="70"/>
+      <c r="CS22" s="70"/>
+      <c r="CT22" s="70"/>
+      <c r="CU22" s="70"/>
+      <c r="CV22" s="70"/>
+      <c r="CW22" s="70"/>
     </row>
     <row r="23">
       <c r="A23" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>265</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B23" s="70"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
@@ -21862,13 +21967,17 @@
       <c r="AF23" s="70"/>
       <c r="AG23" s="70"/>
       <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71" t="s">
+        <v>264</v>
+      </c>
       <c r="AK23" s="70"/>
       <c r="AL23" s="70"/>
       <c r="AM23" s="70"/>
       <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
+      <c r="AO23" s="71" t="s">
+        <v>264</v>
+      </c>
       <c r="AP23" s="70"/>
       <c r="AQ23" s="70"/>
       <c r="AR23" s="70"/>
@@ -21878,10 +21987,10 @@
       <c r="AV23" s="70"/>
       <c r="AW23" s="70"/>
       <c r="AX23" s="70"/>
-      <c r="AY23" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="AZ23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="71" t="s">
+        <v>264</v>
+      </c>
       <c r="BA23" s="70"/>
       <c r="BB23" s="70"/>
       <c r="BC23" s="70"/>
@@ -21925,20 +22034,32 @@
       <c r="CO23" s="70"/>
       <c r="CP23" s="70"/>
       <c r="CQ23" s="70"/>
+      <c r="CR23" s="70"/>
+      <c r="CS23" s="70"/>
+      <c r="CT23" s="70"/>
+      <c r="CU23" s="70"/>
+      <c r="CV23" s="70"/>
+      <c r="CW23" s="70"/>
     </row>
     <row r="24">
       <c r="A24" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+        <v>146</v>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="K24" s="70"/>
       <c r="L24" s="70"/>
       <c r="M24" s="70"/>
@@ -21948,7 +22069,9 @@
       <c r="Q24" s="70"/>
       <c r="R24" s="70"/>
       <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
       <c r="W24" s="70"/>
@@ -21963,40 +22086,60 @@
       <c r="AF24" s="70"/>
       <c r="AG24" s="70"/>
       <c r="AH24" s="70"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="70"/>
+      <c r="AI24" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ24" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL24" s="70"/>
       <c r="AM24" s="70"/>
       <c r="AN24" s="70"/>
-      <c r="AO24" s="70"/>
+      <c r="AO24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP24" s="70"/>
       <c r="AQ24" s="70"/>
       <c r="AR24" s="70"/>
       <c r="AS24" s="70"/>
       <c r="AT24" s="70"/>
-      <c r="AU24" s="70"/>
+      <c r="AU24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV24" s="70"/>
-      <c r="AW24" s="70"/>
+      <c r="AW24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX24" s="70"/>
       <c r="AY24" s="70"/>
-      <c r="AZ24" s="70"/>
+      <c r="AZ24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA24" s="70"/>
       <c r="BB24" s="70"/>
       <c r="BC24" s="70"/>
       <c r="BD24" s="70"/>
-      <c r="BE24" s="70"/>
+      <c r="BE24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF24" s="70"/>
       <c r="BG24" s="70"/>
       <c r="BH24" s="70"/>
       <c r="BI24" s="70"/>
-      <c r="BJ24" s="70"/>
+      <c r="BJ24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK24" s="70"/>
       <c r="BL24" s="70"/>
       <c r="BM24" s="70"/>
       <c r="BN24" s="70"/>
       <c r="BO24" s="70"/>
-      <c r="BP24" s="70"/>
+      <c r="BP24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ24" s="70"/>
       <c r="BR24" s="70"/>
       <c r="BS24" s="70"/>
@@ -22011,31 +22154,47 @@
       <c r="CB24" s="70"/>
       <c r="CC24" s="70"/>
       <c r="CD24" s="70"/>
-      <c r="CE24" s="70"/>
+      <c r="CE24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF24" s="70"/>
       <c r="CG24" s="70"/>
       <c r="CH24" s="70"/>
-      <c r="CI24" s="70"/>
+      <c r="CI24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ24" s="70"/>
-      <c r="CK24" s="70"/>
+      <c r="CK24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL24" s="70"/>
       <c r="CM24" s="70"/>
       <c r="CN24" s="70"/>
       <c r="CO24" s="70"/>
-      <c r="CP24" s="70"/>
+      <c r="CP24" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ24" s="70"/>
+      <c r="CR24" s="70"/>
+      <c r="CS24" s="70"/>
+      <c r="CT24" s="70"/>
+      <c r="CU24" s="70"/>
+      <c r="CV24" s="70"/>
+      <c r="CW24" s="70"/>
     </row>
     <row r="25">
       <c r="A25" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+        <v>147</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71" t="s">
+        <v>265</v>
+      </c>
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
       <c r="K25" s="70"/>
@@ -22084,7 +22243,9 @@
       <c r="BB25" s="70"/>
       <c r="BC25" s="70"/>
       <c r="BD25" s="70"/>
-      <c r="BE25" s="70"/>
+      <c r="BE25" s="71" t="s">
+        <v>265</v>
+      </c>
       <c r="BF25" s="70"/>
       <c r="BG25" s="70"/>
       <c r="BH25" s="70"/>
@@ -22123,10 +22284,16 @@
       <c r="CO25" s="70"/>
       <c r="CP25" s="70"/>
       <c r="CQ25" s="70"/>
+      <c r="CR25" s="70"/>
+      <c r="CS25" s="70"/>
+      <c r="CT25" s="70"/>
+      <c r="CU25" s="70"/>
+      <c r="CV25" s="70"/>
+      <c r="CW25" s="70"/>
     </row>
     <row r="26">
       <c r="A26" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -22222,20 +22389,20 @@
       <c r="CO26" s="70"/>
       <c r="CP26" s="70"/>
       <c r="CQ26" s="70"/>
+      <c r="CR26" s="70"/>
+      <c r="CS26" s="70"/>
+      <c r="CT26" s="70"/>
+      <c r="CU26" s="70"/>
+      <c r="CV26" s="70"/>
+      <c r="CW26" s="70"/>
     </row>
     <row r="27">
       <c r="A27" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="70"/>
       <c r="F27" s="70"/>
       <c r="G27" s="70"/>
@@ -22245,9 +22412,7 @@
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
-      <c r="N27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70"/>
@@ -22262,60 +22427,40 @@
       <c r="Z27" s="70"/>
       <c r="AA27" s="70"/>
       <c r="AB27" s="70"/>
-      <c r="AC27" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD27" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
       <c r="AF27" s="70"/>
       <c r="AG27" s="70"/>
       <c r="AH27" s="70"/>
-      <c r="AI27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AI27" s="70"/>
       <c r="AJ27" s="70"/>
       <c r="AK27" s="70"/>
       <c r="AL27" s="70"/>
       <c r="AM27" s="70"/>
       <c r="AN27" s="70"/>
-      <c r="AO27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO27" s="70"/>
       <c r="AP27" s="70"/>
-      <c r="AQ27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ27" s="70"/>
       <c r="AR27" s="70"/>
       <c r="AS27" s="70"/>
-      <c r="AT27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT27" s="70"/>
       <c r="AU27" s="70"/>
       <c r="AV27" s="70"/>
       <c r="AW27" s="70"/>
       <c r="AX27" s="70"/>
-      <c r="AY27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY27" s="70"/>
       <c r="AZ27" s="70"/>
       <c r="BA27" s="70"/>
       <c r="BB27" s="70"/>
       <c r="BC27" s="70"/>
-      <c r="BD27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD27" s="70"/>
       <c r="BE27" s="70"/>
       <c r="BF27" s="70"/>
       <c r="BG27" s="70"/>
       <c r="BH27" s="70"/>
       <c r="BI27" s="70"/>
-      <c r="BJ27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ27" s="70"/>
       <c r="BK27" s="70"/>
       <c r="BL27" s="70"/>
       <c r="BM27" s="70"/>
@@ -22330,26 +22475,18 @@
       <c r="BV27" s="70"/>
       <c r="BW27" s="70"/>
       <c r="BX27" s="70"/>
-      <c r="BY27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY27" s="70"/>
       <c r="BZ27" s="70"/>
       <c r="CA27" s="70"/>
       <c r="CB27" s="70"/>
-      <c r="CC27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC27" s="70"/>
       <c r="CD27" s="70"/>
-      <c r="CE27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE27" s="70"/>
       <c r="CF27" s="70"/>
       <c r="CG27" s="70"/>
       <c r="CH27" s="70"/>
       <c r="CI27" s="70"/>
-      <c r="CJ27" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ27" s="70"/>
       <c r="CK27" s="70"/>
       <c r="CL27" s="70"/>
       <c r="CM27" s="70"/>
@@ -22357,10 +22494,16 @@
       <c r="CO27" s="70"/>
       <c r="CP27" s="70"/>
       <c r="CQ27" s="70"/>
+      <c r="CR27" s="70"/>
+      <c r="CS27" s="70"/>
+      <c r="CT27" s="70"/>
+      <c r="CU27" s="70"/>
+      <c r="CV27" s="70"/>
+      <c r="CW27" s="70"/>
     </row>
     <row r="28">
       <c r="A28" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
@@ -22456,38 +22599,44 @@
       <c r="CO28" s="70"/>
       <c r="CP28" s="70"/>
       <c r="CQ28" s="70"/>
+      <c r="CR28" s="70"/>
+      <c r="CS28" s="70"/>
+      <c r="CT28" s="70"/>
+      <c r="CU28" s="70"/>
+      <c r="CV28" s="70"/>
+      <c r="CW28" s="70"/>
     </row>
     <row r="29">
       <c r="A29" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+        <v>151</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
-      <c r="N29" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N29" s="70"/>
       <c r="O29" s="70"/>
       <c r="P29" s="70"/>
       <c r="Q29" s="70"/>
       <c r="R29" s="70"/>
       <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
+      <c r="T29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U29" s="70"/>
       <c r="V29" s="70"/>
       <c r="W29" s="70"/>
@@ -22496,23 +22645,21 @@
       <c r="Z29" s="70"/>
       <c r="AA29" s="70"/>
       <c r="AB29" s="70"/>
-      <c r="AC29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE29" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
       <c r="AF29" s="70"/>
       <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
       <c r="AI29" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="70"/>
+      <c r="AJ29" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL29" s="70"/>
       <c r="AM29" s="70"/>
       <c r="AN29" s="70"/>
@@ -22520,29 +22667,29 @@
         <v>263</v>
       </c>
       <c r="AP29" s="70"/>
-      <c r="AQ29" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ29" s="70"/>
       <c r="AR29" s="70"/>
       <c r="AS29" s="70"/>
-      <c r="AT29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV29" s="70"/>
-      <c r="AW29" s="70"/>
+      <c r="AW29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX29" s="70"/>
-      <c r="AY29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA29" s="70"/>
       <c r="BB29" s="70"/>
       <c r="BC29" s="70"/>
-      <c r="BD29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF29" s="70"/>
       <c r="BG29" s="70"/>
       <c r="BH29" s="70"/>
@@ -22555,7 +22702,9 @@
       <c r="BM29" s="70"/>
       <c r="BN29" s="70"/>
       <c r="BO29" s="70"/>
-      <c r="BP29" s="70"/>
+      <c r="BP29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ29" s="70"/>
       <c r="BR29" s="70"/>
       <c r="BS29" s="70"/>
@@ -22564,15 +22713,11 @@
       <c r="BV29" s="70"/>
       <c r="BW29" s="70"/>
       <c r="BX29" s="70"/>
-      <c r="BY29" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY29" s="70"/>
       <c r="BZ29" s="70"/>
       <c r="CA29" s="70"/>
       <c r="CB29" s="70"/>
-      <c r="CC29" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC29" s="70"/>
       <c r="CD29" s="70"/>
       <c r="CE29" s="71" t="s">
         <v>263</v>
@@ -22580,21 +22725,31 @@
       <c r="CF29" s="70"/>
       <c r="CG29" s="70"/>
       <c r="CH29" s="70"/>
-      <c r="CI29" s="70"/>
-      <c r="CJ29" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CK29" s="70"/>
+      <c r="CI29" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ29" s="70"/>
+      <c r="CK29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL29" s="70"/>
       <c r="CM29" s="70"/>
       <c r="CN29" s="70"/>
       <c r="CO29" s="70"/>
-      <c r="CP29" s="70"/>
+      <c r="CP29" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ29" s="70"/>
+      <c r="CR29" s="70"/>
+      <c r="CS29" s="70"/>
+      <c r="CT29" s="70"/>
+      <c r="CU29" s="70"/>
+      <c r="CV29" s="70"/>
+      <c r="CW29" s="70"/>
     </row>
     <row r="30">
       <c r="A30" s="68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -22690,29 +22845,23 @@
       <c r="CO30" s="70"/>
       <c r="CP30" s="70"/>
       <c r="CQ30" s="70"/>
+      <c r="CR30" s="70"/>
+      <c r="CS30" s="70"/>
+      <c r="CT30" s="70"/>
+      <c r="CU30" s="70"/>
+      <c r="CV30" s="70"/>
+      <c r="CW30" s="70"/>
     </row>
     <row r="31">
       <c r="A31" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="71" t="s">
         <v>263</v>
       </c>
@@ -22722,76 +22871,32 @@
       <c r="J31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="L31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="M31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="N31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="O31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="P31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="R31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="S31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
       <c r="T31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="U31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="V31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="W31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="X31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
       <c r="AB31" s="70"/>
-      <c r="AC31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
       <c r="AI31" s="71" t="s">
         <v>263</v>
       </c>
@@ -22801,180 +22906,96 @@
       <c r="AK31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AL31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AM31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="70"/>
+      <c r="AN31" s="70"/>
       <c r="AO31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AP31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AR31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AS31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="70"/>
+      <c r="AR31" s="70"/>
+      <c r="AS31" s="70"/>
+      <c r="AT31" s="70"/>
       <c r="AU31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AV31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AV31" s="70"/>
       <c r="AW31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AX31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AX31" s="70"/>
+      <c r="AY31" s="70"/>
       <c r="AZ31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BA31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BB31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BC31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BD31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BA31" s="70"/>
+      <c r="BB31" s="70"/>
+      <c r="BC31" s="70"/>
+      <c r="BD31" s="70"/>
       <c r="BE31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BF31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BG31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BF31" s="70"/>
+      <c r="BG31" s="70"/>
+      <c r="BH31" s="70"/>
+      <c r="BI31" s="70"/>
       <c r="BJ31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BK31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BN31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BK31" s="70"/>
+      <c r="BL31" s="70"/>
+      <c r="BM31" s="70"/>
+      <c r="BN31" s="70"/>
+      <c r="BO31" s="70"/>
       <c r="BP31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BQ31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BR31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BS31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BT31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BU31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BQ31" s="70"/>
+      <c r="BR31" s="70"/>
+      <c r="BS31" s="70"/>
+      <c r="BT31" s="70"/>
+      <c r="BU31" s="70"/>
       <c r="BV31" s="70"/>
-      <c r="BW31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BZ31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BW31" s="70"/>
+      <c r="BX31" s="70"/>
+      <c r="BY31" s="70"/>
+      <c r="BZ31" s="70"/>
+      <c r="CA31" s="70"/>
       <c r="CB31" s="70"/>
-      <c r="CC31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CD31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC31" s="70"/>
+      <c r="CD31" s="70"/>
       <c r="CE31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CF31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CG31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CH31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CF31" s="70"/>
+      <c r="CG31" s="70"/>
+      <c r="CH31" s="70"/>
       <c r="CI31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CJ31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ31" s="70"/>
       <c r="CK31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CL31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CM31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CN31" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CO31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CL31" s="70"/>
+      <c r="CM31" s="70"/>
+      <c r="CN31" s="70"/>
+      <c r="CO31" s="70"/>
       <c r="CP31" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CQ31" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CQ31" s="70"/>
+      <c r="CR31" s="70"/>
+      <c r="CS31" s="70"/>
+      <c r="CT31" s="70"/>
+      <c r="CU31" s="70"/>
+      <c r="CV31" s="70"/>
+      <c r="CW31" s="70"/>
     </row>
     <row r="32">
       <c r="A32" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -23070,54 +23091,86 @@
       <c r="CO32" s="70"/>
       <c r="CP32" s="70"/>
       <c r="CQ32" s="70"/>
+      <c r="CR32" s="70"/>
+      <c r="CS32" s="70"/>
+      <c r="CT32" s="70"/>
+      <c r="CU32" s="70"/>
+      <c r="CV32" s="70"/>
+      <c r="CW32" s="70"/>
     </row>
     <row r="33">
       <c r="A33" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I33" s="70"/>
+      <c r="I33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="J33" s="71" t="s">
         <v>263</v>
       </c>
       <c r="K33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70"/>
+      <c r="L33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="R33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="S33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="T33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="U33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="V33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="W33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="X33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AC33" s="71" t="s">
         <v>263</v>
       </c>
@@ -23127,96 +23180,214 @@
       <c r="AE33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="70"/>
+      <c r="AF33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AH33" s="70"/>
       <c r="AI33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AJ33" s="70"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="70"/>
-      <c r="AM33" s="70"/>
-      <c r="AN33" s="70"/>
+      <c r="AJ33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AO33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AP33" s="70"/>
+      <c r="AP33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AQ33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AR33" s="70"/>
-      <c r="AS33" s="70"/>
+      <c r="AR33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AT33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AU33" s="70"/>
-      <c r="AV33" s="70"/>
-      <c r="AW33" s="70"/>
-      <c r="AX33" s="70"/>
+      <c r="AU33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AY33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AZ33" s="70"/>
-      <c r="BA33" s="70"/>
-      <c r="BB33" s="70"/>
-      <c r="BC33" s="70"/>
+      <c r="AZ33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BD33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BE33" s="70"/>
-      <c r="BF33" s="70"/>
-      <c r="BG33" s="70"/>
-      <c r="BH33" s="70"/>
-      <c r="BI33" s="70"/>
+      <c r="BE33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BF33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BJ33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BK33" s="70"/>
-      <c r="BL33" s="70"/>
-      <c r="BM33" s="70"/>
-      <c r="BN33" s="70"/>
-      <c r="BO33" s="70"/>
-      <c r="BP33" s="70"/>
-      <c r="BQ33" s="70"/>
-      <c r="BR33" s="70"/>
-      <c r="BS33" s="70"/>
-      <c r="BT33" s="70"/>
-      <c r="BU33" s="70"/>
-      <c r="BV33" s="70"/>
-      <c r="BW33" s="70"/>
-      <c r="BX33" s="70"/>
+      <c r="BK33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BL33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BN33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BR33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BS33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BY33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="BZ33" s="70"/>
-      <c r="CA33" s="70"/>
+      <c r="BZ33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CA33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CB33" s="70"/>
       <c r="CC33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CD33" s="70"/>
+      <c r="CD33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CE33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CF33" s="70"/>
-      <c r="CG33" s="70"/>
+      <c r="CF33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CH33" s="70"/>
-      <c r="CI33" s="70"/>
+      <c r="CI33" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ33" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="CK33" s="70"/>
-      <c r="CL33" s="70"/>
-      <c r="CM33" s="70"/>
-      <c r="CN33" s="70"/>
-      <c r="CO33" s="70"/>
-      <c r="CP33" s="70"/>
-      <c r="CQ33" s="70"/>
+      <c r="CK33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CL33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CM33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CN33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CO33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CP33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CQ33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CR33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CS33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CT33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CU33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CV33" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW33" s="71" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -23312,27 +23483,49 @@
       <c r="CO34" s="70"/>
       <c r="CP34" s="70"/>
       <c r="CQ34" s="70"/>
+      <c r="CR34" s="70"/>
+      <c r="CS34" s="70"/>
+      <c r="CT34" s="70"/>
+      <c r="CU34" s="70"/>
+      <c r="CV34" s="70"/>
+      <c r="CW34" s="70"/>
     </row>
     <row r="35">
       <c r="A35" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
+        <v>157</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
+      <c r="M35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
+      <c r="P35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R35" s="70"/>
       <c r="S35" s="70"/>
       <c r="T35" s="70"/>
@@ -23350,40 +23543,60 @@
       <c r="AF35" s="70"/>
       <c r="AG35" s="70"/>
       <c r="AH35" s="70"/>
-      <c r="AI35" s="70"/>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="70"/>
+      <c r="AI35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ35" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL35" s="70"/>
       <c r="AM35" s="70"/>
       <c r="AN35" s="70"/>
-      <c r="AO35" s="70"/>
+      <c r="AO35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP35" s="70"/>
       <c r="AQ35" s="70"/>
       <c r="AR35" s="70"/>
       <c r="AS35" s="70"/>
       <c r="AT35" s="70"/>
-      <c r="AU35" s="70"/>
+      <c r="AU35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV35" s="70"/>
-      <c r="AW35" s="70"/>
+      <c r="AW35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX35" s="70"/>
       <c r="AY35" s="70"/>
-      <c r="AZ35" s="70"/>
+      <c r="AZ35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA35" s="70"/>
       <c r="BB35" s="70"/>
       <c r="BC35" s="70"/>
       <c r="BD35" s="70"/>
-      <c r="BE35" s="70"/>
+      <c r="BE35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF35" s="70"/>
       <c r="BG35" s="70"/>
       <c r="BH35" s="70"/>
       <c r="BI35" s="70"/>
-      <c r="BJ35" s="70"/>
+      <c r="BJ35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK35" s="70"/>
       <c r="BL35" s="70"/>
       <c r="BM35" s="70"/>
       <c r="BN35" s="70"/>
       <c r="BO35" s="70"/>
-      <c r="BP35" s="70"/>
+      <c r="BP35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ35" s="70"/>
       <c r="BR35" s="70"/>
       <c r="BS35" s="70"/>
@@ -23398,23 +23611,37 @@
       <c r="CB35" s="70"/>
       <c r="CC35" s="70"/>
       <c r="CD35" s="70"/>
-      <c r="CE35" s="70"/>
+      <c r="CE35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF35" s="70"/>
       <c r="CG35" s="70"/>
       <c r="CH35" s="70"/>
-      <c r="CI35" s="70"/>
+      <c r="CI35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ35" s="70"/>
-      <c r="CK35" s="70"/>
+      <c r="CK35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL35" s="70"/>
       <c r="CM35" s="70"/>
       <c r="CN35" s="70"/>
       <c r="CO35" s="70"/>
-      <c r="CP35" s="70"/>
+      <c r="CP35" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ35" s="70"/>
+      <c r="CR35" s="70"/>
+      <c r="CS35" s="70"/>
+      <c r="CT35" s="70"/>
+      <c r="CU35" s="70"/>
+      <c r="CV35" s="70"/>
+      <c r="CW35" s="70"/>
     </row>
     <row r="36">
       <c r="A36" s="68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -23510,10 +23737,16 @@
       <c r="CO36" s="70"/>
       <c r="CP36" s="70"/>
       <c r="CQ36" s="70"/>
+      <c r="CR36" s="70"/>
+      <c r="CS36" s="70"/>
+      <c r="CT36" s="70"/>
+      <c r="CU36" s="70"/>
+      <c r="CV36" s="70"/>
+      <c r="CW36" s="70"/>
     </row>
     <row r="37">
       <c r="A37" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -23609,10 +23842,16 @@
       <c r="CO37" s="70"/>
       <c r="CP37" s="70"/>
       <c r="CQ37" s="70"/>
+      <c r="CR37" s="70"/>
+      <c r="CS37" s="70"/>
+      <c r="CT37" s="70"/>
+      <c r="CU37" s="70"/>
+      <c r="CV37" s="70"/>
+      <c r="CW37" s="70"/>
     </row>
     <row r="38">
       <c r="A38" s="68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
@@ -23708,10 +23947,16 @@
       <c r="CO38" s="70"/>
       <c r="CP38" s="70"/>
       <c r="CQ38" s="70"/>
+      <c r="CR38" s="70"/>
+      <c r="CS38" s="70"/>
+      <c r="CT38" s="70"/>
+      <c r="CU38" s="70"/>
+      <c r="CV38" s="70"/>
+      <c r="CW38" s="70"/>
     </row>
     <row r="39">
       <c r="A39" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
@@ -23807,10 +24052,16 @@
       <c r="CO39" s="70"/>
       <c r="CP39" s="70"/>
       <c r="CQ39" s="70"/>
+      <c r="CR39" s="70"/>
+      <c r="CS39" s="70"/>
+      <c r="CT39" s="70"/>
+      <c r="CU39" s="70"/>
+      <c r="CV39" s="70"/>
+      <c r="CW39" s="70"/>
     </row>
     <row r="40">
       <c r="A40" s="68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
@@ -23906,10 +24157,16 @@
       <c r="CO40" s="70"/>
       <c r="CP40" s="70"/>
       <c r="CQ40" s="70"/>
+      <c r="CR40" s="70"/>
+      <c r="CS40" s="70"/>
+      <c r="CT40" s="70"/>
+      <c r="CU40" s="70"/>
+      <c r="CV40" s="70"/>
+      <c r="CW40" s="70"/>
     </row>
     <row r="41">
       <c r="A41" s="68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -24005,10 +24262,16 @@
       <c r="CO41" s="70"/>
       <c r="CP41" s="70"/>
       <c r="CQ41" s="70"/>
+      <c r="CR41" s="70"/>
+      <c r="CS41" s="70"/>
+      <c r="CT41" s="70"/>
+      <c r="CU41" s="70"/>
+      <c r="CV41" s="70"/>
+      <c r="CW41" s="70"/>
     </row>
     <row r="42">
       <c r="A42" s="68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -24104,10 +24367,16 @@
       <c r="CO42" s="70"/>
       <c r="CP42" s="70"/>
       <c r="CQ42" s="70"/>
+      <c r="CR42" s="70"/>
+      <c r="CS42" s="70"/>
+      <c r="CT42" s="70"/>
+      <c r="CU42" s="70"/>
+      <c r="CV42" s="70"/>
+      <c r="CW42" s="70"/>
     </row>
     <row r="43">
       <c r="A43" s="68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" s="70"/>
       <c r="C43" s="70"/>
@@ -24203,10 +24472,16 @@
       <c r="CO43" s="70"/>
       <c r="CP43" s="70"/>
       <c r="CQ43" s="70"/>
+      <c r="CR43" s="70"/>
+      <c r="CS43" s="70"/>
+      <c r="CT43" s="70"/>
+      <c r="CU43" s="70"/>
+      <c r="CV43" s="70"/>
+      <c r="CW43" s="70"/>
     </row>
     <row r="44">
       <c r="A44" s="68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B44" s="70"/>
       <c r="C44" s="70"/>
@@ -24302,10 +24577,16 @@
       <c r="CO44" s="70"/>
       <c r="CP44" s="70"/>
       <c r="CQ44" s="70"/>
+      <c r="CR44" s="70"/>
+      <c r="CS44" s="70"/>
+      <c r="CT44" s="70"/>
+      <c r="CU44" s="70"/>
+      <c r="CV44" s="70"/>
+      <c r="CW44" s="70"/>
     </row>
     <row r="45">
       <c r="A45" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B45" s="70"/>
       <c r="C45" s="70"/>
@@ -24401,10 +24682,16 @@
       <c r="CO45" s="70"/>
       <c r="CP45" s="70"/>
       <c r="CQ45" s="70"/>
+      <c r="CR45" s="70"/>
+      <c r="CS45" s="70"/>
+      <c r="CT45" s="70"/>
+      <c r="CU45" s="70"/>
+      <c r="CV45" s="70"/>
+      <c r="CW45" s="70"/>
     </row>
     <row r="46">
       <c r="A46" s="68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -24500,10 +24787,16 @@
       <c r="CO46" s="70"/>
       <c r="CP46" s="70"/>
       <c r="CQ46" s="70"/>
+      <c r="CR46" s="70"/>
+      <c r="CS46" s="70"/>
+      <c r="CT46" s="70"/>
+      <c r="CU46" s="70"/>
+      <c r="CV46" s="70"/>
+      <c r="CW46" s="70"/>
     </row>
     <row r="47">
       <c r="A47" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" s="70"/>
       <c r="C47" s="70"/>
@@ -24599,10 +24892,16 @@
       <c r="CO47" s="70"/>
       <c r="CP47" s="70"/>
       <c r="CQ47" s="70"/>
+      <c r="CR47" s="70"/>
+      <c r="CS47" s="70"/>
+      <c r="CT47" s="70"/>
+      <c r="CU47" s="70"/>
+      <c r="CV47" s="70"/>
+      <c r="CW47" s="70"/>
     </row>
     <row r="48">
       <c r="A48" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -24698,10 +24997,16 @@
       <c r="CO48" s="70"/>
       <c r="CP48" s="70"/>
       <c r="CQ48" s="70"/>
+      <c r="CR48" s="70"/>
+      <c r="CS48" s="70"/>
+      <c r="CT48" s="70"/>
+      <c r="CU48" s="70"/>
+      <c r="CV48" s="70"/>
+      <c r="CW48" s="70"/>
     </row>
     <row r="49">
       <c r="A49" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" s="70"/>
       <c r="C49" s="70"/>
@@ -24797,10 +25102,16 @@
       <c r="CO49" s="70"/>
       <c r="CP49" s="70"/>
       <c r="CQ49" s="70"/>
+      <c r="CR49" s="70"/>
+      <c r="CS49" s="70"/>
+      <c r="CT49" s="70"/>
+      <c r="CU49" s="70"/>
+      <c r="CV49" s="70"/>
+      <c r="CW49" s="70"/>
     </row>
     <row r="50">
       <c r="A50" s="68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="70"/>
       <c r="C50" s="70"/>
@@ -24829,9 +25140,7 @@
       <c r="Z50" s="70"/>
       <c r="AA50" s="70"/>
       <c r="AB50" s="70"/>
-      <c r="AC50" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC50" s="70"/>
       <c r="AD50" s="70"/>
       <c r="AE50" s="70"/>
       <c r="AF50" s="70"/>
@@ -24898,10 +25207,16 @@
       <c r="CO50" s="70"/>
       <c r="CP50" s="70"/>
       <c r="CQ50" s="70"/>
+      <c r="CR50" s="70"/>
+      <c r="CS50" s="70"/>
+      <c r="CT50" s="70"/>
+      <c r="CU50" s="70"/>
+      <c r="CV50" s="70"/>
+      <c r="CW50" s="70"/>
     </row>
     <row r="51">
       <c r="A51" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" s="70"/>
       <c r="C51" s="70"/>
@@ -24997,10 +25312,16 @@
       <c r="CO51" s="70"/>
       <c r="CP51" s="70"/>
       <c r="CQ51" s="70"/>
+      <c r="CR51" s="70"/>
+      <c r="CS51" s="70"/>
+      <c r="CT51" s="70"/>
+      <c r="CU51" s="70"/>
+      <c r="CV51" s="70"/>
+      <c r="CW51" s="70"/>
     </row>
     <row r="52">
       <c r="A52" s="68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="70"/>
       <c r="C52" s="70"/>
@@ -25035,7 +25356,9 @@
       <c r="AF52" s="70"/>
       <c r="AG52" s="70"/>
       <c r="AH52" s="70"/>
-      <c r="AI52" s="70"/>
+      <c r="AI52" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AJ52" s="70"/>
       <c r="AK52" s="70"/>
       <c r="AL52" s="70"/>
@@ -25096,10 +25419,16 @@
       <c r="CO52" s="70"/>
       <c r="CP52" s="70"/>
       <c r="CQ52" s="70"/>
+      <c r="CR52" s="70"/>
+      <c r="CS52" s="70"/>
+      <c r="CT52" s="70"/>
+      <c r="CU52" s="70"/>
+      <c r="CV52" s="70"/>
+      <c r="CW52" s="70"/>
     </row>
     <row r="53">
       <c r="A53" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" s="70"/>
       <c r="C53" s="70"/>
@@ -25195,10 +25524,16 @@
       <c r="CO53" s="70"/>
       <c r="CP53" s="70"/>
       <c r="CQ53" s="70"/>
+      <c r="CR53" s="70"/>
+      <c r="CS53" s="70"/>
+      <c r="CT53" s="70"/>
+      <c r="CU53" s="70"/>
+      <c r="CV53" s="70"/>
+      <c r="CW53" s="70"/>
     </row>
     <row r="54">
       <c r="A54" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B54" s="70"/>
       <c r="C54" s="70"/>
@@ -25294,10 +25629,16 @@
       <c r="CO54" s="70"/>
       <c r="CP54" s="70"/>
       <c r="CQ54" s="70"/>
+      <c r="CR54" s="70"/>
+      <c r="CS54" s="70"/>
+      <c r="CT54" s="70"/>
+      <c r="CU54" s="70"/>
+      <c r="CV54" s="70"/>
+      <c r="CW54" s="70"/>
     </row>
     <row r="55">
       <c r="A55" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" s="70"/>
       <c r="C55" s="70"/>
@@ -25393,10 +25734,16 @@
       <c r="CO55" s="70"/>
       <c r="CP55" s="70"/>
       <c r="CQ55" s="70"/>
+      <c r="CR55" s="70"/>
+      <c r="CS55" s="70"/>
+      <c r="CT55" s="70"/>
+      <c r="CU55" s="70"/>
+      <c r="CV55" s="70"/>
+      <c r="CW55" s="70"/>
     </row>
     <row r="56">
       <c r="A56" s="68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="70"/>
@@ -25492,10 +25839,16 @@
       <c r="CO56" s="70"/>
       <c r="CP56" s="70"/>
       <c r="CQ56" s="70"/>
+      <c r="CR56" s="70"/>
+      <c r="CS56" s="70"/>
+      <c r="CT56" s="70"/>
+      <c r="CU56" s="70"/>
+      <c r="CV56" s="70"/>
+      <c r="CW56" s="70"/>
     </row>
     <row r="57">
       <c r="A57" s="68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57" s="70"/>
       <c r="C57" s="70"/>
@@ -25591,10 +25944,16 @@
       <c r="CO57" s="70"/>
       <c r="CP57" s="70"/>
       <c r="CQ57" s="70"/>
+      <c r="CR57" s="70"/>
+      <c r="CS57" s="70"/>
+      <c r="CT57" s="70"/>
+      <c r="CU57" s="70"/>
+      <c r="CV57" s="70"/>
+      <c r="CW57" s="70"/>
     </row>
     <row r="58">
       <c r="A58" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B58" s="70"/>
       <c r="C58" s="70"/>
@@ -25690,10 +26049,16 @@
       <c r="CO58" s="70"/>
       <c r="CP58" s="70"/>
       <c r="CQ58" s="70"/>
+      <c r="CR58" s="70"/>
+      <c r="CS58" s="70"/>
+      <c r="CT58" s="70"/>
+      <c r="CU58" s="70"/>
+      <c r="CV58" s="70"/>
+      <c r="CW58" s="70"/>
     </row>
     <row r="59">
       <c r="A59" s="68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
@@ -25720,7 +26085,7 @@
       <c r="X59" s="70"/>
       <c r="Y59" s="70"/>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="72"/>
+      <c r="AA59" s="70"/>
       <c r="AB59" s="70"/>
       <c r="AC59" s="70"/>
       <c r="AD59" s="70"/>
@@ -25766,13 +26131,13 @@
       <c r="BR59" s="70"/>
       <c r="BS59" s="70"/>
       <c r="BT59" s="70"/>
-      <c r="BU59" s="72"/>
+      <c r="BU59" s="70"/>
       <c r="BV59" s="70"/>
       <c r="BW59" s="70"/>
       <c r="BX59" s="70"/>
       <c r="BY59" s="70"/>
       <c r="BZ59" s="70"/>
-      <c r="CA59" s="72"/>
+      <c r="CA59" s="70"/>
       <c r="CB59" s="70"/>
       <c r="CC59" s="70"/>
       <c r="CD59" s="70"/>
@@ -25789,9 +26154,17 @@
       <c r="CO59" s="70"/>
       <c r="CP59" s="70"/>
       <c r="CQ59" s="70"/>
+      <c r="CR59" s="70"/>
+      <c r="CS59" s="70"/>
+      <c r="CT59" s="70"/>
+      <c r="CU59" s="70"/>
+      <c r="CV59" s="70"/>
+      <c r="CW59" s="70"/>
     </row>
     <row r="60">
-      <c r="A60" s="69"/>
+      <c r="A60" s="68" t="s">
+        <v>182</v>
+      </c>
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
@@ -25818,7 +26191,7 @@
       <c r="Y60" s="70"/>
       <c r="Z60" s="70"/>
       <c r="AA60" s="70"/>
-      <c r="AB60" s="72"/>
+      <c r="AB60" s="70"/>
       <c r="AC60" s="70"/>
       <c r="AD60" s="70"/>
       <c r="AE60" s="70"/>
@@ -25864,13 +26237,13 @@
       <c r="BS60" s="70"/>
       <c r="BT60" s="70"/>
       <c r="BU60" s="70"/>
-      <c r="BV60" s="72"/>
+      <c r="BV60" s="70"/>
       <c r="BW60" s="70"/>
       <c r="BX60" s="70"/>
       <c r="BY60" s="70"/>
       <c r="BZ60" s="70"/>
       <c r="CA60" s="70"/>
-      <c r="CB60" s="72"/>
+      <c r="CB60" s="70"/>
       <c r="CC60" s="70"/>
       <c r="CD60" s="70"/>
       <c r="CE60" s="70"/>
@@ -25886,42 +26259,30 @@
       <c r="CO60" s="70"/>
       <c r="CP60" s="70"/>
       <c r="CQ60" s="70"/>
+      <c r="CR60" s="70"/>
+      <c r="CS60" s="70"/>
+      <c r="CT60" s="70"/>
+      <c r="CU60" s="70"/>
+      <c r="CV60" s="70"/>
+      <c r="CW60" s="70"/>
     </row>
     <row r="61">
       <c r="A61" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="70"/>
-      <c r="G61" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
       <c r="I61" s="70"/>
-      <c r="J61" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
       <c r="L61" s="70"/>
       <c r="M61" s="70"/>
-      <c r="N61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N61" s="70"/>
       <c r="O61" s="70"/>
       <c r="P61" s="70"/>
       <c r="Q61" s="70"/>
@@ -25936,13 +26297,11 @@
       <c r="Z61" s="70"/>
       <c r="AA61" s="70"/>
       <c r="AB61" s="70"/>
-      <c r="AC61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC61" s="70"/>
       <c r="AD61" s="70"/>
       <c r="AE61" s="70"/>
       <c r="AF61" s="70"/>
-      <c r="AG61" s="70"/>
+      <c r="AG61" s="72"/>
       <c r="AH61" s="70"/>
       <c r="AI61" s="70"/>
       <c r="AJ61" s="70"/>
@@ -25950,40 +26309,28 @@
       <c r="AL61" s="70"/>
       <c r="AM61" s="70"/>
       <c r="AN61" s="70"/>
-      <c r="AO61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO61" s="70"/>
       <c r="AP61" s="70"/>
-      <c r="AQ61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ61" s="70"/>
       <c r="AR61" s="70"/>
       <c r="AS61" s="70"/>
-      <c r="AT61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT61" s="70"/>
       <c r="AU61" s="70"/>
       <c r="AV61" s="70"/>
       <c r="AW61" s="70"/>
       <c r="AX61" s="70"/>
-      <c r="AY61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY61" s="70"/>
       <c r="AZ61" s="70"/>
       <c r="BA61" s="70"/>
       <c r="BB61" s="70"/>
       <c r="BC61" s="70"/>
-      <c r="BD61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD61" s="70"/>
       <c r="BE61" s="70"/>
       <c r="BF61" s="70"/>
       <c r="BG61" s="70"/>
       <c r="BH61" s="70"/>
       <c r="BI61" s="70"/>
-      <c r="BJ61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ61" s="70"/>
       <c r="BK61" s="70"/>
       <c r="BL61" s="70"/>
       <c r="BM61" s="70"/>
@@ -25998,26 +26345,18 @@
       <c r="BV61" s="70"/>
       <c r="BW61" s="70"/>
       <c r="BX61" s="70"/>
-      <c r="BY61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY61" s="70"/>
       <c r="BZ61" s="70"/>
-      <c r="CA61" s="70"/>
+      <c r="CA61" s="72"/>
       <c r="CB61" s="70"/>
-      <c r="CC61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC61" s="70"/>
       <c r="CD61" s="70"/>
-      <c r="CE61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE61" s="70"/>
       <c r="CF61" s="70"/>
-      <c r="CG61" s="70"/>
+      <c r="CG61" s="72"/>
       <c r="CH61" s="70"/>
       <c r="CI61" s="70"/>
-      <c r="CJ61" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ61" s="70"/>
       <c r="CK61" s="70"/>
       <c r="CL61" s="70"/>
       <c r="CM61" s="70"/>
@@ -26025,20 +26364,20 @@
       <c r="CO61" s="70"/>
       <c r="CP61" s="70"/>
       <c r="CQ61" s="70"/>
+      <c r="CR61" s="70"/>
+      <c r="CS61" s="70"/>
+      <c r="CT61" s="70"/>
+      <c r="CU61" s="70"/>
+      <c r="CV61" s="70"/>
+      <c r="CW61" s="70"/>
     </row>
     <row r="62">
-      <c r="A62" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="A62" s="69"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="70"/>
       <c r="D62" s="70"/>
       <c r="E62" s="70"/>
-      <c r="F62" s="71" t="s">
-        <v>266</v>
-      </c>
+      <c r="F62" s="70"/>
       <c r="G62" s="70"/>
       <c r="H62" s="70"/>
       <c r="I62" s="70"/>
@@ -26061,14 +26400,12 @@
       <c r="Z62" s="70"/>
       <c r="AA62" s="70"/>
       <c r="AB62" s="70"/>
-      <c r="AC62" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC62" s="70"/>
       <c r="AD62" s="70"/>
       <c r="AE62" s="70"/>
       <c r="AF62" s="70"/>
       <c r="AG62" s="70"/>
-      <c r="AH62" s="70"/>
+      <c r="AH62" s="72"/>
       <c r="AI62" s="70"/>
       <c r="AJ62" s="70"/>
       <c r="AK62" s="70"/>
@@ -26114,13 +26451,13 @@
       <c r="BY62" s="70"/>
       <c r="BZ62" s="70"/>
       <c r="CA62" s="70"/>
-      <c r="CB62" s="70"/>
+      <c r="CB62" s="72"/>
       <c r="CC62" s="70"/>
       <c r="CD62" s="70"/>
       <c r="CE62" s="70"/>
       <c r="CF62" s="70"/>
       <c r="CG62" s="70"/>
-      <c r="CH62" s="70"/>
+      <c r="CH62" s="72"/>
       <c r="CI62" s="70"/>
       <c r="CJ62" s="70"/>
       <c r="CK62" s="70"/>
@@ -26130,32 +26467,54 @@
       <c r="CO62" s="70"/>
       <c r="CP62" s="70"/>
       <c r="CQ62" s="70"/>
+      <c r="CR62" s="70"/>
+      <c r="CS62" s="70"/>
+      <c r="CT62" s="70"/>
+      <c r="CU62" s="70"/>
+      <c r="CV62" s="70"/>
+      <c r="CW62" s="70"/>
     </row>
     <row r="63">
       <c r="A63" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
+        <v>184</v>
+      </c>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J63" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
+      <c r="M63" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
+      <c r="P63" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R63" s="70"/>
       <c r="S63" s="70"/>
-      <c r="T63" s="70"/>
+      <c r="T63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U63" s="70"/>
       <c r="V63" s="70"/>
       <c r="W63" s="70"/>
@@ -26164,15 +26523,15 @@
       <c r="Z63" s="70"/>
       <c r="AA63" s="70"/>
       <c r="AB63" s="70"/>
-      <c r="AC63" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC63" s="70"/>
       <c r="AD63" s="70"/>
       <c r="AE63" s="70"/>
       <c r="AF63" s="70"/>
       <c r="AG63" s="70"/>
       <c r="AH63" s="70"/>
-      <c r="AI63" s="70"/>
+      <c r="AI63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AJ63" s="70"/>
       <c r="AK63" s="70"/>
       <c r="AL63" s="70"/>
@@ -26184,28 +26543,40 @@
       <c r="AR63" s="70"/>
       <c r="AS63" s="70"/>
       <c r="AT63" s="70"/>
-      <c r="AU63" s="70"/>
+      <c r="AU63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV63" s="70"/>
-      <c r="AW63" s="70"/>
+      <c r="AW63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX63" s="70"/>
       <c r="AY63" s="70"/>
-      <c r="AZ63" s="70"/>
+      <c r="AZ63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA63" s="70"/>
       <c r="BB63" s="70"/>
       <c r="BC63" s="70"/>
       <c r="BD63" s="70"/>
-      <c r="BE63" s="70"/>
+      <c r="BE63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF63" s="70"/>
       <c r="BG63" s="70"/>
       <c r="BH63" s="70"/>
       <c r="BI63" s="70"/>
-      <c r="BJ63" s="70"/>
+      <c r="BJ63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK63" s="70"/>
       <c r="BL63" s="70"/>
       <c r="BM63" s="70"/>
       <c r="BN63" s="70"/>
       <c r="BO63" s="70"/>
-      <c r="BP63" s="70"/>
+      <c r="BP63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ63" s="70"/>
       <c r="BR63" s="70"/>
       <c r="BS63" s="70"/>
@@ -26220,41 +26591,53 @@
       <c r="CB63" s="70"/>
       <c r="CC63" s="70"/>
       <c r="CD63" s="70"/>
-      <c r="CE63" s="70"/>
+      <c r="CE63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF63" s="70"/>
       <c r="CG63" s="70"/>
       <c r="CH63" s="70"/>
-      <c r="CI63" s="70"/>
+      <c r="CI63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ63" s="70"/>
-      <c r="CK63" s="70"/>
+      <c r="CK63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL63" s="70"/>
       <c r="CM63" s="70"/>
       <c r="CN63" s="70"/>
       <c r="CO63" s="70"/>
-      <c r="CP63" s="70"/>
+      <c r="CP63" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ63" s="70"/>
+      <c r="CR63" s="70"/>
+      <c r="CS63" s="70"/>
+      <c r="CT63" s="70"/>
+      <c r="CU63" s="70"/>
+      <c r="CV63" s="70"/>
+      <c r="CW63" s="70"/>
     </row>
     <row r="64">
       <c r="A64" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="71" t="s">
-        <v>268</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I64" s="70"/>
       <c r="J64" s="70"/>
       <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
+      <c r="L64" s="71" t="s">
+        <v>266</v>
+      </c>
       <c r="M64" s="70"/>
       <c r="N64" s="70"/>
       <c r="O64" s="70"/>
@@ -26277,7 +26660,9 @@
       <c r="AF64" s="70"/>
       <c r="AG64" s="70"/>
       <c r="AH64" s="70"/>
-      <c r="AI64" s="70"/>
+      <c r="AI64" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AJ64" s="70"/>
       <c r="AK64" s="70"/>
       <c r="AL64" s="70"/>
@@ -26338,18 +26723,26 @@
       <c r="CO64" s="70"/>
       <c r="CP64" s="70"/>
       <c r="CQ64" s="70"/>
+      <c r="CR64" s="70"/>
+      <c r="CS64" s="70"/>
+      <c r="CT64" s="70"/>
+      <c r="CU64" s="70"/>
+      <c r="CV64" s="70"/>
+      <c r="CW64" s="70"/>
     </row>
     <row r="65">
       <c r="A65" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
+        <v>188</v>
+      </c>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71" t="s">
+        <v>267</v>
+      </c>
       <c r="I65" s="70"/>
       <c r="J65" s="70"/>
       <c r="K65" s="70"/>
@@ -26376,7 +26769,9 @@
       <c r="AF65" s="70"/>
       <c r="AG65" s="70"/>
       <c r="AH65" s="70"/>
-      <c r="AI65" s="70"/>
+      <c r="AI65" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AJ65" s="70"/>
       <c r="AK65" s="70"/>
       <c r="AL65" s="70"/>
@@ -26437,10 +26832,16 @@
       <c r="CO65" s="70"/>
       <c r="CP65" s="70"/>
       <c r="CQ65" s="70"/>
+      <c r="CR65" s="70"/>
+      <c r="CS65" s="70"/>
+      <c r="CT65" s="70"/>
+      <c r="CU65" s="70"/>
+      <c r="CV65" s="70"/>
+      <c r="CW65" s="70"/>
     </row>
     <row r="66">
       <c r="A66" s="68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B66" s="70"/>
       <c r="C66" s="70"/>
@@ -26450,12 +26851,18 @@
       <c r="G66" s="70"/>
       <c r="H66" s="70"/>
       <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
+      <c r="J66" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="K66" s="71" t="s">
+        <v>264</v>
+      </c>
       <c r="L66" s="70"/>
       <c r="M66" s="70"/>
       <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
+      <c r="O66" s="71" t="s">
+        <v>268</v>
+      </c>
       <c r="P66" s="70"/>
       <c r="Q66" s="70"/>
       <c r="R66" s="70"/>
@@ -26536,17 +26943,21 @@
       <c r="CO66" s="70"/>
       <c r="CP66" s="70"/>
       <c r="CQ66" s="70"/>
+      <c r="CR66" s="70"/>
+      <c r="CS66" s="70"/>
+      <c r="CT66" s="70"/>
+      <c r="CU66" s="70"/>
+      <c r="CV66" s="70"/>
+      <c r="CW66" s="70"/>
     </row>
     <row r="67">
       <c r="A67" s="68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B67" s="70"/>
-      <c r="C67" s="71"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="70"/>
-      <c r="E67" s="71" t="s">
-        <v>269</v>
-      </c>
+      <c r="E67" s="70"/>
       <c r="F67" s="70"/>
       <c r="G67" s="70"/>
       <c r="H67" s="70"/>
@@ -26637,15 +27048,21 @@
       <c r="CO67" s="70"/>
       <c r="CP67" s="70"/>
       <c r="CQ67" s="70"/>
+      <c r="CR67" s="70"/>
+      <c r="CS67" s="70"/>
+      <c r="CT67" s="70"/>
+      <c r="CU67" s="70"/>
+      <c r="CV67" s="70"/>
+      <c r="CW67" s="70"/>
     </row>
     <row r="68">
       <c r="A68" s="68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B68" s="70"/>
       <c r="C68" s="70"/>
       <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
+      <c r="E68" s="70"/>
       <c r="F68" s="70"/>
       <c r="G68" s="70"/>
       <c r="H68" s="70"/>
@@ -26736,27 +27153,29 @@
       <c r="CO68" s="70"/>
       <c r="CP68" s="70"/>
       <c r="CQ68" s="70"/>
+      <c r="CR68" s="70"/>
+      <c r="CS68" s="70"/>
+      <c r="CT68" s="70"/>
+      <c r="CU68" s="70"/>
+      <c r="CV68" s="70"/>
+      <c r="CW68" s="70"/>
     </row>
     <row r="69">
       <c r="A69" s="68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="70"/>
-      <c r="E69" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" s="71" t="s">
-        <v>264</v>
-      </c>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
       <c r="G69" s="70"/>
-      <c r="H69" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="I69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
+      <c r="K69" s="71" t="s">
+        <v>269</v>
+      </c>
       <c r="L69" s="70"/>
       <c r="M69" s="70"/>
       <c r="N69" s="70"/>
@@ -26841,10 +27260,16 @@
       <c r="CO69" s="70"/>
       <c r="CP69" s="70"/>
       <c r="CQ69" s="70"/>
+      <c r="CR69" s="70"/>
+      <c r="CS69" s="70"/>
+      <c r="CT69" s="70"/>
+      <c r="CU69" s="70"/>
+      <c r="CV69" s="70"/>
+      <c r="CW69" s="70"/>
     </row>
     <row r="70">
       <c r="A70" s="68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B70" s="70"/>
       <c r="C70" s="70"/>
@@ -26855,7 +27280,7 @@
       <c r="H70" s="70"/>
       <c r="I70" s="70"/>
       <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
+      <c r="K70" s="71"/>
       <c r="L70" s="70"/>
       <c r="M70" s="70"/>
       <c r="N70" s="70"/>
@@ -26940,32 +27365,36 @@
       <c r="CO70" s="70"/>
       <c r="CP70" s="70"/>
       <c r="CQ70" s="70"/>
+      <c r="CR70" s="70"/>
+      <c r="CS70" s="70"/>
+      <c r="CT70" s="70"/>
+      <c r="CU70" s="70"/>
+      <c r="CV70" s="70"/>
+      <c r="CW70" s="70"/>
     </row>
     <row r="71">
       <c r="A71" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B71" s="70"/>
-      <c r="C71" s="71" t="s">
-        <v>270</v>
-      </c>
+      <c r="C71" s="70"/>
       <c r="D71" s="70"/>
-      <c r="E71" s="71" t="s">
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="L71" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="71" t="s">
+      <c r="M71" s="70"/>
+      <c r="N71" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="70"/>
       <c r="O71" s="70"/>
       <c r="P71" s="70"/>
       <c r="Q71" s="70"/>
@@ -27047,42 +27476,30 @@
       <c r="CO71" s="70"/>
       <c r="CP71" s="70"/>
       <c r="CQ71" s="70"/>
+      <c r="CR71" s="70"/>
+      <c r="CS71" s="70"/>
+      <c r="CT71" s="70"/>
+      <c r="CU71" s="70"/>
+      <c r="CV71" s="70"/>
+      <c r="CW71" s="70"/>
     </row>
     <row r="72">
       <c r="A72" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E72" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
       <c r="I72" s="70"/>
-      <c r="J72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
       <c r="L72" s="70"/>
       <c r="M72" s="70"/>
-      <c r="N72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N72" s="70"/>
       <c r="O72" s="70"/>
       <c r="P72" s="70"/>
       <c r="Q72" s="70"/>
@@ -27097,15 +27514,9 @@
       <c r="Z72" s="70"/>
       <c r="AA72" s="70"/>
       <c r="AB72" s="70"/>
-      <c r="AC72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD72" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC72" s="70"/>
+      <c r="AD72" s="70"/>
+      <c r="AE72" s="70"/>
       <c r="AF72" s="70"/>
       <c r="AG72" s="70"/>
       <c r="AH72" s="70"/>
@@ -27115,40 +27526,28 @@
       <c r="AL72" s="70"/>
       <c r="AM72" s="70"/>
       <c r="AN72" s="70"/>
-      <c r="AO72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO72" s="70"/>
       <c r="AP72" s="70"/>
-      <c r="AQ72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ72" s="70"/>
       <c r="AR72" s="70"/>
       <c r="AS72" s="70"/>
-      <c r="AT72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT72" s="70"/>
       <c r="AU72" s="70"/>
       <c r="AV72" s="70"/>
       <c r="AW72" s="70"/>
       <c r="AX72" s="70"/>
-      <c r="AY72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY72" s="70"/>
       <c r="AZ72" s="70"/>
       <c r="BA72" s="70"/>
       <c r="BB72" s="70"/>
       <c r="BC72" s="70"/>
-      <c r="BD72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD72" s="70"/>
       <c r="BE72" s="70"/>
       <c r="BF72" s="70"/>
       <c r="BG72" s="70"/>
       <c r="BH72" s="70"/>
       <c r="BI72" s="70"/>
-      <c r="BJ72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ72" s="70"/>
       <c r="BK72" s="70"/>
       <c r="BL72" s="70"/>
       <c r="BM72" s="70"/>
@@ -27163,24 +27562,18 @@
       <c r="BV72" s="70"/>
       <c r="BW72" s="70"/>
       <c r="BX72" s="70"/>
-      <c r="BY72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY72" s="70"/>
       <c r="BZ72" s="70"/>
       <c r="CA72" s="70"/>
       <c r="CB72" s="70"/>
       <c r="CC72" s="70"/>
       <c r="CD72" s="70"/>
-      <c r="CE72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE72" s="70"/>
       <c r="CF72" s="70"/>
       <c r="CG72" s="70"/>
       <c r="CH72" s="70"/>
       <c r="CI72" s="70"/>
-      <c r="CJ72" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ72" s="70"/>
       <c r="CK72" s="70"/>
       <c r="CL72" s="70"/>
       <c r="CM72" s="70"/>
@@ -27188,10 +27581,16 @@
       <c r="CO72" s="70"/>
       <c r="CP72" s="70"/>
       <c r="CQ72" s="70"/>
+      <c r="CR72" s="70"/>
+      <c r="CS72" s="70"/>
+      <c r="CT72" s="70"/>
+      <c r="CU72" s="70"/>
+      <c r="CV72" s="70"/>
+      <c r="CW72" s="70"/>
     </row>
     <row r="73">
       <c r="A73" s="68" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
@@ -27200,12 +27599,20 @@
       <c r="F73" s="70"/>
       <c r="G73" s="70"/>
       <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
+      <c r="I73" s="71" t="s">
+        <v>270</v>
+      </c>
       <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
+      <c r="K73" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="L73" s="71" t="s">
+        <v>264</v>
+      </c>
       <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
+      <c r="N73" s="71" t="s">
+        <v>264</v>
+      </c>
       <c r="O73" s="70"/>
       <c r="P73" s="70"/>
       <c r="Q73" s="70"/>
@@ -27287,30 +27694,54 @@
       <c r="CO73" s="70"/>
       <c r="CP73" s="70"/>
       <c r="CQ73" s="70"/>
+      <c r="CR73" s="70"/>
+      <c r="CS73" s="70"/>
+      <c r="CT73" s="70"/>
+      <c r="CU73" s="70"/>
+      <c r="CV73" s="70"/>
+      <c r="CW73" s="70"/>
     </row>
     <row r="74">
       <c r="A74" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
+        <v>199</v>
+      </c>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
+      <c r="M74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O74" s="70"/>
-      <c r="P74" s="70"/>
-      <c r="Q74" s="70"/>
+      <c r="P74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R74" s="70"/>
       <c r="S74" s="70"/>
-      <c r="T74" s="70"/>
+      <c r="T74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U74" s="70"/>
       <c r="V74" s="70"/>
       <c r="W74" s="70"/>
@@ -27325,9 +27756,15 @@
       <c r="AF74" s="70"/>
       <c r="AG74" s="70"/>
       <c r="AH74" s="70"/>
-      <c r="AI74" s="70"/>
-      <c r="AJ74" s="70"/>
-      <c r="AK74" s="70"/>
+      <c r="AI74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ74" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL74" s="70"/>
       <c r="AM74" s="70"/>
       <c r="AN74" s="70"/>
@@ -27337,28 +27774,40 @@
       <c r="AR74" s="70"/>
       <c r="AS74" s="70"/>
       <c r="AT74" s="70"/>
-      <c r="AU74" s="70"/>
+      <c r="AU74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV74" s="70"/>
-      <c r="AW74" s="70"/>
+      <c r="AW74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX74" s="70"/>
       <c r="AY74" s="70"/>
-      <c r="AZ74" s="70"/>
+      <c r="AZ74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA74" s="70"/>
       <c r="BB74" s="70"/>
       <c r="BC74" s="70"/>
       <c r="BD74" s="70"/>
-      <c r="BE74" s="70"/>
+      <c r="BE74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF74" s="70"/>
       <c r="BG74" s="70"/>
       <c r="BH74" s="70"/>
       <c r="BI74" s="70"/>
-      <c r="BJ74" s="70"/>
+      <c r="BJ74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK74" s="70"/>
       <c r="BL74" s="70"/>
       <c r="BM74" s="70"/>
       <c r="BN74" s="70"/>
       <c r="BO74" s="70"/>
-      <c r="BP74" s="70"/>
+      <c r="BP74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ74" s="70"/>
       <c r="BR74" s="70"/>
       <c r="BS74" s="70"/>
@@ -27373,23 +27822,35 @@
       <c r="CB74" s="70"/>
       <c r="CC74" s="70"/>
       <c r="CD74" s="70"/>
-      <c r="CE74" s="70"/>
+      <c r="CE74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF74" s="70"/>
       <c r="CG74" s="70"/>
       <c r="CH74" s="70"/>
       <c r="CI74" s="70"/>
       <c r="CJ74" s="70"/>
-      <c r="CK74" s="70"/>
+      <c r="CK74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL74" s="70"/>
       <c r="CM74" s="70"/>
       <c r="CN74" s="70"/>
       <c r="CO74" s="70"/>
-      <c r="CP74" s="70"/>
+      <c r="CP74" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ74" s="70"/>
+      <c r="CR74" s="70"/>
+      <c r="CS74" s="70"/>
+      <c r="CT74" s="70"/>
+      <c r="CU74" s="70"/>
+      <c r="CV74" s="70"/>
+      <c r="CW74" s="70"/>
     </row>
     <row r="75">
       <c r="A75" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B75" s="70"/>
       <c r="C75" s="70"/>
@@ -27485,46 +27946,32 @@
       <c r="CO75" s="70"/>
       <c r="CP75" s="70"/>
       <c r="CQ75" s="70"/>
+      <c r="CR75" s="70"/>
+      <c r="CS75" s="70"/>
+      <c r="CT75" s="70"/>
+      <c r="CU75" s="70"/>
+      <c r="CV75" s="70"/>
+      <c r="CW75" s="70"/>
     </row>
     <row r="76">
       <c r="A76" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="B76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="F76" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="G76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="J76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
       <c r="L76" s="70"/>
       <c r="M76" s="70"/>
-      <c r="N76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N76" s="70"/>
       <c r="O76" s="70"/>
       <c r="P76" s="70"/>
       <c r="Q76" s="70"/>
@@ -27539,15 +27986,9 @@
       <c r="Z76" s="70"/>
       <c r="AA76" s="70"/>
       <c r="AB76" s="70"/>
-      <c r="AC76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD76" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC76" s="70"/>
+      <c r="AD76" s="70"/>
+      <c r="AE76" s="70"/>
       <c r="AF76" s="70"/>
       <c r="AG76" s="70"/>
       <c r="AH76" s="70"/>
@@ -27557,40 +27998,28 @@
       <c r="AL76" s="70"/>
       <c r="AM76" s="70"/>
       <c r="AN76" s="70"/>
-      <c r="AO76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO76" s="70"/>
       <c r="AP76" s="70"/>
-      <c r="AQ76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ76" s="70"/>
       <c r="AR76" s="70"/>
       <c r="AS76" s="70"/>
-      <c r="AT76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT76" s="70"/>
       <c r="AU76" s="70"/>
       <c r="AV76" s="70"/>
       <c r="AW76" s="70"/>
       <c r="AX76" s="70"/>
-      <c r="AY76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY76" s="70"/>
       <c r="AZ76" s="70"/>
       <c r="BA76" s="70"/>
       <c r="BB76" s="70"/>
       <c r="BC76" s="70"/>
-      <c r="BD76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD76" s="70"/>
       <c r="BE76" s="70"/>
       <c r="BF76" s="70"/>
       <c r="BG76" s="70"/>
       <c r="BH76" s="70"/>
       <c r="BI76" s="70"/>
-      <c r="BJ76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ76" s="70"/>
       <c r="BK76" s="70"/>
       <c r="BL76" s="70"/>
       <c r="BM76" s="70"/>
@@ -27605,24 +28034,18 @@
       <c r="BV76" s="70"/>
       <c r="BW76" s="70"/>
       <c r="BX76" s="70"/>
-      <c r="BY76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY76" s="70"/>
       <c r="BZ76" s="70"/>
       <c r="CA76" s="70"/>
       <c r="CB76" s="70"/>
       <c r="CC76" s="70"/>
       <c r="CD76" s="70"/>
-      <c r="CE76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE76" s="70"/>
       <c r="CF76" s="70"/>
       <c r="CG76" s="70"/>
       <c r="CH76" s="70"/>
       <c r="CI76" s="70"/>
-      <c r="CJ76" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ76" s="70"/>
       <c r="CK76" s="70"/>
       <c r="CL76" s="70"/>
       <c r="CM76" s="70"/>
@@ -27630,10 +28053,16 @@
       <c r="CO76" s="70"/>
       <c r="CP76" s="70"/>
       <c r="CQ76" s="70"/>
+      <c r="CR76" s="70"/>
+      <c r="CS76" s="70"/>
+      <c r="CT76" s="70"/>
+      <c r="CU76" s="70"/>
+      <c r="CV76" s="70"/>
+      <c r="CW76" s="70"/>
     </row>
     <row r="77">
       <c r="A77" s="68" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B77" s="70"/>
       <c r="C77" s="70"/>
@@ -27729,48 +28158,58 @@
       <c r="CO77" s="70"/>
       <c r="CP77" s="70"/>
       <c r="CQ77" s="70"/>
+      <c r="CR77" s="70"/>
+      <c r="CS77" s="70"/>
+      <c r="CT77" s="70"/>
+      <c r="CU77" s="70"/>
+      <c r="CV77" s="70"/>
+      <c r="CW77" s="70"/>
     </row>
     <row r="78">
       <c r="A78" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I78" s="70"/>
+      <c r="I78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="J78" s="71" t="s">
         <v>263</v>
       </c>
       <c r="K78" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
+      <c r="L78" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="M78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="N78" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
+      <c r="O78" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="P78" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R78" s="70"/>
       <c r="S78" s="70"/>
-      <c r="T78" s="70"/>
+      <c r="T78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U78" s="70"/>
       <c r="V78" s="70"/>
       <c r="W78" s="70"/>
@@ -27779,23 +28218,21 @@
       <c r="Z78" s="70"/>
       <c r="AA78" s="70"/>
       <c r="AB78" s="70"/>
-      <c r="AC78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE78" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC78" s="70"/>
+      <c r="AD78" s="70"/>
+      <c r="AE78" s="70"/>
       <c r="AF78" s="70"/>
       <c r="AG78" s="70"/>
       <c r="AH78" s="70"/>
       <c r="AI78" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="AJ78" s="70"/>
-      <c r="AK78" s="70"/>
+      <c r="AJ78" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL78" s="70"/>
       <c r="AM78" s="70"/>
       <c r="AN78" s="70"/>
@@ -27804,24 +28241,26 @@
       <c r="AQ78" s="70"/>
       <c r="AR78" s="70"/>
       <c r="AS78" s="70"/>
-      <c r="AT78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU78" s="70"/>
+      <c r="AT78" s="70"/>
+      <c r="AU78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV78" s="70"/>
-      <c r="AW78" s="70"/>
+      <c r="AW78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX78" s="70"/>
-      <c r="AY78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ78" s="70"/>
+      <c r="AY78" s="70"/>
+      <c r="AZ78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA78" s="70"/>
       <c r="BB78" s="70"/>
       <c r="BC78" s="70"/>
-      <c r="BD78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE78" s="70"/>
+      <c r="BD78" s="70"/>
+      <c r="BE78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF78" s="70"/>
       <c r="BG78" s="70"/>
       <c r="BH78" s="70"/>
@@ -27834,7 +28273,9 @@
       <c r="BM78" s="70"/>
       <c r="BN78" s="70"/>
       <c r="BO78" s="70"/>
-      <c r="BP78" s="70"/>
+      <c r="BP78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ78" s="70"/>
       <c r="BR78" s="70"/>
       <c r="BS78" s="70"/>
@@ -27843,35 +28284,41 @@
       <c r="BV78" s="70"/>
       <c r="BW78" s="70"/>
       <c r="BX78" s="70"/>
-      <c r="BY78" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY78" s="70"/>
       <c r="BZ78" s="70"/>
       <c r="CA78" s="70"/>
       <c r="CB78" s="70"/>
-      <c r="CC78" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC78" s="70"/>
       <c r="CD78" s="70"/>
-      <c r="CE78" s="70"/>
+      <c r="CE78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF78" s="70"/>
       <c r="CG78" s="70"/>
       <c r="CH78" s="70"/>
       <c r="CI78" s="70"/>
-      <c r="CJ78" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="CK78" s="70"/>
+      <c r="CJ78" s="70"/>
+      <c r="CK78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL78" s="70"/>
       <c r="CM78" s="70"/>
       <c r="CN78" s="70"/>
       <c r="CO78" s="70"/>
-      <c r="CP78" s="70"/>
+      <c r="CP78" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ78" s="70"/>
+      <c r="CR78" s="70"/>
+      <c r="CS78" s="70"/>
+      <c r="CT78" s="70"/>
+      <c r="CU78" s="70"/>
+      <c r="CV78" s="70"/>
+      <c r="CW78" s="70"/>
     </row>
     <row r="79">
       <c r="A79" s="68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B79" s="70"/>
       <c r="C79" s="70"/>
@@ -27967,30 +28414,54 @@
       <c r="CO79" s="70"/>
       <c r="CP79" s="70"/>
       <c r="CQ79" s="70"/>
+      <c r="CR79" s="70"/>
+      <c r="CS79" s="70"/>
+      <c r="CT79" s="70"/>
+      <c r="CU79" s="70"/>
+      <c r="CV79" s="70"/>
+      <c r="CW79" s="70"/>
     </row>
     <row r="80">
       <c r="A80" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
+        <v>210</v>
+      </c>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70"/>
+      <c r="M80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
+      <c r="P80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R80" s="70"/>
       <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
+      <c r="T80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U80" s="70"/>
       <c r="V80" s="70"/>
       <c r="W80" s="70"/>
@@ -28005,13 +28476,21 @@
       <c r="AF80" s="70"/>
       <c r="AG80" s="70"/>
       <c r="AH80" s="70"/>
-      <c r="AI80" s="70"/>
-      <c r="AJ80" s="70"/>
-      <c r="AK80" s="70"/>
+      <c r="AI80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ80" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL80" s="70"/>
       <c r="AM80" s="70"/>
       <c r="AN80" s="70"/>
-      <c r="AO80" s="70"/>
+      <c r="AO80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP80" s="70"/>
       <c r="AQ80" s="70"/>
       <c r="AR80" s="70"/>
@@ -28022,23 +28501,31 @@
       <c r="AW80" s="70"/>
       <c r="AX80" s="70"/>
       <c r="AY80" s="70"/>
-      <c r="AZ80" s="70"/>
+      <c r="AZ80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA80" s="70"/>
       <c r="BB80" s="70"/>
       <c r="BC80" s="70"/>
       <c r="BD80" s="70"/>
-      <c r="BE80" s="70"/>
+      <c r="BE80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF80" s="70"/>
       <c r="BG80" s="70"/>
       <c r="BH80" s="70"/>
       <c r="BI80" s="70"/>
-      <c r="BJ80" s="70"/>
+      <c r="BJ80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK80" s="70"/>
       <c r="BL80" s="70"/>
       <c r="BM80" s="70"/>
       <c r="BN80" s="70"/>
       <c r="BO80" s="70"/>
-      <c r="BP80" s="70"/>
+      <c r="BP80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ80" s="70"/>
       <c r="BR80" s="70"/>
       <c r="BS80" s="70"/>
@@ -28053,23 +28540,35 @@
       <c r="CB80" s="70"/>
       <c r="CC80" s="70"/>
       <c r="CD80" s="70"/>
-      <c r="CE80" s="70"/>
+      <c r="CE80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF80" s="70"/>
       <c r="CG80" s="70"/>
       <c r="CH80" s="70"/>
-      <c r="CI80" s="70"/>
+      <c r="CI80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ80" s="70"/>
       <c r="CK80" s="70"/>
       <c r="CL80" s="70"/>
       <c r="CM80" s="70"/>
       <c r="CN80" s="70"/>
       <c r="CO80" s="70"/>
-      <c r="CP80" s="70"/>
+      <c r="CP80" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ80" s="70"/>
+      <c r="CR80" s="70"/>
+      <c r="CS80" s="70"/>
+      <c r="CT80" s="70"/>
+      <c r="CU80" s="70"/>
+      <c r="CV80" s="70"/>
+      <c r="CW80" s="70"/>
     </row>
     <row r="81">
       <c r="A81" s="68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B81" s="70"/>
       <c r="C81" s="70"/>
@@ -28165,10 +28664,16 @@
       <c r="CO81" s="70"/>
       <c r="CP81" s="70"/>
       <c r="CQ81" s="70"/>
+      <c r="CR81" s="70"/>
+      <c r="CS81" s="70"/>
+      <c r="CT81" s="70"/>
+      <c r="CU81" s="70"/>
+      <c r="CV81" s="70"/>
+      <c r="CW81" s="70"/>
     </row>
     <row r="82">
       <c r="A82" s="68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
@@ -28264,10 +28769,16 @@
       <c r="CO82" s="70"/>
       <c r="CP82" s="70"/>
       <c r="CQ82" s="70"/>
+      <c r="CR82" s="70"/>
+      <c r="CS82" s="70"/>
+      <c r="CT82" s="70"/>
+      <c r="CU82" s="70"/>
+      <c r="CV82" s="70"/>
+      <c r="CW82" s="70"/>
     </row>
     <row r="83">
       <c r="A83" s="68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B83" s="70"/>
       <c r="C83" s="70"/>
@@ -28363,42 +28874,30 @@
       <c r="CO83" s="70"/>
       <c r="CP83" s="70"/>
       <c r="CQ83" s="70"/>
+      <c r="CR83" s="70"/>
+      <c r="CS83" s="70"/>
+      <c r="CT83" s="70"/>
+      <c r="CU83" s="70"/>
+      <c r="CV83" s="70"/>
+      <c r="CW83" s="70"/>
     </row>
     <row r="84">
       <c r="A84" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="B84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E84" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="70"/>
-      <c r="G84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
       <c r="I84" s="70"/>
-      <c r="J84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
       <c r="L84" s="70"/>
       <c r="M84" s="70"/>
-      <c r="N84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N84" s="70"/>
       <c r="O84" s="70"/>
       <c r="P84" s="70"/>
       <c r="Q84" s="70"/>
@@ -28413,45 +28912,29 @@
       <c r="Z84" s="70"/>
       <c r="AA84" s="70"/>
       <c r="AB84" s="70"/>
-      <c r="AC84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD84" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC84" s="70"/>
+      <c r="AD84" s="70"/>
+      <c r="AE84" s="70"/>
       <c r="AF84" s="70"/>
       <c r="AG84" s="70"/>
       <c r="AH84" s="70"/>
-      <c r="AI84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AI84" s="70"/>
       <c r="AJ84" s="70"/>
       <c r="AK84" s="70"/>
       <c r="AL84" s="70"/>
       <c r="AM84" s="70"/>
       <c r="AN84" s="70"/>
-      <c r="AO84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO84" s="70"/>
       <c r="AP84" s="70"/>
-      <c r="AQ84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ84" s="70"/>
       <c r="AR84" s="70"/>
       <c r="AS84" s="70"/>
-      <c r="AT84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT84" s="70"/>
       <c r="AU84" s="70"/>
       <c r="AV84" s="70"/>
       <c r="AW84" s="70"/>
       <c r="AX84" s="70"/>
-      <c r="AY84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AY84" s="70"/>
       <c r="AZ84" s="70"/>
       <c r="BA84" s="70"/>
       <c r="BB84" s="70"/>
@@ -28477,26 +28960,18 @@
       <c r="BV84" s="70"/>
       <c r="BW84" s="70"/>
       <c r="BX84" s="70"/>
-      <c r="BY84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY84" s="70"/>
       <c r="BZ84" s="70"/>
       <c r="CA84" s="70"/>
       <c r="CB84" s="70"/>
-      <c r="CC84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC84" s="70"/>
       <c r="CD84" s="70"/>
-      <c r="CE84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE84" s="70"/>
       <c r="CF84" s="70"/>
       <c r="CG84" s="70"/>
       <c r="CH84" s="70"/>
       <c r="CI84" s="70"/>
-      <c r="CJ84" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CJ84" s="70"/>
       <c r="CK84" s="70"/>
       <c r="CL84" s="70"/>
       <c r="CM84" s="70"/>
@@ -28504,10 +28979,16 @@
       <c r="CO84" s="70"/>
       <c r="CP84" s="70"/>
       <c r="CQ84" s="70"/>
+      <c r="CR84" s="70"/>
+      <c r="CS84" s="70"/>
+      <c r="CT84" s="70"/>
+      <c r="CU84" s="70"/>
+      <c r="CV84" s="70"/>
+      <c r="CW84" s="70"/>
     </row>
     <row r="85">
       <c r="A85" s="68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B85" s="70"/>
       <c r="C85" s="70"/>
@@ -28536,9 +29017,7 @@
       <c r="Z85" s="70"/>
       <c r="AA85" s="70"/>
       <c r="AB85" s="70"/>
-      <c r="AC85" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC85" s="70"/>
       <c r="AD85" s="70"/>
       <c r="AE85" s="70"/>
       <c r="AF85" s="70"/>
@@ -28605,30 +29084,54 @@
       <c r="CO85" s="70"/>
       <c r="CP85" s="70"/>
       <c r="CQ85" s="70"/>
+      <c r="CR85" s="70"/>
+      <c r="CS85" s="70"/>
+      <c r="CT85" s="70"/>
+      <c r="CU85" s="70"/>
+      <c r="CV85" s="70"/>
+      <c r="CW85" s="70"/>
     </row>
     <row r="86">
       <c r="A86" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
+        <v>216</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L86" s="70"/>
-      <c r="M86" s="70"/>
-      <c r="N86" s="70"/>
+      <c r="M86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O86" s="70"/>
-      <c r="P86" s="70"/>
-      <c r="Q86" s="70"/>
+      <c r="P86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R86" s="70"/>
       <c r="S86" s="70"/>
-      <c r="T86" s="70"/>
+      <c r="T86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U86" s="70"/>
       <c r="V86" s="70"/>
       <c r="W86" s="70"/>
@@ -28643,29 +29146,45 @@
       <c r="AF86" s="70"/>
       <c r="AG86" s="70"/>
       <c r="AH86" s="70"/>
-      <c r="AI86" s="70"/>
-      <c r="AJ86" s="70"/>
-      <c r="AK86" s="70"/>
+      <c r="AI86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ86" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL86" s="70"/>
       <c r="AM86" s="70"/>
       <c r="AN86" s="70"/>
-      <c r="AO86" s="70"/>
+      <c r="AO86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP86" s="70"/>
       <c r="AQ86" s="70"/>
       <c r="AR86" s="70"/>
       <c r="AS86" s="70"/>
       <c r="AT86" s="70"/>
-      <c r="AU86" s="70"/>
+      <c r="AU86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV86" s="70"/>
-      <c r="AW86" s="70"/>
+      <c r="AW86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX86" s="70"/>
       <c r="AY86" s="70"/>
-      <c r="AZ86" s="70"/>
+      <c r="AZ86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA86" s="70"/>
       <c r="BB86" s="70"/>
       <c r="BC86" s="70"/>
       <c r="BD86" s="70"/>
-      <c r="BE86" s="70"/>
+      <c r="BE86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BF86" s="70"/>
       <c r="BG86" s="70"/>
       <c r="BH86" s="70"/>
@@ -28691,23 +29210,37 @@
       <c r="CB86" s="70"/>
       <c r="CC86" s="70"/>
       <c r="CD86" s="70"/>
-      <c r="CE86" s="70"/>
+      <c r="CE86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF86" s="70"/>
       <c r="CG86" s="70"/>
       <c r="CH86" s="70"/>
-      <c r="CI86" s="70"/>
+      <c r="CI86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ86" s="70"/>
-      <c r="CK86" s="70"/>
+      <c r="CK86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL86" s="70"/>
       <c r="CM86" s="70"/>
       <c r="CN86" s="70"/>
       <c r="CO86" s="70"/>
-      <c r="CP86" s="70"/>
+      <c r="CP86" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CQ86" s="70"/>
+      <c r="CR86" s="70"/>
+      <c r="CS86" s="70"/>
+      <c r="CT86" s="70"/>
+      <c r="CU86" s="70"/>
+      <c r="CV86" s="70"/>
+      <c r="CW86" s="70"/>
     </row>
     <row r="87">
       <c r="A87" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B87" s="70"/>
       <c r="C87" s="70"/>
@@ -28742,7 +29275,9 @@
       <c r="AF87" s="70"/>
       <c r="AG87" s="70"/>
       <c r="AH87" s="70"/>
-      <c r="AI87" s="70"/>
+      <c r="AI87" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AJ87" s="70"/>
       <c r="AK87" s="70"/>
       <c r="AL87" s="70"/>
@@ -28803,10 +29338,16 @@
       <c r="CO87" s="70"/>
       <c r="CP87" s="70"/>
       <c r="CQ87" s="70"/>
+      <c r="CR87" s="70"/>
+      <c r="CS87" s="70"/>
+      <c r="CT87" s="70"/>
+      <c r="CU87" s="70"/>
+      <c r="CV87" s="70"/>
+      <c r="CW87" s="70"/>
     </row>
     <row r="88">
       <c r="A88" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B88" s="70"/>
       <c r="C88" s="70"/>
@@ -28902,10 +29443,16 @@
       <c r="CO88" s="70"/>
       <c r="CP88" s="70"/>
       <c r="CQ88" s="70"/>
+      <c r="CR88" s="70"/>
+      <c r="CS88" s="70"/>
+      <c r="CT88" s="70"/>
+      <c r="CU88" s="70"/>
+      <c r="CV88" s="70"/>
+      <c r="CW88" s="70"/>
     </row>
     <row r="89">
       <c r="A89" s="68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89" s="70"/>
       <c r="C89" s="70"/>
@@ -29001,10 +29548,16 @@
       <c r="CO89" s="70"/>
       <c r="CP89" s="70"/>
       <c r="CQ89" s="70"/>
+      <c r="CR89" s="70"/>
+      <c r="CS89" s="70"/>
+      <c r="CT89" s="70"/>
+      <c r="CU89" s="70"/>
+      <c r="CV89" s="70"/>
+      <c r="CW89" s="70"/>
     </row>
     <row r="90">
       <c r="A90" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B90" s="70"/>
       <c r="C90" s="70"/>
@@ -29100,10 +29653,16 @@
       <c r="CO90" s="70"/>
       <c r="CP90" s="70"/>
       <c r="CQ90" s="70"/>
+      <c r="CR90" s="70"/>
+      <c r="CS90" s="70"/>
+      <c r="CT90" s="70"/>
+      <c r="CU90" s="70"/>
+      <c r="CV90" s="70"/>
+      <c r="CW90" s="70"/>
     </row>
     <row r="91">
       <c r="A91" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B91" s="70"/>
       <c r="C91" s="70"/>
@@ -29199,10 +29758,16 @@
       <c r="CO91" s="70"/>
       <c r="CP91" s="70"/>
       <c r="CQ91" s="70"/>
+      <c r="CR91" s="70"/>
+      <c r="CS91" s="70"/>
+      <c r="CT91" s="70"/>
+      <c r="CU91" s="70"/>
+      <c r="CV91" s="70"/>
+      <c r="CW91" s="70"/>
     </row>
     <row r="92">
       <c r="A92" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B92" s="70"/>
       <c r="C92" s="70"/>
@@ -29298,10 +29863,16 @@
       <c r="CO92" s="70"/>
       <c r="CP92" s="70"/>
       <c r="CQ92" s="70"/>
+      <c r="CR92" s="70"/>
+      <c r="CS92" s="70"/>
+      <c r="CT92" s="70"/>
+      <c r="CU92" s="70"/>
+      <c r="CV92" s="70"/>
+      <c r="CW92" s="70"/>
     </row>
     <row r="93">
       <c r="A93" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B93" s="70"/>
       <c r="C93" s="70"/>
@@ -29384,9 +29955,7 @@
       <c r="CB93" s="70"/>
       <c r="CC93" s="70"/>
       <c r="CD93" s="70"/>
-      <c r="CE93" s="71" t="s">
-        <v>269</v>
-      </c>
+      <c r="CE93" s="70"/>
       <c r="CF93" s="70"/>
       <c r="CG93" s="70"/>
       <c r="CH93" s="70"/>
@@ -29399,10 +29968,16 @@
       <c r="CO93" s="70"/>
       <c r="CP93" s="70"/>
       <c r="CQ93" s="70"/>
+      <c r="CR93" s="70"/>
+      <c r="CS93" s="70"/>
+      <c r="CT93" s="70"/>
+      <c r="CU93" s="70"/>
+      <c r="CV93" s="70"/>
+      <c r="CW93" s="70"/>
     </row>
     <row r="94">
       <c r="A94" s="68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B94" s="70"/>
       <c r="C94" s="70"/>
@@ -29498,42 +30073,30 @@
       <c r="CO94" s="70"/>
       <c r="CP94" s="70"/>
       <c r="CQ94" s="70"/>
+      <c r="CR94" s="70"/>
+      <c r="CS94" s="70"/>
+      <c r="CT94" s="70"/>
+      <c r="CU94" s="70"/>
+      <c r="CV94" s="70"/>
+      <c r="CW94" s="70"/>
     </row>
     <row r="95">
       <c r="A95" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="B95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="E95" s="71" t="s">
-        <v>263</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
       <c r="F95" s="70"/>
-      <c r="G95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
       <c r="I95" s="70"/>
-      <c r="J95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="K95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
       <c r="L95" s="70"/>
       <c r="M95" s="70"/>
-      <c r="N95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="N95" s="70"/>
       <c r="O95" s="70"/>
       <c r="P95" s="70"/>
       <c r="Q95" s="70"/>
@@ -29548,38 +30111,24 @@
       <c r="Z95" s="70"/>
       <c r="AA95" s="70"/>
       <c r="AB95" s="70"/>
-      <c r="AC95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD95" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AC95" s="70"/>
+      <c r="AD95" s="70"/>
+      <c r="AE95" s="70"/>
       <c r="AF95" s="70"/>
       <c r="AG95" s="70"/>
       <c r="AH95" s="70"/>
-      <c r="AI95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AI95" s="70"/>
       <c r="AJ95" s="70"/>
       <c r="AK95" s="70"/>
       <c r="AL95" s="70"/>
       <c r="AM95" s="70"/>
       <c r="AN95" s="70"/>
-      <c r="AO95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AO95" s="70"/>
       <c r="AP95" s="70"/>
-      <c r="AQ95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AQ95" s="70"/>
       <c r="AR95" s="70"/>
       <c r="AS95" s="70"/>
-      <c r="AT95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="AT95" s="70"/>
       <c r="AU95" s="70"/>
       <c r="AV95" s="70"/>
       <c r="AW95" s="70"/>
@@ -29589,17 +30138,13 @@
       <c r="BA95" s="70"/>
       <c r="BB95" s="70"/>
       <c r="BC95" s="70"/>
-      <c r="BD95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BD95" s="70"/>
       <c r="BE95" s="70"/>
       <c r="BF95" s="70"/>
       <c r="BG95" s="70"/>
       <c r="BH95" s="70"/>
       <c r="BI95" s="70"/>
-      <c r="BJ95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BJ95" s="70"/>
       <c r="BK95" s="70"/>
       <c r="BL95" s="70"/>
       <c r="BM95" s="70"/>
@@ -29614,35 +30159,37 @@
       <c r="BV95" s="70"/>
       <c r="BW95" s="70"/>
       <c r="BX95" s="70"/>
-      <c r="BY95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY95" s="70"/>
       <c r="BZ95" s="70"/>
       <c r="CA95" s="70"/>
       <c r="CB95" s="70"/>
-      <c r="CC95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CC95" s="70"/>
       <c r="CD95" s="70"/>
-      <c r="CE95" s="71" t="s">
-        <v>263</v>
-      </c>
+      <c r="CE95" s="70"/>
       <c r="CF95" s="70"/>
       <c r="CG95" s="70"/>
       <c r="CH95" s="70"/>
       <c r="CI95" s="70"/>
       <c r="CJ95" s="70"/>
-      <c r="CK95" s="70"/>
+      <c r="CK95" s="71" t="s">
+        <v>269</v>
+      </c>
       <c r="CL95" s="70"/>
       <c r="CM95" s="70"/>
       <c r="CN95" s="70"/>
       <c r="CO95" s="70"/>
       <c r="CP95" s="70"/>
       <c r="CQ95" s="70"/>
+      <c r="CR95" s="70"/>
+      <c r="CS95" s="70"/>
+      <c r="CT95" s="70"/>
+      <c r="CU95" s="70"/>
+      <c r="CV95" s="70"/>
+      <c r="CW95" s="70"/>
     </row>
     <row r="96">
       <c r="A96" s="68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B96" s="70"/>
       <c r="C96" s="70"/>
@@ -29738,30 +30285,54 @@
       <c r="CO96" s="70"/>
       <c r="CP96" s="70"/>
       <c r="CQ96" s="70"/>
+      <c r="CR96" s="70"/>
+      <c r="CS96" s="70"/>
+      <c r="CT96" s="70"/>
+      <c r="CU96" s="70"/>
+      <c r="CV96" s="70"/>
+      <c r="CW96" s="70"/>
     </row>
     <row r="97">
       <c r="A97" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
+        <v>227</v>
+      </c>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
+      <c r="M97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="70"/>
+      <c r="P97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="R97" s="70"/>
       <c r="S97" s="70"/>
-      <c r="T97" s="70"/>
+      <c r="T97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="U97" s="70"/>
       <c r="V97" s="70"/>
       <c r="W97" s="70"/>
@@ -29776,24 +30347,38 @@
       <c r="AF97" s="70"/>
       <c r="AG97" s="70"/>
       <c r="AH97" s="70"/>
-      <c r="AI97" s="70"/>
-      <c r="AJ97" s="70"/>
-      <c r="AK97" s="70"/>
+      <c r="AI97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ97" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AL97" s="70"/>
       <c r="AM97" s="70"/>
       <c r="AN97" s="70"/>
-      <c r="AO97" s="70"/>
+      <c r="AO97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AP97" s="70"/>
       <c r="AQ97" s="70"/>
       <c r="AR97" s="70"/>
       <c r="AS97" s="70"/>
       <c r="AT97" s="70"/>
-      <c r="AU97" s="70"/>
+      <c r="AU97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AV97" s="70"/>
-      <c r="AW97" s="70"/>
+      <c r="AW97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="AX97" s="70"/>
       <c r="AY97" s="70"/>
-      <c r="AZ97" s="70"/>
+      <c r="AZ97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BA97" s="70"/>
       <c r="BB97" s="70"/>
       <c r="BC97" s="70"/>
@@ -29803,13 +30388,17 @@
       <c r="BG97" s="70"/>
       <c r="BH97" s="70"/>
       <c r="BI97" s="70"/>
-      <c r="BJ97" s="70"/>
+      <c r="BJ97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BK97" s="70"/>
       <c r="BL97" s="70"/>
       <c r="BM97" s="70"/>
       <c r="BN97" s="70"/>
       <c r="BO97" s="70"/>
-      <c r="BP97" s="70"/>
+      <c r="BP97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="BQ97" s="70"/>
       <c r="BR97" s="70"/>
       <c r="BS97" s="70"/>
@@ -29824,23 +30413,35 @@
       <c r="CB97" s="70"/>
       <c r="CC97" s="70"/>
       <c r="CD97" s="70"/>
-      <c r="CE97" s="70"/>
+      <c r="CE97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CF97" s="70"/>
       <c r="CG97" s="70"/>
       <c r="CH97" s="70"/>
-      <c r="CI97" s="70"/>
+      <c r="CI97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CJ97" s="70"/>
-      <c r="CK97" s="70"/>
+      <c r="CK97" s="71" t="s">
+        <v>263</v>
+      </c>
       <c r="CL97" s="70"/>
       <c r="CM97" s="70"/>
       <c r="CN97" s="70"/>
       <c r="CO97" s="70"/>
       <c r="CP97" s="70"/>
       <c r="CQ97" s="70"/>
+      <c r="CR97" s="70"/>
+      <c r="CS97" s="70"/>
+      <c r="CT97" s="70"/>
+      <c r="CU97" s="70"/>
+      <c r="CV97" s="70"/>
+      <c r="CW97" s="70"/>
     </row>
     <row r="98">
       <c r="A98" s="68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B98" s="70"/>
       <c r="C98" s="70"/>
@@ -29936,10 +30537,16 @@
       <c r="CO98" s="70"/>
       <c r="CP98" s="70"/>
       <c r="CQ98" s="70"/>
+      <c r="CR98" s="70"/>
+      <c r="CS98" s="70"/>
+      <c r="CT98" s="70"/>
+      <c r="CU98" s="70"/>
+      <c r="CV98" s="70"/>
+      <c r="CW98" s="70"/>
     </row>
     <row r="99">
       <c r="A99" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B99" s="70"/>
       <c r="C99" s="70"/>
@@ -30035,10 +30642,16 @@
       <c r="CO99" s="70"/>
       <c r="CP99" s="70"/>
       <c r="CQ99" s="70"/>
+      <c r="CR99" s="70"/>
+      <c r="CS99" s="70"/>
+      <c r="CT99" s="70"/>
+      <c r="CU99" s="70"/>
+      <c r="CV99" s="70"/>
+      <c r="CW99" s="70"/>
     </row>
     <row r="100">
       <c r="A100" s="68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B100" s="70"/>
       <c r="C100" s="70"/>
@@ -30134,22 +30747,24 @@
       <c r="CO100" s="70"/>
       <c r="CP100" s="70"/>
       <c r="CQ100" s="70"/>
+      <c r="CR100" s="70"/>
+      <c r="CS100" s="70"/>
+      <c r="CT100" s="70"/>
+      <c r="CU100" s="70"/>
+      <c r="CV100" s="70"/>
+      <c r="CW100" s="70"/>
     </row>
     <row r="101">
       <c r="A101" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="B101" s="71" t="s">
-        <v>265</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B101" s="70"/>
       <c r="C101" s="70"/>
       <c r="D101" s="70"/>
       <c r="E101" s="70"/>
       <c r="F101" s="70"/>
       <c r="G101" s="70"/>
-      <c r="H101" s="71" t="s">
-        <v>265</v>
-      </c>
+      <c r="H101" s="70"/>
       <c r="I101" s="70"/>
       <c r="J101" s="70"/>
       <c r="K101" s="70"/>
@@ -30237,10 +30852,16 @@
       <c r="CO101" s="70"/>
       <c r="CP101" s="70"/>
       <c r="CQ101" s="70"/>
+      <c r="CR101" s="70"/>
+      <c r="CS101" s="70"/>
+      <c r="CT101" s="70"/>
+      <c r="CU101" s="70"/>
+      <c r="CV101" s="70"/>
+      <c r="CW101" s="70"/>
     </row>
     <row r="102">
       <c r="A102" s="68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B102" s="70"/>
       <c r="C102" s="70"/>
@@ -30336,24 +30957,34 @@
       <c r="CO102" s="70"/>
       <c r="CP102" s="70"/>
       <c r="CQ102" s="70"/>
+      <c r="CR102" s="70"/>
+      <c r="CS102" s="70"/>
+      <c r="CT102" s="70"/>
+      <c r="CU102" s="70"/>
+      <c r="CV102" s="70"/>
+      <c r="CW102" s="70"/>
     </row>
     <row r="103">
       <c r="A103" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
+        <v>233</v>
+      </c>
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71" t="s">
+        <v>265</v>
+      </c>
       <c r="I103" s="70"/>
       <c r="J103" s="70"/>
       <c r="K103" s="70"/>
       <c r="L103" s="70"/>
       <c r="M103" s="70"/>
-      <c r="N103" s="70"/>
+      <c r="N103" s="71" t="s">
+        <v>265</v>
+      </c>
       <c r="O103" s="70"/>
       <c r="P103" s="70"/>
       <c r="Q103" s="70"/>
@@ -30435,10 +31066,16 @@
       <c r="CO103" s="70"/>
       <c r="CP103" s="70"/>
       <c r="CQ103" s="70"/>
+      <c r="CR103" s="70"/>
+      <c r="CS103" s="70"/>
+      <c r="CT103" s="70"/>
+      <c r="CU103" s="70"/>
+      <c r="CV103" s="70"/>
+      <c r="CW103" s="70"/>
     </row>
     <row r="104">
       <c r="A104" s="68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B104" s="70"/>
       <c r="C104" s="70"/>
@@ -30534,10 +31171,16 @@
       <c r="CO104" s="70"/>
       <c r="CP104" s="70"/>
       <c r="CQ104" s="70"/>
+      <c r="CR104" s="70"/>
+      <c r="CS104" s="70"/>
+      <c r="CT104" s="70"/>
+      <c r="CU104" s="70"/>
+      <c r="CV104" s="70"/>
+      <c r="CW104" s="70"/>
     </row>
     <row r="105">
       <c r="A105" s="68" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B105" s="70"/>
       <c r="C105" s="70"/>
@@ -30633,10 +31276,16 @@
       <c r="CO105" s="70"/>
       <c r="CP105" s="70"/>
       <c r="CQ105" s="70"/>
+      <c r="CR105" s="70"/>
+      <c r="CS105" s="70"/>
+      <c r="CT105" s="70"/>
+      <c r="CU105" s="70"/>
+      <c r="CV105" s="70"/>
+      <c r="CW105" s="70"/>
     </row>
     <row r="106">
       <c r="A106" s="68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B106" s="70"/>
       <c r="C106" s="70"/>
@@ -30732,10 +31381,16 @@
       <c r="CO106" s="70"/>
       <c r="CP106" s="70"/>
       <c r="CQ106" s="70"/>
+      <c r="CR106" s="70"/>
+      <c r="CS106" s="70"/>
+      <c r="CT106" s="70"/>
+      <c r="CU106" s="70"/>
+      <c r="CV106" s="70"/>
+      <c r="CW106" s="70"/>
     </row>
     <row r="107">
       <c r="A107" s="68" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B107" s="70"/>
       <c r="C107" s="70"/>
@@ -30831,10 +31486,16 @@
       <c r="CO107" s="70"/>
       <c r="CP107" s="70"/>
       <c r="CQ107" s="70"/>
+      <c r="CR107" s="70"/>
+      <c r="CS107" s="70"/>
+      <c r="CT107" s="70"/>
+      <c r="CU107" s="70"/>
+      <c r="CV107" s="70"/>
+      <c r="CW107" s="70"/>
     </row>
     <row r="108">
       <c r="A108" s="68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B108" s="70"/>
       <c r="C108" s="70"/>
@@ -30930,10 +31591,16 @@
       <c r="CO108" s="70"/>
       <c r="CP108" s="70"/>
       <c r="CQ108" s="70"/>
+      <c r="CR108" s="70"/>
+      <c r="CS108" s="70"/>
+      <c r="CT108" s="70"/>
+      <c r="CU108" s="70"/>
+      <c r="CV108" s="70"/>
+      <c r="CW108" s="70"/>
     </row>
     <row r="109">
       <c r="A109" s="68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B109" s="70"/>
       <c r="C109" s="70"/>
@@ -31029,10 +31696,16 @@
       <c r="CO109" s="70"/>
       <c r="CP109" s="70"/>
       <c r="CQ109" s="70"/>
+      <c r="CR109" s="70"/>
+      <c r="CS109" s="70"/>
+      <c r="CT109" s="70"/>
+      <c r="CU109" s="70"/>
+      <c r="CV109" s="70"/>
+      <c r="CW109" s="70"/>
     </row>
     <row r="110">
       <c r="A110" s="68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B110" s="70"/>
       <c r="C110" s="70"/>
@@ -31128,10 +31801,16 @@
       <c r="CO110" s="70"/>
       <c r="CP110" s="70"/>
       <c r="CQ110" s="70"/>
+      <c r="CR110" s="70"/>
+      <c r="CS110" s="70"/>
+      <c r="CT110" s="70"/>
+      <c r="CU110" s="70"/>
+      <c r="CV110" s="70"/>
+      <c r="CW110" s="70"/>
     </row>
     <row r="111">
       <c r="A111" s="68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B111" s="70"/>
       <c r="C111" s="70"/>
@@ -31227,10 +31906,16 @@
       <c r="CO111" s="70"/>
       <c r="CP111" s="70"/>
       <c r="CQ111" s="70"/>
+      <c r="CR111" s="70"/>
+      <c r="CS111" s="70"/>
+      <c r="CT111" s="70"/>
+      <c r="CU111" s="70"/>
+      <c r="CV111" s="70"/>
+      <c r="CW111" s="70"/>
     </row>
     <row r="112">
       <c r="A112" s="68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B112" s="70"/>
       <c r="C112" s="70"/>
@@ -31326,10 +32011,16 @@
       <c r="CO112" s="70"/>
       <c r="CP112" s="70"/>
       <c r="CQ112" s="70"/>
+      <c r="CR112" s="70"/>
+      <c r="CS112" s="70"/>
+      <c r="CT112" s="70"/>
+      <c r="CU112" s="70"/>
+      <c r="CV112" s="70"/>
+      <c r="CW112" s="70"/>
     </row>
     <row r="113">
       <c r="A113" s="68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B113" s="70"/>
       <c r="C113" s="70"/>
@@ -31425,10 +32116,16 @@
       <c r="CO113" s="70"/>
       <c r="CP113" s="70"/>
       <c r="CQ113" s="70"/>
+      <c r="CR113" s="70"/>
+      <c r="CS113" s="70"/>
+      <c r="CT113" s="70"/>
+      <c r="CU113" s="70"/>
+      <c r="CV113" s="70"/>
+      <c r="CW113" s="70"/>
     </row>
     <row r="114">
       <c r="A114" s="68" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B114" s="70"/>
       <c r="C114" s="70"/>
@@ -31524,10 +32221,16 @@
       <c r="CO114" s="70"/>
       <c r="CP114" s="70"/>
       <c r="CQ114" s="70"/>
+      <c r="CR114" s="70"/>
+      <c r="CS114" s="70"/>
+      <c r="CT114" s="70"/>
+      <c r="CU114" s="70"/>
+      <c r="CV114" s="70"/>
+      <c r="CW114" s="70"/>
     </row>
     <row r="115">
       <c r="A115" s="68" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B115" s="70"/>
       <c r="C115" s="70"/>
@@ -31623,10 +32326,16 @@
       <c r="CO115" s="70"/>
       <c r="CP115" s="70"/>
       <c r="CQ115" s="70"/>
+      <c r="CR115" s="70"/>
+      <c r="CS115" s="70"/>
+      <c r="CT115" s="70"/>
+      <c r="CU115" s="70"/>
+      <c r="CV115" s="70"/>
+      <c r="CW115" s="70"/>
     </row>
     <row r="116">
       <c r="A116" s="68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B116" s="70"/>
       <c r="C116" s="70"/>
@@ -31722,10 +32431,16 @@
       <c r="CO116" s="70"/>
       <c r="CP116" s="70"/>
       <c r="CQ116" s="70"/>
+      <c r="CR116" s="70"/>
+      <c r="CS116" s="70"/>
+      <c r="CT116" s="70"/>
+      <c r="CU116" s="70"/>
+      <c r="CV116" s="70"/>
+      <c r="CW116" s="70"/>
     </row>
     <row r="117">
       <c r="A117" s="68" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B117" s="70"/>
       <c r="C117" s="70"/>
@@ -31821,10 +32536,16 @@
       <c r="CO117" s="70"/>
       <c r="CP117" s="70"/>
       <c r="CQ117" s="70"/>
+      <c r="CR117" s="70"/>
+      <c r="CS117" s="70"/>
+      <c r="CT117" s="70"/>
+      <c r="CU117" s="70"/>
+      <c r="CV117" s="70"/>
+      <c r="CW117" s="70"/>
     </row>
     <row r="118">
       <c r="A118" s="68" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B118" s="70"/>
       <c r="C118" s="70"/>
@@ -31920,10 +32641,16 @@
       <c r="CO118" s="70"/>
       <c r="CP118" s="70"/>
       <c r="CQ118" s="70"/>
+      <c r="CR118" s="70"/>
+      <c r="CS118" s="70"/>
+      <c r="CT118" s="70"/>
+      <c r="CU118" s="70"/>
+      <c r="CV118" s="70"/>
+      <c r="CW118" s="70"/>
     </row>
     <row r="119">
       <c r="A119" s="68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B119" s="70"/>
       <c r="C119" s="70"/>
@@ -32019,10 +32746,16 @@
       <c r="CO119" s="70"/>
       <c r="CP119" s="70"/>
       <c r="CQ119" s="70"/>
+      <c r="CR119" s="70"/>
+      <c r="CS119" s="70"/>
+      <c r="CT119" s="70"/>
+      <c r="CU119" s="70"/>
+      <c r="CV119" s="70"/>
+      <c r="CW119" s="70"/>
     </row>
     <row r="120">
       <c r="A120" s="68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B120" s="70"/>
       <c r="C120" s="70"/>
@@ -32118,10 +32851,16 @@
       <c r="CO120" s="70"/>
       <c r="CP120" s="70"/>
       <c r="CQ120" s="70"/>
+      <c r="CR120" s="70"/>
+      <c r="CS120" s="70"/>
+      <c r="CT120" s="70"/>
+      <c r="CU120" s="70"/>
+      <c r="CV120" s="70"/>
+      <c r="CW120" s="70"/>
     </row>
     <row r="121">
       <c r="A121" s="68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B121" s="70"/>
       <c r="C121" s="70"/>
@@ -32217,10 +32956,16 @@
       <c r="CO121" s="70"/>
       <c r="CP121" s="70"/>
       <c r="CQ121" s="70"/>
+      <c r="CR121" s="70"/>
+      <c r="CS121" s="70"/>
+      <c r="CT121" s="70"/>
+      <c r="CU121" s="70"/>
+      <c r="CV121" s="70"/>
+      <c r="CW121" s="70"/>
     </row>
     <row r="122">
       <c r="A122" s="68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B122" s="70"/>
       <c r="C122" s="70"/>
@@ -32316,10 +33061,16 @@
       <c r="CO122" s="70"/>
       <c r="CP122" s="70"/>
       <c r="CQ122" s="70"/>
+      <c r="CR122" s="70"/>
+      <c r="CS122" s="70"/>
+      <c r="CT122" s="70"/>
+      <c r="CU122" s="70"/>
+      <c r="CV122" s="70"/>
+      <c r="CW122" s="70"/>
     </row>
     <row r="123">
       <c r="A123" s="68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B123" s="70"/>
       <c r="C123" s="70"/>
@@ -32415,10 +33166,16 @@
       <c r="CO123" s="70"/>
       <c r="CP123" s="70"/>
       <c r="CQ123" s="70"/>
+      <c r="CR123" s="70"/>
+      <c r="CS123" s="70"/>
+      <c r="CT123" s="70"/>
+      <c r="CU123" s="70"/>
+      <c r="CV123" s="70"/>
+      <c r="CW123" s="70"/>
     </row>
     <row r="124">
       <c r="A124" s="68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B124" s="70"/>
       <c r="C124" s="70"/>
@@ -32514,10 +33271,16 @@
       <c r="CO124" s="70"/>
       <c r="CP124" s="70"/>
       <c r="CQ124" s="70"/>
+      <c r="CR124" s="70"/>
+      <c r="CS124" s="70"/>
+      <c r="CT124" s="70"/>
+      <c r="CU124" s="70"/>
+      <c r="CV124" s="70"/>
+      <c r="CW124" s="70"/>
     </row>
     <row r="125">
       <c r="A125" s="68" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B125" s="70"/>
       <c r="C125" s="70"/>
@@ -32613,10 +33376,16 @@
       <c r="CO125" s="70"/>
       <c r="CP125" s="70"/>
       <c r="CQ125" s="70"/>
+      <c r="CR125" s="70"/>
+      <c r="CS125" s="70"/>
+      <c r="CT125" s="70"/>
+      <c r="CU125" s="70"/>
+      <c r="CV125" s="70"/>
+      <c r="CW125" s="70"/>
     </row>
     <row r="126">
       <c r="A126" s="68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B126" s="70"/>
       <c r="C126" s="70"/>
@@ -32712,10 +33481,16 @@
       <c r="CO126" s="70"/>
       <c r="CP126" s="70"/>
       <c r="CQ126" s="70"/>
+      <c r="CR126" s="70"/>
+      <c r="CS126" s="70"/>
+      <c r="CT126" s="70"/>
+      <c r="CU126" s="70"/>
+      <c r="CV126" s="70"/>
+      <c r="CW126" s="70"/>
     </row>
     <row r="127">
       <c r="A127" s="68" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B127" s="70"/>
       <c r="C127" s="70"/>
@@ -32811,10 +33586,16 @@
       <c r="CO127" s="70"/>
       <c r="CP127" s="70"/>
       <c r="CQ127" s="70"/>
+      <c r="CR127" s="70"/>
+      <c r="CS127" s="70"/>
+      <c r="CT127" s="70"/>
+      <c r="CU127" s="70"/>
+      <c r="CV127" s="70"/>
+      <c r="CW127" s="70"/>
     </row>
     <row r="128">
       <c r="A128" s="68" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B128" s="70"/>
       <c r="C128" s="70"/>
@@ -32910,10 +33691,16 @@
       <c r="CO128" s="70"/>
       <c r="CP128" s="70"/>
       <c r="CQ128" s="70"/>
+      <c r="CR128" s="70"/>
+      <c r="CS128" s="70"/>
+      <c r="CT128" s="70"/>
+      <c r="CU128" s="70"/>
+      <c r="CV128" s="70"/>
+      <c r="CW128" s="70"/>
     </row>
     <row r="129">
       <c r="A129" s="68" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B129" s="70"/>
       <c r="C129" s="70"/>
@@ -33009,10 +33796,16 @@
       <c r="CO129" s="70"/>
       <c r="CP129" s="70"/>
       <c r="CQ129" s="70"/>
+      <c r="CR129" s="70"/>
+      <c r="CS129" s="70"/>
+      <c r="CT129" s="70"/>
+      <c r="CU129" s="70"/>
+      <c r="CV129" s="70"/>
+      <c r="CW129" s="70"/>
     </row>
     <row r="130">
       <c r="A130" s="68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B130" s="70"/>
       <c r="C130" s="70"/>
@@ -33108,10 +33901,16 @@
       <c r="CO130" s="70"/>
       <c r="CP130" s="70"/>
       <c r="CQ130" s="70"/>
+      <c r="CR130" s="70"/>
+      <c r="CS130" s="70"/>
+      <c r="CT130" s="70"/>
+      <c r="CU130" s="70"/>
+      <c r="CV130" s="70"/>
+      <c r="CW130" s="70"/>
     </row>
     <row r="131">
       <c r="A131" s="68" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B131" s="70"/>
       <c r="C131" s="70"/>
@@ -33138,7 +33937,7 @@
       <c r="X131" s="70"/>
       <c r="Y131" s="70"/>
       <c r="Z131" s="70"/>
-      <c r="AA131" s="72"/>
+      <c r="AA131" s="70"/>
       <c r="AB131" s="70"/>
       <c r="AC131" s="70"/>
       <c r="AD131" s="70"/>
@@ -33184,13 +33983,13 @@
       <c r="BR131" s="70"/>
       <c r="BS131" s="70"/>
       <c r="BT131" s="70"/>
-      <c r="BU131" s="72"/>
+      <c r="BU131" s="70"/>
       <c r="BV131" s="70"/>
       <c r="BW131" s="70"/>
       <c r="BX131" s="70"/>
       <c r="BY131" s="70"/>
       <c r="BZ131" s="70"/>
-      <c r="CA131" s="72"/>
+      <c r="CA131" s="70"/>
       <c r="CB131" s="70"/>
       <c r="CC131" s="70"/>
       <c r="CD131" s="70"/>
@@ -33207,297 +34006,325 @@
       <c r="CO131" s="70"/>
       <c r="CP131" s="70"/>
       <c r="CQ131" s="70"/>
+      <c r="CR131" s="70"/>
+      <c r="CS131" s="70"/>
+      <c r="CT131" s="70"/>
+      <c r="CU131" s="70"/>
+      <c r="CV131" s="70"/>
+      <c r="CW131" s="70"/>
     </row>
     <row r="132">
-      <c r="A132" s="69"/>
-      <c r="B132" s="69"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="69"/>
-      <c r="G132" s="69"/>
-      <c r="H132" s="69"/>
-      <c r="I132" s="69"/>
-      <c r="J132" s="69"/>
-      <c r="K132" s="69"/>
-      <c r="L132" s="69"/>
-      <c r="M132" s="69"/>
-      <c r="N132" s="69"/>
-      <c r="O132" s="69"/>
-      <c r="P132" s="69"/>
-      <c r="Q132" s="69"/>
-      <c r="R132" s="69"/>
-      <c r="S132" s="69"/>
-      <c r="T132" s="69"/>
-      <c r="U132" s="69"/>
-      <c r="V132" s="69"/>
-      <c r="W132" s="69"/>
-      <c r="X132" s="69"/>
-      <c r="Y132" s="69"/>
-      <c r="Z132" s="69"/>
-      <c r="AA132" s="69"/>
-      <c r="AB132" s="69"/>
-      <c r="AC132" s="69"/>
-      <c r="AD132" s="69"/>
-      <c r="AE132" s="69"/>
-      <c r="AF132" s="69"/>
-      <c r="AG132" s="69"/>
-      <c r="AH132" s="69"/>
-      <c r="AI132" s="69"/>
-      <c r="AJ132" s="69"/>
-      <c r="AK132" s="69"/>
-      <c r="AL132" s="69"/>
-      <c r="AM132" s="69"/>
-      <c r="AN132" s="69"/>
-      <c r="AO132" s="69"/>
-      <c r="AP132" s="69"/>
-      <c r="AQ132" s="69"/>
-      <c r="AR132" s="69"/>
-      <c r="AS132" s="69"/>
-      <c r="AT132" s="69"/>
-      <c r="AU132" s="69"/>
-      <c r="AV132" s="69"/>
-      <c r="AW132" s="69"/>
-      <c r="AX132" s="69"/>
-      <c r="AY132" s="69"/>
-      <c r="AZ132" s="69"/>
-      <c r="BA132" s="69"/>
-      <c r="BB132" s="69"/>
-      <c r="BC132" s="69"/>
-      <c r="BD132" s="69"/>
-      <c r="BE132" s="69"/>
-      <c r="BF132" s="69"/>
-      <c r="BG132" s="69"/>
-      <c r="BH132" s="69"/>
-      <c r="BI132" s="69"/>
-      <c r="BJ132" s="69"/>
-      <c r="BK132" s="69"/>
-      <c r="BL132" s="69"/>
-      <c r="BM132" s="69"/>
-      <c r="BN132" s="69"/>
-      <c r="BO132" s="69"/>
-      <c r="BP132" s="69"/>
-      <c r="BQ132" s="69"/>
-      <c r="BR132" s="69"/>
-      <c r="BS132" s="69"/>
-      <c r="BT132" s="69"/>
-      <c r="BU132" s="69"/>
+      <c r="A132" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="70"/>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+      <c r="N132" s="70"/>
+      <c r="O132" s="70"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="70"/>
+      <c r="R132" s="70"/>
+      <c r="S132" s="70"/>
+      <c r="T132" s="70"/>
+      <c r="U132" s="70"/>
+      <c r="V132" s="70"/>
+      <c r="W132" s="70"/>
+      <c r="X132" s="70"/>
+      <c r="Y132" s="70"/>
+      <c r="Z132" s="70"/>
+      <c r="AA132" s="70"/>
+      <c r="AB132" s="70"/>
+      <c r="AC132" s="70"/>
+      <c r="AD132" s="70"/>
+      <c r="AE132" s="70"/>
+      <c r="AF132" s="70"/>
+      <c r="AG132" s="70"/>
+      <c r="AH132" s="70"/>
+      <c r="AI132" s="70"/>
+      <c r="AJ132" s="70"/>
+      <c r="AK132" s="70"/>
+      <c r="AL132" s="70"/>
+      <c r="AM132" s="70"/>
+      <c r="AN132" s="70"/>
+      <c r="AO132" s="70"/>
+      <c r="AP132" s="70"/>
+      <c r="AQ132" s="70"/>
+      <c r="AR132" s="70"/>
+      <c r="AS132" s="70"/>
+      <c r="AT132" s="70"/>
+      <c r="AU132" s="70"/>
+      <c r="AV132" s="70"/>
+      <c r="AW132" s="70"/>
+      <c r="AX132" s="70"/>
+      <c r="AY132" s="70"/>
+      <c r="AZ132" s="70"/>
+      <c r="BA132" s="70"/>
+      <c r="BB132" s="70"/>
+      <c r="BC132" s="70"/>
+      <c r="BD132" s="70"/>
+      <c r="BE132" s="70"/>
+      <c r="BF132" s="70"/>
+      <c r="BG132" s="70"/>
+      <c r="BH132" s="70"/>
+      <c r="BI132" s="70"/>
+      <c r="BJ132" s="70"/>
+      <c r="BK132" s="70"/>
+      <c r="BL132" s="70"/>
+      <c r="BM132" s="70"/>
+      <c r="BN132" s="70"/>
+      <c r="BO132" s="70"/>
+      <c r="BP132" s="70"/>
+      <c r="BQ132" s="70"/>
+      <c r="BR132" s="70"/>
+      <c r="BS132" s="70"/>
+      <c r="BT132" s="70"/>
+      <c r="BU132" s="70"/>
       <c r="BV132" s="70"/>
-      <c r="BW132" s="69"/>
-      <c r="BX132" s="69"/>
-      <c r="BY132" s="69"/>
-      <c r="BZ132" s="69"/>
-      <c r="CA132" s="69"/>
+      <c r="BW132" s="70"/>
+      <c r="BX132" s="70"/>
+      <c r="BY132" s="70"/>
+      <c r="BZ132" s="70"/>
+      <c r="CA132" s="70"/>
       <c r="CB132" s="70"/>
-      <c r="CC132" s="69"/>
-      <c r="CD132" s="69"/>
-      <c r="CE132" s="69"/>
-      <c r="CF132" s="69"/>
-      <c r="CG132" s="69"/>
-      <c r="CH132" s="69"/>
-      <c r="CI132" s="69"/>
-      <c r="CJ132" s="69"/>
-      <c r="CK132" s="69"/>
-      <c r="CL132" s="69"/>
-      <c r="CM132" s="69"/>
-      <c r="CN132" s="69"/>
-      <c r="CO132" s="69"/>
-      <c r="CP132" s="69"/>
-      <c r="CQ132" s="69"/>
+      <c r="CC132" s="70"/>
+      <c r="CD132" s="70"/>
+      <c r="CE132" s="70"/>
+      <c r="CF132" s="70"/>
+      <c r="CG132" s="70"/>
+      <c r="CH132" s="70"/>
+      <c r="CI132" s="70"/>
+      <c r="CJ132" s="70"/>
+      <c r="CK132" s="70"/>
+      <c r="CL132" s="70"/>
+      <c r="CM132" s="70"/>
+      <c r="CN132" s="70"/>
+      <c r="CO132" s="70"/>
+      <c r="CP132" s="70"/>
+      <c r="CQ132" s="70"/>
+      <c r="CR132" s="70"/>
+      <c r="CS132" s="70"/>
+      <c r="CT132" s="70"/>
+      <c r="CU132" s="70"/>
+      <c r="CV132" s="70"/>
+      <c r="CW132" s="70"/>
     </row>
     <row r="133">
-      <c r="A133" s="65"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65"/>
-      <c r="I133" s="65"/>
-      <c r="J133" s="65"/>
-      <c r="K133" s="65"/>
-      <c r="L133" s="65"/>
-      <c r="M133" s="65"/>
-      <c r="N133" s="65"/>
-      <c r="O133" s="65"/>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="65"/>
-      <c r="R133" s="65"/>
-      <c r="S133" s="65"/>
-      <c r="T133" s="65"/>
-      <c r="U133" s="65"/>
-      <c r="V133" s="65"/>
-      <c r="W133" s="65"/>
-      <c r="X133" s="65"/>
-      <c r="Y133" s="65"/>
-      <c r="Z133" s="65"/>
-      <c r="AA133" s="65"/>
-      <c r="AB133" s="65"/>
-      <c r="AC133" s="65"/>
-      <c r="AD133" s="65"/>
-      <c r="AE133" s="65"/>
-      <c r="AF133" s="65"/>
-      <c r="AG133" s="65"/>
-      <c r="AH133" s="65"/>
-      <c r="AI133" s="65"/>
-      <c r="AJ133" s="65"/>
-      <c r="AK133" s="65"/>
-      <c r="AL133" s="65"/>
-      <c r="AM133" s="65"/>
-      <c r="AN133" s="65"/>
-      <c r="AO133" s="65"/>
-      <c r="AP133" s="65"/>
-      <c r="AQ133" s="65"/>
-      <c r="AR133" s="65"/>
-      <c r="AS133" s="65"/>
-      <c r="AT133" s="65"/>
-      <c r="AU133" s="65"/>
-      <c r="AV133" s="65"/>
-      <c r="AW133" s="65"/>
-      <c r="AX133" s="65"/>
-      <c r="AY133" s="65"/>
-      <c r="AZ133" s="65"/>
-      <c r="BA133" s="65"/>
-      <c r="BB133" s="65"/>
-      <c r="BC133" s="65"/>
-      <c r="BD133" s="65"/>
-      <c r="BE133" s="65"/>
-      <c r="BF133" s="65"/>
-      <c r="BG133" s="65"/>
-      <c r="BH133" s="65"/>
-      <c r="BI133" s="65"/>
-      <c r="BJ133" s="65"/>
-      <c r="BK133" s="65"/>
-      <c r="BL133" s="65"/>
-      <c r="BM133" s="65"/>
-      <c r="BN133" s="65"/>
-      <c r="BO133" s="65"/>
-      <c r="BP133" s="65"/>
-      <c r="BQ133" s="65"/>
-      <c r="BR133" s="65"/>
-      <c r="BS133" s="65"/>
-      <c r="BT133" s="65"/>
-      <c r="BU133" s="65"/>
-      <c r="BV133" s="65"/>
-      <c r="BW133" s="65"/>
-      <c r="BX133" s="65"/>
-      <c r="BY133" s="65"/>
-      <c r="BZ133" s="65"/>
-      <c r="CA133" s="65"/>
-      <c r="CB133" s="65"/>
-      <c r="CC133" s="65"/>
-      <c r="CD133" s="65"/>
-      <c r="CE133" s="65"/>
-      <c r="CF133" s="65"/>
-      <c r="CG133" s="65"/>
-      <c r="CH133" s="65"/>
-      <c r="CI133" s="65"/>
-      <c r="CJ133" s="65"/>
-      <c r="CK133" s="65"/>
-      <c r="CL133" s="65"/>
-      <c r="CM133" s="65"/>
-      <c r="CN133" s="65"/>
-      <c r="CO133" s="65"/>
-      <c r="CP133" s="65"/>
-      <c r="CQ133" s="65"/>
+      <c r="A133" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="70"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="70"/>
+      <c r="L133" s="70"/>
+      <c r="M133" s="70"/>
+      <c r="N133" s="70"/>
+      <c r="O133" s="70"/>
+      <c r="P133" s="70"/>
+      <c r="Q133" s="70"/>
+      <c r="R133" s="70"/>
+      <c r="S133" s="70"/>
+      <c r="T133" s="70"/>
+      <c r="U133" s="70"/>
+      <c r="V133" s="70"/>
+      <c r="W133" s="70"/>
+      <c r="X133" s="70"/>
+      <c r="Y133" s="70"/>
+      <c r="Z133" s="70"/>
+      <c r="AA133" s="70"/>
+      <c r="AB133" s="70"/>
+      <c r="AC133" s="70"/>
+      <c r="AD133" s="70"/>
+      <c r="AE133" s="70"/>
+      <c r="AF133" s="70"/>
+      <c r="AG133" s="72"/>
+      <c r="AH133" s="70"/>
+      <c r="AI133" s="70"/>
+      <c r="AJ133" s="70"/>
+      <c r="AK133" s="70"/>
+      <c r="AL133" s="70"/>
+      <c r="AM133" s="70"/>
+      <c r="AN133" s="70"/>
+      <c r="AO133" s="70"/>
+      <c r="AP133" s="70"/>
+      <c r="AQ133" s="70"/>
+      <c r="AR133" s="70"/>
+      <c r="AS133" s="70"/>
+      <c r="AT133" s="70"/>
+      <c r="AU133" s="70"/>
+      <c r="AV133" s="70"/>
+      <c r="AW133" s="70"/>
+      <c r="AX133" s="70"/>
+      <c r="AY133" s="70"/>
+      <c r="AZ133" s="70"/>
+      <c r="BA133" s="70"/>
+      <c r="BB133" s="70"/>
+      <c r="BC133" s="70"/>
+      <c r="BD133" s="70"/>
+      <c r="BE133" s="70"/>
+      <c r="BF133" s="70"/>
+      <c r="BG133" s="70"/>
+      <c r="BH133" s="70"/>
+      <c r="BI133" s="70"/>
+      <c r="BJ133" s="70"/>
+      <c r="BK133" s="70"/>
+      <c r="BL133" s="70"/>
+      <c r="BM133" s="70"/>
+      <c r="BN133" s="70"/>
+      <c r="BO133" s="70"/>
+      <c r="BP133" s="70"/>
+      <c r="BQ133" s="70"/>
+      <c r="BR133" s="70"/>
+      <c r="BS133" s="70"/>
+      <c r="BT133" s="70"/>
+      <c r="BU133" s="70"/>
+      <c r="BV133" s="70"/>
+      <c r="BW133" s="70"/>
+      <c r="BX133" s="70"/>
+      <c r="BY133" s="70"/>
+      <c r="BZ133" s="70"/>
+      <c r="CA133" s="72"/>
+      <c r="CB133" s="70"/>
+      <c r="CC133" s="70"/>
+      <c r="CD133" s="70"/>
+      <c r="CE133" s="70"/>
+      <c r="CF133" s="70"/>
+      <c r="CG133" s="72"/>
+      <c r="CH133" s="70"/>
+      <c r="CI133" s="70"/>
+      <c r="CJ133" s="70"/>
+      <c r="CK133" s="70"/>
+      <c r="CL133" s="70"/>
+      <c r="CM133" s="70"/>
+      <c r="CN133" s="70"/>
+      <c r="CO133" s="70"/>
+      <c r="CP133" s="70"/>
+      <c r="CQ133" s="70"/>
+      <c r="CR133" s="70"/>
+      <c r="CS133" s="70"/>
+      <c r="CT133" s="70"/>
+      <c r="CU133" s="70"/>
+      <c r="CV133" s="70"/>
+      <c r="CW133" s="70"/>
     </row>
     <row r="134">
-      <c r="A134" s="65"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="65"/>
-      <c r="I134" s="65"/>
-      <c r="J134" s="65"/>
-      <c r="K134" s="65"/>
-      <c r="L134" s="65"/>
-      <c r="M134" s="65"/>
-      <c r="N134" s="65"/>
-      <c r="O134" s="65"/>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="65"/>
-      <c r="R134" s="65"/>
-      <c r="S134" s="65"/>
-      <c r="T134" s="65"/>
-      <c r="U134" s="65"/>
-      <c r="V134" s="65"/>
-      <c r="W134" s="65"/>
-      <c r="X134" s="65"/>
-      <c r="Y134" s="65"/>
-      <c r="Z134" s="65"/>
-      <c r="AA134" s="65"/>
-      <c r="AB134" s="65"/>
-      <c r="AC134" s="65"/>
-      <c r="AD134" s="65"/>
-      <c r="AE134" s="65"/>
-      <c r="AF134" s="65"/>
-      <c r="AG134" s="65"/>
-      <c r="AH134" s="65"/>
-      <c r="AI134" s="65"/>
-      <c r="AJ134" s="65"/>
-      <c r="AK134" s="65"/>
-      <c r="AL134" s="65"/>
-      <c r="AM134" s="65"/>
-      <c r="AN134" s="65"/>
-      <c r="AO134" s="65"/>
-      <c r="AP134" s="65"/>
-      <c r="AQ134" s="65"/>
-      <c r="AR134" s="65"/>
-      <c r="AS134" s="65"/>
-      <c r="AT134" s="65"/>
-      <c r="AU134" s="65"/>
-      <c r="AV134" s="65"/>
-      <c r="AW134" s="65"/>
-      <c r="AX134" s="65"/>
-      <c r="AY134" s="65"/>
-      <c r="AZ134" s="65"/>
-      <c r="BA134" s="65"/>
-      <c r="BB134" s="65"/>
-      <c r="BC134" s="65"/>
-      <c r="BD134" s="65"/>
-      <c r="BE134" s="65"/>
-      <c r="BF134" s="65"/>
-      <c r="BG134" s="65"/>
-      <c r="BH134" s="65"/>
-      <c r="BI134" s="65"/>
-      <c r="BJ134" s="65"/>
-      <c r="BK134" s="65"/>
-      <c r="BL134" s="65"/>
-      <c r="BM134" s="65"/>
-      <c r="BN134" s="65"/>
-      <c r="BO134" s="65"/>
-      <c r="BP134" s="65"/>
-      <c r="BQ134" s="65"/>
-      <c r="BR134" s="65"/>
-      <c r="BS134" s="65"/>
-      <c r="BT134" s="65"/>
-      <c r="BU134" s="65"/>
-      <c r="BV134" s="65"/>
-      <c r="BW134" s="65"/>
-      <c r="BX134" s="65"/>
-      <c r="BY134" s="65"/>
-      <c r="BZ134" s="65"/>
-      <c r="CA134" s="65"/>
-      <c r="CB134" s="65"/>
-      <c r="CC134" s="65"/>
-      <c r="CD134" s="65"/>
-      <c r="CE134" s="65"/>
-      <c r="CF134" s="65"/>
-      <c r="CG134" s="65"/>
-      <c r="CH134" s="65"/>
-      <c r="CI134" s="65"/>
-      <c r="CJ134" s="65"/>
-      <c r="CK134" s="65"/>
-      <c r="CL134" s="65"/>
-      <c r="CM134" s="65"/>
-      <c r="CN134" s="65"/>
-      <c r="CO134" s="65"/>
-      <c r="CP134" s="65"/>
-      <c r="CQ134" s="65"/>
+      <c r="A134" s="69"/>
+      <c r="B134" s="69"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="69"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="69"/>
+      <c r="J134" s="69"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="69"/>
+      <c r="M134" s="69"/>
+      <c r="N134" s="69"/>
+      <c r="O134" s="69"/>
+      <c r="P134" s="69"/>
+      <c r="Q134" s="69"/>
+      <c r="R134" s="69"/>
+      <c r="S134" s="69"/>
+      <c r="T134" s="69"/>
+      <c r="U134" s="69"/>
+      <c r="V134" s="69"/>
+      <c r="W134" s="69"/>
+      <c r="X134" s="69"/>
+      <c r="Y134" s="69"/>
+      <c r="Z134" s="69"/>
+      <c r="AA134" s="69"/>
+      <c r="AB134" s="69"/>
+      <c r="AC134" s="69"/>
+      <c r="AD134" s="69"/>
+      <c r="AE134" s="69"/>
+      <c r="AF134" s="69"/>
+      <c r="AG134" s="69"/>
+      <c r="AH134" s="69"/>
+      <c r="AI134" s="69"/>
+      <c r="AJ134" s="69"/>
+      <c r="AK134" s="69"/>
+      <c r="AL134" s="69"/>
+      <c r="AM134" s="69"/>
+      <c r="AN134" s="69"/>
+      <c r="AO134" s="69"/>
+      <c r="AP134" s="69"/>
+      <c r="AQ134" s="69"/>
+      <c r="AR134" s="69"/>
+      <c r="AS134" s="69"/>
+      <c r="AT134" s="69"/>
+      <c r="AU134" s="69"/>
+      <c r="AV134" s="69"/>
+      <c r="AW134" s="69"/>
+      <c r="AX134" s="69"/>
+      <c r="AY134" s="69"/>
+      <c r="AZ134" s="69"/>
+      <c r="BA134" s="69"/>
+      <c r="BB134" s="69"/>
+      <c r="BC134" s="69"/>
+      <c r="BD134" s="69"/>
+      <c r="BE134" s="69"/>
+      <c r="BF134" s="69"/>
+      <c r="BG134" s="69"/>
+      <c r="BH134" s="69"/>
+      <c r="BI134" s="69"/>
+      <c r="BJ134" s="69"/>
+      <c r="BK134" s="69"/>
+      <c r="BL134" s="69"/>
+      <c r="BM134" s="69"/>
+      <c r="BN134" s="69"/>
+      <c r="BO134" s="69"/>
+      <c r="BP134" s="69"/>
+      <c r="BQ134" s="69"/>
+      <c r="BR134" s="69"/>
+      <c r="BS134" s="69"/>
+      <c r="BT134" s="69"/>
+      <c r="BU134" s="69"/>
+      <c r="BV134" s="69"/>
+      <c r="BW134" s="69"/>
+      <c r="BX134" s="69"/>
+      <c r="BY134" s="69"/>
+      <c r="BZ134" s="69"/>
+      <c r="CA134" s="69"/>
+      <c r="CB134" s="70"/>
+      <c r="CC134" s="69"/>
+      <c r="CD134" s="69"/>
+      <c r="CE134" s="69"/>
+      <c r="CF134" s="69"/>
+      <c r="CG134" s="69"/>
+      <c r="CH134" s="70"/>
+      <c r="CI134" s="69"/>
+      <c r="CJ134" s="69"/>
+      <c r="CK134" s="69"/>
+      <c r="CL134" s="69"/>
+      <c r="CM134" s="69"/>
+      <c r="CN134" s="69"/>
+      <c r="CO134" s="69"/>
+      <c r="CP134" s="69"/>
+      <c r="CQ134" s="69"/>
+      <c r="CR134" s="69"/>
+      <c r="CS134" s="69"/>
+      <c r="CT134" s="69"/>
+      <c r="CU134" s="69"/>
+      <c r="CV134" s="69"/>
+      <c r="CW134" s="69"/>
     </row>
     <row r="135">
       <c r="A135" s="65"/>
@@ -33595,6 +34422,12 @@
       <c r="CO135" s="65"/>
       <c r="CP135" s="65"/>
       <c r="CQ135" s="65"/>
+      <c r="CR135" s="65"/>
+      <c r="CS135" s="65"/>
+      <c r="CT135" s="65"/>
+      <c r="CU135" s="65"/>
+      <c r="CV135" s="65"/>
+      <c r="CW135" s="65"/>
     </row>
     <row r="136">
       <c r="A136" s="65"/>
@@ -33692,6 +34525,12 @@
       <c r="CO136" s="65"/>
       <c r="CP136" s="65"/>
       <c r="CQ136" s="65"/>
+      <c r="CR136" s="65"/>
+      <c r="CS136" s="65"/>
+      <c r="CT136" s="65"/>
+      <c r="CU136" s="65"/>
+      <c r="CV136" s="65"/>
+      <c r="CW136" s="65"/>
     </row>
     <row r="137">
       <c r="A137" s="65"/>
@@ -33789,6 +34628,12 @@
       <c r="CO137" s="65"/>
       <c r="CP137" s="65"/>
       <c r="CQ137" s="65"/>
+      <c r="CR137" s="65"/>
+      <c r="CS137" s="65"/>
+      <c r="CT137" s="65"/>
+      <c r="CU137" s="65"/>
+      <c r="CV137" s="65"/>
+      <c r="CW137" s="65"/>
     </row>
     <row r="138">
       <c r="A138" s="65"/>
@@ -33886,12 +34731,224 @@
       <c r="CO138" s="65"/>
       <c r="CP138" s="65"/>
       <c r="CQ138" s="65"/>
+      <c r="CR138" s="65"/>
+      <c r="CS138" s="65"/>
+      <c r="CT138" s="65"/>
+      <c r="CU138" s="65"/>
+      <c r="CV138" s="65"/>
+      <c r="CW138" s="65"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="65"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
+      <c r="L139" s="65"/>
+      <c r="M139" s="65"/>
+      <c r="N139" s="65"/>
+      <c r="O139" s="65"/>
+      <c r="P139" s="65"/>
+      <c r="Q139" s="65"/>
+      <c r="R139" s="65"/>
+      <c r="S139" s="65"/>
+      <c r="T139" s="65"/>
+      <c r="U139" s="65"/>
+      <c r="V139" s="65"/>
+      <c r="W139" s="65"/>
+      <c r="X139" s="65"/>
+      <c r="Y139" s="65"/>
+      <c r="Z139" s="65"/>
+      <c r="AA139" s="65"/>
+      <c r="AB139" s="65"/>
+      <c r="AC139" s="65"/>
+      <c r="AD139" s="65"/>
+      <c r="AE139" s="65"/>
+      <c r="AF139" s="65"/>
+      <c r="AG139" s="65"/>
+      <c r="AH139" s="65"/>
+      <c r="AI139" s="65"/>
+      <c r="AJ139" s="65"/>
+      <c r="AK139" s="65"/>
+      <c r="AL139" s="65"/>
+      <c r="AM139" s="65"/>
+      <c r="AN139" s="65"/>
+      <c r="AO139" s="65"/>
+      <c r="AP139" s="65"/>
+      <c r="AQ139" s="65"/>
+      <c r="AR139" s="65"/>
+      <c r="AS139" s="65"/>
+      <c r="AT139" s="65"/>
+      <c r="AU139" s="65"/>
+      <c r="AV139" s="65"/>
+      <c r="AW139" s="65"/>
+      <c r="AX139" s="65"/>
+      <c r="AY139" s="65"/>
+      <c r="AZ139" s="65"/>
+      <c r="BA139" s="65"/>
+      <c r="BB139" s="65"/>
+      <c r="BC139" s="65"/>
+      <c r="BD139" s="65"/>
+      <c r="BE139" s="65"/>
+      <c r="BF139" s="65"/>
+      <c r="BG139" s="65"/>
+      <c r="BH139" s="65"/>
+      <c r="BI139" s="65"/>
+      <c r="BJ139" s="65"/>
+      <c r="BK139" s="65"/>
+      <c r="BL139" s="65"/>
+      <c r="BM139" s="65"/>
+      <c r="BN139" s="65"/>
+      <c r="BO139" s="65"/>
+      <c r="BP139" s="65"/>
+      <c r="BQ139" s="65"/>
+      <c r="BR139" s="65"/>
+      <c r="BS139" s="65"/>
+      <c r="BT139" s="65"/>
+      <c r="BU139" s="65"/>
+      <c r="BV139" s="65"/>
+      <c r="BW139" s="65"/>
+      <c r="BX139" s="65"/>
+      <c r="BY139" s="65"/>
+      <c r="BZ139" s="65"/>
+      <c r="CA139" s="65"/>
+      <c r="CB139" s="65"/>
+      <c r="CC139" s="65"/>
+      <c r="CD139" s="65"/>
+      <c r="CE139" s="65"/>
+      <c r="CF139" s="65"/>
+      <c r="CG139" s="65"/>
+      <c r="CH139" s="65"/>
+      <c r="CI139" s="65"/>
+      <c r="CJ139" s="65"/>
+      <c r="CK139" s="65"/>
+      <c r="CL139" s="65"/>
+      <c r="CM139" s="65"/>
+      <c r="CN139" s="65"/>
+      <c r="CO139" s="65"/>
+      <c r="CP139" s="65"/>
+      <c r="CQ139" s="65"/>
+      <c r="CR139" s="65"/>
+      <c r="CS139" s="65"/>
+      <c r="CT139" s="65"/>
+      <c r="CU139" s="65"/>
+      <c r="CV139" s="65"/>
+      <c r="CW139" s="65"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="65"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
+      <c r="L140" s="65"/>
+      <c r="M140" s="65"/>
+      <c r="N140" s="65"/>
+      <c r="O140" s="65"/>
+      <c r="P140" s="65"/>
+      <c r="Q140" s="65"/>
+      <c r="R140" s="65"/>
+      <c r="S140" s="65"/>
+      <c r="T140" s="65"/>
+      <c r="U140" s="65"/>
+      <c r="V140" s="65"/>
+      <c r="W140" s="65"/>
+      <c r="X140" s="65"/>
+      <c r="Y140" s="65"/>
+      <c r="Z140" s="65"/>
+      <c r="AA140" s="65"/>
+      <c r="AB140" s="65"/>
+      <c r="AC140" s="65"/>
+      <c r="AD140" s="65"/>
+      <c r="AE140" s="65"/>
+      <c r="AF140" s="65"/>
+      <c r="AG140" s="65"/>
+      <c r="AH140" s="65"/>
+      <c r="AI140" s="65"/>
+      <c r="AJ140" s="65"/>
+      <c r="AK140" s="65"/>
+      <c r="AL140" s="65"/>
+      <c r="AM140" s="65"/>
+      <c r="AN140" s="65"/>
+      <c r="AO140" s="65"/>
+      <c r="AP140" s="65"/>
+      <c r="AQ140" s="65"/>
+      <c r="AR140" s="65"/>
+      <c r="AS140" s="65"/>
+      <c r="AT140" s="65"/>
+      <c r="AU140" s="65"/>
+      <c r="AV140" s="65"/>
+      <c r="AW140" s="65"/>
+      <c r="AX140" s="65"/>
+      <c r="AY140" s="65"/>
+      <c r="AZ140" s="65"/>
+      <c r="BA140" s="65"/>
+      <c r="BB140" s="65"/>
+      <c r="BC140" s="65"/>
+      <c r="BD140" s="65"/>
+      <c r="BE140" s="65"/>
+      <c r="BF140" s="65"/>
+      <c r="BG140" s="65"/>
+      <c r="BH140" s="65"/>
+      <c r="BI140" s="65"/>
+      <c r="BJ140" s="65"/>
+      <c r="BK140" s="65"/>
+      <c r="BL140" s="65"/>
+      <c r="BM140" s="65"/>
+      <c r="BN140" s="65"/>
+      <c r="BO140" s="65"/>
+      <c r="BP140" s="65"/>
+      <c r="BQ140" s="65"/>
+      <c r="BR140" s="65"/>
+      <c r="BS140" s="65"/>
+      <c r="BT140" s="65"/>
+      <c r="BU140" s="65"/>
+      <c r="BV140" s="65"/>
+      <c r="BW140" s="65"/>
+      <c r="BX140" s="65"/>
+      <c r="BY140" s="65"/>
+      <c r="BZ140" s="65"/>
+      <c r="CA140" s="65"/>
+      <c r="CB140" s="65"/>
+      <c r="CC140" s="65"/>
+      <c r="CD140" s="65"/>
+      <c r="CE140" s="65"/>
+      <c r="CF140" s="65"/>
+      <c r="CG140" s="65"/>
+      <c r="CH140" s="65"/>
+      <c r="CI140" s="65"/>
+      <c r="CJ140" s="65"/>
+      <c r="CK140" s="65"/>
+      <c r="CL140" s="65"/>
+      <c r="CM140" s="65"/>
+      <c r="CN140" s="65"/>
+      <c r="CO140" s="65"/>
+      <c r="CP140" s="65"/>
+      <c r="CQ140" s="65"/>
+      <c r="CR140" s="65"/>
+      <c r="CS140" s="65"/>
+      <c r="CT140" s="65"/>
+      <c r="CU140" s="65"/>
+      <c r="CV140" s="65"/>
+      <c r="CW140" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="H1:U1"/>
+    <mergeCell ref="H2:U3"/>
+    <mergeCell ref="H4:U4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -33912,17 +34969,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
@@ -33938,42 +34995,42 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="75" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="288">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -639,7 +639,7 @@
     <t>PTK-650</t>
   </si>
   <si>
-    <t>L0 P2 B1 D2</t>
+    <t>L0 P2 B1</t>
   </si>
   <si>
     <t>PTH-850</t>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>L0 P2 B2</t>
+  </si>
+  <si>
+    <t>L0 P2 B1 D2</t>
   </si>
   <si>
     <t>L0 P0 B1</t>
@@ -9397,7 +9400,9 @@
       <c r="L77" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="M77" s="20"/>
+      <c r="M77" s="59" t="s">
+        <v>185</v>
+      </c>
       <c r="N77" s="18"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
@@ -9616,13 +9621,13 @@
         <v>202</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J79" s="52" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L79" s="18"/>
       <c r="M79" s="30"/>
@@ -9650,10 +9655,10 @@
       <c r="AI79" s="20"/>
       <c r="AJ79" s="36"/>
       <c r="AK79" s="60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL79" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM79" s="20"/>
       <c r="AN79" s="20"/>
@@ -9722,7 +9727,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -9828,7 +9833,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9936,7 +9941,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -10042,7 +10047,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -10054,16 +10059,16 @@
         <v>202</v>
       </c>
       <c r="I83" s="52" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J83" s="52" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
@@ -10090,10 +10095,10 @@
       <c r="AI83" s="20"/>
       <c r="AJ83" s="36"/>
       <c r="AK83" s="60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL83" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM83" s="20"/>
       <c r="AN83" s="20"/>
@@ -10162,7 +10167,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -10268,7 +10273,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -10374,7 +10379,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -10480,7 +10485,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -10586,7 +10591,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -10692,7 +10697,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -10798,7 +10803,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -10904,7 +10909,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -11010,7 +11015,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -11116,7 +11121,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -11222,7 +11227,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -11328,7 +11333,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -11434,7 +11439,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -11540,7 +11545,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -11646,7 +11651,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -11752,7 +11757,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -11858,7 +11863,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -11964,7 +11969,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -12070,7 +12075,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -12176,7 +12181,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -12282,7 +12287,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -12388,7 +12393,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -12494,7 +12499,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -12600,7 +12605,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -12706,7 +12711,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -12812,7 +12817,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -12918,7 +12923,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -13024,7 +13029,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -13130,7 +13135,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -13236,7 +13241,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -13342,7 +13347,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -13448,7 +13453,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -13554,7 +13559,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -13660,7 +13665,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -13766,7 +13771,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -13872,7 +13877,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -13978,7 +13983,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -14084,7 +14089,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -14190,7 +14195,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -14296,7 +14301,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -14402,7 +14407,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -14508,7 +14513,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -14614,7 +14619,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -14720,7 +14725,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -14826,7 +14831,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -14932,7 +14937,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -15038,7 +15043,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -15144,7 +15149,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -15250,7 +15255,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -15356,7 +15361,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -15462,7 +15467,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
@@ -15568,7 +15573,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -15674,7 +15679,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
@@ -15780,7 +15785,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
@@ -15886,7 +15891,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
@@ -19351,7 +19356,7 @@
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V1" s="64"/>
       <c r="W1" s="64"/>
@@ -19442,7 +19447,7 @@
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V2" s="66"/>
       <c r="W2" s="66"/>
@@ -19621,7 +19626,7 @@
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V4" s="64"/>
       <c r="W4" s="64"/>
@@ -20225,30 +20230,30 @@
       <c r="G8" s="70"/>
       <c r="H8" s="70"/>
       <c r="I8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L8" s="70"/>
       <c r="M8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O8" s="70"/>
       <c r="P8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="70"/>
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
       <c r="T8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U8" s="70"/>
       <c r="V8" s="70"/>
@@ -20265,19 +20270,19 @@
       <c r="AG8" s="70"/>
       <c r="AH8" s="70"/>
       <c r="AI8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL8" s="70"/>
       <c r="AM8" s="70"/>
       <c r="AN8" s="70"/>
       <c r="AO8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP8" s="70"/>
       <c r="AQ8" s="70"/>
@@ -20285,30 +20290,30 @@
       <c r="AS8" s="70"/>
       <c r="AT8" s="70"/>
       <c r="AU8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV8" s="70"/>
       <c r="AW8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX8" s="70"/>
       <c r="AY8" s="70"/>
       <c r="AZ8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA8" s="70"/>
       <c r="BB8" s="70"/>
       <c r="BC8" s="70"/>
       <c r="BD8" s="70"/>
       <c r="BE8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF8" s="70"/>
       <c r="BG8" s="70"/>
       <c r="BH8" s="70"/>
       <c r="BI8" s="70"/>
       <c r="BJ8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK8" s="70"/>
       <c r="BL8" s="70"/>
@@ -20316,7 +20321,7 @@
       <c r="BN8" s="70"/>
       <c r="BO8" s="70"/>
       <c r="BP8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ8" s="70"/>
       <c r="BR8" s="70"/>
@@ -20333,24 +20338,24 @@
       <c r="CC8" s="70"/>
       <c r="CD8" s="70"/>
       <c r="CE8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF8" s="70"/>
       <c r="CG8" s="70"/>
       <c r="CH8" s="70"/>
       <c r="CI8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ8" s="70"/>
       <c r="CK8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL8" s="70"/>
       <c r="CM8" s="70"/>
       <c r="CN8" s="70"/>
       <c r="CO8" s="70"/>
       <c r="CP8" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ8" s="70"/>
       <c r="CR8" s="70"/>
@@ -20719,7 +20724,7 @@
       <c r="AM12" s="70"/>
       <c r="AN12" s="70"/>
       <c r="AO12" s="71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP12" s="70"/>
       <c r="AQ12" s="70"/>
@@ -20793,31 +20798,31 @@
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
       <c r="H13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I13" s="70"/>
       <c r="J13" s="70"/>
       <c r="K13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L13" s="70"/>
       <c r="M13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O13" s="70"/>
       <c r="P13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
       <c r="T13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U13" s="70"/>
       <c r="V13" s="70"/>
@@ -20834,19 +20839,19 @@
       <c r="AG13" s="70"/>
       <c r="AH13" s="70"/>
       <c r="AI13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL13" s="70"/>
       <c r="AM13" s="70"/>
       <c r="AN13" s="70"/>
       <c r="AO13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP13" s="70"/>
       <c r="AQ13" s="70"/>
@@ -20854,30 +20859,30 @@
       <c r="AS13" s="70"/>
       <c r="AT13" s="70"/>
       <c r="AU13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV13" s="70"/>
       <c r="AW13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX13" s="70"/>
       <c r="AY13" s="70"/>
       <c r="AZ13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA13" s="70"/>
       <c r="BB13" s="70"/>
       <c r="BC13" s="70"/>
       <c r="BD13" s="70"/>
       <c r="BE13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF13" s="70"/>
       <c r="BG13" s="70"/>
       <c r="BH13" s="70"/>
       <c r="BI13" s="70"/>
       <c r="BJ13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK13" s="70"/>
       <c r="BL13" s="70"/>
@@ -20885,7 +20890,7 @@
       <c r="BN13" s="70"/>
       <c r="BO13" s="70"/>
       <c r="BP13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ13" s="70"/>
       <c r="BR13" s="70"/>
@@ -20902,24 +20907,24 @@
       <c r="CC13" s="70"/>
       <c r="CD13" s="70"/>
       <c r="CE13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF13" s="70"/>
       <c r="CG13" s="70"/>
       <c r="CH13" s="70"/>
       <c r="CI13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ13" s="70"/>
       <c r="CK13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL13" s="70"/>
       <c r="CM13" s="70"/>
       <c r="CN13" s="70"/>
       <c r="CO13" s="70"/>
       <c r="CP13" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ13" s="70"/>
       <c r="CR13" s="70"/>
@@ -21150,13 +21155,13 @@
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
       <c r="H16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K16" s="70"/>
       <c r="L16" s="70"/>
@@ -21168,7 +21173,7 @@
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
       <c r="T16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U16" s="70"/>
       <c r="V16" s="70"/>
@@ -21185,19 +21190,19 @@
       <c r="AG16" s="70"/>
       <c r="AH16" s="70"/>
       <c r="AI16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL16" s="70"/>
       <c r="AM16" s="70"/>
       <c r="AN16" s="70"/>
       <c r="AO16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP16" s="70"/>
       <c r="AQ16" s="70"/>
@@ -21205,30 +21210,30 @@
       <c r="AS16" s="70"/>
       <c r="AT16" s="70"/>
       <c r="AU16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV16" s="70"/>
       <c r="AW16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX16" s="70"/>
       <c r="AY16" s="70"/>
       <c r="AZ16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA16" s="70"/>
       <c r="BB16" s="70"/>
       <c r="BC16" s="70"/>
       <c r="BD16" s="70"/>
       <c r="BE16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF16" s="70"/>
       <c r="BG16" s="70"/>
       <c r="BH16" s="70"/>
       <c r="BI16" s="70"/>
       <c r="BJ16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK16" s="70"/>
       <c r="BL16" s="70"/>
@@ -21236,7 +21241,7 @@
       <c r="BN16" s="70"/>
       <c r="BO16" s="70"/>
       <c r="BP16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ16" s="70"/>
       <c r="BR16" s="70"/>
@@ -21253,24 +21258,24 @@
       <c r="CC16" s="70"/>
       <c r="CD16" s="70"/>
       <c r="CE16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF16" s="70"/>
       <c r="CG16" s="70"/>
       <c r="CH16" s="70"/>
       <c r="CI16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ16" s="70"/>
       <c r="CK16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL16" s="70"/>
       <c r="CM16" s="70"/>
       <c r="CN16" s="70"/>
       <c r="CO16" s="70"/>
       <c r="CP16" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ16" s="70"/>
       <c r="CR16" s="70"/>
@@ -21502,10 +21507,10 @@
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J19" s="71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K19" s="70"/>
       <c r="L19" s="70"/>
@@ -21610,31 +21615,31 @@
       <c r="F20" s="71"/>
       <c r="G20" s="71"/>
       <c r="H20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
       <c r="K20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L20" s="70"/>
       <c r="M20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O20" s="70"/>
       <c r="P20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R20" s="70"/>
       <c r="S20" s="70"/>
       <c r="T20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U20" s="70"/>
       <c r="V20" s="70"/>
@@ -21651,19 +21656,19 @@
       <c r="AG20" s="70"/>
       <c r="AH20" s="70"/>
       <c r="AI20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL20" s="70"/>
       <c r="AM20" s="70"/>
       <c r="AN20" s="70"/>
       <c r="AO20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP20" s="70"/>
       <c r="AQ20" s="70"/>
@@ -21671,30 +21676,30 @@
       <c r="AS20" s="70"/>
       <c r="AT20" s="70"/>
       <c r="AU20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV20" s="70"/>
       <c r="AW20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX20" s="70"/>
       <c r="AY20" s="70"/>
       <c r="AZ20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA20" s="70"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
       <c r="BD20" s="70"/>
       <c r="BE20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF20" s="70"/>
       <c r="BG20" s="70"/>
       <c r="BH20" s="70"/>
       <c r="BI20" s="70"/>
       <c r="BJ20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK20" s="70"/>
       <c r="BL20" s="70"/>
@@ -21702,7 +21707,7 @@
       <c r="BN20" s="70"/>
       <c r="BO20" s="70"/>
       <c r="BP20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ20" s="70"/>
       <c r="BR20" s="70"/>
@@ -21719,24 +21724,24 @@
       <c r="CC20" s="70"/>
       <c r="CD20" s="70"/>
       <c r="CE20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF20" s="70"/>
       <c r="CG20" s="70"/>
       <c r="CH20" s="70"/>
       <c r="CI20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ20" s="70"/>
       <c r="CK20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL20" s="70"/>
       <c r="CM20" s="70"/>
       <c r="CN20" s="70"/>
       <c r="CO20" s="70"/>
       <c r="CP20" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ20" s="70"/>
       <c r="CR20" s="70"/>
@@ -21862,13 +21867,13 @@
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
       <c r="H22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
@@ -21880,7 +21885,7 @@
       <c r="R22" s="70"/>
       <c r="S22" s="70"/>
       <c r="T22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U22" s="70"/>
       <c r="V22" s="70"/>
@@ -21897,19 +21902,19 @@
       <c r="AG22" s="70"/>
       <c r="AH22" s="70"/>
       <c r="AI22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL22" s="70"/>
       <c r="AM22" s="70"/>
       <c r="AN22" s="70"/>
       <c r="AO22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP22" s="70"/>
       <c r="AQ22" s="70"/>
@@ -21917,30 +21922,30 @@
       <c r="AS22" s="70"/>
       <c r="AT22" s="70"/>
       <c r="AU22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV22" s="70"/>
       <c r="AW22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX22" s="70"/>
       <c r="AY22" s="70"/>
       <c r="AZ22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA22" s="70"/>
       <c r="BB22" s="70"/>
       <c r="BC22" s="70"/>
       <c r="BD22" s="70"/>
       <c r="BE22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF22" s="70"/>
       <c r="BG22" s="70"/>
       <c r="BH22" s="70"/>
       <c r="BI22" s="70"/>
       <c r="BJ22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK22" s="70"/>
       <c r="BL22" s="70"/>
@@ -21948,7 +21953,7 @@
       <c r="BN22" s="70"/>
       <c r="BO22" s="70"/>
       <c r="BP22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ22" s="70"/>
       <c r="BR22" s="70"/>
@@ -21965,24 +21970,24 @@
       <c r="CC22" s="70"/>
       <c r="CD22" s="70"/>
       <c r="CE22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF22" s="70"/>
       <c r="CG22" s="70"/>
       <c r="CH22" s="70"/>
       <c r="CI22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ22" s="70"/>
       <c r="CK22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL22" s="70"/>
       <c r="CM22" s="70"/>
       <c r="CN22" s="70"/>
       <c r="CO22" s="70"/>
       <c r="CP22" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ22" s="70"/>
       <c r="CR22" s="70"/>
@@ -22031,14 +22036,14 @@
       <c r="AH23" s="70"/>
       <c r="AI23" s="71"/>
       <c r="AJ23" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK23" s="70"/>
       <c r="AL23" s="70"/>
       <c r="AM23" s="70"/>
       <c r="AN23" s="70"/>
       <c r="AO23" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AP23" s="70"/>
       <c r="AQ23" s="70"/>
@@ -22051,7 +22056,7 @@
       <c r="AX23" s="70"/>
       <c r="AY23" s="70"/>
       <c r="AZ23" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BA23" s="70"/>
       <c r="BB23" s="70"/>
@@ -22114,13 +22119,13 @@
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
       <c r="H24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K24" s="70"/>
       <c r="L24" s="70"/>
@@ -22132,7 +22137,7 @@
       <c r="R24" s="70"/>
       <c r="S24" s="70"/>
       <c r="T24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
@@ -22149,19 +22154,19 @@
       <c r="AG24" s="70"/>
       <c r="AH24" s="70"/>
       <c r="AI24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL24" s="70"/>
       <c r="AM24" s="70"/>
       <c r="AN24" s="70"/>
       <c r="AO24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP24" s="70"/>
       <c r="AQ24" s="70"/>
@@ -22169,30 +22174,30 @@
       <c r="AS24" s="70"/>
       <c r="AT24" s="70"/>
       <c r="AU24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV24" s="70"/>
       <c r="AW24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX24" s="70"/>
       <c r="AY24" s="70"/>
       <c r="AZ24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA24" s="70"/>
       <c r="BB24" s="70"/>
       <c r="BC24" s="70"/>
       <c r="BD24" s="70"/>
       <c r="BE24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF24" s="70"/>
       <c r="BG24" s="70"/>
       <c r="BH24" s="70"/>
       <c r="BI24" s="70"/>
       <c r="BJ24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK24" s="70"/>
       <c r="BL24" s="70"/>
@@ -22200,7 +22205,7 @@
       <c r="BN24" s="70"/>
       <c r="BO24" s="70"/>
       <c r="BP24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ24" s="70"/>
       <c r="BR24" s="70"/>
@@ -22217,24 +22222,24 @@
       <c r="CC24" s="70"/>
       <c r="CD24" s="70"/>
       <c r="CE24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF24" s="70"/>
       <c r="CG24" s="70"/>
       <c r="CH24" s="70"/>
       <c r="CI24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ24" s="70"/>
       <c r="CK24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL24" s="70"/>
       <c r="CM24" s="70"/>
       <c r="CN24" s="70"/>
       <c r="CO24" s="70"/>
       <c r="CP24" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ24" s="70"/>
       <c r="CR24" s="70"/>
@@ -22255,7 +22260,7 @@
       <c r="F25" s="71"/>
       <c r="G25" s="71"/>
       <c r="H25" s="71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
@@ -22306,7 +22311,7 @@
       <c r="BC25" s="70"/>
       <c r="BD25" s="70"/>
       <c r="BE25" s="71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BF25" s="70"/>
       <c r="BG25" s="70"/>
@@ -22679,13 +22684,13 @@
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
@@ -22697,7 +22702,7 @@
       <c r="R29" s="70"/>
       <c r="S29" s="70"/>
       <c r="T29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U29" s="70"/>
       <c r="V29" s="70"/>
@@ -22714,19 +22719,19 @@
       <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
       <c r="AI29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL29" s="70"/>
       <c r="AM29" s="70"/>
       <c r="AN29" s="70"/>
       <c r="AO29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP29" s="70"/>
       <c r="AQ29" s="70"/>
@@ -22734,30 +22739,30 @@
       <c r="AS29" s="70"/>
       <c r="AT29" s="70"/>
       <c r="AU29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV29" s="70"/>
       <c r="AW29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX29" s="70"/>
       <c r="AY29" s="70"/>
       <c r="AZ29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA29" s="70"/>
       <c r="BB29" s="70"/>
       <c r="BC29" s="70"/>
       <c r="BD29" s="70"/>
       <c r="BE29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF29" s="70"/>
       <c r="BG29" s="70"/>
       <c r="BH29" s="70"/>
       <c r="BI29" s="70"/>
       <c r="BJ29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
@@ -22765,7 +22770,7 @@
       <c r="BN29" s="70"/>
       <c r="BO29" s="70"/>
       <c r="BP29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ29" s="70"/>
       <c r="BR29" s="70"/>
@@ -22782,24 +22787,24 @@
       <c r="CC29" s="70"/>
       <c r="CD29" s="70"/>
       <c r="CE29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF29" s="70"/>
       <c r="CG29" s="70"/>
       <c r="CH29" s="70"/>
       <c r="CI29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ29" s="70"/>
       <c r="CK29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL29" s="70"/>
       <c r="CM29" s="70"/>
       <c r="CN29" s="70"/>
       <c r="CO29" s="70"/>
       <c r="CP29" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ29" s="70"/>
       <c r="CR29" s="70"/>
@@ -22925,13 +22930,13 @@
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
@@ -22943,7 +22948,7 @@
       <c r="R31" s="70"/>
       <c r="S31" s="70"/>
       <c r="T31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U31" s="70"/>
       <c r="V31" s="70"/>
@@ -22960,19 +22965,19 @@
       <c r="AG31" s="70"/>
       <c r="AH31" s="70"/>
       <c r="AI31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL31" s="70"/>
       <c r="AM31" s="70"/>
       <c r="AN31" s="70"/>
       <c r="AO31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP31" s="70"/>
       <c r="AQ31" s="70"/>
@@ -22980,30 +22985,30 @@
       <c r="AS31" s="70"/>
       <c r="AT31" s="70"/>
       <c r="AU31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV31" s="70"/>
       <c r="AW31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX31" s="70"/>
       <c r="AY31" s="70"/>
       <c r="AZ31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA31" s="70"/>
       <c r="BB31" s="70"/>
       <c r="BC31" s="70"/>
       <c r="BD31" s="70"/>
       <c r="BE31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF31" s="70"/>
       <c r="BG31" s="70"/>
       <c r="BH31" s="70"/>
       <c r="BI31" s="70"/>
       <c r="BJ31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK31" s="70"/>
       <c r="BL31" s="70"/>
@@ -23011,7 +23016,7 @@
       <c r="BN31" s="70"/>
       <c r="BO31" s="70"/>
       <c r="BP31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ31" s="70"/>
       <c r="BR31" s="70"/>
@@ -23028,24 +23033,24 @@
       <c r="CC31" s="70"/>
       <c r="CD31" s="70"/>
       <c r="CE31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF31" s="70"/>
       <c r="CG31" s="70"/>
       <c r="CH31" s="70"/>
       <c r="CI31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ31" s="70"/>
       <c r="CK31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL31" s="70"/>
       <c r="CM31" s="70"/>
       <c r="CN31" s="70"/>
       <c r="CO31" s="70"/>
       <c r="CP31" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ31" s="70"/>
       <c r="CR31" s="70"/>
@@ -23171,280 +23176,280 @@
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AD33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AE33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH33" s="70"/>
       <c r="AI33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AQ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AR33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AS33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AT33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AU33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AW33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AY33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AZ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BB33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BC33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BD33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BE33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BG33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BH33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BI33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BJ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BL33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BM33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BN33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BO33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BP33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BR33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BS33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BT33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BU33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BV33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BW33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BX33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BY33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BZ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CA33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CB33" s="70"/>
       <c r="CC33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CD33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CE33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CG33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CH33" s="70"/>
       <c r="CI33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CK33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CM33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CN33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CO33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CP33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CR33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CS33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CT33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CU33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CV33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CW33" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
@@ -23563,30 +23568,30 @@
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
       <c r="H35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L35" s="70"/>
       <c r="M35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O35" s="70"/>
       <c r="P35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R35" s="70"/>
       <c r="S35" s="70"/>
@@ -23606,19 +23611,19 @@
       <c r="AG35" s="70"/>
       <c r="AH35" s="70"/>
       <c r="AI35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL35" s="70"/>
       <c r="AM35" s="70"/>
       <c r="AN35" s="70"/>
       <c r="AO35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP35" s="70"/>
       <c r="AQ35" s="70"/>
@@ -23626,30 +23631,30 @@
       <c r="AS35" s="70"/>
       <c r="AT35" s="70"/>
       <c r="AU35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV35" s="70"/>
       <c r="AW35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX35" s="70"/>
       <c r="AY35" s="70"/>
       <c r="AZ35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA35" s="70"/>
       <c r="BB35" s="70"/>
       <c r="BC35" s="70"/>
       <c r="BD35" s="70"/>
       <c r="BE35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF35" s="70"/>
       <c r="BG35" s="70"/>
       <c r="BH35" s="70"/>
       <c r="BI35" s="70"/>
       <c r="BJ35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK35" s="70"/>
       <c r="BL35" s="70"/>
@@ -23657,7 +23662,7 @@
       <c r="BN35" s="70"/>
       <c r="BO35" s="70"/>
       <c r="BP35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ35" s="70"/>
       <c r="BR35" s="70"/>
@@ -23674,24 +23679,24 @@
       <c r="CC35" s="70"/>
       <c r="CD35" s="70"/>
       <c r="CE35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF35" s="70"/>
       <c r="CG35" s="70"/>
       <c r="CH35" s="70"/>
       <c r="CI35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ35" s="70"/>
       <c r="CK35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL35" s="70"/>
       <c r="CM35" s="70"/>
       <c r="CN35" s="70"/>
       <c r="CO35" s="70"/>
       <c r="CP35" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ35" s="70"/>
       <c r="CR35" s="70"/>
@@ -25419,7 +25424,7 @@
       <c r="AG52" s="70"/>
       <c r="AH52" s="70"/>
       <c r="AI52" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ52" s="70"/>
       <c r="AK52" s="70"/>
@@ -26547,35 +26552,35 @@
       <c r="F63" s="71"/>
       <c r="G63" s="71"/>
       <c r="H63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L63" s="70"/>
       <c r="M63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O63" s="70"/>
       <c r="P63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R63" s="70"/>
       <c r="S63" s="70"/>
       <c r="T63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U63" s="70"/>
       <c r="V63" s="70"/>
@@ -26592,7 +26597,7 @@
       <c r="AG63" s="70"/>
       <c r="AH63" s="70"/>
       <c r="AI63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ63" s="70"/>
       <c r="AK63" s="70"/>
@@ -26606,30 +26611,30 @@
       <c r="AS63" s="70"/>
       <c r="AT63" s="70"/>
       <c r="AU63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV63" s="70"/>
       <c r="AW63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX63" s="70"/>
       <c r="AY63" s="70"/>
       <c r="AZ63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA63" s="70"/>
       <c r="BB63" s="70"/>
       <c r="BC63" s="70"/>
       <c r="BD63" s="70"/>
       <c r="BE63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF63" s="70"/>
       <c r="BG63" s="70"/>
       <c r="BH63" s="70"/>
       <c r="BI63" s="70"/>
       <c r="BJ63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK63" s="70"/>
       <c r="BL63" s="70"/>
@@ -26637,7 +26642,7 @@
       <c r="BN63" s="70"/>
       <c r="BO63" s="70"/>
       <c r="BP63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ63" s="70"/>
       <c r="BR63" s="70"/>
@@ -26654,24 +26659,24 @@
       <c r="CC63" s="70"/>
       <c r="CD63" s="70"/>
       <c r="CE63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF63" s="70"/>
       <c r="CG63" s="70"/>
       <c r="CH63" s="70"/>
       <c r="CI63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ63" s="70"/>
       <c r="CK63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL63" s="70"/>
       <c r="CM63" s="70"/>
       <c r="CN63" s="70"/>
       <c r="CO63" s="70"/>
       <c r="CP63" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ63" s="70"/>
       <c r="CR63" s="70"/>
@@ -26692,13 +26697,13 @@
       <c r="F64" s="71"/>
       <c r="G64" s="71"/>
       <c r="H64" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I64" s="70"/>
       <c r="J64" s="70"/>
       <c r="K64" s="70"/>
       <c r="L64" s="71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M64" s="70"/>
       <c r="N64" s="70"/>
@@ -26723,7 +26728,7 @@
       <c r="AG64" s="70"/>
       <c r="AH64" s="70"/>
       <c r="AI64" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ64" s="70"/>
       <c r="AK64" s="70"/>
@@ -26803,7 +26808,7 @@
       <c r="F65" s="71"/>
       <c r="G65" s="71"/>
       <c r="H65" s="71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I65" s="70"/>
       <c r="J65" s="70"/>
@@ -26832,7 +26837,7 @@
       <c r="AG65" s="70"/>
       <c r="AH65" s="70"/>
       <c r="AI65" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ65" s="70"/>
       <c r="AK65" s="70"/>
@@ -26914,16 +26919,16 @@
       <c r="H66" s="70"/>
       <c r="I66" s="70"/>
       <c r="J66" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K66" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L66" s="70"/>
       <c r="M66" s="70"/>
       <c r="N66" s="70"/>
       <c r="O66" s="71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P66" s="70"/>
       <c r="Q66" s="70"/>
@@ -27236,7 +27241,7 @@
       <c r="I69" s="71"/>
       <c r="J69" s="70"/>
       <c r="K69" s="71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L69" s="70"/>
       <c r="M69" s="70"/>
@@ -27448,14 +27453,14 @@
       <c r="I71" s="71"/>
       <c r="J71" s="70"/>
       <c r="K71" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L71" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M71" s="70"/>
       <c r="N71" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O71" s="70"/>
       <c r="P71" s="70"/>
@@ -27557,16 +27562,18 @@
       <c r="G72" s="70"/>
       <c r="H72" s="70"/>
       <c r="I72" s="71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J72" s="71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K72" s="70"/>
       <c r="L72" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="M72" s="71"/>
+        <v>267</v>
+      </c>
+      <c r="M72" s="71" t="s">
+        <v>267</v>
+      </c>
       <c r="N72" s="70"/>
       <c r="O72" s="70"/>
       <c r="P72" s="70"/>
@@ -27668,18 +27675,18 @@
       <c r="G73" s="70"/>
       <c r="H73" s="70"/>
       <c r="I73" s="71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J73" s="70"/>
       <c r="K73" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L73" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M73" s="70"/>
       <c r="N73" s="71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O73" s="70"/>
       <c r="P73" s="70"/>
@@ -27780,35 +27787,35 @@
       <c r="F74" s="71"/>
       <c r="G74" s="71"/>
       <c r="H74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L74" s="70"/>
       <c r="M74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O74" s="70"/>
       <c r="P74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R74" s="70"/>
       <c r="S74" s="70"/>
       <c r="T74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U74" s="70"/>
       <c r="V74" s="70"/>
@@ -27825,13 +27832,13 @@
       <c r="AG74" s="70"/>
       <c r="AH74" s="70"/>
       <c r="AI74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL74" s="70"/>
       <c r="AM74" s="70"/>
@@ -27843,30 +27850,30 @@
       <c r="AS74" s="70"/>
       <c r="AT74" s="70"/>
       <c r="AU74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV74" s="70"/>
       <c r="AW74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX74" s="70"/>
       <c r="AY74" s="70"/>
       <c r="AZ74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA74" s="70"/>
       <c r="BB74" s="70"/>
       <c r="BC74" s="70"/>
       <c r="BD74" s="70"/>
       <c r="BE74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF74" s="70"/>
       <c r="BG74" s="70"/>
       <c r="BH74" s="70"/>
       <c r="BI74" s="70"/>
       <c r="BJ74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK74" s="70"/>
       <c r="BL74" s="70"/>
@@ -27874,7 +27881,7 @@
       <c r="BN74" s="70"/>
       <c r="BO74" s="70"/>
       <c r="BP74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ74" s="70"/>
       <c r="BR74" s="70"/>
@@ -27891,7 +27898,7 @@
       <c r="CC74" s="70"/>
       <c r="CD74" s="70"/>
       <c r="CE74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF74" s="70"/>
       <c r="CG74" s="70"/>
@@ -27899,14 +27906,14 @@
       <c r="CI74" s="70"/>
       <c r="CJ74" s="70"/>
       <c r="CK74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL74" s="70"/>
       <c r="CM74" s="70"/>
       <c r="CN74" s="70"/>
       <c r="CO74" s="70"/>
       <c r="CP74" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ74" s="70"/>
       <c r="CR74" s="70"/>
@@ -27918,7 +27925,7 @@
     </row>
     <row r="75">
       <c r="A75" s="68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B75" s="70"/>
       <c r="C75" s="70"/>
@@ -28023,7 +28030,7 @@
     </row>
     <row r="76">
       <c r="A76" s="68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B76" s="70"/>
       <c r="C76" s="70"/>
@@ -28032,7 +28039,7 @@
       <c r="F76" s="70"/>
       <c r="G76" s="70"/>
       <c r="H76" s="71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I76" s="70"/>
       <c r="J76" s="70"/>
@@ -28130,7 +28137,7 @@
     </row>
     <row r="77">
       <c r="A77" s="68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B77" s="70"/>
       <c r="C77" s="70"/>
@@ -28235,7 +28242,7 @@
     </row>
     <row r="78">
       <c r="A78" s="68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -28244,39 +28251,39 @@
       <c r="F78" s="71"/>
       <c r="G78" s="71"/>
       <c r="H78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L78" s="71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O78" s="71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R78" s="70"/>
       <c r="S78" s="70"/>
       <c r="T78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U78" s="70"/>
       <c r="V78" s="70"/>
@@ -28293,13 +28300,13 @@
       <c r="AG78" s="70"/>
       <c r="AH78" s="70"/>
       <c r="AI78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL78" s="70"/>
       <c r="AM78" s="70"/>
@@ -28311,30 +28318,30 @@
       <c r="AS78" s="70"/>
       <c r="AT78" s="70"/>
       <c r="AU78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV78" s="70"/>
       <c r="AW78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX78" s="70"/>
       <c r="AY78" s="70"/>
       <c r="AZ78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA78" s="70"/>
       <c r="BB78" s="70"/>
       <c r="BC78" s="70"/>
       <c r="BD78" s="70"/>
       <c r="BE78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF78" s="70"/>
       <c r="BG78" s="70"/>
       <c r="BH78" s="70"/>
       <c r="BI78" s="70"/>
       <c r="BJ78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK78" s="70"/>
       <c r="BL78" s="70"/>
@@ -28342,7 +28349,7 @@
       <c r="BN78" s="70"/>
       <c r="BO78" s="70"/>
       <c r="BP78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ78" s="70"/>
       <c r="BR78" s="70"/>
@@ -28359,7 +28366,7 @@
       <c r="CC78" s="70"/>
       <c r="CD78" s="70"/>
       <c r="CE78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF78" s="70"/>
       <c r="CG78" s="70"/>
@@ -28367,14 +28374,14 @@
       <c r="CI78" s="70"/>
       <c r="CJ78" s="70"/>
       <c r="CK78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL78" s="70"/>
       <c r="CM78" s="70"/>
       <c r="CN78" s="70"/>
       <c r="CO78" s="70"/>
       <c r="CP78" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ78" s="70"/>
       <c r="CR78" s="70"/>
@@ -28386,7 +28393,7 @@
     </row>
     <row r="79">
       <c r="A79" s="68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B79" s="70"/>
       <c r="C79" s="70"/>
@@ -28491,7 +28498,7 @@
     </row>
     <row r="80">
       <c r="A80" s="68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
@@ -28500,35 +28507,35 @@
       <c r="F80" s="71"/>
       <c r="G80" s="71"/>
       <c r="H80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L80" s="70"/>
       <c r="M80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O80" s="70"/>
       <c r="P80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R80" s="70"/>
       <c r="S80" s="70"/>
       <c r="T80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U80" s="70"/>
       <c r="V80" s="70"/>
@@ -28545,19 +28552,19 @@
       <c r="AG80" s="70"/>
       <c r="AH80" s="70"/>
       <c r="AI80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL80" s="70"/>
       <c r="AM80" s="70"/>
       <c r="AN80" s="70"/>
       <c r="AO80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP80" s="70"/>
       <c r="AQ80" s="70"/>
@@ -28570,21 +28577,21 @@
       <c r="AX80" s="70"/>
       <c r="AY80" s="70"/>
       <c r="AZ80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA80" s="70"/>
       <c r="BB80" s="70"/>
       <c r="BC80" s="70"/>
       <c r="BD80" s="70"/>
       <c r="BE80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF80" s="70"/>
       <c r="BG80" s="70"/>
       <c r="BH80" s="70"/>
       <c r="BI80" s="70"/>
       <c r="BJ80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK80" s="70"/>
       <c r="BL80" s="70"/>
@@ -28592,7 +28599,7 @@
       <c r="BN80" s="70"/>
       <c r="BO80" s="70"/>
       <c r="BP80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ80" s="70"/>
       <c r="BR80" s="70"/>
@@ -28609,13 +28616,13 @@
       <c r="CC80" s="70"/>
       <c r="CD80" s="70"/>
       <c r="CE80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF80" s="70"/>
       <c r="CG80" s="70"/>
       <c r="CH80" s="70"/>
       <c r="CI80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ80" s="70"/>
       <c r="CK80" s="70"/>
@@ -28624,7 +28631,7 @@
       <c r="CN80" s="70"/>
       <c r="CO80" s="70"/>
       <c r="CP80" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ80" s="70"/>
       <c r="CR80" s="70"/>
@@ -28636,7 +28643,7 @@
     </row>
     <row r="81">
       <c r="A81" s="68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B81" s="70"/>
       <c r="C81" s="70"/>
@@ -28741,7 +28748,7 @@
     </row>
     <row r="82">
       <c r="A82" s="68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
@@ -28846,7 +28853,7 @@
     </row>
     <row r="83">
       <c r="A83" s="68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B83" s="70"/>
       <c r="C83" s="70"/>
@@ -28951,7 +28958,7 @@
     </row>
     <row r="84">
       <c r="A84" s="68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B84" s="70"/>
       <c r="C84" s="70"/>
@@ -29056,7 +29063,7 @@
     </row>
     <row r="85">
       <c r="A85" s="68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B85" s="70"/>
       <c r="C85" s="70"/>
@@ -29161,7 +29168,7 @@
     </row>
     <row r="86">
       <c r="A86" s="68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -29170,35 +29177,35 @@
       <c r="F86" s="71"/>
       <c r="G86" s="71"/>
       <c r="H86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L86" s="70"/>
       <c r="M86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O86" s="70"/>
       <c r="P86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R86" s="70"/>
       <c r="S86" s="70"/>
       <c r="T86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U86" s="70"/>
       <c r="V86" s="70"/>
@@ -29215,19 +29222,19 @@
       <c r="AG86" s="70"/>
       <c r="AH86" s="70"/>
       <c r="AI86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL86" s="70"/>
       <c r="AM86" s="70"/>
       <c r="AN86" s="70"/>
       <c r="AO86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP86" s="70"/>
       <c r="AQ86" s="70"/>
@@ -29235,23 +29242,23 @@
       <c r="AS86" s="70"/>
       <c r="AT86" s="70"/>
       <c r="AU86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV86" s="70"/>
       <c r="AW86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX86" s="70"/>
       <c r="AY86" s="70"/>
       <c r="AZ86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA86" s="70"/>
       <c r="BB86" s="70"/>
       <c r="BC86" s="70"/>
       <c r="BD86" s="70"/>
       <c r="BE86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BF86" s="70"/>
       <c r="BG86" s="70"/>
@@ -29279,24 +29286,24 @@
       <c r="CC86" s="70"/>
       <c r="CD86" s="70"/>
       <c r="CE86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF86" s="70"/>
       <c r="CG86" s="70"/>
       <c r="CH86" s="70"/>
       <c r="CI86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ86" s="70"/>
       <c r="CK86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL86" s="70"/>
       <c r="CM86" s="70"/>
       <c r="CN86" s="70"/>
       <c r="CO86" s="70"/>
       <c r="CP86" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CQ86" s="70"/>
       <c r="CR86" s="70"/>
@@ -29308,7 +29315,7 @@
     </row>
     <row r="87">
       <c r="A87" s="68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B87" s="70"/>
       <c r="C87" s="70"/>
@@ -29344,7 +29351,7 @@
       <c r="AG87" s="70"/>
       <c r="AH87" s="70"/>
       <c r="AI87" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ87" s="70"/>
       <c r="AK87" s="70"/>
@@ -29415,7 +29422,7 @@
     </row>
     <row r="88">
       <c r="A88" s="68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B88" s="70"/>
       <c r="C88" s="70"/>
@@ -29520,7 +29527,7 @@
     </row>
     <row r="89">
       <c r="A89" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B89" s="70"/>
       <c r="C89" s="70"/>
@@ -29625,7 +29632,7 @@
     </row>
     <row r="90">
       <c r="A90" s="68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B90" s="70"/>
       <c r="C90" s="70"/>
@@ -29730,7 +29737,7 @@
     </row>
     <row r="91">
       <c r="A91" s="68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B91" s="70"/>
       <c r="C91" s="70"/>
@@ -29835,7 +29842,7 @@
     </row>
     <row r="92">
       <c r="A92" s="68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B92" s="70"/>
       <c r="C92" s="70"/>
@@ -29940,7 +29947,7 @@
     </row>
     <row r="93">
       <c r="A93" s="68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B93" s="70"/>
       <c r="C93" s="70"/>
@@ -30045,7 +30052,7 @@
     </row>
     <row r="94">
       <c r="A94" s="68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B94" s="70"/>
       <c r="C94" s="70"/>
@@ -30150,7 +30157,7 @@
     </row>
     <row r="95">
       <c r="A95" s="68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B95" s="70"/>
       <c r="C95" s="70"/>
@@ -30240,7 +30247,7 @@
       <c r="CI95" s="70"/>
       <c r="CJ95" s="70"/>
       <c r="CK95" s="71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="CL95" s="70"/>
       <c r="CM95" s="70"/>
@@ -30257,7 +30264,7 @@
     </row>
     <row r="96">
       <c r="A96" s="68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B96" s="70"/>
       <c r="C96" s="70"/>
@@ -30362,7 +30369,7 @@
     </row>
     <row r="97">
       <c r="A97" s="68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -30371,35 +30378,35 @@
       <c r="F97" s="71"/>
       <c r="G97" s="71"/>
       <c r="H97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L97" s="70"/>
       <c r="M97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O97" s="70"/>
       <c r="P97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R97" s="70"/>
       <c r="S97" s="70"/>
       <c r="T97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U97" s="70"/>
       <c r="V97" s="70"/>
@@ -30416,19 +30423,19 @@
       <c r="AG97" s="70"/>
       <c r="AH97" s="70"/>
       <c r="AI97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL97" s="70"/>
       <c r="AM97" s="70"/>
       <c r="AN97" s="70"/>
       <c r="AO97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP97" s="70"/>
       <c r="AQ97" s="70"/>
@@ -30436,16 +30443,16 @@
       <c r="AS97" s="70"/>
       <c r="AT97" s="70"/>
       <c r="AU97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV97" s="70"/>
       <c r="AW97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AX97" s="70"/>
       <c r="AY97" s="70"/>
       <c r="AZ97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BA97" s="70"/>
       <c r="BB97" s="70"/>
@@ -30457,7 +30464,7 @@
       <c r="BH97" s="70"/>
       <c r="BI97" s="70"/>
       <c r="BJ97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK97" s="70"/>
       <c r="BL97" s="70"/>
@@ -30465,7 +30472,7 @@
       <c r="BN97" s="70"/>
       <c r="BO97" s="70"/>
       <c r="BP97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BQ97" s="70"/>
       <c r="BR97" s="70"/>
@@ -30482,17 +30489,17 @@
       <c r="CC97" s="70"/>
       <c r="CD97" s="70"/>
       <c r="CE97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CF97" s="70"/>
       <c r="CG97" s="70"/>
       <c r="CH97" s="70"/>
       <c r="CI97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CJ97" s="70"/>
       <c r="CK97" s="71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL97" s="70"/>
       <c r="CM97" s="70"/>
@@ -30509,7 +30516,7 @@
     </row>
     <row r="98">
       <c r="A98" s="68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B98" s="70"/>
       <c r="C98" s="70"/>
@@ -30614,7 +30621,7 @@
     </row>
     <row r="99">
       <c r="A99" s="68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B99" s="70"/>
       <c r="C99" s="70"/>
@@ -30719,7 +30726,7 @@
     </row>
     <row r="100">
       <c r="A100" s="68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" s="70"/>
       <c r="C100" s="70"/>
@@ -30824,7 +30831,7 @@
     </row>
     <row r="101">
       <c r="A101" s="68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B101" s="70"/>
       <c r="C101" s="70"/>
@@ -30929,7 +30936,7 @@
     </row>
     <row r="102">
       <c r="A102" s="68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B102" s="70"/>
       <c r="C102" s="70"/>
@@ -31034,7 +31041,7 @@
     </row>
     <row r="103">
       <c r="A103" s="68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="71"/>
@@ -31043,7 +31050,7 @@
       <c r="F103" s="71"/>
       <c r="G103" s="71"/>
       <c r="H103" s="71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I103" s="70"/>
       <c r="J103" s="70"/>
@@ -31051,7 +31058,7 @@
       <c r="L103" s="70"/>
       <c r="M103" s="70"/>
       <c r="N103" s="71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O103" s="70"/>
       <c r="P103" s="70"/>
@@ -31143,7 +31150,7 @@
     </row>
     <row r="104">
       <c r="A104" s="68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B104" s="70"/>
       <c r="C104" s="70"/>
@@ -31248,7 +31255,7 @@
     </row>
     <row r="105">
       <c r="A105" s="68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B105" s="70"/>
       <c r="C105" s="70"/>
@@ -31353,7 +31360,7 @@
     </row>
     <row r="106">
       <c r="A106" s="68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B106" s="70"/>
       <c r="C106" s="70"/>
@@ -31458,7 +31465,7 @@
     </row>
     <row r="107">
       <c r="A107" s="68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B107" s="70"/>
       <c r="C107" s="70"/>
@@ -31563,7 +31570,7 @@
     </row>
     <row r="108">
       <c r="A108" s="68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B108" s="70"/>
       <c r="C108" s="70"/>
@@ -31668,7 +31675,7 @@
     </row>
     <row r="109">
       <c r="A109" s="68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B109" s="70"/>
       <c r="C109" s="70"/>
@@ -31773,7 +31780,7 @@
     </row>
     <row r="110">
       <c r="A110" s="68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B110" s="70"/>
       <c r="C110" s="70"/>
@@ -31878,7 +31885,7 @@
     </row>
     <row r="111">
       <c r="A111" s="68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B111" s="70"/>
       <c r="C111" s="70"/>
@@ -31983,7 +31990,7 @@
     </row>
     <row r="112">
       <c r="A112" s="68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B112" s="70"/>
       <c r="C112" s="70"/>
@@ -32088,7 +32095,7 @@
     </row>
     <row r="113">
       <c r="A113" s="68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B113" s="70"/>
       <c r="C113" s="70"/>
@@ -32193,7 +32200,7 @@
     </row>
     <row r="114">
       <c r="A114" s="68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B114" s="70"/>
       <c r="C114" s="70"/>
@@ -32298,7 +32305,7 @@
     </row>
     <row r="115">
       <c r="A115" s="68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B115" s="70"/>
       <c r="C115" s="70"/>
@@ -32403,7 +32410,7 @@
     </row>
     <row r="116">
       <c r="A116" s="68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B116" s="70"/>
       <c r="C116" s="70"/>
@@ -32508,7 +32515,7 @@
     </row>
     <row r="117">
       <c r="A117" s="68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B117" s="70"/>
       <c r="C117" s="70"/>
@@ -32613,7 +32620,7 @@
     </row>
     <row r="118">
       <c r="A118" s="68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B118" s="70"/>
       <c r="C118" s="70"/>
@@ -32718,7 +32725,7 @@
     </row>
     <row r="119">
       <c r="A119" s="68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B119" s="70"/>
       <c r="C119" s="70"/>
@@ -32823,7 +32830,7 @@
     </row>
     <row r="120">
       <c r="A120" s="68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B120" s="70"/>
       <c r="C120" s="70"/>
@@ -32928,7 +32935,7 @@
     </row>
     <row r="121">
       <c r="A121" s="68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B121" s="70"/>
       <c r="C121" s="70"/>
@@ -33033,7 +33040,7 @@
     </row>
     <row r="122">
       <c r="A122" s="68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B122" s="70"/>
       <c r="C122" s="70"/>
@@ -33138,7 +33145,7 @@
     </row>
     <row r="123">
       <c r="A123" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B123" s="70"/>
       <c r="C123" s="70"/>
@@ -33243,7 +33250,7 @@
     </row>
     <row r="124">
       <c r="A124" s="68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B124" s="70"/>
       <c r="C124" s="70"/>
@@ -33348,7 +33355,7 @@
     </row>
     <row r="125">
       <c r="A125" s="68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B125" s="70"/>
       <c r="C125" s="70"/>
@@ -33453,7 +33460,7 @@
     </row>
     <row r="126">
       <c r="A126" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B126" s="70"/>
       <c r="C126" s="70"/>
@@ -33558,7 +33565,7 @@
     </row>
     <row r="127">
       <c r="A127" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B127" s="70"/>
       <c r="C127" s="70"/>
@@ -33663,7 +33670,7 @@
     </row>
     <row r="128">
       <c r="A128" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B128" s="70"/>
       <c r="C128" s="70"/>
@@ -33768,7 +33775,7 @@
     </row>
     <row r="129">
       <c r="A129" s="68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B129" s="70"/>
       <c r="C129" s="70"/>
@@ -33873,7 +33880,7 @@
     </row>
     <row r="130">
       <c r="A130" s="68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B130" s="70"/>
       <c r="C130" s="70"/>
@@ -33978,7 +33985,7 @@
     </row>
     <row r="131">
       <c r="A131" s="68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B131" s="70"/>
       <c r="C131" s="70"/>
@@ -34083,7 +34090,7 @@
     </row>
     <row r="132">
       <c r="A132" s="68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B132" s="70"/>
       <c r="C132" s="70"/>
@@ -34188,7 +34195,7 @@
     </row>
     <row r="133">
       <c r="A133" s="68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B133" s="70"/>
       <c r="C133" s="70"/>
@@ -35037,17 +35044,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -35063,42 +35070,42 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="75" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="75" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="75" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="292">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -630,6 +630,9 @@
     <t>L0 P1 B1</t>
   </si>
   <si>
+    <t>L0 P2 B2</t>
+  </si>
+  <si>
     <t>PTH-651</t>
   </si>
   <si>
@@ -658,9 +661,6 @@
   </si>
   <si>
     <t>PTK-440</t>
-  </si>
-  <si>
-    <t>L0 P2 B2</t>
   </si>
   <si>
     <t>L0 P2 B1 D2</t>
@@ -843,26 +843,10 @@
     <t>List of everyone who has helped with this sheet:</t>
   </si>
   <si>
-    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, June, limefps, mistralwz, rubik, avt613</t>
+    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, June, limefps, mistralwz, rubik, avt613, Hisami</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <strike/>
-        <color rgb="FF000000"/>
-        <sz val="28.0"/>
-      </rPr>
-      <t>Blamelog</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="28.0"/>
-      </rPr>
-      <t xml:space="preserve"> Detailed list of contributions:</t>
-    </r>
+    <t>Blamelog:</t>
   </si>
   <si>
     <t>Kuuube</t>
@@ -887,6 +871,9 @@
   </si>
   <si>
     <t>mistralwz</t>
+  </si>
+  <si>
+    <t>Hisami</t>
   </si>
   <si>
     <t>June</t>
@@ -9105,8 +9092,9 @@
       <c r="AG74" s="14"/>
       <c r="AH74" s="25"/>
       <c r="AI74" s="20"/>
-      <c r="AJ74" s="20"/>
-      <c r="AK74" s="26"/>
+      <c r="AK74" s="55" t="s">
+        <v>195</v>
+      </c>
       <c r="AL74" s="20"/>
       <c r="AM74" s="20"/>
       <c r="AN74" s="20"/>
@@ -9175,7 +9163,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -9281,7 +9269,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -9387,7 +9375,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -9493,7 +9481,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -9601,7 +9589,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -9711,7 +9699,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -9721,14 +9709,14 @@
       <c r="G80" s="14"/>
       <c r="H80" s="20"/>
       <c r="I80" s="53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K80" s="18"/>
       <c r="L80" s="53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M80" s="60" t="s">
         <v>188</v>
@@ -9825,7 +9813,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9835,7 +9823,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="20"/>
       <c r="I81" s="53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J81" s="18"/>
       <c r="K81" s="60" t="s">
@@ -9939,7 +9927,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -9948,7 +9936,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="14"/>
       <c r="H82" s="16" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I82" s="53" t="s">
         <v>206</v>
@@ -10172,7 +10160,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="14"/>
       <c r="H84" s="16" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="18"/>
@@ -10386,7 +10374,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="14"/>
       <c r="H86" s="16" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I86" s="53" t="s">
         <v>206</v>
@@ -19768,6 +19756,7 @@
       <c r="CU1" s="66"/>
       <c r="CV1" s="66"/>
       <c r="CW1" s="66"/>
+      <c r="CX1" s="66"/>
     </row>
     <row r="2" ht="27.0" customHeight="1">
       <c r="B2" s="67"/>
@@ -19859,6 +19848,7 @@
       <c r="CU2" s="66"/>
       <c r="CV2" s="66"/>
       <c r="CW2" s="66"/>
+      <c r="CX2" s="66"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
       <c r="B3" s="67"/>
@@ -19947,6 +19937,7 @@
       <c r="CU3" s="66"/>
       <c r="CV3" s="66"/>
       <c r="CW3" s="66"/>
+      <c r="CX3" s="66"/>
     </row>
     <row r="4">
       <c r="B4" s="65"/>
@@ -20038,6 +20029,7 @@
       <c r="CU4" s="66"/>
       <c r="CV4" s="66"/>
       <c r="CW4" s="66"/>
+      <c r="CX4" s="66"/>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
@@ -20139,202 +20131,205 @@
       <c r="AG5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="69" t="s">
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="AJ5" s="69" t="s">
+      <c r="AK5" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="AK5" s="69" t="s">
+      <c r="AL5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AL5" s="69" t="s">
+      <c r="AM5" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="AM5" s="69" t="s">
+      <c r="AN5" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="AN5" s="69" t="s">
+      <c r="AO5" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="AO5" s="69" t="s">
+      <c r="AP5" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="AP5" s="69" t="s">
+      <c r="AQ5" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="AQ5" s="69" t="s">
+      <c r="AR5" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="AR5" s="69" t="s">
+      <c r="AS5" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="AS5" s="69" t="s">
+      <c r="AT5" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AT5" s="69" t="s">
+      <c r="AU5" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AU5" s="69" t="s">
+      <c r="AV5" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AV5" s="69" t="s">
+      <c r="AW5" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="AW5" s="69" t="s">
+      <c r="AX5" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="AX5" s="69" t="s">
+      <c r="AY5" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="AY5" s="69" t="s">
+      <c r="AZ5" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AZ5" s="69" t="s">
+      <c r="BA5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="BA5" s="69" t="s">
+      <c r="BB5" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="BB5" s="69" t="s">
+      <c r="BC5" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="BC5" s="69" t="s">
+      <c r="BD5" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="BD5" s="69" t="s">
+      <c r="BE5" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="BE5" s="69" t="s">
+      <c r="BF5" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="BF5" s="69" t="s">
+      <c r="BG5" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="BG5" s="69" t="s">
+      <c r="BH5" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="BH5" s="69" t="s">
+      <c r="BI5" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="BI5" s="69" t="s">
+      <c r="BJ5" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="BJ5" s="69" t="s">
+      <c r="BK5" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="BK5" s="69" t="s">
+      <c r="BL5" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="BL5" s="69" t="s">
+      <c r="BM5" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="BM5" s="69" t="s">
+      <c r="BN5" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="BN5" s="69" t="s">
+      <c r="BO5" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="BO5" s="69" t="s">
+      <c r="BP5" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="BP5" s="69" t="s">
+      <c r="BQ5" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="BQ5" s="69" t="s">
+      <c r="BR5" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="BR5" s="69" t="s">
+      <c r="BS5" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BS5" s="69" t="s">
+      <c r="BT5" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BT5" s="69" t="s">
+      <c r="BU5" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BU5" s="69" t="s">
+      <c r="BV5" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="BV5" s="69" t="s">
+      <c r="BW5" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="BW5" s="69" t="s">
+      <c r="BX5" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="BX5" s="69" t="s">
+      <c r="BY5" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="BY5" s="69" t="s">
+      <c r="BZ5" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="BZ5" s="69" t="s">
+      <c r="CA5" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="CA5" s="69" t="s">
+      <c r="CB5" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="CB5" s="70"/>
-      <c r="CC5" s="69" t="s">
+      <c r="CC5" s="70"/>
+      <c r="CD5" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="CD5" s="69" t="s">
+      <c r="CE5" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="CE5" s="69" t="s">
+      <c r="CF5" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="CF5" s="69" t="s">
+      <c r="CG5" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="CG5" s="69" t="s">
+      <c r="CH5" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="CH5" s="70"/>
-      <c r="CI5" s="69" t="s">
+      <c r="CI5" s="70"/>
+      <c r="CJ5" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="CJ5" s="69" t="s">
+      <c r="CK5" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="CK5" s="69" t="s">
+      <c r="CL5" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="CL5" s="69" t="s">
+      <c r="CM5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="CM5" s="69" t="s">
+      <c r="CN5" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="CN5" s="69" t="s">
+      <c r="CO5" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="CO5" s="69" t="s">
+      <c r="CP5" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="CP5" s="69" t="s">
+      <c r="CQ5" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="CQ5" s="69" t="s">
+      <c r="CR5" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="CR5" s="69" t="s">
+      <c r="CS5" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="CS5" s="69" t="s">
+      <c r="CT5" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="CT5" s="69" t="s">
+      <c r="CU5" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="CU5" s="69" t="s">
+      <c r="CV5" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="CV5" s="69" t="s">
+      <c r="CW5" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="CW5" s="69" t="s">
+      <c r="CX5" s="69" t="s">
         <v>123</v>
       </c>
     </row>
@@ -20374,42 +20369,42 @@
       <c r="AE6" s="71"/>
       <c r="AF6" s="71"/>
       <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
+      <c r="AH6" s="66"/>
       <c r="AI6" s="72"/>
       <c r="AJ6" s="72"/>
       <c r="AK6" s="72"/>
-      <c r="AL6" s="71"/>
+      <c r="AL6" s="72"/>
       <c r="AM6" s="71"/>
       <c r="AN6" s="71"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="72"/>
       <c r="AQ6" s="71"/>
       <c r="AR6" s="71"/>
       <c r="AS6" s="71"/>
       <c r="AT6" s="71"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="72"/>
       <c r="AY6" s="71"/>
-      <c r="AZ6" s="72"/>
-      <c r="BA6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="72"/>
       <c r="BB6" s="71"/>
       <c r="BC6" s="71"/>
       <c r="BD6" s="71"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="71"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="72"/>
       <c r="BG6" s="71"/>
       <c r="BH6" s="71"/>
       <c r="BI6" s="71"/>
-      <c r="BJ6" s="72"/>
-      <c r="BK6" s="71"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="72"/>
       <c r="BL6" s="71"/>
       <c r="BM6" s="71"/>
       <c r="BN6" s="71"/>
       <c r="BO6" s="71"/>
-      <c r="BP6" s="72"/>
-      <c r="BQ6" s="71"/>
+      <c r="BP6" s="71"/>
+      <c r="BQ6" s="72"/>
       <c r="BR6" s="71"/>
       <c r="BS6" s="71"/>
       <c r="BT6" s="71"/>
@@ -20423,25 +20418,26 @@
       <c r="CB6" s="71"/>
       <c r="CC6" s="71"/>
       <c r="CD6" s="71"/>
-      <c r="CE6" s="72"/>
-      <c r="CF6" s="71"/>
+      <c r="CE6" s="71"/>
+      <c r="CF6" s="72"/>
       <c r="CG6" s="71"/>
       <c r="CH6" s="71"/>
-      <c r="CI6" s="72"/>
-      <c r="CJ6" s="71"/>
-      <c r="CK6" s="72"/>
-      <c r="CL6" s="71"/>
+      <c r="CI6" s="71"/>
+      <c r="CJ6" s="72"/>
+      <c r="CK6" s="71"/>
+      <c r="CL6" s="72"/>
       <c r="CM6" s="71"/>
       <c r="CN6" s="71"/>
       <c r="CO6" s="71"/>
-      <c r="CP6" s="72"/>
-      <c r="CQ6" s="71"/>
+      <c r="CP6" s="71"/>
+      <c r="CQ6" s="72"/>
       <c r="CR6" s="71"/>
       <c r="CS6" s="71"/>
       <c r="CT6" s="71"/>
       <c r="CU6" s="71"/>
       <c r="CV6" s="71"/>
       <c r="CW6" s="71"/>
+      <c r="CX6" s="71"/>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
@@ -20479,42 +20475,42 @@
       <c r="AE7" s="71"/>
       <c r="AF7" s="71"/>
       <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
+      <c r="AH7" s="66"/>
       <c r="AI7" s="72"/>
       <c r="AJ7" s="72"/>
       <c r="AK7" s="72"/>
-      <c r="AL7" s="71"/>
+      <c r="AL7" s="72"/>
       <c r="AM7" s="71"/>
       <c r="AN7" s="71"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="72"/>
       <c r="AQ7" s="71"/>
       <c r="AR7" s="71"/>
       <c r="AS7" s="71"/>
       <c r="AT7" s="71"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="72"/>
       <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="72"/>
       <c r="BB7" s="71"/>
       <c r="BC7" s="71"/>
       <c r="BD7" s="71"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="72"/>
       <c r="BG7" s="71"/>
       <c r="BH7" s="71"/>
       <c r="BI7" s="71"/>
-      <c r="BJ7" s="72"/>
-      <c r="BK7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="72"/>
       <c r="BL7" s="71"/>
       <c r="BM7" s="71"/>
       <c r="BN7" s="71"/>
       <c r="BO7" s="71"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="71"/>
+      <c r="BP7" s="71"/>
+      <c r="BQ7" s="72"/>
       <c r="BR7" s="71"/>
       <c r="BS7" s="71"/>
       <c r="BT7" s="71"/>
@@ -20528,25 +20524,26 @@
       <c r="CB7" s="71"/>
       <c r="CC7" s="71"/>
       <c r="CD7" s="71"/>
-      <c r="CE7" s="72"/>
-      <c r="CF7" s="71"/>
+      <c r="CE7" s="71"/>
+      <c r="CF7" s="72"/>
       <c r="CG7" s="71"/>
       <c r="CH7" s="71"/>
-      <c r="CI7" s="72"/>
-      <c r="CJ7" s="71"/>
-      <c r="CK7" s="72"/>
-      <c r="CL7" s="71"/>
+      <c r="CI7" s="71"/>
+      <c r="CJ7" s="72"/>
+      <c r="CK7" s="71"/>
+      <c r="CL7" s="72"/>
       <c r="CM7" s="71"/>
       <c r="CN7" s="71"/>
       <c r="CO7" s="71"/>
-      <c r="CP7" s="72"/>
-      <c r="CQ7" s="71"/>
+      <c r="CP7" s="71"/>
+      <c r="CQ7" s="72"/>
       <c r="CR7" s="71"/>
       <c r="CS7" s="71"/>
       <c r="CT7" s="71"/>
       <c r="CU7" s="71"/>
       <c r="CV7" s="71"/>
       <c r="CW7" s="71"/>
+      <c r="CX7" s="71"/>
     </row>
     <row r="8">
       <c r="A8" s="69" t="s">
@@ -20598,62 +20595,62 @@
       <c r="AE8" s="71"/>
       <c r="AF8" s="71"/>
       <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="72"/>
       <c r="AJ8" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK8" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL8" s="71"/>
+      <c r="AL8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM8" s="71"/>
       <c r="AN8" s="71"/>
-      <c r="AO8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ8" s="71"/>
       <c r="AR8" s="71"/>
       <c r="AS8" s="71"/>
       <c r="AT8" s="71"/>
-      <c r="AU8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY8" s="71"/>
-      <c r="AZ8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB8" s="71"/>
       <c r="BC8" s="71"/>
       <c r="BD8" s="71"/>
-      <c r="BE8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG8" s="71"/>
       <c r="BH8" s="71"/>
       <c r="BI8" s="71"/>
-      <c r="BJ8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK8" s="71"/>
+      <c r="BJ8" s="71"/>
+      <c r="BK8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL8" s="71"/>
       <c r="BM8" s="71"/>
       <c r="BN8" s="71"/>
       <c r="BO8" s="71"/>
-      <c r="BP8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR8" s="71"/>
       <c r="BS8" s="71"/>
       <c r="BT8" s="71"/>
@@ -20667,33 +20664,34 @@
       <c r="CB8" s="71"/>
       <c r="CC8" s="71"/>
       <c r="CD8" s="71"/>
-      <c r="CE8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF8" s="71"/>
+      <c r="CE8" s="71"/>
+      <c r="CF8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG8" s="71"/>
       <c r="CH8" s="71"/>
-      <c r="CI8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ8" s="71"/>
-      <c r="CK8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL8" s="71"/>
+      <c r="CI8" s="71"/>
+      <c r="CJ8" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK8" s="71"/>
+      <c r="CL8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM8" s="71"/>
       <c r="CN8" s="71"/>
       <c r="CO8" s="71"/>
-      <c r="CP8" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ8" s="71"/>
+      <c r="CP8" s="71"/>
+      <c r="CQ8" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR8" s="71"/>
       <c r="CS8" s="71"/>
       <c r="CT8" s="71"/>
       <c r="CU8" s="71"/>
       <c r="CV8" s="71"/>
       <c r="CW8" s="71"/>
+      <c r="CX8" s="71"/>
     </row>
     <row r="9">
       <c r="A9" s="69" t="s">
@@ -20731,8 +20729,8 @@
       <c r="AE9" s="71"/>
       <c r="AF9" s="71"/>
       <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="72"/>
       <c r="AJ9" s="71"/>
       <c r="AK9" s="71"/>
       <c r="AL9" s="71"/>
@@ -20799,6 +20797,7 @@
       <c r="CU9" s="71"/>
       <c r="CV9" s="71"/>
       <c r="CW9" s="71"/>
+      <c r="CX9" s="71"/>
     </row>
     <row r="10">
       <c r="A10" s="69" t="s">
@@ -20836,8 +20835,8 @@
       <c r="AE10" s="71"/>
       <c r="AF10" s="71"/>
       <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="72"/>
       <c r="AJ10" s="71"/>
       <c r="AK10" s="71"/>
       <c r="AL10" s="71"/>
@@ -20904,6 +20903,7 @@
       <c r="CU10" s="71"/>
       <c r="CV10" s="71"/>
       <c r="CW10" s="71"/>
+      <c r="CX10" s="71"/>
     </row>
     <row r="11">
       <c r="A11" s="69" t="s">
@@ -20941,8 +20941,8 @@
       <c r="AE11" s="71"/>
       <c r="AF11" s="71"/>
       <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="72"/>
       <c r="AJ11" s="71"/>
       <c r="AK11" s="71"/>
       <c r="AL11" s="71"/>
@@ -21009,6 +21009,7 @@
       <c r="CU11" s="71"/>
       <c r="CV11" s="71"/>
       <c r="CW11" s="71"/>
+      <c r="CX11" s="71"/>
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
@@ -21046,17 +21047,17 @@
       <c r="AE12" s="71"/>
       <c r="AF12" s="71"/>
       <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="72"/>
       <c r="AJ12" s="71"/>
       <c r="AK12" s="71"/>
       <c r="AL12" s="71"/>
       <c r="AM12" s="71"/>
       <c r="AN12" s="71"/>
-      <c r="AO12" s="72" t="s">
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="AP12" s="71"/>
       <c r="AQ12" s="71"/>
       <c r="AR12" s="71"/>
       <c r="AS12" s="71"/>
@@ -21116,6 +21117,7 @@
       <c r="CU12" s="71"/>
       <c r="CV12" s="71"/>
       <c r="CW12" s="71"/>
+      <c r="CX12" s="71"/>
     </row>
     <row r="13">
       <c r="A13" s="69" t="s">
@@ -21167,62 +21169,62 @@
       <c r="AE13" s="71"/>
       <c r="AF13" s="71"/>
       <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="72"/>
       <c r="AJ13" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK13" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL13" s="71"/>
+      <c r="AL13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM13" s="71"/>
       <c r="AN13" s="71"/>
-      <c r="AO13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ13" s="71"/>
       <c r="AR13" s="71"/>
       <c r="AS13" s="71"/>
       <c r="AT13" s="71"/>
-      <c r="AU13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY13" s="71"/>
-      <c r="AZ13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB13" s="71"/>
       <c r="BC13" s="71"/>
       <c r="BD13" s="71"/>
-      <c r="BE13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF13" s="71"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG13" s="71"/>
       <c r="BH13" s="71"/>
       <c r="BI13" s="71"/>
-      <c r="BJ13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK13" s="71"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL13" s="71"/>
       <c r="BM13" s="71"/>
       <c r="BN13" s="71"/>
       <c r="BO13" s="71"/>
-      <c r="BP13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ13" s="71"/>
+      <c r="BP13" s="71"/>
+      <c r="BQ13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR13" s="71"/>
       <c r="BS13" s="71"/>
       <c r="BT13" s="71"/>
@@ -21236,33 +21238,34 @@
       <c r="CB13" s="71"/>
       <c r="CC13" s="71"/>
       <c r="CD13" s="71"/>
-      <c r="CE13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF13" s="71"/>
+      <c r="CE13" s="71"/>
+      <c r="CF13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG13" s="71"/>
       <c r="CH13" s="71"/>
-      <c r="CI13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ13" s="71"/>
-      <c r="CK13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL13" s="71"/>
+      <c r="CI13" s="71"/>
+      <c r="CJ13" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK13" s="71"/>
+      <c r="CL13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM13" s="71"/>
       <c r="CN13" s="71"/>
       <c r="CO13" s="71"/>
-      <c r="CP13" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ13" s="71"/>
+      <c r="CP13" s="71"/>
+      <c r="CQ13" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR13" s="71"/>
       <c r="CS13" s="71"/>
       <c r="CT13" s="71"/>
       <c r="CU13" s="71"/>
       <c r="CV13" s="71"/>
       <c r="CW13" s="71"/>
+      <c r="CX13" s="71"/>
     </row>
     <row r="14">
       <c r="A14" s="69" t="s">
@@ -21300,8 +21303,8 @@
       <c r="AE14" s="71"/>
       <c r="AF14" s="71"/>
       <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="72"/>
       <c r="AJ14" s="71"/>
       <c r="AK14" s="71"/>
       <c r="AL14" s="71"/>
@@ -21368,6 +21371,7 @@
       <c r="CU14" s="71"/>
       <c r="CV14" s="71"/>
       <c r="CW14" s="71"/>
+      <c r="CX14" s="71"/>
     </row>
     <row r="15">
       <c r="A15" s="69" t="s">
@@ -21405,8 +21409,8 @@
       <c r="AE15" s="71"/>
       <c r="AF15" s="71"/>
       <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="72"/>
       <c r="AJ15" s="71"/>
       <c r="AK15" s="71"/>
       <c r="AL15" s="71"/>
@@ -21473,6 +21477,7 @@
       <c r="CU15" s="71"/>
       <c r="CV15" s="71"/>
       <c r="CW15" s="71"/>
+      <c r="CX15" s="71"/>
     </row>
     <row r="16">
       <c r="A16" s="69" t="s">
@@ -21518,62 +21523,62 @@
       <c r="AE16" s="71"/>
       <c r="AF16" s="71"/>
       <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="72"/>
       <c r="AJ16" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK16" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL16" s="71"/>
+      <c r="AL16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM16" s="71"/>
       <c r="AN16" s="71"/>
-      <c r="AO16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ16" s="71"/>
       <c r="AR16" s="71"/>
       <c r="AS16" s="71"/>
       <c r="AT16" s="71"/>
-      <c r="AU16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY16" s="71"/>
-      <c r="AZ16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA16" s="71"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB16" s="71"/>
       <c r="BC16" s="71"/>
       <c r="BD16" s="71"/>
-      <c r="BE16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG16" s="71"/>
       <c r="BH16" s="71"/>
       <c r="BI16" s="71"/>
-      <c r="BJ16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK16" s="71"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL16" s="71"/>
       <c r="BM16" s="71"/>
       <c r="BN16" s="71"/>
       <c r="BO16" s="71"/>
-      <c r="BP16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ16" s="71"/>
+      <c r="BP16" s="71"/>
+      <c r="BQ16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR16" s="71"/>
       <c r="BS16" s="71"/>
       <c r="BT16" s="71"/>
@@ -21587,33 +21592,34 @@
       <c r="CB16" s="71"/>
       <c r="CC16" s="71"/>
       <c r="CD16" s="71"/>
-      <c r="CE16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF16" s="71"/>
+      <c r="CE16" s="71"/>
+      <c r="CF16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG16" s="71"/>
       <c r="CH16" s="71"/>
-      <c r="CI16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ16" s="71"/>
-      <c r="CK16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL16" s="71"/>
+      <c r="CI16" s="71"/>
+      <c r="CJ16" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK16" s="71"/>
+      <c r="CL16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM16" s="71"/>
       <c r="CN16" s="71"/>
       <c r="CO16" s="71"/>
-      <c r="CP16" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ16" s="71"/>
+      <c r="CP16" s="71"/>
+      <c r="CQ16" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR16" s="71"/>
       <c r="CS16" s="71"/>
       <c r="CT16" s="71"/>
       <c r="CU16" s="71"/>
       <c r="CV16" s="71"/>
       <c r="CW16" s="71"/>
+      <c r="CX16" s="71"/>
     </row>
     <row r="17">
       <c r="A17" s="69" t="s">
@@ -21651,8 +21657,8 @@
       <c r="AE17" s="71"/>
       <c r="AF17" s="71"/>
       <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="72"/>
       <c r="AJ17" s="71"/>
       <c r="AK17" s="71"/>
       <c r="AL17" s="71"/>
@@ -21719,6 +21725,7 @@
       <c r="CU17" s="71"/>
       <c r="CV17" s="71"/>
       <c r="CW17" s="71"/>
+      <c r="CX17" s="71"/>
     </row>
     <row r="18">
       <c r="A18" s="69" t="s">
@@ -21756,8 +21763,8 @@
       <c r="AE18" s="71"/>
       <c r="AF18" s="71"/>
       <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="72"/>
       <c r="AJ18" s="71"/>
       <c r="AK18" s="71"/>
       <c r="AL18" s="71"/>
@@ -21824,6 +21831,7 @@
       <c r="CU18" s="71"/>
       <c r="CV18" s="71"/>
       <c r="CW18" s="71"/>
+      <c r="CX18" s="71"/>
     </row>
     <row r="19">
       <c r="A19" s="69" t="s">
@@ -21865,8 +21873,8 @@
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
       <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="72"/>
       <c r="AJ19" s="71"/>
       <c r="AK19" s="71"/>
       <c r="AL19" s="71"/>
@@ -21933,6 +21941,7 @@
       <c r="CU19" s="71"/>
       <c r="CV19" s="71"/>
       <c r="CW19" s="71"/>
+      <c r="CX19" s="71"/>
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
@@ -21984,62 +21993,62 @@
       <c r="AE20" s="71"/>
       <c r="AF20" s="71"/>
       <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="72"/>
       <c r="AJ20" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK20" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL20" s="71"/>
+      <c r="AL20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM20" s="71"/>
       <c r="AN20" s="71"/>
-      <c r="AO20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ20" s="71"/>
       <c r="AR20" s="71"/>
       <c r="AS20" s="71"/>
       <c r="AT20" s="71"/>
-      <c r="AU20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY20" s="71"/>
-      <c r="AZ20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA20" s="71"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB20" s="71"/>
       <c r="BC20" s="71"/>
       <c r="BD20" s="71"/>
-      <c r="BE20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF20" s="71"/>
+      <c r="BE20" s="71"/>
+      <c r="BF20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG20" s="71"/>
       <c r="BH20" s="71"/>
       <c r="BI20" s="71"/>
-      <c r="BJ20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK20" s="71"/>
+      <c r="BJ20" s="71"/>
+      <c r="BK20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL20" s="71"/>
       <c r="BM20" s="71"/>
       <c r="BN20" s="71"/>
       <c r="BO20" s="71"/>
-      <c r="BP20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ20" s="71"/>
+      <c r="BP20" s="71"/>
+      <c r="BQ20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR20" s="71"/>
       <c r="BS20" s="71"/>
       <c r="BT20" s="71"/>
@@ -22053,33 +22062,34 @@
       <c r="CB20" s="71"/>
       <c r="CC20" s="71"/>
       <c r="CD20" s="71"/>
-      <c r="CE20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF20" s="71"/>
+      <c r="CE20" s="71"/>
+      <c r="CF20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG20" s="71"/>
       <c r="CH20" s="71"/>
-      <c r="CI20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ20" s="71"/>
-      <c r="CK20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL20" s="71"/>
+      <c r="CI20" s="71"/>
+      <c r="CJ20" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK20" s="71"/>
+      <c r="CL20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM20" s="71"/>
       <c r="CN20" s="71"/>
       <c r="CO20" s="71"/>
-      <c r="CP20" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ20" s="71"/>
+      <c r="CP20" s="71"/>
+      <c r="CQ20" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR20" s="71"/>
       <c r="CS20" s="71"/>
       <c r="CT20" s="71"/>
       <c r="CU20" s="71"/>
       <c r="CV20" s="71"/>
       <c r="CW20" s="71"/>
+      <c r="CX20" s="71"/>
     </row>
     <row r="21">
       <c r="A21" s="69" t="s">
@@ -22117,8 +22127,8 @@
       <c r="AE21" s="71"/>
       <c r="AF21" s="71"/>
       <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="72"/>
       <c r="AJ21" s="71"/>
       <c r="AK21" s="71"/>
       <c r="AL21" s="71"/>
@@ -22185,6 +22195,7 @@
       <c r="CU21" s="71"/>
       <c r="CV21" s="71"/>
       <c r="CW21" s="71"/>
+      <c r="CX21" s="71"/>
     </row>
     <row r="22">
       <c r="A22" s="69" t="s">
@@ -22230,62 +22241,62 @@
       <c r="AE22" s="71"/>
       <c r="AF22" s="71"/>
       <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="72"/>
       <c r="AJ22" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK22" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL22" s="71"/>
+      <c r="AL22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM22" s="71"/>
       <c r="AN22" s="71"/>
-      <c r="AO22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ22" s="71"/>
       <c r="AR22" s="71"/>
       <c r="AS22" s="71"/>
       <c r="AT22" s="71"/>
-      <c r="AU22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY22" s="71"/>
-      <c r="AZ22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA22" s="71"/>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="71"/>
-      <c r="BE22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF22" s="71"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG22" s="71"/>
       <c r="BH22" s="71"/>
       <c r="BI22" s="71"/>
-      <c r="BJ22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK22" s="71"/>
+      <c r="BJ22" s="71"/>
+      <c r="BK22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL22" s="71"/>
       <c r="BM22" s="71"/>
       <c r="BN22" s="71"/>
       <c r="BO22" s="71"/>
-      <c r="BP22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ22" s="71"/>
+      <c r="BP22" s="71"/>
+      <c r="BQ22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR22" s="71"/>
       <c r="BS22" s="71"/>
       <c r="BT22" s="71"/>
@@ -22299,33 +22310,34 @@
       <c r="CB22" s="71"/>
       <c r="CC22" s="71"/>
       <c r="CD22" s="71"/>
-      <c r="CE22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF22" s="71"/>
+      <c r="CE22" s="71"/>
+      <c r="CF22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG22" s="71"/>
       <c r="CH22" s="71"/>
-      <c r="CI22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ22" s="71"/>
-      <c r="CK22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL22" s="71"/>
+      <c r="CI22" s="71"/>
+      <c r="CJ22" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK22" s="71"/>
+      <c r="CL22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM22" s="71"/>
       <c r="CN22" s="71"/>
       <c r="CO22" s="71"/>
-      <c r="CP22" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ22" s="71"/>
+      <c r="CP22" s="71"/>
+      <c r="CQ22" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR22" s="71"/>
       <c r="CS22" s="71"/>
       <c r="CT22" s="71"/>
       <c r="CU22" s="71"/>
       <c r="CV22" s="71"/>
       <c r="CW22" s="71"/>
+      <c r="CX22" s="71"/>
     </row>
     <row r="23">
       <c r="A23" s="69" t="s">
@@ -22363,19 +22375,19 @@
       <c r="AE23" s="71"/>
       <c r="AF23" s="71"/>
       <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
+      <c r="AH23" s="66"/>
       <c r="AI23" s="72"/>
-      <c r="AJ23" s="72" t="s">
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="AK23" s="71"/>
       <c r="AL23" s="71"/>
       <c r="AM23" s="71"/>
       <c r="AN23" s="71"/>
-      <c r="AO23" s="72" t="s">
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="AP23" s="71"/>
       <c r="AQ23" s="71"/>
       <c r="AR23" s="71"/>
       <c r="AS23" s="71"/>
@@ -22385,10 +22397,10 @@
       <c r="AW23" s="71"/>
       <c r="AX23" s="71"/>
       <c r="AY23" s="71"/>
-      <c r="AZ23" s="72" t="s">
+      <c r="AZ23" s="71"/>
+      <c r="BA23" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="BA23" s="71"/>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
       <c r="BD23" s="71"/>
@@ -22437,6 +22449,7 @@
       <c r="CU23" s="71"/>
       <c r="CV23" s="71"/>
       <c r="CW23" s="71"/>
+      <c r="CX23" s="71"/>
     </row>
     <row r="24">
       <c r="A24" s="69" t="s">
@@ -22482,62 +22495,62 @@
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
       <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="72"/>
       <c r="AJ24" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK24" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL24" s="71"/>
+      <c r="AL24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM24" s="71"/>
       <c r="AN24" s="71"/>
-      <c r="AO24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ24" s="71"/>
       <c r="AR24" s="71"/>
       <c r="AS24" s="71"/>
       <c r="AT24" s="71"/>
-      <c r="AU24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY24" s="71"/>
-      <c r="AZ24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA24" s="71"/>
+      <c r="AZ24" s="71"/>
+      <c r="BA24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB24" s="71"/>
       <c r="BC24" s="71"/>
       <c r="BD24" s="71"/>
-      <c r="BE24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF24" s="71"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG24" s="71"/>
       <c r="BH24" s="71"/>
       <c r="BI24" s="71"/>
-      <c r="BJ24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK24" s="71"/>
+      <c r="BJ24" s="71"/>
+      <c r="BK24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL24" s="71"/>
       <c r="BM24" s="71"/>
       <c r="BN24" s="71"/>
       <c r="BO24" s="71"/>
-      <c r="BP24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ24" s="71"/>
+      <c r="BP24" s="71"/>
+      <c r="BQ24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR24" s="71"/>
       <c r="BS24" s="71"/>
       <c r="BT24" s="71"/>
@@ -22551,33 +22564,34 @@
       <c r="CB24" s="71"/>
       <c r="CC24" s="71"/>
       <c r="CD24" s="71"/>
-      <c r="CE24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF24" s="71"/>
+      <c r="CE24" s="71"/>
+      <c r="CF24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG24" s="71"/>
       <c r="CH24" s="71"/>
-      <c r="CI24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ24" s="71"/>
-      <c r="CK24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL24" s="71"/>
+      <c r="CI24" s="71"/>
+      <c r="CJ24" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK24" s="71"/>
+      <c r="CL24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM24" s="71"/>
       <c r="CN24" s="71"/>
       <c r="CO24" s="71"/>
-      <c r="CP24" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ24" s="71"/>
+      <c r="CP24" s="71"/>
+      <c r="CQ24" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR24" s="71"/>
       <c r="CS24" s="71"/>
       <c r="CT24" s="71"/>
       <c r="CU24" s="71"/>
       <c r="CV24" s="71"/>
       <c r="CW24" s="71"/>
+      <c r="CX24" s="71"/>
     </row>
     <row r="25">
       <c r="A25" s="69" t="s">
@@ -22617,8 +22631,8 @@
       <c r="AE25" s="71"/>
       <c r="AF25" s="71"/>
       <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="72"/>
       <c r="AJ25" s="71"/>
       <c r="AK25" s="71"/>
       <c r="AL25" s="71"/>
@@ -22640,10 +22654,10 @@
       <c r="BB25" s="71"/>
       <c r="BC25" s="71"/>
       <c r="BD25" s="71"/>
-      <c r="BE25" s="72" t="s">
+      <c r="BE25" s="71"/>
+      <c r="BF25" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="BF25" s="71"/>
       <c r="BG25" s="71"/>
       <c r="BH25" s="71"/>
       <c r="BI25" s="71"/>
@@ -22687,6 +22701,7 @@
       <c r="CU25" s="71"/>
       <c r="CV25" s="71"/>
       <c r="CW25" s="71"/>
+      <c r="CX25" s="71"/>
     </row>
     <row r="26">
       <c r="A26" s="69" t="s">
@@ -22724,8 +22739,8 @@
       <c r="AE26" s="71"/>
       <c r="AF26" s="71"/>
       <c r="AG26" s="71"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="72"/>
       <c r="AJ26" s="71"/>
       <c r="AK26" s="71"/>
       <c r="AL26" s="71"/>
@@ -22792,6 +22807,7 @@
       <c r="CU26" s="71"/>
       <c r="CV26" s="71"/>
       <c r="CW26" s="71"/>
+      <c r="CX26" s="71"/>
     </row>
     <row r="27">
       <c r="A27" s="69" t="s">
@@ -22829,8 +22845,8 @@
       <c r="AE27" s="71"/>
       <c r="AF27" s="71"/>
       <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="72"/>
       <c r="AJ27" s="71"/>
       <c r="AK27" s="71"/>
       <c r="AL27" s="71"/>
@@ -22897,6 +22913,7 @@
       <c r="CU27" s="71"/>
       <c r="CV27" s="71"/>
       <c r="CW27" s="71"/>
+      <c r="CX27" s="71"/>
     </row>
     <row r="28">
       <c r="A28" s="69" t="s">
@@ -22934,8 +22951,8 @@
       <c r="AE28" s="71"/>
       <c r="AF28" s="71"/>
       <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="72"/>
       <c r="AJ28" s="71"/>
       <c r="AK28" s="71"/>
       <c r="AL28" s="71"/>
@@ -23002,6 +23019,7 @@
       <c r="CU28" s="71"/>
       <c r="CV28" s="71"/>
       <c r="CW28" s="71"/>
+      <c r="CX28" s="71"/>
     </row>
     <row r="29">
       <c r="A29" s="69" t="s">
@@ -23047,62 +23065,62 @@
       <c r="AE29" s="71"/>
       <c r="AF29" s="71"/>
       <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="72"/>
       <c r="AJ29" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK29" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL29" s="71"/>
+      <c r="AL29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM29" s="71"/>
       <c r="AN29" s="71"/>
-      <c r="AO29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP29" s="71"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ29" s="71"/>
       <c r="AR29" s="71"/>
       <c r="AS29" s="71"/>
       <c r="AT29" s="71"/>
-      <c r="AU29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX29" s="71"/>
+      <c r="AU29" s="71"/>
+      <c r="AV29" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW29" s="71"/>
+      <c r="AX29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY29" s="71"/>
-      <c r="AZ29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA29" s="71"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="71"/>
-      <c r="BE29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF29" s="71"/>
+      <c r="BE29" s="71"/>
+      <c r="BF29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG29" s="71"/>
       <c r="BH29" s="71"/>
       <c r="BI29" s="71"/>
-      <c r="BJ29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK29" s="71"/>
+      <c r="BJ29" s="71"/>
+      <c r="BK29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL29" s="71"/>
       <c r="BM29" s="71"/>
       <c r="BN29" s="71"/>
       <c r="BO29" s="71"/>
-      <c r="BP29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ29" s="71"/>
+      <c r="BP29" s="71"/>
+      <c r="BQ29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR29" s="71"/>
       <c r="BS29" s="71"/>
       <c r="BT29" s="71"/>
@@ -23116,33 +23134,34 @@
       <c r="CB29" s="71"/>
       <c r="CC29" s="71"/>
       <c r="CD29" s="71"/>
-      <c r="CE29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF29" s="71"/>
+      <c r="CE29" s="71"/>
+      <c r="CF29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG29" s="71"/>
       <c r="CH29" s="71"/>
-      <c r="CI29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ29" s="71"/>
-      <c r="CK29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL29" s="71"/>
+      <c r="CI29" s="71"/>
+      <c r="CJ29" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK29" s="71"/>
+      <c r="CL29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM29" s="71"/>
       <c r="CN29" s="71"/>
       <c r="CO29" s="71"/>
-      <c r="CP29" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ29" s="71"/>
+      <c r="CP29" s="71"/>
+      <c r="CQ29" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR29" s="71"/>
       <c r="CS29" s="71"/>
       <c r="CT29" s="71"/>
       <c r="CU29" s="71"/>
       <c r="CV29" s="71"/>
       <c r="CW29" s="71"/>
+      <c r="CX29" s="71"/>
     </row>
     <row r="30">
       <c r="A30" s="69" t="s">
@@ -23180,8 +23199,8 @@
       <c r="AE30" s="71"/>
       <c r="AF30" s="71"/>
       <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="72"/>
       <c r="AJ30" s="71"/>
       <c r="AK30" s="71"/>
       <c r="AL30" s="71"/>
@@ -23248,6 +23267,7 @@
       <c r="CU30" s="71"/>
       <c r="CV30" s="71"/>
       <c r="CW30" s="71"/>
+      <c r="CX30" s="71"/>
     </row>
     <row r="31">
       <c r="A31" s="69" t="s">
@@ -23293,62 +23313,62 @@
       <c r="AE31" s="71"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="72"/>
       <c r="AJ31" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK31" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL31" s="71"/>
+      <c r="AL31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM31" s="71"/>
       <c r="AN31" s="71"/>
-      <c r="AO31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP31" s="71"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ31" s="71"/>
       <c r="AR31" s="71"/>
       <c r="AS31" s="71"/>
       <c r="AT31" s="71"/>
-      <c r="AU31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV31" s="71"/>
-      <c r="AW31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX31" s="71"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW31" s="71"/>
+      <c r="AX31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY31" s="71"/>
-      <c r="AZ31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA31" s="71"/>
+      <c r="AZ31" s="71"/>
+      <c r="BA31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="71"/>
-      <c r="BE31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF31" s="71"/>
+      <c r="BE31" s="71"/>
+      <c r="BF31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG31" s="71"/>
       <c r="BH31" s="71"/>
       <c r="BI31" s="71"/>
-      <c r="BJ31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK31" s="71"/>
+      <c r="BJ31" s="71"/>
+      <c r="BK31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL31" s="71"/>
       <c r="BM31" s="71"/>
       <c r="BN31" s="71"/>
       <c r="BO31" s="71"/>
-      <c r="BP31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ31" s="71"/>
+      <c r="BP31" s="71"/>
+      <c r="BQ31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR31" s="71"/>
       <c r="BS31" s="71"/>
       <c r="BT31" s="71"/>
@@ -23362,33 +23382,34 @@
       <c r="CB31" s="71"/>
       <c r="CC31" s="71"/>
       <c r="CD31" s="71"/>
-      <c r="CE31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF31" s="71"/>
+      <c r="CE31" s="71"/>
+      <c r="CF31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG31" s="71"/>
       <c r="CH31" s="71"/>
-      <c r="CI31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ31" s="71"/>
-      <c r="CK31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL31" s="71"/>
+      <c r="CI31" s="71"/>
+      <c r="CJ31" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK31" s="71"/>
+      <c r="CL31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM31" s="71"/>
       <c r="CN31" s="71"/>
       <c r="CO31" s="71"/>
-      <c r="CP31" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ31" s="71"/>
+      <c r="CP31" s="71"/>
+      <c r="CQ31" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR31" s="71"/>
       <c r="CS31" s="71"/>
       <c r="CT31" s="71"/>
       <c r="CU31" s="71"/>
       <c r="CV31" s="71"/>
       <c r="CW31" s="71"/>
+      <c r="CX31" s="71"/>
     </row>
     <row r="32">
       <c r="A32" s="69" t="s">
@@ -23426,8 +23447,8 @@
       <c r="AE32" s="71"/>
       <c r="AF32" s="71"/>
       <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="72"/>
       <c r="AJ32" s="71"/>
       <c r="AK32" s="71"/>
       <c r="AL32" s="71"/>
@@ -23494,6 +23515,7 @@
       <c r="CU32" s="71"/>
       <c r="CV32" s="71"/>
       <c r="CW32" s="71"/>
+      <c r="CX32" s="71"/>
     </row>
     <row r="33">
       <c r="A33" s="69" t="s">
@@ -23583,10 +23605,8 @@
       <c r="AG33" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="72"/>
       <c r="AJ33" s="72" t="s">
         <v>268</v>
       </c>
@@ -23719,10 +23739,10 @@
       <c r="CA33" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="CB33" s="71"/>
-      <c r="CC33" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="CB33" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC33" s="71"/>
       <c r="CD33" s="72" t="s">
         <v>268</v>
       </c>
@@ -23735,10 +23755,10 @@
       <c r="CG33" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="CH33" s="71"/>
-      <c r="CI33" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="CH33" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CI33" s="71"/>
       <c r="CJ33" s="72" t="s">
         <v>268</v>
       </c>
@@ -23779,6 +23799,9 @@
         <v>268</v>
       </c>
       <c r="CW33" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CX33" s="72" t="s">
         <v>268</v>
       </c>
     </row>
@@ -23818,8 +23841,8 @@
       <c r="AE34" s="71"/>
       <c r="AF34" s="71"/>
       <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="72"/>
       <c r="AJ34" s="71"/>
       <c r="AK34" s="71"/>
       <c r="AL34" s="71"/>
@@ -23886,6 +23909,7 @@
       <c r="CU34" s="71"/>
       <c r="CV34" s="71"/>
       <c r="CW34" s="71"/>
+      <c r="CX34" s="71"/>
     </row>
     <row r="35">
       <c r="A35" s="69" t="s">
@@ -23939,62 +23963,62 @@
       <c r="AE35" s="71"/>
       <c r="AF35" s="71"/>
       <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="72"/>
       <c r="AJ35" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK35" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL35" s="71"/>
+      <c r="AL35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM35" s="71"/>
       <c r="AN35" s="71"/>
-      <c r="AO35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP35" s="71"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ35" s="71"/>
       <c r="AR35" s="71"/>
       <c r="AS35" s="71"/>
       <c r="AT35" s="71"/>
-      <c r="AU35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV35" s="71"/>
-      <c r="AW35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX35" s="71"/>
+      <c r="AU35" s="71"/>
+      <c r="AV35" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW35" s="71"/>
+      <c r="AX35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY35" s="71"/>
-      <c r="AZ35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA35" s="71"/>
+      <c r="AZ35" s="71"/>
+      <c r="BA35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="71"/>
-      <c r="BE35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF35" s="71"/>
+      <c r="BE35" s="71"/>
+      <c r="BF35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG35" s="71"/>
       <c r="BH35" s="71"/>
       <c r="BI35" s="71"/>
-      <c r="BJ35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK35" s="71"/>
+      <c r="BJ35" s="71"/>
+      <c r="BK35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL35" s="71"/>
       <c r="BM35" s="71"/>
       <c r="BN35" s="71"/>
       <c r="BO35" s="71"/>
-      <c r="BP35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ35" s="71"/>
+      <c r="BP35" s="71"/>
+      <c r="BQ35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR35" s="71"/>
       <c r="BS35" s="71"/>
       <c r="BT35" s="71"/>
@@ -24008,33 +24032,34 @@
       <c r="CB35" s="71"/>
       <c r="CC35" s="71"/>
       <c r="CD35" s="71"/>
-      <c r="CE35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF35" s="71"/>
+      <c r="CE35" s="71"/>
+      <c r="CF35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG35" s="71"/>
       <c r="CH35" s="71"/>
-      <c r="CI35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ35" s="71"/>
-      <c r="CK35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL35" s="71"/>
+      <c r="CI35" s="71"/>
+      <c r="CJ35" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK35" s="71"/>
+      <c r="CL35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM35" s="71"/>
       <c r="CN35" s="71"/>
       <c r="CO35" s="71"/>
-      <c r="CP35" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ35" s="71"/>
+      <c r="CP35" s="71"/>
+      <c r="CQ35" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR35" s="71"/>
       <c r="CS35" s="71"/>
       <c r="CT35" s="71"/>
       <c r="CU35" s="71"/>
       <c r="CV35" s="71"/>
       <c r="CW35" s="71"/>
+      <c r="CX35" s="71"/>
     </row>
     <row r="36">
       <c r="A36" s="69" t="s">
@@ -24072,8 +24097,8 @@
       <c r="AE36" s="71"/>
       <c r="AF36" s="71"/>
       <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="72"/>
       <c r="AJ36" s="71"/>
       <c r="AK36" s="71"/>
       <c r="AL36" s="71"/>
@@ -24140,6 +24165,7 @@
       <c r="CU36" s="71"/>
       <c r="CV36" s="71"/>
       <c r="CW36" s="71"/>
+      <c r="CX36" s="71"/>
     </row>
     <row r="37">
       <c r="A37" s="69" t="s">
@@ -24177,8 +24203,8 @@
       <c r="AE37" s="71"/>
       <c r="AF37" s="71"/>
       <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="72"/>
       <c r="AJ37" s="71"/>
       <c r="AK37" s="71"/>
       <c r="AL37" s="71"/>
@@ -24245,6 +24271,7 @@
       <c r="CU37" s="71"/>
       <c r="CV37" s="71"/>
       <c r="CW37" s="71"/>
+      <c r="CX37" s="71"/>
     </row>
     <row r="38">
       <c r="A38" s="69" t="s">
@@ -24282,8 +24309,8 @@
       <c r="AE38" s="71"/>
       <c r="AF38" s="71"/>
       <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="72"/>
       <c r="AJ38" s="71"/>
       <c r="AK38" s="71"/>
       <c r="AL38" s="71"/>
@@ -24350,6 +24377,7 @@
       <c r="CU38" s="71"/>
       <c r="CV38" s="71"/>
       <c r="CW38" s="71"/>
+      <c r="CX38" s="71"/>
     </row>
     <row r="39">
       <c r="A39" s="69" t="s">
@@ -24387,8 +24415,8 @@
       <c r="AE39" s="71"/>
       <c r="AF39" s="71"/>
       <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="72"/>
       <c r="AJ39" s="71"/>
       <c r="AK39" s="71"/>
       <c r="AL39" s="71"/>
@@ -24455,6 +24483,7 @@
       <c r="CU39" s="71"/>
       <c r="CV39" s="71"/>
       <c r="CW39" s="71"/>
+      <c r="CX39" s="71"/>
     </row>
     <row r="40">
       <c r="A40" s="69" t="s">
@@ -24492,8 +24521,8 @@
       <c r="AE40" s="71"/>
       <c r="AF40" s="71"/>
       <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="72"/>
       <c r="AJ40" s="71"/>
       <c r="AK40" s="71"/>
       <c r="AL40" s="71"/>
@@ -24560,6 +24589,7 @@
       <c r="CU40" s="71"/>
       <c r="CV40" s="71"/>
       <c r="CW40" s="71"/>
+      <c r="CX40" s="71"/>
     </row>
     <row r="41">
       <c r="A41" s="69" t="s">
@@ -24597,8 +24627,8 @@
       <c r="AE41" s="71"/>
       <c r="AF41" s="71"/>
       <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="72"/>
       <c r="AJ41" s="71"/>
       <c r="AK41" s="71"/>
       <c r="AL41" s="71"/>
@@ -24665,6 +24695,7 @@
       <c r="CU41" s="71"/>
       <c r="CV41" s="71"/>
       <c r="CW41" s="71"/>
+      <c r="CX41" s="71"/>
     </row>
     <row r="42">
       <c r="A42" s="69" t="s">
@@ -24702,8 +24733,8 @@
       <c r="AE42" s="71"/>
       <c r="AF42" s="71"/>
       <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="72"/>
       <c r="AJ42" s="71"/>
       <c r="AK42" s="71"/>
       <c r="AL42" s="71"/>
@@ -24770,6 +24801,7 @@
       <c r="CU42" s="71"/>
       <c r="CV42" s="71"/>
       <c r="CW42" s="71"/>
+      <c r="CX42" s="71"/>
     </row>
     <row r="43">
       <c r="A43" s="69" t="s">
@@ -24807,8 +24839,8 @@
       <c r="AE43" s="71"/>
       <c r="AF43" s="71"/>
       <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="72"/>
       <c r="AJ43" s="71"/>
       <c r="AK43" s="71"/>
       <c r="AL43" s="71"/>
@@ -24875,6 +24907,7 @@
       <c r="CU43" s="71"/>
       <c r="CV43" s="71"/>
       <c r="CW43" s="71"/>
+      <c r="CX43" s="71"/>
     </row>
     <row r="44">
       <c r="A44" s="69" t="s">
@@ -24912,8 +24945,8 @@
       <c r="AE44" s="71"/>
       <c r="AF44" s="71"/>
       <c r="AG44" s="71"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="72"/>
       <c r="AJ44" s="71"/>
       <c r="AK44" s="71"/>
       <c r="AL44" s="71"/>
@@ -24980,6 +25013,7 @@
       <c r="CU44" s="71"/>
       <c r="CV44" s="71"/>
       <c r="CW44" s="71"/>
+      <c r="CX44" s="71"/>
     </row>
     <row r="45">
       <c r="A45" s="69" t="s">
@@ -25017,8 +25051,8 @@
       <c r="AE45" s="71"/>
       <c r="AF45" s="71"/>
       <c r="AG45" s="71"/>
-      <c r="AH45" s="71"/>
-      <c r="AI45" s="71"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="72"/>
       <c r="AJ45" s="71"/>
       <c r="AK45" s="71"/>
       <c r="AL45" s="71"/>
@@ -25085,6 +25119,7 @@
       <c r="CU45" s="71"/>
       <c r="CV45" s="71"/>
       <c r="CW45" s="71"/>
+      <c r="CX45" s="71"/>
     </row>
     <row r="46">
       <c r="A46" s="69" t="s">
@@ -25122,8 +25157,8 @@
       <c r="AE46" s="71"/>
       <c r="AF46" s="71"/>
       <c r="AG46" s="71"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="71"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="72"/>
       <c r="AJ46" s="71"/>
       <c r="AK46" s="71"/>
       <c r="AL46" s="71"/>
@@ -25190,6 +25225,7 @@
       <c r="CU46" s="71"/>
       <c r="CV46" s="71"/>
       <c r="CW46" s="71"/>
+      <c r="CX46" s="71"/>
     </row>
     <row r="47">
       <c r="A47" s="69" t="s">
@@ -25227,8 +25263,8 @@
       <c r="AE47" s="71"/>
       <c r="AF47" s="71"/>
       <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="72"/>
       <c r="AJ47" s="71"/>
       <c r="AK47" s="71"/>
       <c r="AL47" s="71"/>
@@ -25295,6 +25331,7 @@
       <c r="CU47" s="71"/>
       <c r="CV47" s="71"/>
       <c r="CW47" s="71"/>
+      <c r="CX47" s="71"/>
     </row>
     <row r="48">
       <c r="A48" s="69" t="s">
@@ -25332,8 +25369,8 @@
       <c r="AE48" s="71"/>
       <c r="AF48" s="71"/>
       <c r="AG48" s="71"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="71"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="72"/>
       <c r="AJ48" s="71"/>
       <c r="AK48" s="71"/>
       <c r="AL48" s="71"/>
@@ -25400,6 +25437,7 @@
       <c r="CU48" s="71"/>
       <c r="CV48" s="71"/>
       <c r="CW48" s="71"/>
+      <c r="CX48" s="71"/>
     </row>
     <row r="49">
       <c r="A49" s="69" t="s">
@@ -25437,8 +25475,8 @@
       <c r="AE49" s="71"/>
       <c r="AF49" s="71"/>
       <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="72"/>
       <c r="AJ49" s="71"/>
       <c r="AK49" s="71"/>
       <c r="AL49" s="71"/>
@@ -25505,6 +25543,7 @@
       <c r="CU49" s="71"/>
       <c r="CV49" s="71"/>
       <c r="CW49" s="71"/>
+      <c r="CX49" s="71"/>
     </row>
     <row r="50">
       <c r="A50" s="69" t="s">
@@ -25542,8 +25581,8 @@
       <c r="AE50" s="71"/>
       <c r="AF50" s="71"/>
       <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="72"/>
       <c r="AJ50" s="71"/>
       <c r="AK50" s="71"/>
       <c r="AL50" s="71"/>
@@ -25610,6 +25649,7 @@
       <c r="CU50" s="71"/>
       <c r="CV50" s="71"/>
       <c r="CW50" s="71"/>
+      <c r="CX50" s="71"/>
     </row>
     <row r="51">
       <c r="A51" s="69" t="s">
@@ -25647,8 +25687,8 @@
       <c r="AE51" s="71"/>
       <c r="AF51" s="71"/>
       <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="72"/>
       <c r="AJ51" s="71"/>
       <c r="AK51" s="71"/>
       <c r="AL51" s="71"/>
@@ -25715,6 +25755,7 @@
       <c r="CU51" s="71"/>
       <c r="CV51" s="71"/>
       <c r="CW51" s="71"/>
+      <c r="CX51" s="71"/>
     </row>
     <row r="52">
       <c r="A52" s="69" t="s">
@@ -25752,11 +25793,11 @@
       <c r="AE52" s="71"/>
       <c r="AF52" s="71"/>
       <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ52" s="71"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="72"/>
+      <c r="AJ52" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AK52" s="71"/>
       <c r="AL52" s="71"/>
       <c r="AM52" s="71"/>
@@ -25822,6 +25863,7 @@
       <c r="CU52" s="71"/>
       <c r="CV52" s="71"/>
       <c r="CW52" s="71"/>
+      <c r="CX52" s="71"/>
     </row>
     <row r="53">
       <c r="A53" s="69" t="s">
@@ -25859,8 +25901,8 @@
       <c r="AE53" s="71"/>
       <c r="AF53" s="71"/>
       <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
-      <c r="AI53" s="71"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="72"/>
       <c r="AJ53" s="71"/>
       <c r="AK53" s="71"/>
       <c r="AL53" s="71"/>
@@ -25927,6 +25969,7 @@
       <c r="CU53" s="71"/>
       <c r="CV53" s="71"/>
       <c r="CW53" s="71"/>
+      <c r="CX53" s="71"/>
     </row>
     <row r="54">
       <c r="A54" s="69" t="s">
@@ -25964,8 +26007,8 @@
       <c r="AE54" s="71"/>
       <c r="AF54" s="71"/>
       <c r="AG54" s="71"/>
-      <c r="AH54" s="71"/>
-      <c r="AI54" s="71"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="72"/>
       <c r="AJ54" s="71"/>
       <c r="AK54" s="71"/>
       <c r="AL54" s="71"/>
@@ -26032,6 +26075,7 @@
       <c r="CU54" s="71"/>
       <c r="CV54" s="71"/>
       <c r="CW54" s="71"/>
+      <c r="CX54" s="71"/>
     </row>
     <row r="55">
       <c r="A55" s="69" t="s">
@@ -26069,8 +26113,8 @@
       <c r="AE55" s="71"/>
       <c r="AF55" s="71"/>
       <c r="AG55" s="71"/>
-      <c r="AH55" s="71"/>
-      <c r="AI55" s="71"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="72"/>
       <c r="AJ55" s="71"/>
       <c r="AK55" s="71"/>
       <c r="AL55" s="71"/>
@@ -26137,6 +26181,7 @@
       <c r="CU55" s="71"/>
       <c r="CV55" s="71"/>
       <c r="CW55" s="71"/>
+      <c r="CX55" s="71"/>
     </row>
     <row r="56">
       <c r="A56" s="69" t="s">
@@ -26174,8 +26219,8 @@
       <c r="AE56" s="71"/>
       <c r="AF56" s="71"/>
       <c r="AG56" s="71"/>
-      <c r="AH56" s="71"/>
-      <c r="AI56" s="71"/>
+      <c r="AH56" s="66"/>
+      <c r="AI56" s="72"/>
       <c r="AJ56" s="71"/>
       <c r="AK56" s="71"/>
       <c r="AL56" s="71"/>
@@ -26242,6 +26287,7 @@
       <c r="CU56" s="71"/>
       <c r="CV56" s="71"/>
       <c r="CW56" s="71"/>
+      <c r="CX56" s="71"/>
     </row>
     <row r="57">
       <c r="A57" s="69" t="s">
@@ -26279,8 +26325,8 @@
       <c r="AE57" s="71"/>
       <c r="AF57" s="71"/>
       <c r="AG57" s="71"/>
-      <c r="AH57" s="71"/>
-      <c r="AI57" s="71"/>
+      <c r="AH57" s="66"/>
+      <c r="AI57" s="72"/>
       <c r="AJ57" s="71"/>
       <c r="AK57" s="71"/>
       <c r="AL57" s="71"/>
@@ -26347,6 +26393,7 @@
       <c r="CU57" s="71"/>
       <c r="CV57" s="71"/>
       <c r="CW57" s="71"/>
+      <c r="CX57" s="71"/>
     </row>
     <row r="58">
       <c r="A58" s="69" t="s">
@@ -26384,8 +26431,8 @@
       <c r="AE58" s="71"/>
       <c r="AF58" s="71"/>
       <c r="AG58" s="71"/>
-      <c r="AH58" s="71"/>
-      <c r="AI58" s="71"/>
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="72"/>
       <c r="AJ58" s="71"/>
       <c r="AK58" s="71"/>
       <c r="AL58" s="71"/>
@@ -26452,6 +26499,7 @@
       <c r="CU58" s="71"/>
       <c r="CV58" s="71"/>
       <c r="CW58" s="71"/>
+      <c r="CX58" s="71"/>
     </row>
     <row r="59">
       <c r="A59" s="69" t="s">
@@ -26489,8 +26537,8 @@
       <c r="AE59" s="71"/>
       <c r="AF59" s="71"/>
       <c r="AG59" s="71"/>
-      <c r="AH59" s="71"/>
-      <c r="AI59" s="71"/>
+      <c r="AH59" s="66"/>
+      <c r="AI59" s="72"/>
       <c r="AJ59" s="71"/>
       <c r="AK59" s="71"/>
       <c r="AL59" s="71"/>
@@ -26557,6 +26605,7 @@
       <c r="CU59" s="71"/>
       <c r="CV59" s="71"/>
       <c r="CW59" s="71"/>
+      <c r="CX59" s="71"/>
     </row>
     <row r="60">
       <c r="A60" s="69" t="s">
@@ -26594,8 +26643,8 @@
       <c r="AE60" s="71"/>
       <c r="AF60" s="71"/>
       <c r="AG60" s="71"/>
-      <c r="AH60" s="71"/>
-      <c r="AI60" s="71"/>
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="72"/>
       <c r="AJ60" s="71"/>
       <c r="AK60" s="71"/>
       <c r="AL60" s="71"/>
@@ -26662,6 +26711,7 @@
       <c r="CU60" s="71"/>
       <c r="CV60" s="71"/>
       <c r="CW60" s="71"/>
+      <c r="CX60" s="71"/>
     </row>
     <row r="61">
       <c r="A61" s="69" t="s">
@@ -26699,8 +26749,8 @@
       <c r="AE61" s="71"/>
       <c r="AF61" s="71"/>
       <c r="AG61" s="73"/>
-      <c r="AH61" s="71"/>
-      <c r="AI61" s="71"/>
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="72"/>
       <c r="AJ61" s="71"/>
       <c r="AK61" s="71"/>
       <c r="AL61" s="71"/>
@@ -26744,14 +26794,14 @@
       <c r="BX61" s="71"/>
       <c r="BY61" s="71"/>
       <c r="BZ61" s="71"/>
-      <c r="CA61" s="73"/>
-      <c r="CB61" s="71"/>
+      <c r="CA61" s="71"/>
+      <c r="CB61" s="73"/>
       <c r="CC61" s="71"/>
       <c r="CD61" s="71"/>
       <c r="CE61" s="71"/>
       <c r="CF61" s="71"/>
-      <c r="CG61" s="73"/>
-      <c r="CH61" s="71"/>
+      <c r="CG61" s="71"/>
+      <c r="CH61" s="73"/>
       <c r="CI61" s="71"/>
       <c r="CJ61" s="71"/>
       <c r="CK61" s="71"/>
@@ -26767,6 +26817,7 @@
       <c r="CU61" s="71"/>
       <c r="CV61" s="71"/>
       <c r="CW61" s="71"/>
+      <c r="CX61" s="71"/>
     </row>
     <row r="62">
       <c r="A62" s="70"/>
@@ -26802,8 +26853,8 @@
       <c r="AE62" s="71"/>
       <c r="AF62" s="71"/>
       <c r="AG62" s="71"/>
-      <c r="AH62" s="73"/>
-      <c r="AI62" s="71"/>
+      <c r="AH62" s="66"/>
+      <c r="AI62" s="72"/>
       <c r="AJ62" s="71"/>
       <c r="AK62" s="71"/>
       <c r="AL62" s="71"/>
@@ -26848,14 +26899,14 @@
       <c r="BY62" s="71"/>
       <c r="BZ62" s="71"/>
       <c r="CA62" s="71"/>
-      <c r="CB62" s="73"/>
-      <c r="CC62" s="71"/>
+      <c r="CB62" s="71"/>
+      <c r="CC62" s="73"/>
       <c r="CD62" s="71"/>
       <c r="CE62" s="71"/>
       <c r="CF62" s="71"/>
       <c r="CG62" s="71"/>
-      <c r="CH62" s="73"/>
-      <c r="CI62" s="71"/>
+      <c r="CH62" s="71"/>
+      <c r="CI62" s="73"/>
       <c r="CJ62" s="71"/>
       <c r="CK62" s="71"/>
       <c r="CL62" s="71"/>
@@ -26870,6 +26921,7 @@
       <c r="CU62" s="71"/>
       <c r="CV62" s="71"/>
       <c r="CW62" s="71"/>
+      <c r="CX62" s="71"/>
     </row>
     <row r="63">
       <c r="A63" s="48" t="s">
@@ -26907,9 +26959,9 @@
       <c r="AE63" s="71"/>
       <c r="AF63" s="71"/>
       <c r="AG63" s="71"/>
-      <c r="AH63" s="73"/>
+      <c r="AH63" s="66"/>
       <c r="AI63" s="72"/>
-      <c r="AJ63" s="71"/>
+      <c r="AJ63" s="72"/>
       <c r="AK63" s="71"/>
       <c r="AL63" s="71"/>
       <c r="AM63" s="71"/>
@@ -26920,29 +26972,29 @@
       <c r="AR63" s="71"/>
       <c r="AS63" s="71"/>
       <c r="AT63" s="71"/>
-      <c r="AU63" s="72"/>
-      <c r="AV63" s="71"/>
-      <c r="AW63" s="72"/>
-      <c r="AX63" s="71"/>
+      <c r="AU63" s="71"/>
+      <c r="AV63" s="72"/>
+      <c r="AW63" s="71"/>
+      <c r="AX63" s="72"/>
       <c r="AY63" s="71"/>
-      <c r="AZ63" s="72"/>
-      <c r="BA63" s="71"/>
+      <c r="AZ63" s="71"/>
+      <c r="BA63" s="72"/>
       <c r="BB63" s="71"/>
       <c r="BC63" s="71"/>
       <c r="BD63" s="71"/>
-      <c r="BE63" s="72"/>
-      <c r="BF63" s="71"/>
+      <c r="BE63" s="71"/>
+      <c r="BF63" s="72"/>
       <c r="BG63" s="71"/>
       <c r="BH63" s="71"/>
       <c r="BI63" s="71"/>
-      <c r="BJ63" s="72"/>
-      <c r="BK63" s="71"/>
+      <c r="BJ63" s="71"/>
+      <c r="BK63" s="72"/>
       <c r="BL63" s="71"/>
       <c r="BM63" s="71"/>
       <c r="BN63" s="71"/>
       <c r="BO63" s="71"/>
-      <c r="BP63" s="72"/>
-      <c r="BQ63" s="71"/>
+      <c r="BP63" s="71"/>
+      <c r="BQ63" s="72"/>
       <c r="BR63" s="71"/>
       <c r="BS63" s="71"/>
       <c r="BT63" s="71"/>
@@ -26953,28 +27005,29 @@
       <c r="BY63" s="71"/>
       <c r="BZ63" s="71"/>
       <c r="CA63" s="71"/>
-      <c r="CB63" s="73"/>
-      <c r="CC63" s="71"/>
+      <c r="CB63" s="71"/>
+      <c r="CC63" s="73"/>
       <c r="CD63" s="71"/>
-      <c r="CE63" s="72"/>
-      <c r="CF63" s="71"/>
+      <c r="CE63" s="71"/>
+      <c r="CF63" s="72"/>
       <c r="CG63" s="71"/>
-      <c r="CH63" s="73"/>
-      <c r="CI63" s="72"/>
-      <c r="CJ63" s="71"/>
-      <c r="CK63" s="72"/>
-      <c r="CL63" s="71"/>
+      <c r="CH63" s="71"/>
+      <c r="CI63" s="73"/>
+      <c r="CJ63" s="72"/>
+      <c r="CK63" s="71"/>
+      <c r="CL63" s="72"/>
       <c r="CM63" s="71"/>
       <c r="CN63" s="71"/>
       <c r="CO63" s="71"/>
-      <c r="CP63" s="72"/>
-      <c r="CQ63" s="71"/>
+      <c r="CP63" s="71"/>
+      <c r="CQ63" s="72"/>
       <c r="CR63" s="71"/>
       <c r="CS63" s="71"/>
       <c r="CT63" s="71"/>
       <c r="CU63" s="71"/>
       <c r="CV63" s="71"/>
       <c r="CW63" s="71"/>
+      <c r="CX63" s="71"/>
     </row>
     <row r="64">
       <c r="A64" s="48" t="s">
@@ -27012,9 +27065,9 @@
       <c r="AE64" s="71"/>
       <c r="AF64" s="71"/>
       <c r="AG64" s="71"/>
-      <c r="AH64" s="73"/>
+      <c r="AH64" s="66"/>
       <c r="AI64" s="72"/>
-      <c r="AJ64" s="71"/>
+      <c r="AJ64" s="72"/>
       <c r="AK64" s="71"/>
       <c r="AL64" s="71"/>
       <c r="AM64" s="71"/>
@@ -27025,29 +27078,29 @@
       <c r="AR64" s="71"/>
       <c r="AS64" s="71"/>
       <c r="AT64" s="71"/>
-      <c r="AU64" s="72"/>
-      <c r="AV64" s="71"/>
-      <c r="AW64" s="72"/>
-      <c r="AX64" s="71"/>
+      <c r="AU64" s="71"/>
+      <c r="AV64" s="72"/>
+      <c r="AW64" s="71"/>
+      <c r="AX64" s="72"/>
       <c r="AY64" s="71"/>
-      <c r="AZ64" s="72"/>
-      <c r="BA64" s="71"/>
+      <c r="AZ64" s="71"/>
+      <c r="BA64" s="72"/>
       <c r="BB64" s="71"/>
       <c r="BC64" s="71"/>
       <c r="BD64" s="71"/>
-      <c r="BE64" s="72"/>
-      <c r="BF64" s="71"/>
+      <c r="BE64" s="71"/>
+      <c r="BF64" s="72"/>
       <c r="BG64" s="71"/>
       <c r="BH64" s="71"/>
       <c r="BI64" s="71"/>
-      <c r="BJ64" s="72"/>
-      <c r="BK64" s="71"/>
+      <c r="BJ64" s="71"/>
+      <c r="BK64" s="72"/>
       <c r="BL64" s="71"/>
       <c r="BM64" s="71"/>
       <c r="BN64" s="71"/>
       <c r="BO64" s="71"/>
-      <c r="BP64" s="72"/>
-      <c r="BQ64" s="71"/>
+      <c r="BP64" s="71"/>
+      <c r="BQ64" s="72"/>
       <c r="BR64" s="71"/>
       <c r="BS64" s="71"/>
       <c r="BT64" s="71"/>
@@ -27058,28 +27111,29 @@
       <c r="BY64" s="71"/>
       <c r="BZ64" s="71"/>
       <c r="CA64" s="71"/>
-      <c r="CB64" s="73"/>
-      <c r="CC64" s="71"/>
+      <c r="CB64" s="71"/>
+      <c r="CC64" s="73"/>
       <c r="CD64" s="71"/>
-      <c r="CE64" s="72"/>
-      <c r="CF64" s="71"/>
+      <c r="CE64" s="71"/>
+      <c r="CF64" s="72"/>
       <c r="CG64" s="71"/>
-      <c r="CH64" s="73"/>
-      <c r="CI64" s="72"/>
-      <c r="CJ64" s="71"/>
-      <c r="CK64" s="72"/>
-      <c r="CL64" s="71"/>
+      <c r="CH64" s="71"/>
+      <c r="CI64" s="73"/>
+      <c r="CJ64" s="72"/>
+      <c r="CK64" s="71"/>
+      <c r="CL64" s="72"/>
       <c r="CM64" s="71"/>
       <c r="CN64" s="71"/>
       <c r="CO64" s="71"/>
-      <c r="CP64" s="72"/>
-      <c r="CQ64" s="71"/>
+      <c r="CP64" s="71"/>
+      <c r="CQ64" s="72"/>
       <c r="CR64" s="71"/>
       <c r="CS64" s="71"/>
       <c r="CT64" s="71"/>
       <c r="CU64" s="71"/>
       <c r="CV64" s="71"/>
       <c r="CW64" s="71"/>
+      <c r="CX64" s="71"/>
     </row>
     <row r="65">
       <c r="A65" s="48" t="s">
@@ -27117,9 +27171,9 @@
       <c r="AE65" s="71"/>
       <c r="AF65" s="71"/>
       <c r="AG65" s="71"/>
-      <c r="AH65" s="73"/>
+      <c r="AH65" s="66"/>
       <c r="AI65" s="72"/>
-      <c r="AJ65" s="71"/>
+      <c r="AJ65" s="72"/>
       <c r="AK65" s="71"/>
       <c r="AL65" s="71"/>
       <c r="AM65" s="71"/>
@@ -27130,29 +27184,29 @@
       <c r="AR65" s="71"/>
       <c r="AS65" s="71"/>
       <c r="AT65" s="71"/>
-      <c r="AU65" s="72"/>
-      <c r="AV65" s="71"/>
-      <c r="AW65" s="72"/>
-      <c r="AX65" s="71"/>
+      <c r="AU65" s="71"/>
+      <c r="AV65" s="72"/>
+      <c r="AW65" s="71"/>
+      <c r="AX65" s="72"/>
       <c r="AY65" s="71"/>
-      <c r="AZ65" s="72"/>
-      <c r="BA65" s="71"/>
+      <c r="AZ65" s="71"/>
+      <c r="BA65" s="72"/>
       <c r="BB65" s="71"/>
       <c r="BC65" s="71"/>
       <c r="BD65" s="71"/>
-      <c r="BE65" s="72"/>
-      <c r="BF65" s="71"/>
+      <c r="BE65" s="71"/>
+      <c r="BF65" s="72"/>
       <c r="BG65" s="71"/>
       <c r="BH65" s="71"/>
       <c r="BI65" s="71"/>
-      <c r="BJ65" s="72"/>
-      <c r="BK65" s="71"/>
+      <c r="BJ65" s="71"/>
+      <c r="BK65" s="72"/>
       <c r="BL65" s="71"/>
       <c r="BM65" s="71"/>
       <c r="BN65" s="71"/>
       <c r="BO65" s="71"/>
-      <c r="BP65" s="72"/>
-      <c r="BQ65" s="71"/>
+      <c r="BP65" s="71"/>
+      <c r="BQ65" s="72"/>
       <c r="BR65" s="71"/>
       <c r="BS65" s="71"/>
       <c r="BT65" s="71"/>
@@ -27163,28 +27217,29 @@
       <c r="BY65" s="71"/>
       <c r="BZ65" s="71"/>
       <c r="CA65" s="71"/>
-      <c r="CB65" s="73"/>
-      <c r="CC65" s="71"/>
+      <c r="CB65" s="71"/>
+      <c r="CC65" s="73"/>
       <c r="CD65" s="71"/>
-      <c r="CE65" s="72"/>
-      <c r="CF65" s="71"/>
+      <c r="CE65" s="71"/>
+      <c r="CF65" s="72"/>
       <c r="CG65" s="71"/>
-      <c r="CH65" s="73"/>
-      <c r="CI65" s="72"/>
-      <c r="CJ65" s="71"/>
-      <c r="CK65" s="72"/>
-      <c r="CL65" s="71"/>
+      <c r="CH65" s="71"/>
+      <c r="CI65" s="73"/>
+      <c r="CJ65" s="72"/>
+      <c r="CK65" s="71"/>
+      <c r="CL65" s="72"/>
       <c r="CM65" s="71"/>
       <c r="CN65" s="71"/>
       <c r="CO65" s="71"/>
-      <c r="CP65" s="72"/>
-      <c r="CQ65" s="71"/>
+      <c r="CP65" s="71"/>
+      <c r="CQ65" s="72"/>
       <c r="CR65" s="71"/>
       <c r="CS65" s="71"/>
       <c r="CT65" s="71"/>
       <c r="CU65" s="71"/>
       <c r="CV65" s="71"/>
       <c r="CW65" s="71"/>
+      <c r="CX65" s="71"/>
     </row>
     <row r="66">
       <c r="A66" s="69" t="s">
@@ -27240,11 +27295,11 @@
       <c r="AE66" s="71"/>
       <c r="AF66" s="71"/>
       <c r="AG66" s="71"/>
-      <c r="AH66" s="71"/>
-      <c r="AI66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ66" s="71"/>
+      <c r="AH66" s="66"/>
+      <c r="AI66" s="72"/>
+      <c r="AJ66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AK66" s="71"/>
       <c r="AL66" s="71"/>
       <c r="AM66" s="71"/>
@@ -27255,41 +27310,41 @@
       <c r="AR66" s="71"/>
       <c r="AS66" s="71"/>
       <c r="AT66" s="71"/>
-      <c r="AU66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV66" s="71"/>
-      <c r="AW66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX66" s="71"/>
+      <c r="AU66" s="71"/>
+      <c r="AV66" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW66" s="71"/>
+      <c r="AX66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY66" s="71"/>
-      <c r="AZ66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA66" s="71"/>
+      <c r="AZ66" s="71"/>
+      <c r="BA66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB66" s="71"/>
       <c r="BC66" s="71"/>
       <c r="BD66" s="71"/>
-      <c r="BE66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF66" s="71"/>
+      <c r="BE66" s="71"/>
+      <c r="BF66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG66" s="71"/>
       <c r="BH66" s="71"/>
       <c r="BI66" s="71"/>
-      <c r="BJ66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK66" s="71"/>
+      <c r="BJ66" s="71"/>
+      <c r="BK66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL66" s="71"/>
       <c r="BM66" s="71"/>
       <c r="BN66" s="71"/>
       <c r="BO66" s="71"/>
-      <c r="BP66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ66" s="71"/>
+      <c r="BP66" s="71"/>
+      <c r="BQ66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR66" s="71"/>
       <c r="BS66" s="71"/>
       <c r="BT66" s="71"/>
@@ -27303,33 +27358,34 @@
       <c r="CB66" s="71"/>
       <c r="CC66" s="71"/>
       <c r="CD66" s="71"/>
-      <c r="CE66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF66" s="71"/>
+      <c r="CE66" s="71"/>
+      <c r="CF66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG66" s="71"/>
       <c r="CH66" s="71"/>
-      <c r="CI66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ66" s="71"/>
-      <c r="CK66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL66" s="71"/>
+      <c r="CI66" s="71"/>
+      <c r="CJ66" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK66" s="71"/>
+      <c r="CL66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM66" s="71"/>
       <c r="CN66" s="71"/>
       <c r="CO66" s="71"/>
-      <c r="CP66" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ66" s="71"/>
+      <c r="CP66" s="71"/>
+      <c r="CQ66" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR66" s="71"/>
       <c r="CS66" s="71"/>
       <c r="CT66" s="71"/>
       <c r="CU66" s="71"/>
       <c r="CV66" s="71"/>
       <c r="CW66" s="71"/>
+      <c r="CX66" s="71"/>
     </row>
     <row r="67">
       <c r="A67" s="69" t="s">
@@ -27371,11 +27427,11 @@
       <c r="AE67" s="71"/>
       <c r="AF67" s="71"/>
       <c r="AG67" s="71"/>
-      <c r="AH67" s="71"/>
-      <c r="AI67" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ67" s="71"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="72"/>
+      <c r="AJ67" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AK67" s="71"/>
       <c r="AL67" s="71"/>
       <c r="AM67" s="71"/>
@@ -27441,6 +27497,7 @@
       <c r="CU67" s="71"/>
       <c r="CV67" s="71"/>
       <c r="CW67" s="71"/>
+      <c r="CX67" s="71"/>
     </row>
     <row r="68">
       <c r="A68" s="69" t="s">
@@ -27480,11 +27537,11 @@
       <c r="AE68" s="71"/>
       <c r="AF68" s="71"/>
       <c r="AG68" s="71"/>
-      <c r="AH68" s="71"/>
-      <c r="AI68" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ68" s="71"/>
+      <c r="AH68" s="66"/>
+      <c r="AI68" s="72"/>
+      <c r="AJ68" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AK68" s="71"/>
       <c r="AL68" s="71"/>
       <c r="AM68" s="71"/>
@@ -27550,6 +27607,7 @@
       <c r="CU68" s="71"/>
       <c r="CV68" s="71"/>
       <c r="CW68" s="71"/>
+      <c r="CX68" s="71"/>
     </row>
     <row r="69">
       <c r="A69" s="69" t="s">
@@ -27593,10 +27651,12 @@
       <c r="AE69" s="71"/>
       <c r="AF69" s="71"/>
       <c r="AG69" s="71"/>
-      <c r="AH69" s="71"/>
-      <c r="AI69" s="71"/>
+      <c r="AH69" s="66"/>
+      <c r="AI69" s="72"/>
       <c r="AJ69" s="71"/>
-      <c r="AK69" s="71"/>
+      <c r="AK69" s="72" t="s">
+        <v>276</v>
+      </c>
       <c r="AL69" s="71"/>
       <c r="AM69" s="71"/>
       <c r="AN69" s="71"/>
@@ -27661,10 +27721,11 @@
       <c r="CU69" s="71"/>
       <c r="CV69" s="71"/>
       <c r="CW69" s="71"/>
+      <c r="CX69" s="71"/>
     </row>
     <row r="70">
       <c r="A70" s="69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B70" s="71"/>
       <c r="C70" s="71"/>
@@ -27698,8 +27759,8 @@
       <c r="AE70" s="71"/>
       <c r="AF70" s="71"/>
       <c r="AG70" s="71"/>
-      <c r="AH70" s="71"/>
-      <c r="AI70" s="71"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="72"/>
       <c r="AJ70" s="71"/>
       <c r="AK70" s="71"/>
       <c r="AL70" s="71"/>
@@ -27766,10 +27827,11 @@
       <c r="CU70" s="71"/>
       <c r="CV70" s="71"/>
       <c r="CW70" s="71"/>
+      <c r="CX70" s="71"/>
     </row>
     <row r="71">
       <c r="A71" s="69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
@@ -27803,8 +27865,8 @@
       <c r="AE71" s="71"/>
       <c r="AF71" s="71"/>
       <c r="AG71" s="71"/>
-      <c r="AH71" s="71"/>
-      <c r="AI71" s="71"/>
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="72"/>
       <c r="AJ71" s="71"/>
       <c r="AK71" s="71"/>
       <c r="AL71" s="71"/>
@@ -27871,10 +27933,11 @@
       <c r="CU71" s="71"/>
       <c r="CV71" s="71"/>
       <c r="CW71" s="71"/>
+      <c r="CX71" s="71"/>
     </row>
     <row r="72">
       <c r="A72" s="69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
@@ -27886,7 +27949,7 @@
       <c r="I72" s="72"/>
       <c r="J72" s="71"/>
       <c r="K72" s="72" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L72" s="71"/>
       <c r="M72" s="71"/>
@@ -27910,8 +27973,8 @@
       <c r="AE72" s="71"/>
       <c r="AF72" s="71"/>
       <c r="AG72" s="71"/>
-      <c r="AH72" s="71"/>
-      <c r="AI72" s="71"/>
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="72"/>
       <c r="AJ72" s="71"/>
       <c r="AK72" s="71"/>
       <c r="AL72" s="71"/>
@@ -27978,10 +28041,11 @@
       <c r="CU72" s="71"/>
       <c r="CV72" s="71"/>
       <c r="CW72" s="71"/>
+      <c r="CX72" s="71"/>
     </row>
     <row r="73">
       <c r="A73" s="69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -28015,8 +28079,8 @@
       <c r="AE73" s="71"/>
       <c r="AF73" s="71"/>
       <c r="AG73" s="71"/>
-      <c r="AH73" s="71"/>
-      <c r="AI73" s="71"/>
+      <c r="AH73" s="66"/>
+      <c r="AI73" s="72"/>
       <c r="AJ73" s="71"/>
       <c r="AK73" s="71"/>
       <c r="AL73" s="71"/>
@@ -28083,10 +28147,11 @@
       <c r="CU73" s="71"/>
       <c r="CV73" s="71"/>
       <c r="CW73" s="71"/>
+      <c r="CX73" s="71"/>
     </row>
     <row r="74">
       <c r="A74" s="69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
@@ -28126,8 +28191,8 @@
       <c r="AE74" s="71"/>
       <c r="AF74" s="71"/>
       <c r="AG74" s="71"/>
-      <c r="AH74" s="71"/>
-      <c r="AI74" s="71"/>
+      <c r="AH74" s="66"/>
+      <c r="AI74" s="72"/>
       <c r="AJ74" s="71"/>
       <c r="AK74" s="71"/>
       <c r="AL74" s="71"/>
@@ -28194,10 +28259,11 @@
       <c r="CU74" s="71"/>
       <c r="CV74" s="71"/>
       <c r="CW74" s="71"/>
+      <c r="CX74" s="71"/>
     </row>
     <row r="75">
       <c r="A75" s="69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
@@ -28239,8 +28305,8 @@
       <c r="AE75" s="71"/>
       <c r="AF75" s="71"/>
       <c r="AG75" s="71"/>
-      <c r="AH75" s="71"/>
-      <c r="AI75" s="71"/>
+      <c r="AH75" s="66"/>
+      <c r="AI75" s="72"/>
       <c r="AJ75" s="71"/>
       <c r="AK75" s="71"/>
       <c r="AL75" s="71"/>
@@ -28307,10 +28373,11 @@
       <c r="CU75" s="71"/>
       <c r="CV75" s="71"/>
       <c r="CW75" s="71"/>
+      <c r="CX75" s="71"/>
     </row>
     <row r="76">
       <c r="A76" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
@@ -28320,7 +28387,7 @@
       <c r="G76" s="71"/>
       <c r="H76" s="71"/>
       <c r="I76" s="72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J76" s="71"/>
       <c r="K76" s="72" t="s">
@@ -28352,8 +28419,8 @@
       <c r="AE76" s="71"/>
       <c r="AF76" s="71"/>
       <c r="AG76" s="71"/>
-      <c r="AH76" s="71"/>
-      <c r="AI76" s="71"/>
+      <c r="AH76" s="66"/>
+      <c r="AI76" s="72"/>
       <c r="AJ76" s="71"/>
       <c r="AK76" s="71"/>
       <c r="AL76" s="71"/>
@@ -28420,10 +28487,11 @@
       <c r="CU76" s="71"/>
       <c r="CV76" s="71"/>
       <c r="CW76" s="71"/>
+      <c r="CX76" s="71"/>
     </row>
     <row r="77">
       <c r="A77" s="69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B77" s="72"/>
       <c r="C77" s="72"/>
@@ -28475,17 +28543,17 @@
       <c r="AE77" s="71"/>
       <c r="AF77" s="71"/>
       <c r="AG77" s="71"/>
-      <c r="AH77" s="71"/>
-      <c r="AI77" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH77" s="66"/>
+      <c r="AI77" s="72"/>
       <c r="AJ77" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK77" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL77" s="71"/>
+      <c r="AL77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM77" s="71"/>
       <c r="AN77" s="71"/>
       <c r="AO77" s="71"/>
@@ -28494,41 +28562,41 @@
       <c r="AR77" s="71"/>
       <c r="AS77" s="71"/>
       <c r="AT77" s="71"/>
-      <c r="AU77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV77" s="71"/>
-      <c r="AW77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX77" s="71"/>
+      <c r="AU77" s="71"/>
+      <c r="AV77" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW77" s="71"/>
+      <c r="AX77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY77" s="71"/>
-      <c r="AZ77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA77" s="71"/>
+      <c r="AZ77" s="71"/>
+      <c r="BA77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB77" s="71"/>
       <c r="BC77" s="71"/>
       <c r="BD77" s="71"/>
-      <c r="BE77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF77" s="71"/>
+      <c r="BE77" s="71"/>
+      <c r="BF77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG77" s="71"/>
       <c r="BH77" s="71"/>
       <c r="BI77" s="71"/>
-      <c r="BJ77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK77" s="71"/>
+      <c r="BJ77" s="71"/>
+      <c r="BK77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL77" s="71"/>
       <c r="BM77" s="71"/>
       <c r="BN77" s="71"/>
       <c r="BO77" s="71"/>
-      <c r="BP77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ77" s="71"/>
+      <c r="BP77" s="71"/>
+      <c r="BQ77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR77" s="71"/>
       <c r="BS77" s="71"/>
       <c r="BT77" s="71"/>
@@ -28542,31 +28610,32 @@
       <c r="CB77" s="71"/>
       <c r="CC77" s="71"/>
       <c r="CD77" s="71"/>
-      <c r="CE77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF77" s="71"/>
+      <c r="CE77" s="71"/>
+      <c r="CF77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG77" s="71"/>
       <c r="CH77" s="71"/>
       <c r="CI77" s="71"/>
       <c r="CJ77" s="71"/>
-      <c r="CK77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL77" s="71"/>
+      <c r="CK77" s="71"/>
+      <c r="CL77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM77" s="71"/>
       <c r="CN77" s="71"/>
       <c r="CO77" s="71"/>
-      <c r="CP77" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ77" s="71"/>
+      <c r="CP77" s="71"/>
+      <c r="CQ77" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR77" s="71"/>
       <c r="CS77" s="71"/>
       <c r="CT77" s="71"/>
       <c r="CU77" s="71"/>
       <c r="CV77" s="71"/>
       <c r="CW77" s="71"/>
+      <c r="CX77" s="71"/>
     </row>
     <row r="78">
       <c r="A78" s="69" t="s">
@@ -28604,8 +28673,8 @@
       <c r="AE78" s="71"/>
       <c r="AF78" s="71"/>
       <c r="AG78" s="71"/>
-      <c r="AH78" s="71"/>
-      <c r="AI78" s="71"/>
+      <c r="AH78" s="66"/>
+      <c r="AI78" s="72"/>
       <c r="AJ78" s="71"/>
       <c r="AK78" s="71"/>
       <c r="AL78" s="71"/>
@@ -28672,6 +28741,7 @@
       <c r="CU78" s="71"/>
       <c r="CV78" s="71"/>
       <c r="CW78" s="71"/>
+      <c r="CX78" s="71"/>
     </row>
     <row r="79">
       <c r="A79" s="69" t="s">
@@ -28684,7 +28754,7 @@
       <c r="F79" s="71"/>
       <c r="G79" s="71"/>
       <c r="H79" s="72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I79" s="71"/>
       <c r="J79" s="71"/>
@@ -28711,8 +28781,8 @@
       <c r="AE79" s="71"/>
       <c r="AF79" s="71"/>
       <c r="AG79" s="71"/>
-      <c r="AH79" s="71"/>
-      <c r="AI79" s="71"/>
+      <c r="AH79" s="66"/>
+      <c r="AI79" s="72"/>
       <c r="AJ79" s="71"/>
       <c r="AK79" s="71"/>
       <c r="AL79" s="71"/>
@@ -28779,6 +28849,7 @@
       <c r="CU79" s="71"/>
       <c r="CV79" s="71"/>
       <c r="CW79" s="71"/>
+      <c r="CX79" s="71"/>
     </row>
     <row r="80">
       <c r="A80" s="69" t="s">
@@ -28816,8 +28887,8 @@
       <c r="AE80" s="71"/>
       <c r="AF80" s="71"/>
       <c r="AG80" s="71"/>
-      <c r="AH80" s="71"/>
-      <c r="AI80" s="71"/>
+      <c r="AH80" s="66"/>
+      <c r="AI80" s="72"/>
       <c r="AJ80" s="71"/>
       <c r="AK80" s="71"/>
       <c r="AL80" s="71"/>
@@ -28884,6 +28955,7 @@
       <c r="CU80" s="71"/>
       <c r="CV80" s="71"/>
       <c r="CW80" s="71"/>
+      <c r="CX80" s="71"/>
     </row>
     <row r="81">
       <c r="A81" s="69" t="s">
@@ -28908,7 +28980,7 @@
         <v>268</v>
       </c>
       <c r="L81" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M81" s="72" t="s">
         <v>268</v>
@@ -28917,7 +28989,7 @@
         <v>268</v>
       </c>
       <c r="O81" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P81" s="72" t="s">
         <v>268</v>
@@ -28943,17 +29015,17 @@
       <c r="AE81" s="71"/>
       <c r="AF81" s="71"/>
       <c r="AG81" s="71"/>
-      <c r="AH81" s="71"/>
-      <c r="AI81" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH81" s="66"/>
+      <c r="AI81" s="72"/>
       <c r="AJ81" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK81" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL81" s="71"/>
+      <c r="AL81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM81" s="71"/>
       <c r="AN81" s="71"/>
       <c r="AO81" s="71"/>
@@ -28962,41 +29034,41 @@
       <c r="AR81" s="71"/>
       <c r="AS81" s="71"/>
       <c r="AT81" s="71"/>
-      <c r="AU81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV81" s="71"/>
-      <c r="AW81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX81" s="71"/>
+      <c r="AU81" s="71"/>
+      <c r="AV81" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW81" s="71"/>
+      <c r="AX81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY81" s="71"/>
-      <c r="AZ81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA81" s="71"/>
+      <c r="AZ81" s="71"/>
+      <c r="BA81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB81" s="71"/>
       <c r="BC81" s="71"/>
       <c r="BD81" s="71"/>
-      <c r="BE81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF81" s="71"/>
+      <c r="BE81" s="71"/>
+      <c r="BF81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG81" s="71"/>
       <c r="BH81" s="71"/>
       <c r="BI81" s="71"/>
-      <c r="BJ81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK81" s="71"/>
+      <c r="BJ81" s="71"/>
+      <c r="BK81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL81" s="71"/>
       <c r="BM81" s="71"/>
       <c r="BN81" s="71"/>
       <c r="BO81" s="71"/>
-      <c r="BP81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ81" s="71"/>
+      <c r="BP81" s="71"/>
+      <c r="BQ81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR81" s="71"/>
       <c r="BS81" s="71"/>
       <c r="BT81" s="71"/>
@@ -29010,31 +29082,32 @@
       <c r="CB81" s="71"/>
       <c r="CC81" s="71"/>
       <c r="CD81" s="71"/>
-      <c r="CE81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF81" s="71"/>
+      <c r="CE81" s="71"/>
+      <c r="CF81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG81" s="71"/>
       <c r="CH81" s="71"/>
       <c r="CI81" s="71"/>
       <c r="CJ81" s="71"/>
-      <c r="CK81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL81" s="71"/>
+      <c r="CK81" s="71"/>
+      <c r="CL81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM81" s="71"/>
       <c r="CN81" s="71"/>
       <c r="CO81" s="71"/>
-      <c r="CP81" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ81" s="71"/>
+      <c r="CP81" s="71"/>
+      <c r="CQ81" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR81" s="71"/>
       <c r="CS81" s="71"/>
       <c r="CT81" s="71"/>
       <c r="CU81" s="71"/>
       <c r="CV81" s="71"/>
       <c r="CW81" s="71"/>
+      <c r="CX81" s="71"/>
     </row>
     <row r="82">
       <c r="A82" s="69" t="s">
@@ -29072,8 +29145,8 @@
       <c r="AE82" s="71"/>
       <c r="AF82" s="71"/>
       <c r="AG82" s="71"/>
-      <c r="AH82" s="71"/>
-      <c r="AI82" s="71"/>
+      <c r="AH82" s="66"/>
+      <c r="AI82" s="72"/>
       <c r="AJ82" s="71"/>
       <c r="AK82" s="71"/>
       <c r="AL82" s="71"/>
@@ -29140,6 +29213,7 @@
       <c r="CU82" s="71"/>
       <c r="CV82" s="71"/>
       <c r="CW82" s="71"/>
+      <c r="CX82" s="71"/>
     </row>
     <row r="83">
       <c r="A83" s="69" t="s">
@@ -29195,23 +29269,23 @@
       <c r="AE83" s="71"/>
       <c r="AF83" s="71"/>
       <c r="AG83" s="71"/>
-      <c r="AH83" s="71"/>
-      <c r="AI83" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH83" s="66"/>
+      <c r="AI83" s="72"/>
       <c r="AJ83" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK83" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL83" s="71"/>
+      <c r="AL83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM83" s="71"/>
       <c r="AN83" s="71"/>
-      <c r="AO83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP83" s="71"/>
+      <c r="AO83" s="71"/>
+      <c r="AP83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ83" s="71"/>
       <c r="AR83" s="71"/>
       <c r="AS83" s="71"/>
@@ -29221,32 +29295,32 @@
       <c r="AW83" s="71"/>
       <c r="AX83" s="71"/>
       <c r="AY83" s="71"/>
-      <c r="AZ83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA83" s="71"/>
+      <c r="AZ83" s="71"/>
+      <c r="BA83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB83" s="71"/>
       <c r="BC83" s="71"/>
       <c r="BD83" s="71"/>
-      <c r="BE83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF83" s="71"/>
+      <c r="BE83" s="71"/>
+      <c r="BF83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG83" s="71"/>
       <c r="BH83" s="71"/>
       <c r="BI83" s="71"/>
-      <c r="BJ83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK83" s="71"/>
+      <c r="BJ83" s="71"/>
+      <c r="BK83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL83" s="71"/>
       <c r="BM83" s="71"/>
       <c r="BN83" s="71"/>
       <c r="BO83" s="71"/>
-      <c r="BP83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ83" s="71"/>
+      <c r="BP83" s="71"/>
+      <c r="BQ83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR83" s="71"/>
       <c r="BS83" s="71"/>
       <c r="BT83" s="71"/>
@@ -29260,31 +29334,32 @@
       <c r="CB83" s="71"/>
       <c r="CC83" s="71"/>
       <c r="CD83" s="71"/>
-      <c r="CE83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF83" s="71"/>
+      <c r="CE83" s="71"/>
+      <c r="CF83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG83" s="71"/>
       <c r="CH83" s="71"/>
-      <c r="CI83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ83" s="71"/>
+      <c r="CI83" s="71"/>
+      <c r="CJ83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CK83" s="71"/>
       <c r="CL83" s="71"/>
       <c r="CM83" s="71"/>
       <c r="CN83" s="71"/>
       <c r="CO83" s="71"/>
-      <c r="CP83" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ83" s="71"/>
+      <c r="CP83" s="71"/>
+      <c r="CQ83" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR83" s="71"/>
       <c r="CS83" s="71"/>
       <c r="CT83" s="71"/>
       <c r="CU83" s="71"/>
       <c r="CV83" s="71"/>
       <c r="CW83" s="71"/>
+      <c r="CX83" s="71"/>
     </row>
     <row r="84">
       <c r="A84" s="69" t="s">
@@ -29322,8 +29397,8 @@
       <c r="AE84" s="71"/>
       <c r="AF84" s="71"/>
       <c r="AG84" s="71"/>
-      <c r="AH84" s="71"/>
-      <c r="AI84" s="71"/>
+      <c r="AH84" s="66"/>
+      <c r="AI84" s="72"/>
       <c r="AJ84" s="71"/>
       <c r="AK84" s="71"/>
       <c r="AL84" s="71"/>
@@ -29390,6 +29465,7 @@
       <c r="CU84" s="71"/>
       <c r="CV84" s="71"/>
       <c r="CW84" s="71"/>
+      <c r="CX84" s="71"/>
     </row>
     <row r="85">
       <c r="A85" s="69" t="s">
@@ -29427,8 +29503,8 @@
       <c r="AE85" s="71"/>
       <c r="AF85" s="71"/>
       <c r="AG85" s="71"/>
-      <c r="AH85" s="71"/>
-      <c r="AI85" s="71"/>
+      <c r="AH85" s="66"/>
+      <c r="AI85" s="72"/>
       <c r="AJ85" s="71"/>
       <c r="AK85" s="71"/>
       <c r="AL85" s="71"/>
@@ -29495,6 +29571,7 @@
       <c r="CU85" s="71"/>
       <c r="CV85" s="71"/>
       <c r="CW85" s="71"/>
+      <c r="CX85" s="71"/>
     </row>
     <row r="86">
       <c r="A86" s="69" t="s">
@@ -29532,8 +29609,8 @@
       <c r="AE86" s="71"/>
       <c r="AF86" s="71"/>
       <c r="AG86" s="71"/>
-      <c r="AH86" s="71"/>
-      <c r="AI86" s="71"/>
+      <c r="AH86" s="66"/>
+      <c r="AI86" s="72"/>
       <c r="AJ86" s="71"/>
       <c r="AK86" s="71"/>
       <c r="AL86" s="71"/>
@@ -29600,6 +29677,7 @@
       <c r="CU86" s="71"/>
       <c r="CV86" s="71"/>
       <c r="CW86" s="71"/>
+      <c r="CX86" s="71"/>
     </row>
     <row r="87">
       <c r="A87" s="69" t="s">
@@ -29637,8 +29715,8 @@
       <c r="AE87" s="71"/>
       <c r="AF87" s="71"/>
       <c r="AG87" s="71"/>
-      <c r="AH87" s="71"/>
-      <c r="AI87" s="71"/>
+      <c r="AH87" s="66"/>
+      <c r="AI87" s="72"/>
       <c r="AJ87" s="71"/>
       <c r="AK87" s="71"/>
       <c r="AL87" s="71"/>
@@ -29705,6 +29783,7 @@
       <c r="CU87" s="71"/>
       <c r="CV87" s="71"/>
       <c r="CW87" s="71"/>
+      <c r="CX87" s="71"/>
     </row>
     <row r="88">
       <c r="A88" s="69" t="s">
@@ -29742,8 +29821,8 @@
       <c r="AE88" s="71"/>
       <c r="AF88" s="71"/>
       <c r="AG88" s="71"/>
-      <c r="AH88" s="71"/>
-      <c r="AI88" s="71"/>
+      <c r="AH88" s="66"/>
+      <c r="AI88" s="72"/>
       <c r="AJ88" s="71"/>
       <c r="AK88" s="71"/>
       <c r="AL88" s="71"/>
@@ -29810,6 +29889,7 @@
       <c r="CU88" s="71"/>
       <c r="CV88" s="71"/>
       <c r="CW88" s="71"/>
+      <c r="CX88" s="71"/>
     </row>
     <row r="89">
       <c r="A89" s="69" t="s">
@@ -29865,47 +29945,47 @@
       <c r="AE89" s="71"/>
       <c r="AF89" s="71"/>
       <c r="AG89" s="71"/>
-      <c r="AH89" s="71"/>
-      <c r="AI89" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH89" s="66"/>
+      <c r="AI89" s="72"/>
       <c r="AJ89" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK89" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL89" s="71"/>
+      <c r="AL89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM89" s="71"/>
       <c r="AN89" s="71"/>
-      <c r="AO89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP89" s="71"/>
+      <c r="AO89" s="71"/>
+      <c r="AP89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ89" s="71"/>
       <c r="AR89" s="71"/>
       <c r="AS89" s="71"/>
       <c r="AT89" s="71"/>
-      <c r="AU89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV89" s="71"/>
-      <c r="AW89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX89" s="71"/>
+      <c r="AU89" s="71"/>
+      <c r="AV89" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW89" s="71"/>
+      <c r="AX89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY89" s="71"/>
-      <c r="AZ89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA89" s="71"/>
+      <c r="AZ89" s="71"/>
+      <c r="BA89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="71"/>
-      <c r="BE89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF89" s="71"/>
+      <c r="BE89" s="71"/>
+      <c r="BF89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BG89" s="71"/>
       <c r="BH89" s="71"/>
       <c r="BI89" s="71"/>
@@ -29930,33 +30010,34 @@
       <c r="CB89" s="71"/>
       <c r="CC89" s="71"/>
       <c r="CD89" s="71"/>
-      <c r="CE89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF89" s="71"/>
+      <c r="CE89" s="71"/>
+      <c r="CF89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG89" s="71"/>
       <c r="CH89" s="71"/>
-      <c r="CI89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ89" s="71"/>
-      <c r="CK89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL89" s="71"/>
+      <c r="CI89" s="71"/>
+      <c r="CJ89" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK89" s="71"/>
+      <c r="CL89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM89" s="71"/>
       <c r="CN89" s="71"/>
       <c r="CO89" s="71"/>
-      <c r="CP89" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CQ89" s="71"/>
+      <c r="CP89" s="71"/>
+      <c r="CQ89" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CR89" s="71"/>
       <c r="CS89" s="71"/>
       <c r="CT89" s="71"/>
       <c r="CU89" s="71"/>
       <c r="CV89" s="71"/>
       <c r="CW89" s="71"/>
+      <c r="CX89" s="71"/>
     </row>
     <row r="90">
       <c r="A90" s="69" t="s">
@@ -29994,11 +30075,11 @@
       <c r="AE90" s="71"/>
       <c r="AF90" s="71"/>
       <c r="AG90" s="71"/>
-      <c r="AH90" s="71"/>
-      <c r="AI90" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ90" s="71"/>
+      <c r="AH90" s="66"/>
+      <c r="AI90" s="72"/>
+      <c r="AJ90" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AK90" s="71"/>
       <c r="AL90" s="71"/>
       <c r="AM90" s="71"/>
@@ -30064,6 +30145,7 @@
       <c r="CU90" s="71"/>
       <c r="CV90" s="71"/>
       <c r="CW90" s="71"/>
+      <c r="CX90" s="71"/>
     </row>
     <row r="91">
       <c r="A91" s="69" t="s">
@@ -30101,8 +30183,8 @@
       <c r="AE91" s="71"/>
       <c r="AF91" s="71"/>
       <c r="AG91" s="71"/>
-      <c r="AH91" s="71"/>
-      <c r="AI91" s="71"/>
+      <c r="AH91" s="66"/>
+      <c r="AI91" s="72"/>
       <c r="AJ91" s="71"/>
       <c r="AK91" s="71"/>
       <c r="AL91" s="71"/>
@@ -30169,6 +30251,7 @@
       <c r="CU91" s="71"/>
       <c r="CV91" s="71"/>
       <c r="CW91" s="71"/>
+      <c r="CX91" s="71"/>
     </row>
     <row r="92">
       <c r="A92" s="69" t="s">
@@ -30206,8 +30289,8 @@
       <c r="AE92" s="71"/>
       <c r="AF92" s="71"/>
       <c r="AG92" s="71"/>
-      <c r="AH92" s="71"/>
-      <c r="AI92" s="71"/>
+      <c r="AH92" s="66"/>
+      <c r="AI92" s="72"/>
       <c r="AJ92" s="71"/>
       <c r="AK92" s="71"/>
       <c r="AL92" s="71"/>
@@ -30274,6 +30357,7 @@
       <c r="CU92" s="71"/>
       <c r="CV92" s="71"/>
       <c r="CW92" s="71"/>
+      <c r="CX92" s="71"/>
     </row>
     <row r="93">
       <c r="A93" s="69" t="s">
@@ -30311,8 +30395,8 @@
       <c r="AE93" s="71"/>
       <c r="AF93" s="71"/>
       <c r="AG93" s="71"/>
-      <c r="AH93" s="71"/>
-      <c r="AI93" s="71"/>
+      <c r="AH93" s="66"/>
+      <c r="AI93" s="72"/>
       <c r="AJ93" s="71"/>
       <c r="AK93" s="71"/>
       <c r="AL93" s="71"/>
@@ -30379,6 +30463,7 @@
       <c r="CU93" s="71"/>
       <c r="CV93" s="71"/>
       <c r="CW93" s="71"/>
+      <c r="CX93" s="71"/>
     </row>
     <row r="94">
       <c r="A94" s="69" t="s">
@@ -30416,8 +30501,8 @@
       <c r="AE94" s="71"/>
       <c r="AF94" s="71"/>
       <c r="AG94" s="71"/>
-      <c r="AH94" s="71"/>
-      <c r="AI94" s="71"/>
+      <c r="AH94" s="66"/>
+      <c r="AI94" s="72"/>
       <c r="AJ94" s="71"/>
       <c r="AK94" s="71"/>
       <c r="AL94" s="71"/>
@@ -30484,6 +30569,7 @@
       <c r="CU94" s="71"/>
       <c r="CV94" s="71"/>
       <c r="CW94" s="71"/>
+      <c r="CX94" s="71"/>
     </row>
     <row r="95">
       <c r="A95" s="69" t="s">
@@ -30521,8 +30607,8 @@
       <c r="AE95" s="71"/>
       <c r="AF95" s="71"/>
       <c r="AG95" s="71"/>
-      <c r="AH95" s="71"/>
-      <c r="AI95" s="71"/>
+      <c r="AH95" s="66"/>
+      <c r="AI95" s="72"/>
       <c r="AJ95" s="71"/>
       <c r="AK95" s="71"/>
       <c r="AL95" s="71"/>
@@ -30589,6 +30675,7 @@
       <c r="CU95" s="71"/>
       <c r="CV95" s="71"/>
       <c r="CW95" s="71"/>
+      <c r="CX95" s="71"/>
     </row>
     <row r="96">
       <c r="A96" s="69" t="s">
@@ -30626,8 +30713,8 @@
       <c r="AE96" s="71"/>
       <c r="AF96" s="71"/>
       <c r="AG96" s="71"/>
-      <c r="AH96" s="71"/>
-      <c r="AI96" s="71"/>
+      <c r="AH96" s="66"/>
+      <c r="AI96" s="72"/>
       <c r="AJ96" s="71"/>
       <c r="AK96" s="71"/>
       <c r="AL96" s="71"/>
@@ -30694,6 +30781,7 @@
       <c r="CU96" s="71"/>
       <c r="CV96" s="71"/>
       <c r="CW96" s="71"/>
+      <c r="CX96" s="71"/>
     </row>
     <row r="97">
       <c r="A97" s="69" t="s">
@@ -30731,8 +30819,8 @@
       <c r="AE97" s="71"/>
       <c r="AF97" s="71"/>
       <c r="AG97" s="71"/>
-      <c r="AH97" s="71"/>
-      <c r="AI97" s="71"/>
+      <c r="AH97" s="66"/>
+      <c r="AI97" s="72"/>
       <c r="AJ97" s="71"/>
       <c r="AK97" s="71"/>
       <c r="AL97" s="71"/>
@@ -30799,6 +30887,7 @@
       <c r="CU97" s="71"/>
       <c r="CV97" s="71"/>
       <c r="CW97" s="71"/>
+      <c r="CX97" s="71"/>
     </row>
     <row r="98">
       <c r="A98" s="69" t="s">
@@ -30836,8 +30925,8 @@
       <c r="AE98" s="71"/>
       <c r="AF98" s="71"/>
       <c r="AG98" s="71"/>
-      <c r="AH98" s="71"/>
-      <c r="AI98" s="71"/>
+      <c r="AH98" s="66"/>
+      <c r="AI98" s="72"/>
       <c r="AJ98" s="71"/>
       <c r="AK98" s="71"/>
       <c r="AL98" s="71"/>
@@ -30891,10 +30980,10 @@
       <c r="CH98" s="71"/>
       <c r="CI98" s="71"/>
       <c r="CJ98" s="71"/>
-      <c r="CK98" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="CL98" s="71"/>
+      <c r="CK98" s="71"/>
+      <c r="CL98" s="72" t="s">
+        <v>277</v>
+      </c>
       <c r="CM98" s="71"/>
       <c r="CN98" s="71"/>
       <c r="CO98" s="71"/>
@@ -30906,6 +30995,7 @@
       <c r="CU98" s="71"/>
       <c r="CV98" s="71"/>
       <c r="CW98" s="71"/>
+      <c r="CX98" s="71"/>
     </row>
     <row r="99">
       <c r="A99" s="69" t="s">
@@ -30943,8 +31033,8 @@
       <c r="AE99" s="71"/>
       <c r="AF99" s="71"/>
       <c r="AG99" s="71"/>
-      <c r="AH99" s="71"/>
-      <c r="AI99" s="71"/>
+      <c r="AH99" s="66"/>
+      <c r="AI99" s="72"/>
       <c r="AJ99" s="71"/>
       <c r="AK99" s="71"/>
       <c r="AL99" s="71"/>
@@ -31011,6 +31101,7 @@
       <c r="CU99" s="71"/>
       <c r="CV99" s="71"/>
       <c r="CW99" s="71"/>
+      <c r="CX99" s="71"/>
     </row>
     <row r="100">
       <c r="A100" s="69" t="s">
@@ -31066,40 +31157,40 @@
       <c r="AE100" s="71"/>
       <c r="AF100" s="71"/>
       <c r="AG100" s="71"/>
-      <c r="AH100" s="71"/>
-      <c r="AI100" s="72" t="s">
-        <v>268</v>
-      </c>
+      <c r="AH100" s="66"/>
+      <c r="AI100" s="72"/>
       <c r="AJ100" s="72" t="s">
         <v>268</v>
       </c>
       <c r="AK100" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="AL100" s="71"/>
+      <c r="AL100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AM100" s="71"/>
       <c r="AN100" s="71"/>
-      <c r="AO100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP100" s="71"/>
+      <c r="AO100" s="71"/>
+      <c r="AP100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AQ100" s="71"/>
       <c r="AR100" s="71"/>
       <c r="AS100" s="71"/>
       <c r="AT100" s="71"/>
-      <c r="AU100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV100" s="71"/>
-      <c r="AW100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX100" s="71"/>
+      <c r="AU100" s="71"/>
+      <c r="AV100" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW100" s="71"/>
+      <c r="AX100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="AY100" s="71"/>
-      <c r="AZ100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA100" s="71"/>
+      <c r="AZ100" s="71"/>
+      <c r="BA100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BB100" s="71"/>
       <c r="BC100" s="71"/>
       <c r="BD100" s="71"/>
@@ -31108,18 +31199,18 @@
       <c r="BG100" s="71"/>
       <c r="BH100" s="71"/>
       <c r="BI100" s="71"/>
-      <c r="BJ100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK100" s="71"/>
+      <c r="BJ100" s="71"/>
+      <c r="BK100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BL100" s="71"/>
       <c r="BM100" s="71"/>
       <c r="BN100" s="71"/>
       <c r="BO100" s="71"/>
-      <c r="BP100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ100" s="71"/>
+      <c r="BP100" s="71"/>
+      <c r="BQ100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="BR100" s="71"/>
       <c r="BS100" s="71"/>
       <c r="BT100" s="71"/>
@@ -31133,20 +31224,20 @@
       <c r="CB100" s="71"/>
       <c r="CC100" s="71"/>
       <c r="CD100" s="71"/>
-      <c r="CE100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF100" s="71"/>
+      <c r="CE100" s="71"/>
+      <c r="CF100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CG100" s="71"/>
       <c r="CH100" s="71"/>
-      <c r="CI100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CJ100" s="71"/>
-      <c r="CK100" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="CL100" s="71"/>
+      <c r="CI100" s="71"/>
+      <c r="CJ100" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK100" s="71"/>
+      <c r="CL100" s="72" t="s">
+        <v>268</v>
+      </c>
       <c r="CM100" s="71"/>
       <c r="CN100" s="71"/>
       <c r="CO100" s="71"/>
@@ -31158,6 +31249,7 @@
       <c r="CU100" s="71"/>
       <c r="CV100" s="71"/>
       <c r="CW100" s="71"/>
+      <c r="CX100" s="71"/>
     </row>
     <row r="101">
       <c r="A101" s="69" t="s">
@@ -31195,8 +31287,8 @@
       <c r="AE101" s="71"/>
       <c r="AF101" s="71"/>
       <c r="AG101" s="71"/>
-      <c r="AH101" s="71"/>
-      <c r="AI101" s="71"/>
+      <c r="AH101" s="66"/>
+      <c r="AI101" s="72"/>
       <c r="AJ101" s="71"/>
       <c r="AK101" s="71"/>
       <c r="AL101" s="71"/>
@@ -31263,6 +31355,7 @@
       <c r="CU101" s="71"/>
       <c r="CV101" s="71"/>
       <c r="CW101" s="71"/>
+      <c r="CX101" s="71"/>
     </row>
     <row r="102">
       <c r="A102" s="69" t="s">
@@ -31300,8 +31393,8 @@
       <c r="AE102" s="71"/>
       <c r="AF102" s="71"/>
       <c r="AG102" s="71"/>
-      <c r="AH102" s="71"/>
-      <c r="AI102" s="71"/>
+      <c r="AH102" s="66"/>
+      <c r="AI102" s="72"/>
       <c r="AJ102" s="71"/>
       <c r="AK102" s="71"/>
       <c r="AL102" s="71"/>
@@ -31368,6 +31461,7 @@
       <c r="CU102" s="71"/>
       <c r="CV102" s="71"/>
       <c r="CW102" s="71"/>
+      <c r="CX102" s="71"/>
     </row>
     <row r="103">
       <c r="A103" s="69" t="s">
@@ -31405,8 +31499,8 @@
       <c r="AE103" s="71"/>
       <c r="AF103" s="71"/>
       <c r="AG103" s="71"/>
-      <c r="AH103" s="71"/>
-      <c r="AI103" s="71"/>
+      <c r="AH103" s="66"/>
+      <c r="AI103" s="72"/>
       <c r="AJ103" s="71"/>
       <c r="AK103" s="71"/>
       <c r="AL103" s="71"/>
@@ -31473,6 +31567,7 @@
       <c r="CU103" s="71"/>
       <c r="CV103" s="71"/>
       <c r="CW103" s="71"/>
+      <c r="CX103" s="71"/>
     </row>
     <row r="104">
       <c r="A104" s="69" t="s">
@@ -31510,8 +31605,8 @@
       <c r="AE104" s="71"/>
       <c r="AF104" s="71"/>
       <c r="AG104" s="71"/>
-      <c r="AH104" s="71"/>
-      <c r="AI104" s="71"/>
+      <c r="AH104" s="66"/>
+      <c r="AI104" s="72"/>
       <c r="AJ104" s="71"/>
       <c r="AK104" s="71"/>
       <c r="AL104" s="71"/>
@@ -31578,6 +31673,7 @@
       <c r="CU104" s="71"/>
       <c r="CV104" s="71"/>
       <c r="CW104" s="71"/>
+      <c r="CX104" s="71"/>
     </row>
     <row r="105">
       <c r="A105" s="69" t="s">
@@ -31615,8 +31711,8 @@
       <c r="AE105" s="71"/>
       <c r="AF105" s="71"/>
       <c r="AG105" s="71"/>
-      <c r="AH105" s="71"/>
-      <c r="AI105" s="71"/>
+      <c r="AH105" s="66"/>
+      <c r="AI105" s="72"/>
       <c r="AJ105" s="71"/>
       <c r="AK105" s="71"/>
       <c r="AL105" s="71"/>
@@ -31683,6 +31779,7 @@
       <c r="CU105" s="71"/>
       <c r="CV105" s="71"/>
       <c r="CW105" s="71"/>
+      <c r="CX105" s="71"/>
     </row>
     <row r="106">
       <c r="A106" s="69" t="s">
@@ -31724,8 +31821,8 @@
       <c r="AE106" s="71"/>
       <c r="AF106" s="71"/>
       <c r="AG106" s="71"/>
-      <c r="AH106" s="71"/>
-      <c r="AI106" s="71"/>
+      <c r="AH106" s="66"/>
+      <c r="AI106" s="72"/>
       <c r="AJ106" s="71"/>
       <c r="AK106" s="71"/>
       <c r="AL106" s="71"/>
@@ -31792,6 +31889,7 @@
       <c r="CU106" s="71"/>
       <c r="CV106" s="71"/>
       <c r="CW106" s="71"/>
+      <c r="CX106" s="71"/>
     </row>
     <row r="107">
       <c r="A107" s="69" t="s">
@@ -31829,8 +31927,8 @@
       <c r="AE107" s="71"/>
       <c r="AF107" s="71"/>
       <c r="AG107" s="71"/>
-      <c r="AH107" s="71"/>
-      <c r="AI107" s="71"/>
+      <c r="AH107" s="66"/>
+      <c r="AI107" s="72"/>
       <c r="AJ107" s="71"/>
       <c r="AK107" s="71"/>
       <c r="AL107" s="71"/>
@@ -31897,6 +31995,7 @@
       <c r="CU107" s="71"/>
       <c r="CV107" s="71"/>
       <c r="CW107" s="71"/>
+      <c r="CX107" s="71"/>
     </row>
     <row r="108">
       <c r="A108" s="69" t="s">
@@ -31934,8 +32033,8 @@
       <c r="AE108" s="71"/>
       <c r="AF108" s="71"/>
       <c r="AG108" s="71"/>
-      <c r="AH108" s="71"/>
-      <c r="AI108" s="71"/>
+      <c r="AH108" s="66"/>
+      <c r="AI108" s="72"/>
       <c r="AJ108" s="71"/>
       <c r="AK108" s="71"/>
       <c r="AL108" s="71"/>
@@ -32002,6 +32101,7 @@
       <c r="CU108" s="71"/>
       <c r="CV108" s="71"/>
       <c r="CW108" s="71"/>
+      <c r="CX108" s="71"/>
     </row>
     <row r="109">
       <c r="A109" s="69" t="s">
@@ -32039,8 +32139,8 @@
       <c r="AE109" s="71"/>
       <c r="AF109" s="71"/>
       <c r="AG109" s="71"/>
-      <c r="AH109" s="71"/>
-      <c r="AI109" s="71"/>
+      <c r="AH109" s="66"/>
+      <c r="AI109" s="72"/>
       <c r="AJ109" s="71"/>
       <c r="AK109" s="71"/>
       <c r="AL109" s="71"/>
@@ -32107,6 +32207,7 @@
       <c r="CU109" s="71"/>
       <c r="CV109" s="71"/>
       <c r="CW109" s="71"/>
+      <c r="CX109" s="71"/>
     </row>
     <row r="110">
       <c r="A110" s="69" t="s">
@@ -32144,8 +32245,8 @@
       <c r="AE110" s="71"/>
       <c r="AF110" s="71"/>
       <c r="AG110" s="71"/>
-      <c r="AH110" s="71"/>
-      <c r="AI110" s="71"/>
+      <c r="AH110" s="66"/>
+      <c r="AI110" s="72"/>
       <c r="AJ110" s="71"/>
       <c r="AK110" s="71"/>
       <c r="AL110" s="71"/>
@@ -32212,6 +32313,7 @@
       <c r="CU110" s="71"/>
       <c r="CV110" s="71"/>
       <c r="CW110" s="71"/>
+      <c r="CX110" s="71"/>
     </row>
     <row r="111">
       <c r="A111" s="69" t="s">
@@ -32249,8 +32351,8 @@
       <c r="AE111" s="71"/>
       <c r="AF111" s="71"/>
       <c r="AG111" s="71"/>
-      <c r="AH111" s="71"/>
-      <c r="AI111" s="71"/>
+      <c r="AH111" s="66"/>
+      <c r="AI111" s="72"/>
       <c r="AJ111" s="71"/>
       <c r="AK111" s="71"/>
       <c r="AL111" s="71"/>
@@ -32317,6 +32419,7 @@
       <c r="CU111" s="71"/>
       <c r="CV111" s="71"/>
       <c r="CW111" s="71"/>
+      <c r="CX111" s="71"/>
     </row>
     <row r="112">
       <c r="A112" s="69" t="s">
@@ -32354,8 +32457,8 @@
       <c r="AE112" s="71"/>
       <c r="AF112" s="71"/>
       <c r="AG112" s="71"/>
-      <c r="AH112" s="71"/>
-      <c r="AI112" s="71"/>
+      <c r="AH112" s="66"/>
+      <c r="AI112" s="72"/>
       <c r="AJ112" s="71"/>
       <c r="AK112" s="71"/>
       <c r="AL112" s="71"/>
@@ -32422,6 +32525,7 @@
       <c r="CU112" s="71"/>
       <c r="CV112" s="71"/>
       <c r="CW112" s="71"/>
+      <c r="CX112" s="71"/>
     </row>
     <row r="113">
       <c r="A113" s="69" t="s">
@@ -32459,8 +32563,8 @@
       <c r="AE113" s="71"/>
       <c r="AF113" s="71"/>
       <c r="AG113" s="71"/>
-      <c r="AH113" s="71"/>
-      <c r="AI113" s="71"/>
+      <c r="AH113" s="66"/>
+      <c r="AI113" s="72"/>
       <c r="AJ113" s="71"/>
       <c r="AK113" s="71"/>
       <c r="AL113" s="71"/>
@@ -32527,6 +32631,7 @@
       <c r="CU113" s="71"/>
       <c r="CV113" s="71"/>
       <c r="CW113" s="71"/>
+      <c r="CX113" s="71"/>
     </row>
     <row r="114">
       <c r="A114" s="69" t="s">
@@ -32564,8 +32669,8 @@
       <c r="AE114" s="71"/>
       <c r="AF114" s="71"/>
       <c r="AG114" s="71"/>
-      <c r="AH114" s="71"/>
-      <c r="AI114" s="71"/>
+      <c r="AH114" s="66"/>
+      <c r="AI114" s="72"/>
       <c r="AJ114" s="71"/>
       <c r="AK114" s="71"/>
       <c r="AL114" s="71"/>
@@ -32632,6 +32737,7 @@
       <c r="CU114" s="71"/>
       <c r="CV114" s="71"/>
       <c r="CW114" s="71"/>
+      <c r="CX114" s="71"/>
     </row>
     <row r="115">
       <c r="A115" s="69" t="s">
@@ -32669,8 +32775,8 @@
       <c r="AE115" s="71"/>
       <c r="AF115" s="71"/>
       <c r="AG115" s="71"/>
-      <c r="AH115" s="71"/>
-      <c r="AI115" s="71"/>
+      <c r="AH115" s="66"/>
+      <c r="AI115" s="72"/>
       <c r="AJ115" s="71"/>
       <c r="AK115" s="71"/>
       <c r="AL115" s="71"/>
@@ -32737,6 +32843,7 @@
       <c r="CU115" s="71"/>
       <c r="CV115" s="71"/>
       <c r="CW115" s="71"/>
+      <c r="CX115" s="71"/>
     </row>
     <row r="116">
       <c r="A116" s="69" t="s">
@@ -32774,8 +32881,8 @@
       <c r="AE116" s="71"/>
       <c r="AF116" s="71"/>
       <c r="AG116" s="71"/>
-      <c r="AH116" s="71"/>
-      <c r="AI116" s="71"/>
+      <c r="AH116" s="66"/>
+      <c r="AI116" s="72"/>
       <c r="AJ116" s="71"/>
       <c r="AK116" s="71"/>
       <c r="AL116" s="71"/>
@@ -32842,6 +32949,7 @@
       <c r="CU116" s="71"/>
       <c r="CV116" s="71"/>
       <c r="CW116" s="71"/>
+      <c r="CX116" s="71"/>
     </row>
     <row r="117">
       <c r="A117" s="69" t="s">
@@ -32879,8 +32987,8 @@
       <c r="AE117" s="71"/>
       <c r="AF117" s="71"/>
       <c r="AG117" s="71"/>
-      <c r="AH117" s="71"/>
-      <c r="AI117" s="71"/>
+      <c r="AH117" s="66"/>
+      <c r="AI117" s="72"/>
       <c r="AJ117" s="71"/>
       <c r="AK117" s="71"/>
       <c r="AL117" s="71"/>
@@ -32947,6 +33055,7 @@
       <c r="CU117" s="71"/>
       <c r="CV117" s="71"/>
       <c r="CW117" s="71"/>
+      <c r="CX117" s="71"/>
     </row>
     <row r="118">
       <c r="A118" s="69" t="s">
@@ -32984,8 +33093,8 @@
       <c r="AE118" s="71"/>
       <c r="AF118" s="71"/>
       <c r="AG118" s="71"/>
-      <c r="AH118" s="71"/>
-      <c r="AI118" s="71"/>
+      <c r="AH118" s="66"/>
+      <c r="AI118" s="72"/>
       <c r="AJ118" s="71"/>
       <c r="AK118" s="71"/>
       <c r="AL118" s="71"/>
@@ -33052,6 +33161,7 @@
       <c r="CU118" s="71"/>
       <c r="CV118" s="71"/>
       <c r="CW118" s="71"/>
+      <c r="CX118" s="71"/>
     </row>
     <row r="119">
       <c r="A119" s="69" t="s">
@@ -33089,8 +33199,8 @@
       <c r="AE119" s="71"/>
       <c r="AF119" s="71"/>
       <c r="AG119" s="71"/>
-      <c r="AH119" s="71"/>
-      <c r="AI119" s="71"/>
+      <c r="AH119" s="66"/>
+      <c r="AI119" s="72"/>
       <c r="AJ119" s="71"/>
       <c r="AK119" s="71"/>
       <c r="AL119" s="71"/>
@@ -33157,6 +33267,7 @@
       <c r="CU119" s="71"/>
       <c r="CV119" s="71"/>
       <c r="CW119" s="71"/>
+      <c r="CX119" s="71"/>
     </row>
     <row r="120">
       <c r="A120" s="69" t="s">
@@ -33194,8 +33305,8 @@
       <c r="AE120" s="71"/>
       <c r="AF120" s="71"/>
       <c r="AG120" s="71"/>
-      <c r="AH120" s="71"/>
-      <c r="AI120" s="71"/>
+      <c r="AH120" s="66"/>
+      <c r="AI120" s="72"/>
       <c r="AJ120" s="71"/>
       <c r="AK120" s="71"/>
       <c r="AL120" s="71"/>
@@ -33262,6 +33373,7 @@
       <c r="CU120" s="71"/>
       <c r="CV120" s="71"/>
       <c r="CW120" s="71"/>
+      <c r="CX120" s="71"/>
     </row>
     <row r="121">
       <c r="A121" s="69" t="s">
@@ -33299,8 +33411,8 @@
       <c r="AE121" s="71"/>
       <c r="AF121" s="71"/>
       <c r="AG121" s="71"/>
-      <c r="AH121" s="71"/>
-      <c r="AI121" s="71"/>
+      <c r="AH121" s="66"/>
+      <c r="AI121" s="72"/>
       <c r="AJ121" s="71"/>
       <c r="AK121" s="71"/>
       <c r="AL121" s="71"/>
@@ -33367,6 +33479,7 @@
       <c r="CU121" s="71"/>
       <c r="CV121" s="71"/>
       <c r="CW121" s="71"/>
+      <c r="CX121" s="71"/>
     </row>
     <row r="122">
       <c r="A122" s="69" t="s">
@@ -33404,8 +33517,8 @@
       <c r="AE122" s="71"/>
       <c r="AF122" s="71"/>
       <c r="AG122" s="71"/>
-      <c r="AH122" s="71"/>
-      <c r="AI122" s="71"/>
+      <c r="AH122" s="66"/>
+      <c r="AI122" s="72"/>
       <c r="AJ122" s="71"/>
       <c r="AK122" s="71"/>
       <c r="AL122" s="71"/>
@@ -33472,6 +33585,7 @@
       <c r="CU122" s="71"/>
       <c r="CV122" s="71"/>
       <c r="CW122" s="71"/>
+      <c r="CX122" s="71"/>
     </row>
     <row r="123">
       <c r="A123" s="69" t="s">
@@ -33509,8 +33623,8 @@
       <c r="AE123" s="71"/>
       <c r="AF123" s="71"/>
       <c r="AG123" s="71"/>
-      <c r="AH123" s="71"/>
-      <c r="AI123" s="71"/>
+      <c r="AH123" s="66"/>
+      <c r="AI123" s="72"/>
       <c r="AJ123" s="71"/>
       <c r="AK123" s="71"/>
       <c r="AL123" s="71"/>
@@ -33577,6 +33691,7 @@
       <c r="CU123" s="71"/>
       <c r="CV123" s="71"/>
       <c r="CW123" s="71"/>
+      <c r="CX123" s="71"/>
     </row>
     <row r="124">
       <c r="A124" s="69" t="s">
@@ -33614,8 +33729,8 @@
       <c r="AE124" s="71"/>
       <c r="AF124" s="71"/>
       <c r="AG124" s="71"/>
-      <c r="AH124" s="71"/>
-      <c r="AI124" s="71"/>
+      <c r="AH124" s="66"/>
+      <c r="AI124" s="72"/>
       <c r="AJ124" s="71"/>
       <c r="AK124" s="71"/>
       <c r="AL124" s="71"/>
@@ -33682,6 +33797,7 @@
       <c r="CU124" s="71"/>
       <c r="CV124" s="71"/>
       <c r="CW124" s="71"/>
+      <c r="CX124" s="71"/>
     </row>
     <row r="125">
       <c r="A125" s="69" t="s">
@@ -33719,8 +33835,8 @@
       <c r="AE125" s="71"/>
       <c r="AF125" s="71"/>
       <c r="AG125" s="71"/>
-      <c r="AH125" s="71"/>
-      <c r="AI125" s="71"/>
+      <c r="AH125" s="66"/>
+      <c r="AI125" s="72"/>
       <c r="AJ125" s="71"/>
       <c r="AK125" s="71"/>
       <c r="AL125" s="71"/>
@@ -33787,6 +33903,7 @@
       <c r="CU125" s="71"/>
       <c r="CV125" s="71"/>
       <c r="CW125" s="71"/>
+      <c r="CX125" s="71"/>
     </row>
     <row r="126">
       <c r="A126" s="69" t="s">
@@ -33824,8 +33941,8 @@
       <c r="AE126" s="71"/>
       <c r="AF126" s="71"/>
       <c r="AG126" s="71"/>
-      <c r="AH126" s="71"/>
-      <c r="AI126" s="71"/>
+      <c r="AH126" s="66"/>
+      <c r="AI126" s="72"/>
       <c r="AJ126" s="71"/>
       <c r="AK126" s="71"/>
       <c r="AL126" s="71"/>
@@ -33892,6 +34009,7 @@
       <c r="CU126" s="71"/>
       <c r="CV126" s="71"/>
       <c r="CW126" s="71"/>
+      <c r="CX126" s="71"/>
     </row>
     <row r="127">
       <c r="A127" s="69" t="s">
@@ -33929,8 +34047,8 @@
       <c r="AE127" s="71"/>
       <c r="AF127" s="71"/>
       <c r="AG127" s="71"/>
-      <c r="AH127" s="71"/>
-      <c r="AI127" s="71"/>
+      <c r="AH127" s="66"/>
+      <c r="AI127" s="72"/>
       <c r="AJ127" s="71"/>
       <c r="AK127" s="71"/>
       <c r="AL127" s="71"/>
@@ -33997,6 +34115,7 @@
       <c r="CU127" s="71"/>
       <c r="CV127" s="71"/>
       <c r="CW127" s="71"/>
+      <c r="CX127" s="71"/>
     </row>
     <row r="128">
       <c r="A128" s="69" t="s">
@@ -34034,8 +34153,8 @@
       <c r="AE128" s="71"/>
       <c r="AF128" s="71"/>
       <c r="AG128" s="71"/>
-      <c r="AH128" s="71"/>
-      <c r="AI128" s="71"/>
+      <c r="AH128" s="66"/>
+      <c r="AI128" s="72"/>
       <c r="AJ128" s="71"/>
       <c r="AK128" s="71"/>
       <c r="AL128" s="71"/>
@@ -34102,6 +34221,7 @@
       <c r="CU128" s="71"/>
       <c r="CV128" s="71"/>
       <c r="CW128" s="71"/>
+      <c r="CX128" s="71"/>
     </row>
     <row r="129">
       <c r="A129" s="69" t="s">
@@ -34139,8 +34259,8 @@
       <c r="AE129" s="71"/>
       <c r="AF129" s="71"/>
       <c r="AG129" s="71"/>
-      <c r="AH129" s="71"/>
-      <c r="AI129" s="71"/>
+      <c r="AH129" s="66"/>
+      <c r="AI129" s="72"/>
       <c r="AJ129" s="71"/>
       <c r="AK129" s="71"/>
       <c r="AL129" s="71"/>
@@ -34207,6 +34327,7 @@
       <c r="CU129" s="71"/>
       <c r="CV129" s="71"/>
       <c r="CW129" s="71"/>
+      <c r="CX129" s="71"/>
     </row>
     <row r="130">
       <c r="A130" s="69" t="s">
@@ -34244,8 +34365,8 @@
       <c r="AE130" s="71"/>
       <c r="AF130" s="71"/>
       <c r="AG130" s="71"/>
-      <c r="AH130" s="71"/>
-      <c r="AI130" s="71"/>
+      <c r="AH130" s="66"/>
+      <c r="AI130" s="72"/>
       <c r="AJ130" s="71"/>
       <c r="AK130" s="71"/>
       <c r="AL130" s="71"/>
@@ -34312,6 +34433,7 @@
       <c r="CU130" s="71"/>
       <c r="CV130" s="71"/>
       <c r="CW130" s="71"/>
+      <c r="CX130" s="71"/>
     </row>
     <row r="131">
       <c r="A131" s="69" t="s">
@@ -34349,8 +34471,8 @@
       <c r="AE131" s="71"/>
       <c r="AF131" s="71"/>
       <c r="AG131" s="71"/>
-      <c r="AH131" s="71"/>
-      <c r="AI131" s="71"/>
+      <c r="AH131" s="66"/>
+      <c r="AI131" s="72"/>
       <c r="AJ131" s="71"/>
       <c r="AK131" s="71"/>
       <c r="AL131" s="71"/>
@@ -34417,6 +34539,7 @@
       <c r="CU131" s="71"/>
       <c r="CV131" s="71"/>
       <c r="CW131" s="71"/>
+      <c r="CX131" s="71"/>
     </row>
     <row r="132">
       <c r="A132" s="69" t="s">
@@ -34454,8 +34577,8 @@
       <c r="AE132" s="71"/>
       <c r="AF132" s="71"/>
       <c r="AG132" s="71"/>
-      <c r="AH132" s="71"/>
-      <c r="AI132" s="71"/>
+      <c r="AH132" s="66"/>
+      <c r="AI132" s="72"/>
       <c r="AJ132" s="71"/>
       <c r="AK132" s="71"/>
       <c r="AL132" s="71"/>
@@ -34522,6 +34645,7 @@
       <c r="CU132" s="71"/>
       <c r="CV132" s="71"/>
       <c r="CW132" s="71"/>
+      <c r="CX132" s="71"/>
     </row>
     <row r="133">
       <c r="A133" s="69" t="s">
@@ -34559,8 +34683,8 @@
       <c r="AE133" s="71"/>
       <c r="AF133" s="71"/>
       <c r="AG133" s="71"/>
-      <c r="AH133" s="71"/>
-      <c r="AI133" s="71"/>
+      <c r="AH133" s="66"/>
+      <c r="AI133" s="72"/>
       <c r="AJ133" s="71"/>
       <c r="AK133" s="71"/>
       <c r="AL133" s="71"/>
@@ -34627,6 +34751,7 @@
       <c r="CU133" s="71"/>
       <c r="CV133" s="71"/>
       <c r="CW133" s="71"/>
+      <c r="CX133" s="71"/>
     </row>
     <row r="134">
       <c r="A134" s="69" t="s">
@@ -34664,8 +34789,8 @@
       <c r="AE134" s="71"/>
       <c r="AF134" s="71"/>
       <c r="AG134" s="71"/>
-      <c r="AH134" s="71"/>
-      <c r="AI134" s="71"/>
+      <c r="AH134" s="66"/>
+      <c r="AI134" s="72"/>
       <c r="AJ134" s="71"/>
       <c r="AK134" s="71"/>
       <c r="AL134" s="71"/>
@@ -34732,6 +34857,7 @@
       <c r="CU134" s="71"/>
       <c r="CV134" s="71"/>
       <c r="CW134" s="71"/>
+      <c r="CX134" s="71"/>
     </row>
     <row r="135">
       <c r="A135" s="69" t="s">
@@ -34769,8 +34895,8 @@
       <c r="AE135" s="71"/>
       <c r="AF135" s="71"/>
       <c r="AG135" s="71"/>
-      <c r="AH135" s="71"/>
-      <c r="AI135" s="71"/>
+      <c r="AH135" s="66"/>
+      <c r="AI135" s="72"/>
       <c r="AJ135" s="71"/>
       <c r="AK135" s="71"/>
       <c r="AL135" s="71"/>
@@ -34837,6 +34963,7 @@
       <c r="CU135" s="71"/>
       <c r="CV135" s="71"/>
       <c r="CW135" s="71"/>
+      <c r="CX135" s="71"/>
     </row>
     <row r="136">
       <c r="A136" s="69" t="s">
@@ -34874,8 +35001,8 @@
       <c r="AE136" s="71"/>
       <c r="AF136" s="71"/>
       <c r="AG136" s="73"/>
-      <c r="AH136" s="71"/>
-      <c r="AI136" s="71"/>
+      <c r="AH136" s="66"/>
+      <c r="AI136" s="72"/>
       <c r="AJ136" s="71"/>
       <c r="AK136" s="71"/>
       <c r="AL136" s="71"/>
@@ -34919,14 +35046,14 @@
       <c r="BX136" s="71"/>
       <c r="BY136" s="71"/>
       <c r="BZ136" s="71"/>
-      <c r="CA136" s="73"/>
-      <c r="CB136" s="71"/>
+      <c r="CA136" s="71"/>
+      <c r="CB136" s="73"/>
       <c r="CC136" s="71"/>
       <c r="CD136" s="71"/>
       <c r="CE136" s="71"/>
       <c r="CF136" s="71"/>
-      <c r="CG136" s="73"/>
-      <c r="CH136" s="71"/>
+      <c r="CG136" s="71"/>
+      <c r="CH136" s="73"/>
       <c r="CI136" s="71"/>
       <c r="CJ136" s="71"/>
       <c r="CK136" s="71"/>
@@ -34942,6 +35069,7 @@
       <c r="CU136" s="71"/>
       <c r="CV136" s="71"/>
       <c r="CW136" s="71"/>
+      <c r="CX136" s="71"/>
     </row>
     <row r="137">
       <c r="A137" s="70"/>
@@ -34977,8 +35105,8 @@
       <c r="AE137" s="70"/>
       <c r="AF137" s="70"/>
       <c r="AG137" s="70"/>
-      <c r="AH137" s="70"/>
-      <c r="AI137" s="70"/>
+      <c r="AH137" s="66"/>
+      <c r="AI137" s="72"/>
       <c r="AJ137" s="70"/>
       <c r="AK137" s="70"/>
       <c r="AL137" s="70"/>
@@ -35023,14 +35151,14 @@
       <c r="BY137" s="70"/>
       <c r="BZ137" s="70"/>
       <c r="CA137" s="70"/>
-      <c r="CB137" s="71"/>
-      <c r="CC137" s="70"/>
+      <c r="CB137" s="70"/>
+      <c r="CC137" s="71"/>
       <c r="CD137" s="70"/>
       <c r="CE137" s="70"/>
       <c r="CF137" s="70"/>
       <c r="CG137" s="70"/>
-      <c r="CH137" s="71"/>
-      <c r="CI137" s="70"/>
+      <c r="CH137" s="70"/>
+      <c r="CI137" s="71"/>
       <c r="CJ137" s="70"/>
       <c r="CK137" s="70"/>
       <c r="CL137" s="70"/>
@@ -35045,6 +35173,7 @@
       <c r="CU137" s="70"/>
       <c r="CV137" s="70"/>
       <c r="CW137" s="70"/>
+      <c r="CX137" s="70"/>
     </row>
     <row r="138">
       <c r="A138" s="66"/>
@@ -35148,6 +35277,7 @@
       <c r="CU138" s="66"/>
       <c r="CV138" s="66"/>
       <c r="CW138" s="66"/>
+      <c r="CX138" s="66"/>
     </row>
     <row r="139">
       <c r="A139" s="66"/>
@@ -35251,6 +35381,7 @@
       <c r="CU139" s="66"/>
       <c r="CV139" s="66"/>
       <c r="CW139" s="66"/>
+      <c r="CX139" s="66"/>
     </row>
     <row r="140">
       <c r="A140" s="66"/>
@@ -35354,6 +35485,7 @@
       <c r="CU140" s="66"/>
       <c r="CV140" s="66"/>
       <c r="CW140" s="66"/>
+      <c r="CX140" s="66"/>
     </row>
     <row r="141">
       <c r="A141" s="66"/>
@@ -35457,6 +35589,7 @@
       <c r="CU141" s="66"/>
       <c r="CV141" s="66"/>
       <c r="CW141" s="66"/>
+      <c r="CX141" s="66"/>
     </row>
     <row r="142">
       <c r="A142" s="66"/>
@@ -35560,6 +35693,7 @@
       <c r="CU142" s="66"/>
       <c r="CV142" s="66"/>
       <c r="CW142" s="66"/>
+      <c r="CX142" s="66"/>
     </row>
     <row r="143">
       <c r="A143" s="66"/>
@@ -35663,6 +35797,52 @@
       <c r="CU143" s="66"/>
       <c r="CV143" s="66"/>
       <c r="CW143" s="66"/>
+      <c r="CX143" s="66"/>
+    </row>
+    <row r="144">
+      <c r="AH144" s="66"/>
+    </row>
+    <row r="145">
+      <c r="AH145" s="66"/>
+    </row>
+    <row r="146">
+      <c r="AH146" s="66"/>
+    </row>
+    <row r="147">
+      <c r="AH147" s="66"/>
+    </row>
+    <row r="148">
+      <c r="AH148" s="66"/>
+    </row>
+    <row r="149">
+      <c r="AH149" s="66"/>
+    </row>
+    <row r="150">
+      <c r="AH150" s="66"/>
+    </row>
+    <row r="151">
+      <c r="AH151" s="66"/>
+    </row>
+    <row r="152">
+      <c r="AH152" s="66"/>
+    </row>
+    <row r="153">
+      <c r="AH153" s="66"/>
+    </row>
+    <row r="154">
+      <c r="AH154" s="66"/>
+    </row>
+    <row r="155">
+      <c r="AH155" s="66"/>
+    </row>
+    <row r="156">
+      <c r="AH156" s="66"/>
+    </row>
+    <row r="157">
+      <c r="AH157" s="66"/>
+    </row>
+    <row r="158">
+      <c r="AH158" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35689,17 +35869,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
@@ -35715,42 +35895,42 @@
     </row>
     <row r="6">
       <c r="A6" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="294">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>PTH-450</t>
+  </si>
+  <si>
+    <t>L0 P1 B2</t>
+  </si>
+  <si>
+    <t>L2 D2</t>
   </si>
   <si>
     <t>PTK-450</t>
@@ -9384,7 +9390,9 @@
       <c r="F77" s="20"/>
       <c r="G77" s="14"/>
       <c r="H77" s="20"/>
-      <c r="I77" s="18"/>
+      <c r="I77" s="53" t="s">
+        <v>199</v>
+      </c>
       <c r="J77" s="18"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -9428,7 +9436,9 @@
       <c r="AX77" s="20"/>
       <c r="AY77" s="20"/>
       <c r="AZ77" s="20"/>
-      <c r="BA77" s="20"/>
+      <c r="BA77" s="60" t="s">
+        <v>200</v>
+      </c>
       <c r="BB77" s="20"/>
       <c r="BC77" s="20"/>
       <c r="BD77" s="20"/>
@@ -9481,7 +9491,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -9536,7 +9546,7 @@
       <c r="AX78" s="20"/>
       <c r="AY78" s="20"/>
       <c r="AZ78" s="20"/>
-      <c r="BA78" s="20"/>
+      <c r="BA78" s="18"/>
       <c r="BB78" s="20"/>
       <c r="BC78" s="20"/>
       <c r="BD78" s="20"/>
@@ -9589,7 +9599,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -9646,7 +9656,7 @@
       <c r="AX79" s="20"/>
       <c r="AY79" s="20"/>
       <c r="AZ79" s="20"/>
-      <c r="BA79" s="20"/>
+      <c r="BA79" s="18"/>
       <c r="BB79" s="20"/>
       <c r="BC79" s="20"/>
       <c r="BD79" s="20"/>
@@ -9699,7 +9709,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -9709,14 +9719,14 @@
       <c r="G80" s="14"/>
       <c r="H80" s="20"/>
       <c r="I80" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K80" s="18"/>
       <c r="L80" s="53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M80" s="60" t="s">
         <v>188</v>
@@ -9760,7 +9770,7 @@
       <c r="AX80" s="20"/>
       <c r="AY80" s="20"/>
       <c r="AZ80" s="20"/>
-      <c r="BA80" s="20"/>
+      <c r="BA80" s="18"/>
       <c r="BB80" s="20"/>
       <c r="BC80" s="20"/>
       <c r="BD80" s="20"/>
@@ -9813,7 +9823,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9823,7 +9833,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="20"/>
       <c r="I81" s="53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J81" s="18"/>
       <c r="K81" s="60" t="s">
@@ -9874,7 +9884,7 @@
       <c r="AX81" s="20"/>
       <c r="AY81" s="20"/>
       <c r="AZ81" s="20"/>
-      <c r="BA81" s="20"/>
+      <c r="BA81" s="18"/>
       <c r="BB81" s="20"/>
       <c r="BC81" s="20"/>
       <c r="BD81" s="20"/>
@@ -9927,7 +9937,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -9939,13 +9949,13 @@
         <v>195</v>
       </c>
       <c r="I82" s="53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J82" s="53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L82" s="18"/>
       <c r="M82" s="30"/>
@@ -9973,10 +9983,10 @@
       <c r="AI82" s="20"/>
       <c r="AJ82" s="36"/>
       <c r="AK82" s="61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL82" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM82" s="20"/>
       <c r="AN82" s="20"/>
@@ -10045,7 +10055,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -10151,7 +10161,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -10259,7 +10269,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -10365,7 +10375,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -10377,16 +10387,16 @@
         <v>195</v>
       </c>
       <c r="I86" s="53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J86" s="53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L86" s="53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M86" s="30"/>
       <c r="N86" s="30"/>
@@ -10413,10 +10423,10 @@
       <c r="AI86" s="20"/>
       <c r="AJ86" s="36"/>
       <c r="AK86" s="61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL86" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM86" s="20"/>
       <c r="AN86" s="20"/>
@@ -10485,7 +10495,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -10591,7 +10601,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -10697,7 +10707,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -10803,7 +10813,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -10909,7 +10919,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -11015,7 +11025,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -11121,7 +11131,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -11227,7 +11237,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -11333,7 +11343,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -11439,7 +11449,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -11545,7 +11555,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -11651,7 +11661,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -11757,7 +11767,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -11863,7 +11873,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -11969,7 +11979,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -12075,7 +12085,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -12181,7 +12191,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -12287,7 +12297,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -12393,7 +12403,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -12499,7 +12509,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -12605,7 +12615,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -12711,7 +12721,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -12817,7 +12827,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -12923,7 +12933,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -13029,7 +13039,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -13135,7 +13145,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -13241,7 +13251,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -13347,7 +13357,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -13453,7 +13463,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -13559,7 +13569,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -13665,7 +13675,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -13771,7 +13781,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -13877,7 +13887,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -13983,7 +13993,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -14089,7 +14099,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -14195,7 +14205,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -14301,7 +14311,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -14407,7 +14417,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -14513,7 +14523,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -14619,7 +14629,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -14725,7 +14735,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -14831,7 +14841,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -14937,7 +14947,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -15043,7 +15053,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -15149,7 +15159,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -15255,7 +15265,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -15361,7 +15371,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -15467,7 +15477,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
@@ -15573,7 +15583,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -15679,7 +15689,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
@@ -15785,7 +15795,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
@@ -15891,7 +15901,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
@@ -15997,7 +16007,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
@@ -16103,7 +16113,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
@@ -16209,7 +16219,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="42" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
@@ -19674,7 +19684,7 @@
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="V1" s="65"/>
       <c r="W1" s="65"/>
@@ -19766,7 +19776,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V2" s="67"/>
       <c r="W2" s="67"/>
@@ -19947,7 +19957,7 @@
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
       <c r="H4" s="65" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="V4" s="65"/>
       <c r="W4" s="65"/>
@@ -20557,30 +20567,30 @@
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
       <c r="I8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L8" s="71"/>
       <c r="M8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O8" s="71"/>
       <c r="P8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="71"/>
       <c r="S8" s="71"/>
       <c r="T8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U8" s="71"/>
       <c r="V8" s="71"/>
@@ -20598,19 +20608,19 @@
       <c r="AH8" s="66"/>
       <c r="AI8" s="72"/>
       <c r="AJ8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM8" s="71"/>
       <c r="AN8" s="71"/>
       <c r="AO8" s="71"/>
       <c r="AP8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ8" s="71"/>
       <c r="AR8" s="71"/>
@@ -20618,30 +20628,30 @@
       <c r="AT8" s="71"/>
       <c r="AU8" s="71"/>
       <c r="AV8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW8" s="71"/>
       <c r="AX8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY8" s="71"/>
       <c r="AZ8" s="71"/>
       <c r="BA8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB8" s="71"/>
       <c r="BC8" s="71"/>
       <c r="BD8" s="71"/>
       <c r="BE8" s="71"/>
       <c r="BF8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG8" s="71"/>
       <c r="BH8" s="71"/>
       <c r="BI8" s="71"/>
       <c r="BJ8" s="71"/>
       <c r="BK8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL8" s="71"/>
       <c r="BM8" s="71"/>
@@ -20649,7 +20659,7 @@
       <c r="BO8" s="71"/>
       <c r="BP8" s="71"/>
       <c r="BQ8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR8" s="71"/>
       <c r="BS8" s="71"/>
@@ -20666,24 +20676,24 @@
       <c r="CD8" s="71"/>
       <c r="CE8" s="71"/>
       <c r="CF8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG8" s="71"/>
       <c r="CH8" s="71"/>
       <c r="CI8" s="71"/>
       <c r="CJ8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK8" s="71"/>
       <c r="CL8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM8" s="71"/>
       <c r="CN8" s="71"/>
       <c r="CO8" s="71"/>
       <c r="CP8" s="71"/>
       <c r="CQ8" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR8" s="71"/>
       <c r="CS8" s="71"/>
@@ -21056,7 +21066,7 @@
       <c r="AN12" s="71"/>
       <c r="AO12" s="71"/>
       <c r="AP12" s="72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AQ12" s="71"/>
       <c r="AR12" s="71"/>
@@ -21130,31 +21140,31 @@
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
       <c r="H13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71"/>
       <c r="K13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L13" s="71"/>
       <c r="M13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O13" s="71"/>
       <c r="P13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R13" s="71"/>
       <c r="S13" s="71"/>
       <c r="T13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U13" s="71"/>
       <c r="V13" s="71"/>
@@ -21172,19 +21182,19 @@
       <c r="AH13" s="66"/>
       <c r="AI13" s="72"/>
       <c r="AJ13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM13" s="71"/>
       <c r="AN13" s="71"/>
       <c r="AO13" s="71"/>
       <c r="AP13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ13" s="71"/>
       <c r="AR13" s="71"/>
@@ -21192,30 +21202,30 @@
       <c r="AT13" s="71"/>
       <c r="AU13" s="71"/>
       <c r="AV13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW13" s="71"/>
       <c r="AX13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY13" s="71"/>
       <c r="AZ13" s="71"/>
       <c r="BA13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB13" s="71"/>
       <c r="BC13" s="71"/>
       <c r="BD13" s="71"/>
       <c r="BE13" s="71"/>
       <c r="BF13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG13" s="71"/>
       <c r="BH13" s="71"/>
       <c r="BI13" s="71"/>
       <c r="BJ13" s="71"/>
       <c r="BK13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL13" s="71"/>
       <c r="BM13" s="71"/>
@@ -21223,7 +21233,7 @@
       <c r="BO13" s="71"/>
       <c r="BP13" s="71"/>
       <c r="BQ13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR13" s="71"/>
       <c r="BS13" s="71"/>
@@ -21240,24 +21250,24 @@
       <c r="CD13" s="71"/>
       <c r="CE13" s="71"/>
       <c r="CF13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG13" s="71"/>
       <c r="CH13" s="71"/>
       <c r="CI13" s="71"/>
       <c r="CJ13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK13" s="71"/>
       <c r="CL13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM13" s="71"/>
       <c r="CN13" s="71"/>
       <c r="CO13" s="71"/>
       <c r="CP13" s="71"/>
       <c r="CQ13" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR13" s="71"/>
       <c r="CS13" s="71"/>
@@ -21490,13 +21500,13 @@
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
       <c r="H16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -21508,7 +21518,7 @@
       <c r="R16" s="71"/>
       <c r="S16" s="71"/>
       <c r="T16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U16" s="71"/>
       <c r="V16" s="71"/>
@@ -21526,19 +21536,19 @@
       <c r="AH16" s="66"/>
       <c r="AI16" s="72"/>
       <c r="AJ16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM16" s="71"/>
       <c r="AN16" s="71"/>
       <c r="AO16" s="71"/>
       <c r="AP16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ16" s="71"/>
       <c r="AR16" s="71"/>
@@ -21546,30 +21556,30 @@
       <c r="AT16" s="71"/>
       <c r="AU16" s="71"/>
       <c r="AV16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW16" s="71"/>
       <c r="AX16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY16" s="71"/>
       <c r="AZ16" s="71"/>
       <c r="BA16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB16" s="71"/>
       <c r="BC16" s="71"/>
       <c r="BD16" s="71"/>
       <c r="BE16" s="71"/>
       <c r="BF16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG16" s="71"/>
       <c r="BH16" s="71"/>
       <c r="BI16" s="71"/>
       <c r="BJ16" s="71"/>
       <c r="BK16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL16" s="71"/>
       <c r="BM16" s="71"/>
@@ -21577,7 +21587,7 @@
       <c r="BO16" s="71"/>
       <c r="BP16" s="71"/>
       <c r="BQ16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR16" s="71"/>
       <c r="BS16" s="71"/>
@@ -21594,24 +21604,24 @@
       <c r="CD16" s="71"/>
       <c r="CE16" s="71"/>
       <c r="CF16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG16" s="71"/>
       <c r="CH16" s="71"/>
       <c r="CI16" s="71"/>
       <c r="CJ16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK16" s="71"/>
       <c r="CL16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM16" s="71"/>
       <c r="CN16" s="71"/>
       <c r="CO16" s="71"/>
       <c r="CP16" s="71"/>
       <c r="CQ16" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR16" s="71"/>
       <c r="CS16" s="71"/>
@@ -21845,10 +21855,10 @@
       <c r="G19" s="71"/>
       <c r="H19" s="71"/>
       <c r="I19" s="72" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K19" s="71"/>
       <c r="L19" s="71"/>
@@ -21954,31 +21964,31 @@
       <c r="F20" s="72"/>
       <c r="G20" s="72"/>
       <c r="H20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I20" s="71"/>
       <c r="J20" s="71"/>
       <c r="K20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L20" s="71"/>
       <c r="M20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O20" s="71"/>
       <c r="P20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R20" s="71"/>
       <c r="S20" s="71"/>
       <c r="T20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U20" s="71"/>
       <c r="V20" s="71"/>
@@ -21996,19 +22006,19 @@
       <c r="AH20" s="66"/>
       <c r="AI20" s="72"/>
       <c r="AJ20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM20" s="71"/>
       <c r="AN20" s="71"/>
       <c r="AO20" s="71"/>
       <c r="AP20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ20" s="71"/>
       <c r="AR20" s="71"/>
@@ -22016,30 +22026,30 @@
       <c r="AT20" s="71"/>
       <c r="AU20" s="71"/>
       <c r="AV20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW20" s="71"/>
       <c r="AX20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY20" s="71"/>
       <c r="AZ20" s="71"/>
       <c r="BA20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB20" s="71"/>
       <c r="BC20" s="71"/>
       <c r="BD20" s="71"/>
       <c r="BE20" s="71"/>
       <c r="BF20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG20" s="71"/>
       <c r="BH20" s="71"/>
       <c r="BI20" s="71"/>
       <c r="BJ20" s="71"/>
       <c r="BK20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL20" s="71"/>
       <c r="BM20" s="71"/>
@@ -22047,7 +22057,7 @@
       <c r="BO20" s="71"/>
       <c r="BP20" s="71"/>
       <c r="BQ20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR20" s="71"/>
       <c r="BS20" s="71"/>
@@ -22064,24 +22074,24 @@
       <c r="CD20" s="71"/>
       <c r="CE20" s="71"/>
       <c r="CF20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG20" s="71"/>
       <c r="CH20" s="71"/>
       <c r="CI20" s="71"/>
       <c r="CJ20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK20" s="71"/>
       <c r="CL20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM20" s="71"/>
       <c r="CN20" s="71"/>
       <c r="CO20" s="71"/>
       <c r="CP20" s="71"/>
       <c r="CQ20" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR20" s="71"/>
       <c r="CS20" s="71"/>
@@ -22208,13 +22218,13 @@
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
@@ -22226,7 +22236,7 @@
       <c r="R22" s="71"/>
       <c r="S22" s="71"/>
       <c r="T22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U22" s="71"/>
       <c r="V22" s="71"/>
@@ -22244,19 +22254,19 @@
       <c r="AH22" s="66"/>
       <c r="AI22" s="72"/>
       <c r="AJ22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM22" s="71"/>
       <c r="AN22" s="71"/>
       <c r="AO22" s="71"/>
       <c r="AP22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ22" s="71"/>
       <c r="AR22" s="71"/>
@@ -22264,30 +22274,30 @@
       <c r="AT22" s="71"/>
       <c r="AU22" s="71"/>
       <c r="AV22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW22" s="71"/>
       <c r="AX22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY22" s="71"/>
       <c r="AZ22" s="71"/>
       <c r="BA22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="71"/>
       <c r="BE22" s="71"/>
       <c r="BF22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG22" s="71"/>
       <c r="BH22" s="71"/>
       <c r="BI22" s="71"/>
       <c r="BJ22" s="71"/>
       <c r="BK22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL22" s="71"/>
       <c r="BM22" s="71"/>
@@ -22295,7 +22305,7 @@
       <c r="BO22" s="71"/>
       <c r="BP22" s="71"/>
       <c r="BQ22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR22" s="71"/>
       <c r="BS22" s="71"/>
@@ -22312,24 +22322,24 @@
       <c r="CD22" s="71"/>
       <c r="CE22" s="71"/>
       <c r="CF22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG22" s="71"/>
       <c r="CH22" s="71"/>
       <c r="CI22" s="71"/>
       <c r="CJ22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK22" s="71"/>
       <c r="CL22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM22" s="71"/>
       <c r="CN22" s="71"/>
       <c r="CO22" s="71"/>
       <c r="CP22" s="71"/>
       <c r="CQ22" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR22" s="71"/>
       <c r="CS22" s="71"/>
@@ -22379,14 +22389,14 @@
       <c r="AI23" s="72"/>
       <c r="AJ23" s="72"/>
       <c r="AK23" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL23" s="71"/>
       <c r="AM23" s="71"/>
       <c r="AN23" s="71"/>
       <c r="AO23" s="71"/>
       <c r="AP23" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AQ23" s="71"/>
       <c r="AR23" s="71"/>
@@ -22399,7 +22409,7 @@
       <c r="AY23" s="71"/>
       <c r="AZ23" s="71"/>
       <c r="BA23" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
@@ -22462,13 +22472,13 @@
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
@@ -22480,7 +22490,7 @@
       <c r="R24" s="71"/>
       <c r="S24" s="71"/>
       <c r="T24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U24" s="71"/>
       <c r="V24" s="71"/>
@@ -22498,19 +22508,19 @@
       <c r="AH24" s="66"/>
       <c r="AI24" s="72"/>
       <c r="AJ24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM24" s="71"/>
       <c r="AN24" s="71"/>
       <c r="AO24" s="71"/>
       <c r="AP24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ24" s="71"/>
       <c r="AR24" s="71"/>
@@ -22518,30 +22528,30 @@
       <c r="AT24" s="71"/>
       <c r="AU24" s="71"/>
       <c r="AV24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW24" s="71"/>
       <c r="AX24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY24" s="71"/>
       <c r="AZ24" s="71"/>
       <c r="BA24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB24" s="71"/>
       <c r="BC24" s="71"/>
       <c r="BD24" s="71"/>
       <c r="BE24" s="71"/>
       <c r="BF24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG24" s="71"/>
       <c r="BH24" s="71"/>
       <c r="BI24" s="71"/>
       <c r="BJ24" s="71"/>
       <c r="BK24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL24" s="71"/>
       <c r="BM24" s="71"/>
@@ -22549,7 +22559,7 @@
       <c r="BO24" s="71"/>
       <c r="BP24" s="71"/>
       <c r="BQ24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR24" s="71"/>
       <c r="BS24" s="71"/>
@@ -22566,24 +22576,24 @@
       <c r="CD24" s="71"/>
       <c r="CE24" s="71"/>
       <c r="CF24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG24" s="71"/>
       <c r="CH24" s="71"/>
       <c r="CI24" s="71"/>
       <c r="CJ24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK24" s="71"/>
       <c r="CL24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM24" s="71"/>
       <c r="CN24" s="71"/>
       <c r="CO24" s="71"/>
       <c r="CP24" s="71"/>
       <c r="CQ24" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR24" s="71"/>
       <c r="CS24" s="71"/>
@@ -22604,7 +22614,7 @@
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I25" s="71"/>
       <c r="J25" s="71"/>
@@ -22656,7 +22666,7 @@
       <c r="BD25" s="71"/>
       <c r="BE25" s="71"/>
       <c r="BF25" s="72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BG25" s="71"/>
       <c r="BH25" s="71"/>
@@ -23032,13 +23042,13 @@
       <c r="F29" s="72"/>
       <c r="G29" s="72"/>
       <c r="H29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K29" s="71"/>
       <c r="L29" s="71"/>
@@ -23050,7 +23060,7 @@
       <c r="R29" s="71"/>
       <c r="S29" s="71"/>
       <c r="T29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U29" s="71"/>
       <c r="V29" s="71"/>
@@ -23068,19 +23078,19 @@
       <c r="AH29" s="66"/>
       <c r="AI29" s="72"/>
       <c r="AJ29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM29" s="71"/>
       <c r="AN29" s="71"/>
       <c r="AO29" s="71"/>
       <c r="AP29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ29" s="71"/>
       <c r="AR29" s="71"/>
@@ -23088,30 +23098,30 @@
       <c r="AT29" s="71"/>
       <c r="AU29" s="71"/>
       <c r="AV29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW29" s="71"/>
       <c r="AX29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY29" s="71"/>
       <c r="AZ29" s="71"/>
       <c r="BA29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="71"/>
       <c r="BE29" s="71"/>
       <c r="BF29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG29" s="71"/>
       <c r="BH29" s="71"/>
       <c r="BI29" s="71"/>
       <c r="BJ29" s="71"/>
       <c r="BK29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL29" s="71"/>
       <c r="BM29" s="71"/>
@@ -23119,7 +23129,7 @@
       <c r="BO29" s="71"/>
       <c r="BP29" s="71"/>
       <c r="BQ29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR29" s="71"/>
       <c r="BS29" s="71"/>
@@ -23136,24 +23146,24 @@
       <c r="CD29" s="71"/>
       <c r="CE29" s="71"/>
       <c r="CF29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG29" s="71"/>
       <c r="CH29" s="71"/>
       <c r="CI29" s="71"/>
       <c r="CJ29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK29" s="71"/>
       <c r="CL29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM29" s="71"/>
       <c r="CN29" s="71"/>
       <c r="CO29" s="71"/>
       <c r="CP29" s="71"/>
       <c r="CQ29" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR29" s="71"/>
       <c r="CS29" s="71"/>
@@ -23280,13 +23290,13 @@
       <c r="F31" s="72"/>
       <c r="G31" s="72"/>
       <c r="H31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K31" s="71"/>
       <c r="L31" s="71"/>
@@ -23298,7 +23308,7 @@
       <c r="R31" s="71"/>
       <c r="S31" s="71"/>
       <c r="T31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U31" s="71"/>
       <c r="V31" s="71"/>
@@ -23316,19 +23326,19 @@
       <c r="AH31" s="66"/>
       <c r="AI31" s="72"/>
       <c r="AJ31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM31" s="71"/>
       <c r="AN31" s="71"/>
       <c r="AO31" s="71"/>
       <c r="AP31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ31" s="71"/>
       <c r="AR31" s="71"/>
@@ -23336,30 +23346,30 @@
       <c r="AT31" s="71"/>
       <c r="AU31" s="71"/>
       <c r="AV31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW31" s="71"/>
       <c r="AX31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY31" s="71"/>
       <c r="AZ31" s="71"/>
       <c r="BA31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="71"/>
       <c r="BE31" s="71"/>
       <c r="BF31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG31" s="71"/>
       <c r="BH31" s="71"/>
       <c r="BI31" s="71"/>
       <c r="BJ31" s="71"/>
       <c r="BK31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL31" s="71"/>
       <c r="BM31" s="71"/>
@@ -23367,7 +23377,7 @@
       <c r="BO31" s="71"/>
       <c r="BP31" s="71"/>
       <c r="BQ31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR31" s="71"/>
       <c r="BS31" s="71"/>
@@ -23384,24 +23394,24 @@
       <c r="CD31" s="71"/>
       <c r="CE31" s="71"/>
       <c r="CF31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG31" s="71"/>
       <c r="CH31" s="71"/>
       <c r="CI31" s="71"/>
       <c r="CJ31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK31" s="71"/>
       <c r="CL31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM31" s="71"/>
       <c r="CN31" s="71"/>
       <c r="CO31" s="71"/>
       <c r="CP31" s="71"/>
       <c r="CQ31" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR31" s="71"/>
       <c r="CS31" s="71"/>
@@ -23528,281 +23538,281 @@
       <c r="F33" s="72"/>
       <c r="G33" s="72"/>
       <c r="H33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="T33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="V33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="W33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="X33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Y33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AA33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AB33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AC33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AE33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AH33" s="66"/>
       <c r="AI33" s="72"/>
       <c r="AJ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AN33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AP33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AR33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AS33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AT33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AU33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AV33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AX33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AZ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BA33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BC33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BD33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BE33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BF33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BH33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BI33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BJ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BK33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BM33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BN33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BO33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BP33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BQ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BS33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BT33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BU33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BV33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BW33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BX33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BY33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BZ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CA33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CB33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CC33" s="71"/>
       <c r="CD33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CE33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CF33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CH33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CI33" s="71"/>
       <c r="CJ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CL33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CN33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CO33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CP33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CQ33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CS33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CT33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CU33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CV33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CW33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CX33" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -23922,30 +23932,30 @@
       <c r="F35" s="72"/>
       <c r="G35" s="72"/>
       <c r="H35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" s="71"/>
       <c r="M35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O35" s="71"/>
       <c r="P35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R35" s="71"/>
       <c r="S35" s="71"/>
@@ -23966,19 +23976,19 @@
       <c r="AH35" s="66"/>
       <c r="AI35" s="72"/>
       <c r="AJ35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM35" s="71"/>
       <c r="AN35" s="71"/>
       <c r="AO35" s="71"/>
       <c r="AP35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ35" s="71"/>
       <c r="AR35" s="71"/>
@@ -23986,30 +23996,30 @@
       <c r="AT35" s="71"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW35" s="71"/>
       <c r="AX35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY35" s="71"/>
       <c r="AZ35" s="71"/>
       <c r="BA35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="71"/>
       <c r="BE35" s="71"/>
       <c r="BF35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG35" s="71"/>
       <c r="BH35" s="71"/>
       <c r="BI35" s="71"/>
       <c r="BJ35" s="71"/>
       <c r="BK35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL35" s="71"/>
       <c r="BM35" s="71"/>
@@ -24017,7 +24027,7 @@
       <c r="BO35" s="71"/>
       <c r="BP35" s="71"/>
       <c r="BQ35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR35" s="71"/>
       <c r="BS35" s="71"/>
@@ -24034,24 +24044,24 @@
       <c r="CD35" s="71"/>
       <c r="CE35" s="71"/>
       <c r="CF35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG35" s="71"/>
       <c r="CH35" s="71"/>
       <c r="CI35" s="71"/>
       <c r="CJ35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK35" s="71"/>
       <c r="CL35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM35" s="71"/>
       <c r="CN35" s="71"/>
       <c r="CO35" s="71"/>
       <c r="CP35" s="71"/>
       <c r="CQ35" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR35" s="71"/>
       <c r="CS35" s="71"/>
@@ -25796,7 +25806,7 @@
       <c r="AH52" s="66"/>
       <c r="AI52" s="72"/>
       <c r="AJ52" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK52" s="71"/>
       <c r="AL52" s="71"/>
@@ -27252,35 +27262,35 @@
       <c r="F66" s="72"/>
       <c r="G66" s="72"/>
       <c r="H66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L66" s="71"/>
       <c r="M66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O66" s="71"/>
       <c r="P66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R66" s="71"/>
       <c r="S66" s="71"/>
       <c r="T66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U66" s="71"/>
       <c r="V66" s="71"/>
@@ -27298,7 +27308,7 @@
       <c r="AH66" s="66"/>
       <c r="AI66" s="72"/>
       <c r="AJ66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK66" s="71"/>
       <c r="AL66" s="71"/>
@@ -27312,30 +27322,30 @@
       <c r="AT66" s="71"/>
       <c r="AU66" s="71"/>
       <c r="AV66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW66" s="71"/>
       <c r="AX66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY66" s="71"/>
       <c r="AZ66" s="71"/>
       <c r="BA66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB66" s="71"/>
       <c r="BC66" s="71"/>
       <c r="BD66" s="71"/>
       <c r="BE66" s="71"/>
       <c r="BF66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG66" s="71"/>
       <c r="BH66" s="71"/>
       <c r="BI66" s="71"/>
       <c r="BJ66" s="71"/>
       <c r="BK66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL66" s="71"/>
       <c r="BM66" s="71"/>
@@ -27343,7 +27353,7 @@
       <c r="BO66" s="71"/>
       <c r="BP66" s="71"/>
       <c r="BQ66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR66" s="71"/>
       <c r="BS66" s="71"/>
@@ -27360,24 +27370,24 @@
       <c r="CD66" s="71"/>
       <c r="CE66" s="71"/>
       <c r="CF66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG66" s="71"/>
       <c r="CH66" s="71"/>
       <c r="CI66" s="71"/>
       <c r="CJ66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK66" s="71"/>
       <c r="CL66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM66" s="71"/>
       <c r="CN66" s="71"/>
       <c r="CO66" s="71"/>
       <c r="CP66" s="71"/>
       <c r="CQ66" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR66" s="71"/>
       <c r="CS66" s="71"/>
@@ -27398,13 +27408,13 @@
       <c r="F67" s="72"/>
       <c r="G67" s="72"/>
       <c r="H67" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I67" s="71"/>
       <c r="J67" s="71"/>
       <c r="K67" s="71"/>
       <c r="L67" s="72" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M67" s="71"/>
       <c r="N67" s="71"/>
@@ -27430,7 +27440,7 @@
       <c r="AH67" s="66"/>
       <c r="AI67" s="72"/>
       <c r="AJ67" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK67" s="71"/>
       <c r="AL67" s="71"/>
@@ -27510,7 +27520,7 @@
       <c r="F68" s="72"/>
       <c r="G68" s="72"/>
       <c r="H68" s="72" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I68" s="71"/>
       <c r="J68" s="71"/>
@@ -27540,7 +27550,7 @@
       <c r="AH68" s="66"/>
       <c r="AI68" s="72"/>
       <c r="AJ68" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK68" s="71"/>
       <c r="AL68" s="71"/>
@@ -27622,16 +27632,16 @@
       <c r="H69" s="71"/>
       <c r="I69" s="71"/>
       <c r="J69" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K69" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L69" s="71"/>
       <c r="M69" s="71"/>
       <c r="N69" s="71"/>
       <c r="O69" s="72" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P69" s="71"/>
       <c r="Q69" s="71"/>
@@ -27655,7 +27665,7 @@
       <c r="AI69" s="72"/>
       <c r="AJ69" s="71"/>
       <c r="AK69" s="72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL69" s="71"/>
       <c r="AM69" s="71"/>
@@ -27946,10 +27956,12 @@
       <c r="F72" s="71"/>
       <c r="G72" s="71"/>
       <c r="H72" s="71"/>
-      <c r="I72" s="72"/>
+      <c r="I72" s="72" t="s">
+        <v>279</v>
+      </c>
       <c r="J72" s="71"/>
       <c r="K72" s="72" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L72" s="71"/>
       <c r="M72" s="71"/>
@@ -27992,7 +28004,9 @@
       <c r="AX72" s="71"/>
       <c r="AY72" s="71"/>
       <c r="AZ72" s="71"/>
-      <c r="BA72" s="71"/>
+      <c r="BA72" s="72" t="s">
+        <v>279</v>
+      </c>
       <c r="BB72" s="71"/>
       <c r="BC72" s="71"/>
       <c r="BD72" s="71"/>
@@ -28045,7 +28059,7 @@
     </row>
     <row r="73">
       <c r="A73" s="69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -28151,7 +28165,7 @@
     </row>
     <row r="74">
       <c r="A74" s="69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
@@ -28163,14 +28177,14 @@
       <c r="I74" s="72"/>
       <c r="J74" s="71"/>
       <c r="K74" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L74" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M74" s="71"/>
       <c r="N74" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O74" s="71"/>
       <c r="P74" s="71"/>
@@ -28263,7 +28277,7 @@
     </row>
     <row r="75">
       <c r="A75" s="69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
@@ -28273,17 +28287,17 @@
       <c r="G75" s="71"/>
       <c r="H75" s="71"/>
       <c r="I75" s="72" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J75" s="72" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K75" s="71"/>
       <c r="L75" s="72" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M75" s="72" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N75" s="71"/>
       <c r="O75" s="71"/>
@@ -28377,7 +28391,7 @@
     </row>
     <row r="76">
       <c r="A76" s="69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
@@ -28387,18 +28401,18 @@
       <c r="G76" s="71"/>
       <c r="H76" s="71"/>
       <c r="I76" s="72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J76" s="71"/>
       <c r="K76" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L76" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M76" s="71"/>
       <c r="N76" s="72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O76" s="71"/>
       <c r="P76" s="71"/>
@@ -28491,7 +28505,7 @@
     </row>
     <row r="77">
       <c r="A77" s="69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B77" s="72"/>
       <c r="C77" s="72"/>
@@ -28500,35 +28514,35 @@
       <c r="F77" s="72"/>
       <c r="G77" s="72"/>
       <c r="H77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L77" s="71"/>
       <c r="M77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O77" s="71"/>
       <c r="P77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R77" s="71"/>
       <c r="S77" s="71"/>
       <c r="T77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U77" s="71"/>
       <c r="V77" s="71"/>
@@ -28546,13 +28560,13 @@
       <c r="AH77" s="66"/>
       <c r="AI77" s="72"/>
       <c r="AJ77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM77" s="71"/>
       <c r="AN77" s="71"/>
@@ -28564,30 +28578,30 @@
       <c r="AT77" s="71"/>
       <c r="AU77" s="71"/>
       <c r="AV77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW77" s="71"/>
       <c r="AX77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY77" s="71"/>
       <c r="AZ77" s="71"/>
       <c r="BA77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB77" s="71"/>
       <c r="BC77" s="71"/>
       <c r="BD77" s="71"/>
       <c r="BE77" s="71"/>
       <c r="BF77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG77" s="71"/>
       <c r="BH77" s="71"/>
       <c r="BI77" s="71"/>
       <c r="BJ77" s="71"/>
       <c r="BK77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL77" s="71"/>
       <c r="BM77" s="71"/>
@@ -28595,7 +28609,7 @@
       <c r="BO77" s="71"/>
       <c r="BP77" s="71"/>
       <c r="BQ77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR77" s="71"/>
       <c r="BS77" s="71"/>
@@ -28612,7 +28626,7 @@
       <c r="CD77" s="71"/>
       <c r="CE77" s="71"/>
       <c r="CF77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG77" s="71"/>
       <c r="CH77" s="71"/>
@@ -28620,14 +28634,14 @@
       <c r="CJ77" s="71"/>
       <c r="CK77" s="71"/>
       <c r="CL77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM77" s="71"/>
       <c r="CN77" s="71"/>
       <c r="CO77" s="71"/>
       <c r="CP77" s="71"/>
       <c r="CQ77" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR77" s="71"/>
       <c r="CS77" s="71"/>
@@ -28639,7 +28653,7 @@
     </row>
     <row r="78">
       <c r="A78" s="69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -28745,7 +28759,7 @@
     </row>
     <row r="79">
       <c r="A79" s="69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
@@ -28754,7 +28768,7 @@
       <c r="F79" s="71"/>
       <c r="G79" s="71"/>
       <c r="H79" s="72" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I79" s="71"/>
       <c r="J79" s="71"/>
@@ -28853,7 +28867,7 @@
     </row>
     <row r="80">
       <c r="A80" s="69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
@@ -28959,7 +28973,7 @@
     </row>
     <row r="81">
       <c r="A81" s="69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
@@ -28968,39 +28982,39 @@
       <c r="F81" s="72"/>
       <c r="G81" s="72"/>
       <c r="H81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L81" s="72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O81" s="72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R81" s="71"/>
       <c r="S81" s="71"/>
       <c r="T81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U81" s="71"/>
       <c r="V81" s="71"/>
@@ -29018,13 +29032,13 @@
       <c r="AH81" s="66"/>
       <c r="AI81" s="72"/>
       <c r="AJ81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM81" s="71"/>
       <c r="AN81" s="71"/>
@@ -29036,30 +29050,30 @@
       <c r="AT81" s="71"/>
       <c r="AU81" s="71"/>
       <c r="AV81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW81" s="71"/>
       <c r="AX81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY81" s="71"/>
       <c r="AZ81" s="71"/>
       <c r="BA81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB81" s="71"/>
       <c r="BC81" s="71"/>
       <c r="BD81" s="71"/>
       <c r="BE81" s="71"/>
       <c r="BF81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG81" s="71"/>
       <c r="BH81" s="71"/>
       <c r="BI81" s="71"/>
       <c r="BJ81" s="71"/>
       <c r="BK81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL81" s="71"/>
       <c r="BM81" s="71"/>
@@ -29067,7 +29081,7 @@
       <c r="BO81" s="71"/>
       <c r="BP81" s="71"/>
       <c r="BQ81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR81" s="71"/>
       <c r="BS81" s="71"/>
@@ -29084,7 +29098,7 @@
       <c r="CD81" s="71"/>
       <c r="CE81" s="71"/>
       <c r="CF81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG81" s="71"/>
       <c r="CH81" s="71"/>
@@ -29092,14 +29106,14 @@
       <c r="CJ81" s="71"/>
       <c r="CK81" s="71"/>
       <c r="CL81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM81" s="71"/>
       <c r="CN81" s="71"/>
       <c r="CO81" s="71"/>
       <c r="CP81" s="71"/>
       <c r="CQ81" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR81" s="71"/>
       <c r="CS81" s="71"/>
@@ -29111,7 +29125,7 @@
     </row>
     <row r="82">
       <c r="A82" s="69" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
@@ -29217,7 +29231,7 @@
     </row>
     <row r="83">
       <c r="A83" s="69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
@@ -29226,35 +29240,35 @@
       <c r="F83" s="72"/>
       <c r="G83" s="72"/>
       <c r="H83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L83" s="71"/>
       <c r="M83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O83" s="71"/>
       <c r="P83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R83" s="71"/>
       <c r="S83" s="71"/>
       <c r="T83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U83" s="71"/>
       <c r="V83" s="71"/>
@@ -29272,19 +29286,19 @@
       <c r="AH83" s="66"/>
       <c r="AI83" s="72"/>
       <c r="AJ83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM83" s="71"/>
       <c r="AN83" s="71"/>
       <c r="AO83" s="71"/>
       <c r="AP83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ83" s="71"/>
       <c r="AR83" s="71"/>
@@ -29297,21 +29311,21 @@
       <c r="AY83" s="71"/>
       <c r="AZ83" s="71"/>
       <c r="BA83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB83" s="71"/>
       <c r="BC83" s="71"/>
       <c r="BD83" s="71"/>
       <c r="BE83" s="71"/>
       <c r="BF83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG83" s="71"/>
       <c r="BH83" s="71"/>
       <c r="BI83" s="71"/>
       <c r="BJ83" s="71"/>
       <c r="BK83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL83" s="71"/>
       <c r="BM83" s="71"/>
@@ -29319,7 +29333,7 @@
       <c r="BO83" s="71"/>
       <c r="BP83" s="71"/>
       <c r="BQ83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR83" s="71"/>
       <c r="BS83" s="71"/>
@@ -29336,13 +29350,13 @@
       <c r="CD83" s="71"/>
       <c r="CE83" s="71"/>
       <c r="CF83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG83" s="71"/>
       <c r="CH83" s="71"/>
       <c r="CI83" s="71"/>
       <c r="CJ83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK83" s="71"/>
       <c r="CL83" s="71"/>
@@ -29351,7 +29365,7 @@
       <c r="CO83" s="71"/>
       <c r="CP83" s="71"/>
       <c r="CQ83" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR83" s="71"/>
       <c r="CS83" s="71"/>
@@ -29363,7 +29377,7 @@
     </row>
     <row r="84">
       <c r="A84" s="69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
@@ -29469,7 +29483,7 @@
     </row>
     <row r="85">
       <c r="A85" s="69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -29575,7 +29589,7 @@
     </row>
     <row r="86">
       <c r="A86" s="69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -29681,7 +29695,7 @@
     </row>
     <row r="87">
       <c r="A87" s="69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
@@ -29787,7 +29801,7 @@
     </row>
     <row r="88">
       <c r="A88" s="69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
@@ -29893,7 +29907,7 @@
     </row>
     <row r="89">
       <c r="A89" s="69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B89" s="72"/>
       <c r="C89" s="72"/>
@@ -29902,35 +29916,35 @@
       <c r="F89" s="72"/>
       <c r="G89" s="72"/>
       <c r="H89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L89" s="71"/>
       <c r="M89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O89" s="71"/>
       <c r="P89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R89" s="71"/>
       <c r="S89" s="71"/>
       <c r="T89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U89" s="71"/>
       <c r="V89" s="71"/>
@@ -29948,19 +29962,19 @@
       <c r="AH89" s="66"/>
       <c r="AI89" s="72"/>
       <c r="AJ89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM89" s="71"/>
       <c r="AN89" s="71"/>
       <c r="AO89" s="71"/>
       <c r="AP89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ89" s="71"/>
       <c r="AR89" s="71"/>
@@ -29968,23 +29982,23 @@
       <c r="AT89" s="71"/>
       <c r="AU89" s="71"/>
       <c r="AV89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW89" s="71"/>
       <c r="AX89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY89" s="71"/>
       <c r="AZ89" s="71"/>
       <c r="BA89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="71"/>
       <c r="BE89" s="71"/>
       <c r="BF89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BG89" s="71"/>
       <c r="BH89" s="71"/>
@@ -30012,24 +30026,24 @@
       <c r="CD89" s="71"/>
       <c r="CE89" s="71"/>
       <c r="CF89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG89" s="71"/>
       <c r="CH89" s="71"/>
       <c r="CI89" s="71"/>
       <c r="CJ89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK89" s="71"/>
       <c r="CL89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM89" s="71"/>
       <c r="CN89" s="71"/>
       <c r="CO89" s="71"/>
       <c r="CP89" s="71"/>
       <c r="CQ89" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CR89" s="71"/>
       <c r="CS89" s="71"/>
@@ -30041,7 +30055,7 @@
     </row>
     <row r="90">
       <c r="A90" s="69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
@@ -30078,7 +30092,7 @@
       <c r="AH90" s="66"/>
       <c r="AI90" s="72"/>
       <c r="AJ90" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK90" s="71"/>
       <c r="AL90" s="71"/>
@@ -30149,7 +30163,7 @@
     </row>
     <row r="91">
       <c r="A91" s="69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B91" s="71"/>
       <c r="C91" s="71"/>
@@ -30255,7 +30269,7 @@
     </row>
     <row r="92">
       <c r="A92" s="69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B92" s="71"/>
       <c r="C92" s="71"/>
@@ -30361,7 +30375,7 @@
     </row>
     <row r="93">
       <c r="A93" s="69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -30467,7 +30481,7 @@
     </row>
     <row r="94">
       <c r="A94" s="69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -30573,7 +30587,7 @@
     </row>
     <row r="95">
       <c r="A95" s="69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -30679,7 +30693,7 @@
     </row>
     <row r="96">
       <c r="A96" s="69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -30785,7 +30799,7 @@
     </row>
     <row r="97">
       <c r="A97" s="69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -30891,7 +30905,7 @@
     </row>
     <row r="98">
       <c r="A98" s="69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
@@ -30982,7 +30996,7 @@
       <c r="CJ98" s="71"/>
       <c r="CK98" s="71"/>
       <c r="CL98" s="72" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CM98" s="71"/>
       <c r="CN98" s="71"/>
@@ -30999,7 +31013,7 @@
     </row>
     <row r="99">
       <c r="A99" s="69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
@@ -31105,7 +31119,7 @@
     </row>
     <row r="100">
       <c r="A100" s="69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B100" s="72"/>
       <c r="C100" s="72"/>
@@ -31114,35 +31128,35 @@
       <c r="F100" s="72"/>
       <c r="G100" s="72"/>
       <c r="H100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L100" s="71"/>
       <c r="M100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O100" s="71"/>
       <c r="P100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R100" s="71"/>
       <c r="S100" s="71"/>
       <c r="T100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U100" s="71"/>
       <c r="V100" s="71"/>
@@ -31160,19 +31174,19 @@
       <c r="AH100" s="66"/>
       <c r="AI100" s="72"/>
       <c r="AJ100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM100" s="71"/>
       <c r="AN100" s="71"/>
       <c r="AO100" s="71"/>
       <c r="AP100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AQ100" s="71"/>
       <c r="AR100" s="71"/>
@@ -31180,16 +31194,16 @@
       <c r="AT100" s="71"/>
       <c r="AU100" s="71"/>
       <c r="AV100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AW100" s="71"/>
       <c r="AX100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AY100" s="71"/>
       <c r="AZ100" s="71"/>
       <c r="BA100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BB100" s="71"/>
       <c r="BC100" s="71"/>
@@ -31201,7 +31215,7 @@
       <c r="BI100" s="71"/>
       <c r="BJ100" s="71"/>
       <c r="BK100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BL100" s="71"/>
       <c r="BM100" s="71"/>
@@ -31209,7 +31223,7 @@
       <c r="BO100" s="71"/>
       <c r="BP100" s="71"/>
       <c r="BQ100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BR100" s="71"/>
       <c r="BS100" s="71"/>
@@ -31226,17 +31240,17 @@
       <c r="CD100" s="71"/>
       <c r="CE100" s="71"/>
       <c r="CF100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CG100" s="71"/>
       <c r="CH100" s="71"/>
       <c r="CI100" s="71"/>
       <c r="CJ100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CK100" s="71"/>
       <c r="CL100" s="72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM100" s="71"/>
       <c r="CN100" s="71"/>
@@ -31253,7 +31267,7 @@
     </row>
     <row r="101">
       <c r="A101" s="69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="71"/>
@@ -31359,7 +31373,7 @@
     </row>
     <row r="102">
       <c r="A102" s="69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="71"/>
@@ -31465,7 +31479,7 @@
     </row>
     <row r="103">
       <c r="A103" s="69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="71"/>
@@ -31571,7 +31585,7 @@
     </row>
     <row r="104">
       <c r="A104" s="69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B104" s="71"/>
       <c r="C104" s="71"/>
@@ -31677,7 +31691,7 @@
     </row>
     <row r="105">
       <c r="A105" s="69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
@@ -31783,7 +31797,7 @@
     </row>
     <row r="106">
       <c r="A106" s="69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B106" s="72"/>
       <c r="C106" s="72"/>
@@ -31792,7 +31806,7 @@
       <c r="F106" s="72"/>
       <c r="G106" s="72"/>
       <c r="H106" s="72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I106" s="71"/>
       <c r="J106" s="71"/>
@@ -31800,7 +31814,7 @@
       <c r="L106" s="71"/>
       <c r="M106" s="71"/>
       <c r="N106" s="72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O106" s="71"/>
       <c r="P106" s="71"/>
@@ -31893,7 +31907,7 @@
     </row>
     <row r="107">
       <c r="A107" s="69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B107" s="71"/>
       <c r="C107" s="71"/>
@@ -31999,7 +32013,7 @@
     </row>
     <row r="108">
       <c r="A108" s="69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B108" s="71"/>
       <c r="C108" s="71"/>
@@ -32105,7 +32119,7 @@
     </row>
     <row r="109">
       <c r="A109" s="69" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B109" s="71"/>
       <c r="C109" s="71"/>
@@ -32211,7 +32225,7 @@
     </row>
     <row r="110">
       <c r="A110" s="69" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B110" s="71"/>
       <c r="C110" s="71"/>
@@ -32317,7 +32331,7 @@
     </row>
     <row r="111">
       <c r="A111" s="69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B111" s="71"/>
       <c r="C111" s="71"/>
@@ -32423,7 +32437,7 @@
     </row>
     <row r="112">
       <c r="A112" s="69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B112" s="71"/>
       <c r="C112" s="71"/>
@@ -32529,7 +32543,7 @@
     </row>
     <row r="113">
       <c r="A113" s="69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B113" s="71"/>
       <c r="C113" s="71"/>
@@ -32635,7 +32649,7 @@
     </row>
     <row r="114">
       <c r="A114" s="69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B114" s="71"/>
       <c r="C114" s="71"/>
@@ -32741,7 +32755,7 @@
     </row>
     <row r="115">
       <c r="A115" s="69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B115" s="71"/>
       <c r="C115" s="71"/>
@@ -32847,7 +32861,7 @@
     </row>
     <row r="116">
       <c r="A116" s="69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B116" s="71"/>
       <c r="C116" s="71"/>
@@ -32953,7 +32967,7 @@
     </row>
     <row r="117">
       <c r="A117" s="69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B117" s="71"/>
       <c r="C117" s="71"/>
@@ -33059,7 +33073,7 @@
     </row>
     <row r="118">
       <c r="A118" s="69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B118" s="71"/>
       <c r="C118" s="71"/>
@@ -33165,7 +33179,7 @@
     </row>
     <row r="119">
       <c r="A119" s="69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B119" s="71"/>
       <c r="C119" s="71"/>
@@ -33271,7 +33285,7 @@
     </row>
     <row r="120">
       <c r="A120" s="69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B120" s="71"/>
       <c r="C120" s="71"/>
@@ -33377,7 +33391,7 @@
     </row>
     <row r="121">
       <c r="A121" s="69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B121" s="71"/>
       <c r="C121" s="71"/>
@@ -33483,7 +33497,7 @@
     </row>
     <row r="122">
       <c r="A122" s="69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B122" s="71"/>
       <c r="C122" s="71"/>
@@ -33589,7 +33603,7 @@
     </row>
     <row r="123">
       <c r="A123" s="69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B123" s="71"/>
       <c r="C123" s="71"/>
@@ -33695,7 +33709,7 @@
     </row>
     <row r="124">
       <c r="A124" s="69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B124" s="71"/>
       <c r="C124" s="71"/>
@@ -33801,7 +33815,7 @@
     </row>
     <row r="125">
       <c r="A125" s="69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
@@ -33907,7 +33921,7 @@
     </row>
     <row r="126">
       <c r="A126" s="69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B126" s="71"/>
       <c r="C126" s="71"/>
@@ -34013,7 +34027,7 @@
     </row>
     <row r="127">
       <c r="A127" s="69" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B127" s="71"/>
       <c r="C127" s="71"/>
@@ -34119,7 +34133,7 @@
     </row>
     <row r="128">
       <c r="A128" s="69" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B128" s="71"/>
       <c r="C128" s="71"/>
@@ -34225,7 +34239,7 @@
     </row>
     <row r="129">
       <c r="A129" s="69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B129" s="71"/>
       <c r="C129" s="71"/>
@@ -34331,7 +34345,7 @@
     </row>
     <row r="130">
       <c r="A130" s="69" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="71"/>
@@ -34437,7 +34451,7 @@
     </row>
     <row r="131">
       <c r="A131" s="69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="71"/>
@@ -34543,7 +34557,7 @@
     </row>
     <row r="132">
       <c r="A132" s="69" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B132" s="71"/>
       <c r="C132" s="71"/>
@@ -34649,7 +34663,7 @@
     </row>
     <row r="133">
       <c r="A133" s="69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="71"/>
@@ -34755,7 +34769,7 @@
     </row>
     <row r="134">
       <c r="A134" s="69" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="71"/>
@@ -34861,7 +34875,7 @@
     </row>
     <row r="135">
       <c r="A135" s="69" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B135" s="71"/>
       <c r="C135" s="71"/>
@@ -34967,7 +34981,7 @@
     </row>
     <row r="136">
       <c r="A136" s="69" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B136" s="71"/>
       <c r="C136" s="71"/>
@@ -35869,17 +35883,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="74" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="75" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -35895,42 +35909,42 @@
     </row>
     <row r="6">
       <c r="A6" s="77" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="296">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -912,7 +912,7 @@
     <t>Info</t>
   </si>
   <si>
-    <t>If you need to contact me personally, join my discord. I may not reply elsewhere.</t>
+    <t>The quickest way to contact me is to join my discord. I may take awhile to reply elsewhere.</t>
   </si>
   <si>
     <t>osu! Profile</t>
@@ -926,12 +926,45 @@
   <si>
     <t>Youtube</t>
   </si>
+  <si>
+    <t>Ko-fi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Business Inquiries Email (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>DO NOT send me tablet sponsorship offers</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1059,6 +1092,12 @@
       <b/>
       <sz val="15.0"/>
       <color rgb="FFFF1600"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1317,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1463,6 +1502,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35947,14 +35992,27 @@
         <v>293</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="80" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" s="81"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -35972,7 +36030,9 @@
     <hyperlink r:id="rId6" ref="A11"/>
     <hyperlink r:id="rId7" ref="A12"/>
     <hyperlink r:id="rId8" ref="A13"/>
+    <hyperlink r:id="rId9" ref="A14"/>
+    <hyperlink r:id="rId10" ref="A15"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_tablet_pen_compatibility_mastersheet.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="297">
   <si>
     <t>Kuuube's Wacom Tablet Pen Compatibility Mastersheet</t>
   </si>
@@ -849,7 +849,7 @@
     <t>List of everyone who has helped with this sheet:</t>
   </si>
   <si>
-    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, June, limefps, mistralwz, rubik, avt613, Hisami</t>
+    <t>Kuuube, Eri (EriDere), Saya, Matina, OniCado, lerh050, June, limefps, mistralwz, rubik, avt613, Hisami, gonX</t>
   </si>
   <si>
     <t>Blamelog:</t>
@@ -880,6 +880,9 @@
   </si>
   <si>
     <t>Hisami</t>
+  </si>
+  <si>
+    <t>gonX</t>
   </si>
   <si>
     <t>June</t>
@@ -9166,7 +9169,7 @@
       <c r="BC74" s="20"/>
       <c r="BD74" s="20"/>
       <c r="BE74" s="20"/>
-      <c r="BF74" s="20"/>
+      <c r="BF74" s="18"/>
       <c r="BG74" s="20"/>
       <c r="BH74" s="20"/>
       <c r="BI74" s="20"/>
@@ -9272,7 +9275,7 @@
       <c r="BC75" s="20"/>
       <c r="BD75" s="20"/>
       <c r="BE75" s="20"/>
-      <c r="BF75" s="20"/>
+      <c r="BF75" s="18"/>
       <c r="BG75" s="20"/>
       <c r="BH75" s="20"/>
       <c r="BI75" s="20"/>
@@ -9378,7 +9381,7 @@
       <c r="BC76" s="20"/>
       <c r="BD76" s="20"/>
       <c r="BE76" s="20"/>
-      <c r="BF76" s="20"/>
+      <c r="BF76" s="34"/>
       <c r="BG76" s="20"/>
       <c r="BH76" s="20"/>
       <c r="BI76" s="20"/>
@@ -27944,7 +27947,9 @@
       <c r="BC71" s="71"/>
       <c r="BD71" s="71"/>
       <c r="BE71" s="71"/>
-      <c r="BF71" s="71"/>
+      <c r="BF71" s="72" t="s">
+        <v>279</v>
+      </c>
       <c r="BG71" s="71"/>
       <c r="BH71" s="71"/>
       <c r="BI71" s="71"/>
@@ -28002,11 +28007,11 @@
       <c r="G72" s="71"/>
       <c r="H72" s="71"/>
       <c r="I72" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J72" s="71"/>
       <c r="K72" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L72" s="71"/>
       <c r="M72" s="71"/>
@@ -28050,7 +28055,7 @@
       <c r="AY72" s="71"/>
       <c r="AZ72" s="71"/>
       <c r="BA72" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BB72" s="71"/>
       <c r="BC72" s="71"/>
@@ -28446,7 +28451,7 @@
       <c r="G76" s="71"/>
       <c r="H76" s="71"/>
       <c r="I76" s="72" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J76" s="71"/>
       <c r="K76" s="72" t="s">
@@ -28813,7 +28818,7 @@
       <c r="F79" s="71"/>
       <c r="G79" s="71"/>
       <c r="H79" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I79" s="71"/>
       <c r="J79" s="71"/>
@@ -29039,7 +29044,7 @@
         <v>270</v>
       </c>
       <c r="L81" s="72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M81" s="72" t="s">
         <v>270</v>
@@ -29048,7 +29053,7 @@
         <v>270</v>
       </c>
       <c r="O81" s="72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P81" s="72" t="s">
         <v>270</v>
@@ -31041,7 +31046,7 @@
       <c r="CJ98" s="71"/>
       <c r="CK98" s="71"/>
       <c r="CL98" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="CM98" s="71"/>
       <c r="CN98" s="71"/>
@@ -35928,17 +35933,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -35954,65 +35959,65 @@
     </row>
     <row r="6">
       <c r="A6" s="77" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
